--- a/others/Доработки_исправления.xlsx
+++ b/others/Доработки_исправления.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\BAXI_JB\Projects\Разработка_ГПХ\ТЗ\ТЗ_10_Новый релиз модуля\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F26299C9-203C-491E-A090-BD4F088692FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{638951B7-49C0-4061-A773-F5E70EB9BF9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{204294F0-2236-4BCB-9743-7425936B9BFF}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
   <si>
     <t>Место</t>
   </si>
@@ -71,6 +71,182 @@
   <si>
     <t>№ ПП</t>
   </si>
+  <si>
+    <t>Форма создания отгрузки - таймслот</t>
+  </si>
+  <si>
+    <t>Указан путь до объекта, вместо списка таймслотов</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Главная форма </t>
+  </si>
+  <si>
+    <t>После создания отгрузки остаются пустыми столбцы:
+код заказа, тип заказа, клиент, статус</t>
+  </si>
+  <si>
+    <t>Не работает поиск</t>
+  </si>
+  <si>
+    <t>Форма редактирования заказа</t>
+  </si>
+  <si>
+    <t>Ошибка при добавлении доп расходной партии в отгрузку</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Подробная информация об использовании оперативной 
+(JIT) отладки вместо данного диалогового 
+окна содержится в конце этого сообщения.
+************** Текст исключения **************
+System.ArgumentNullException: Значение не может быть неопределенным.
+Имя параметра: source
+   в System.Linq.Enumerable.Where[TSource](IEnumerable`1 source, Func`2 predicate)
+   в Planning.ChooseOrder.GetOrderList()
+   в Planning.ChooseOrder.PopulateOrders()
+   в Planning.ChooseOrder..ctor(ShipmentAddResult selectedResult, Nullable`1 ShipmentId, Nullable`1 DepositorId, Nullable`1 IsShIn, ShipmentOrder shipmentOrder, Boolean isOrderParts, Nullable`1 LVOrderId)
+   в Planning.ShipmentOrderPartEdit.btnGetOrderParts_Click(Object sender, EventArgs e)
+   в System.Windows.Forms.Control.OnClick(EventArgs e)
+   в System.Windows.Forms.Button.OnClick(EventArgs e)
+   в System.Windows.Forms.Button.OnMouseUp(MouseEventArgs mevent)
+   в System.Windows.Forms.Control.WmMouseUp(Message&amp; m, MouseButtons button, Int32 clicks)
+   в System.Windows.Forms.Control.WndProc(Message&amp; m)
+   в System.Windows.Forms.ButtonBase.WndProc(Message&amp; m)
+   в System.Windows.Forms.Button.WndProc(Message&amp; m)
+   в System.Windows.Forms.Control.ControlNativeWindow.OnMessage(Message&amp; m)
+   в System.Windows.Forms.Control.ControlNativeWindow.WndProc(Message&amp; m)
+   в System.Windows.Forms.NativeWindow.Callback(IntPtr hWnd, Int32 msg, IntPtr wparam, IntPtr lparam)
+************** Загруженные сборки **************
+mscorlib
+    Версия сборки: 4.0.0.0
+    Версия Win32: 4.8.9310.0 built by: NET481REL1LAST_C
+    CodeBase: file:///C:/Windows/Microsoft.NET/Framework/v4.0.30319/mscorlib.dll
+----------------------------------------
+Planning
+    Версия сборки: 2.0.0.2
+    Версия Win32: 2.0.0.2
+    CodeBase: file:///C:/Planning_NRelease/Planning.exe
+----------------------------------------
+System.Windows.Forms
+    Версия сборки: 4.0.0.0
+    Версия Win32: 4.8.9251.0 built by: NET481REL1LAST_C
+    CodeBase: file:///C:/WINDOWS/Microsoft.Net/assembly/GAC_MSIL/System.Windows.Forms/v4.0_4.0.0.0__b77a5c561934e089/System.Windows.Forms.dll
+----------------------------------------
+System
+    Версия сборки: 4.0.0.0
+    Версия Win32: 4.8.9310.0 built by: NET481REL1LAST_C
+    CodeBase: file:///C:/WINDOWS/Microsoft.Net/assembly/GAC_MSIL/System/v4.0_4.0.0.0__b77a5c561934e089/System.dll
+----------------------------------------
+System.Drawing
+    Версия сборки: 4.0.0.0
+    Версия Win32: 4.8.9037.0 built by: NET481REL1
+    CodeBase: file:///C:/WINDOWS/Microsoft.Net/assembly/GAC_MSIL/System.Drawing/v4.0_4.0.0.0__b03f5f7f11d50a3a/System.Drawing.dll
+----------------------------------------
+ObjectListView
+    Версия сборки: 2.9.3.0
+    Версия Win32: 2.9.3
+    CodeBase: file:///C:/Planning_NRelease/ObjectListView.DLL
+----------------------------------------
+System.Configuration
+    Версия сборки: 4.0.0.0
+    Версия Win32: 4.8.9037.0 built by: NET481REL1
+    CodeBase: file:///C:/WINDOWS/Microsoft.Net/assembly/GAC_MSIL/System.Configuration/v4.0_4.0.0.0__b03f5f7f11d50a3a/System.Configuration.dll
+----------------------------------------
+System.Core
+    Версия сборки: 4.0.0.0
+    Версия Win32: 4.8.9297.0 built by: NET481REL1LAST_C
+    CodeBase: file:///C:/WINDOWS/Microsoft.Net/assembly/GAC_MSIL/System.Core/v4.0_4.0.0.0__b77a5c561934e089/System.Core.dll
+----------------------------------------
+System.Xml
+    Версия сборки: 4.0.0.0
+    Версия Win32: 4.8.9037.0 built by: NET481REL1
+    CodeBase: file:///C:/WINDOWS/Microsoft.Net/assembly/GAC_MSIL/System.Xml/v4.0_4.0.0.0__b77a5c561934e089/System.Xml.dll
+----------------------------------------
+System.Windows.Forms.resources
+    Версия сборки: 4.0.0.0
+    Версия Win32: 4.8.9037.0 built by: NET481REL1
+    CodeBase: file:///C:/WINDOWS/Microsoft.Net/assembly/GAC_MSIL/System.Windows.Forms.resources/v4.0_4.0.0.0_ru_b77a5c561934e089/System.Windows.Forms.resources.dll
+----------------------------------------
+Planning.Kernel
+    Версия сборки: 1.0.0.2
+    Версия Win32: 1.0.0.2
+    CodeBase: file:///C:/Planning_NRelease/Planning.Kernel.DLL
+----------------------------------------
+Planning.DataLayer
+    Версия сборки: 1.0.0.3
+    Версия Win32: 1.0.0.3
+    CodeBase: file:///C:/Planning_NRelease/Planning.DataLayer.DLL
+----------------------------------------
+System.Data
+    Версия сборки: 4.0.0.0
+    Версия Win32: 4.8.9214.0 built by: NET481REL1LAST_B
+    CodeBase: file:///C:/WINDOWS/Microsoft.Net/assembly/GAC_32/System.Data/v4.0_4.0.0.0__b77a5c561934e089/System.Data.dll
+----------------------------------------
+System.Data.resources
+    Версия сборки: 4.0.0.0
+    Версия Win32: 4.8.9037.0 built by: NET481REL1
+    CodeBase: file:///C:/WINDOWS/Microsoft.Net/assembly/GAC_MSIL/System.Data.resources/v4.0_4.0.0.0_ru_b77a5c561934e089/System.Data.resources.dll
+----------------------------------------
+Dapper
+    Версия сборки: 2.0.0.0
+    Версия Win32: 2.0.123.33578
+    CodeBase: file:///C:/Planning_NRelease/Dapper.DLL
+----------------------------------------
+System.Xml.Linq
+    Версия сборки: 4.0.0.0
+    Версия Win32: 4.8.9037.0 built by: NET481REL1
+    CodeBase: file:///C:/WINDOWS/Microsoft.Net/assembly/GAC_MSIL/System.Xml.Linq/v4.0_4.0.0.0__b77a5c561934e089/System.Xml.Linq.dll
+----------------------------------------
+System.Transactions
+    Версия сборки: 4.0.0.0
+    Версия Win32: 4.8.9037.0 built by: NET481REL1
+    CodeBase: file:///C:/WINDOWS/Microsoft.Net/assembly/GAC_32/System.Transactions/v4.0_4.0.0.0__b77a5c561934e089/System.Transactions.dll
+----------------------------------------
+System.EnterpriseServices
+    Версия сборки: 4.0.0.0
+    Версия Win32: 4.8.9037.0 built by: NET481REL1
+    CodeBase: file:///C:/WINDOWS/Microsoft.Net/assembly/GAC_32/System.EnterpriseServices/v4.0_4.0.0.0__b03f5f7f11d50a3a/System.EnterpriseServices.dll
+----------------------------------------
+System.Runtime.Caching
+    Версия сборки: 4.0.0.0
+    Версия Win32: 4.8.9277.0
+    CodeBase: file:///C:/WINDOWS/Microsoft.Net/assembly/GAC_MSIL/System.Runtime.Caching/v4.0_4.0.0.0__b03f5f7f11d50a3a/System.Runtime.Caching.dll
+----------------------------------------
+mscorlib.resources
+    Версия сборки: 4.0.0.0
+    Версия Win32: 4.8.9037.0 built by: NET481REL1
+    CodeBase: file:///C:/WINDOWS/Microsoft.Net/assembly/GAC_MSIL/mscorlib.resources/v4.0_4.0.0.0_ru_b77a5c561934e089/mscorlib.resources.dll
+----------------------------------------
+Accessibility
+    Версия сборки: 4.0.0.0
+    Версия Win32: 4.8.9037.0 built by: NET481REL1
+    CodeBase: file:///C:/WINDOWS/Microsoft.Net/assembly/GAC_MSIL/Accessibility/v4.0_4.0.0.0__b03f5f7f11d50a3a/Accessibility.dll
+----------------------------------------
+System.ComponentModel.DataAnnotations
+    Версия сборки: 4.0.0.0
+    Версия Win32: 4.8.9037.0
+    CodeBase: file:///C:/WINDOWS/Microsoft.Net/assembly/GAC_MSIL/System.ComponentModel.DataAnnotations/v4.0_4.0.0.0__31bf3856ad364e35/System.ComponentModel.DataAnnotations.dll
+----------------------------------------
+************** Оперативная отладка (JIT) **************
+Для подключения оперативной (JIT) отладки файл .config данного
+приложения или компьютера (machine.config) должен иметь
+значение jitDebugging, установленное в секции system.windows.forms.
+Приложение также должно быть скомпилировано с включенной
+отладкой.
+Например:
+&lt;configuration&gt;
+    &lt;system.windows.forms jitDebugging="true" /&gt;
+&lt;/configuration&gt;
+При включенной отладке JIT любое необрабатываемое исключение
+пересылается отладчику JIT, зарегистрированному на данном компьютере,
+вместо того чтобы обрабатываться данным диалоговым окном.
+</t>
+  </si>
+  <si>
+    <t>Спарвочники - Ворота</t>
+  </si>
+  <si>
+    <t>При добавлении новый вопрос, в поле вопрос курсор необходимо ставить слева, вбольшинстве случаев куами попадаю в право и нет возможность набрать номер ворот</t>
+  </si>
 </sst>
 </file>
 
@@ -101,12 +277,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="7">
@@ -199,21 +381,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -234,6 +413,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -345,13 +533,13 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>66675</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>4771429</xdr:colOff>
+      <xdr:colOff>4838104</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>1228571</xdr:rowOff>
     </xdr:to>
@@ -376,8 +564,96 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6315075" y="3524250"/>
+          <a:off x="6991350" y="3514725"/>
           <a:ext cx="4771429" cy="1228571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>3276199</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>2085719</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Рисунок 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DE66805B-8A81-C70C-A297-E5C057558625}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6991350" y="4810125"/>
+          <a:ext cx="3209524" cy="2047619"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>1049612</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Рисунок 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C1DBAAA6-ADF6-0616-88E7-80BCB3AC3EEA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6924675" y="7038975"/>
+          <a:ext cx="5153025" cy="916262"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -757,14 +1033,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E90604C0-4137-4005-8055-460C411A8BE2}">
   <dimension ref="A1:D704"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B8:D9"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="32.140625" customWidth="1"/>
-    <col min="3" max="3" width="62.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="32.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="62.5703125" style="2" customWidth="1"/>
     <col min="4" max="4" width="76.42578125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -772,2903 +1048,3465 @@
       <c r="A1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="6" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="8">
+      <c r="A2" s="7">
         <v>1</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="9"/>
+      <c r="D2" s="8"/>
     </row>
     <row r="3" spans="1:4" ht="150.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="8">
+      <c r="A3" s="7">
         <v>2</v>
       </c>
       <c r="B3" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="9"/>
+      <c r="D3" s="8"/>
     </row>
     <row r="4" spans="1:4" ht="66" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="8">
+      <c r="A4" s="7">
         <v>3</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="9"/>
+      <c r="D4" s="8"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="8">
+      <c r="A5" s="7">
         <v>4</v>
       </c>
       <c r="B5" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="9"/>
+      <c r="D5" s="8"/>
     </row>
     <row r="6" spans="1:4" ht="99" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="8">
+      <c r="A6" s="12">
         <v>5</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="9"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="8">
+      <c r="D6" s="8"/>
+    </row>
+    <row r="7" spans="1:4" ht="168" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="7">
         <v>6</v>
       </c>
-      <c r="B7" s="9"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="9"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="12">
+      <c r="B7" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="8"/>
+    </row>
+    <row r="8" spans="1:4" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="11">
         <v>7</v>
       </c>
-      <c r="B8" s="9"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="9"/>
+      <c r="B8" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="8"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
+      <c r="A9" s="7">
         <v>8</v>
       </c>
-      <c r="B9" s="9"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="9"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
+      <c r="B9" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="8"/>
+    </row>
+    <row r="10" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="7">
         <v>9</v>
       </c>
-      <c r="B10" s="2"/>
-      <c r="D10" s="2"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
+      <c r="B10" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A11" s="7">
         <v>10</v>
       </c>
-      <c r="B11" s="2"/>
-      <c r="D11" s="2"/>
+      <c r="B11" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="8"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
+      <c r="A12" s="7">
         <v>11</v>
       </c>
-      <c r="B12" s="2"/>
-      <c r="D12" s="2"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="8"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="3">
+      <c r="A13" s="7">
         <v>12</v>
       </c>
-      <c r="B13" s="2"/>
-      <c r="D13" s="2"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="8"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="3">
+      <c r="A14" s="7">
         <v>13</v>
       </c>
-      <c r="B14" s="2"/>
-      <c r="D14" s="2"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="8"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="3">
+      <c r="A15" s="7">
         <v>14</v>
       </c>
-      <c r="B15" s="2"/>
-      <c r="D15" s="2"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="8"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="3">
+      <c r="A16" s="7">
         <v>15</v>
       </c>
-      <c r="B16" s="2"/>
-      <c r="D16" s="2"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="8"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="3">
+      <c r="A17" s="7">
         <v>16</v>
       </c>
-      <c r="B17" s="2"/>
-      <c r="D17" s="2"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="8"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B18" s="2"/>
-      <c r="D18" s="2"/>
+      <c r="A18" s="7">
+        <v>17</v>
+      </c>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="8"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="7">
+        <v>18</v>
+      </c>
       <c r="B19" s="2"/>
-      <c r="D19" s="2"/>
+      <c r="D19" s="3"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="7">
+        <v>19</v>
+      </c>
       <c r="B20" s="2"/>
-      <c r="D20" s="2"/>
+      <c r="D20" s="3"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="7">
+        <v>20</v>
+      </c>
       <c r="B21" s="2"/>
-      <c r="D21" s="2"/>
+      <c r="D21" s="3"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="7">
+        <v>21</v>
+      </c>
       <c r="B22" s="2"/>
-      <c r="D22" s="2"/>
+      <c r="D22" s="3"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="7">
+        <v>22</v>
+      </c>
       <c r="B23" s="2"/>
-      <c r="D23" s="2"/>
+      <c r="D23" s="3"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="7">
+        <v>23</v>
+      </c>
       <c r="B24" s="2"/>
-      <c r="D24" s="2"/>
+      <c r="D24" s="3"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="7">
+        <v>24</v>
+      </c>
       <c r="B25" s="2"/>
-      <c r="D25" s="2"/>
+      <c r="D25" s="3"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="7">
+        <v>25</v>
+      </c>
       <c r="B26" s="2"/>
-      <c r="D26" s="2"/>
+      <c r="D26" s="3"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="7">
+        <v>26</v>
+      </c>
       <c r="B27" s="2"/>
-      <c r="D27" s="2"/>
+      <c r="D27" s="3"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="7">
+        <v>27</v>
+      </c>
       <c r="B28" s="2"/>
-      <c r="D28" s="2"/>
+      <c r="D28" s="3"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="7">
+        <v>28</v>
+      </c>
       <c r="B29" s="2"/>
-      <c r="D29" s="2"/>
+      <c r="D29" s="3"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="7">
+        <v>29</v>
+      </c>
       <c r="B30" s="2"/>
-      <c r="D30" s="2"/>
+      <c r="D30" s="3"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="7">
+        <v>30</v>
+      </c>
       <c r="B31" s="2"/>
-      <c r="D31" s="2"/>
+      <c r="D31" s="3"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="7">
+        <v>31</v>
+      </c>
       <c r="B32" s="2"/>
-      <c r="D32" s="2"/>
-    </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D32" s="3"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="7">
+        <v>32</v>
+      </c>
       <c r="B33" s="2"/>
-      <c r="D33" s="2"/>
-    </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D33" s="3"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="7">
+        <v>33</v>
+      </c>
       <c r="B34" s="2"/>
-      <c r="D34" s="2"/>
-    </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D34" s="3"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="7">
+        <v>34</v>
+      </c>
       <c r="B35" s="2"/>
-      <c r="D35" s="2"/>
-    </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D35" s="3"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="7">
+        <v>35</v>
+      </c>
       <c r="B36" s="2"/>
-      <c r="D36" s="2"/>
-    </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D36" s="3"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="7">
+        <v>36</v>
+      </c>
       <c r="B37" s="2"/>
-      <c r="D37" s="2"/>
-    </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D37" s="3"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="7">
+        <v>37</v>
+      </c>
       <c r="B38" s="2"/>
-      <c r="D38" s="2"/>
-    </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D38" s="3"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="7">
+        <v>38</v>
+      </c>
       <c r="B39" s="2"/>
-      <c r="D39" s="2"/>
-    </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D39" s="3"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="7">
+        <v>39</v>
+      </c>
       <c r="B40" s="2"/>
-      <c r="D40" s="2"/>
-    </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D40" s="3"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="7">
+        <v>40</v>
+      </c>
       <c r="B41" s="2"/>
-      <c r="D41" s="2"/>
-    </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D41" s="3"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="7">
+        <v>41</v>
+      </c>
       <c r="B42" s="2"/>
-      <c r="D42" s="2"/>
-    </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D42" s="3"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="7">
+        <v>42</v>
+      </c>
       <c r="B43" s="2"/>
-      <c r="D43" s="2"/>
-    </row>
-    <row r="44" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D43" s="3"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="7">
+        <v>43</v>
+      </c>
       <c r="B44" s="2"/>
-      <c r="D44" s="2"/>
-    </row>
-    <row r="45" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D44" s="3"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="7">
+        <v>44</v>
+      </c>
       <c r="B45" s="2"/>
-      <c r="D45" s="2"/>
-    </row>
-    <row r="46" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D45" s="3"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="7">
+        <v>45</v>
+      </c>
       <c r="B46" s="2"/>
-      <c r="D46" s="2"/>
-    </row>
-    <row r="47" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D46" s="3"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="7">
+        <v>46</v>
+      </c>
       <c r="B47" s="2"/>
-      <c r="D47" s="2"/>
-    </row>
-    <row r="48" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D47" s="3"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="7">
+        <v>47</v>
+      </c>
       <c r="B48" s="2"/>
-      <c r="D48" s="2"/>
-    </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D48" s="3"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="7">
+        <v>48</v>
+      </c>
       <c r="B49" s="2"/>
-      <c r="D49" s="2"/>
-    </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D49" s="3"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="7">
+        <v>49</v>
+      </c>
       <c r="B50" s="2"/>
-      <c r="D50" s="2"/>
-    </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D50" s="3"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="7">
+        <v>50</v>
+      </c>
       <c r="B51" s="2"/>
-      <c r="D51" s="2"/>
-    </row>
-    <row r="52" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D51" s="3"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="7">
+        <v>51</v>
+      </c>
       <c r="B52" s="2"/>
-      <c r="D52" s="2"/>
-    </row>
-    <row r="53" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D52" s="3"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="7">
+        <v>52</v>
+      </c>
       <c r="B53" s="2"/>
-      <c r="D53" s="2"/>
-    </row>
-    <row r="54" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D53" s="3"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="7">
+        <v>53</v>
+      </c>
       <c r="B54" s="2"/>
-      <c r="D54" s="2"/>
-    </row>
-    <row r="55" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D54" s="3"/>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="7">
+        <v>54</v>
+      </c>
       <c r="B55" s="2"/>
-      <c r="D55" s="2"/>
-    </row>
-    <row r="56" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D55" s="3"/>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="7">
+        <v>55</v>
+      </c>
       <c r="B56" s="2"/>
-      <c r="D56" s="2"/>
-    </row>
-    <row r="57" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D56" s="3"/>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="7">
+        <v>56</v>
+      </c>
       <c r="B57" s="2"/>
-      <c r="D57" s="2"/>
-    </row>
-    <row r="58" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D57" s="3"/>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="7">
+        <v>57</v>
+      </c>
       <c r="B58" s="2"/>
-      <c r="D58" s="2"/>
-    </row>
-    <row r="59" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D58" s="3"/>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="7">
+        <v>58</v>
+      </c>
       <c r="B59" s="2"/>
-      <c r="D59" s="2"/>
-    </row>
-    <row r="60" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D59" s="3"/>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="7">
+        <v>59</v>
+      </c>
       <c r="B60" s="2"/>
-      <c r="D60" s="2"/>
-    </row>
-    <row r="61" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D60" s="3"/>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="7">
+        <v>60</v>
+      </c>
       <c r="B61" s="2"/>
-      <c r="D61" s="2"/>
-    </row>
-    <row r="62" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D61" s="3"/>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="7">
+        <v>61</v>
+      </c>
       <c r="B62" s="2"/>
-      <c r="D62" s="2"/>
-    </row>
-    <row r="63" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D62" s="3"/>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="7">
+        <v>62</v>
+      </c>
       <c r="B63" s="2"/>
-      <c r="D63" s="2"/>
-    </row>
-    <row r="64" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D63" s="3"/>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="7">
+        <v>63</v>
+      </c>
       <c r="B64" s="2"/>
-      <c r="D64" s="2"/>
-    </row>
-    <row r="65" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D64" s="3"/>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="7">
+        <v>64</v>
+      </c>
       <c r="B65" s="2"/>
-      <c r="D65" s="2"/>
-    </row>
-    <row r="66" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D65" s="3"/>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="7">
+        <v>65</v>
+      </c>
       <c r="B66" s="2"/>
-      <c r="D66" s="2"/>
-    </row>
-    <row r="67" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D66" s="3"/>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" s="7">
+        <v>66</v>
+      </c>
       <c r="B67" s="2"/>
-      <c r="D67" s="2"/>
-    </row>
-    <row r="68" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D67" s="3"/>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" s="7">
+        <v>67</v>
+      </c>
       <c r="B68" s="2"/>
-      <c r="D68" s="2"/>
-    </row>
-    <row r="69" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D68" s="3"/>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" s="7">
+        <v>68</v>
+      </c>
       <c r="B69" s="2"/>
-      <c r="D69" s="2"/>
-    </row>
-    <row r="70" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D69" s="3"/>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" s="7">
+        <v>69</v>
+      </c>
       <c r="B70" s="2"/>
-      <c r="D70" s="2"/>
-    </row>
-    <row r="71" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D70" s="3"/>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" s="7">
+        <v>70</v>
+      </c>
       <c r="B71" s="2"/>
-      <c r="D71" s="2"/>
-    </row>
-    <row r="72" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D71" s="3"/>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" s="7">
+        <v>71</v>
+      </c>
       <c r="B72" s="2"/>
-      <c r="D72" s="2"/>
-    </row>
-    <row r="73" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D72" s="3"/>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" s="7">
+        <v>72</v>
+      </c>
       <c r="B73" s="2"/>
-      <c r="D73" s="2"/>
-    </row>
-    <row r="74" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D73" s="3"/>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" s="7">
+        <v>73</v>
+      </c>
       <c r="B74" s="2"/>
-      <c r="D74" s="2"/>
-    </row>
-    <row r="75" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D74" s="3"/>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" s="7">
+        <v>74</v>
+      </c>
       <c r="B75" s="2"/>
-      <c r="D75" s="2"/>
-    </row>
-    <row r="76" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D75" s="3"/>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" s="7">
+        <v>75</v>
+      </c>
       <c r="B76" s="2"/>
-      <c r="D76" s="2"/>
-    </row>
-    <row r="77" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D76" s="3"/>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" s="7">
+        <v>76</v>
+      </c>
       <c r="B77" s="2"/>
-      <c r="D77" s="2"/>
-    </row>
-    <row r="78" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D77" s="3"/>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" s="7">
+        <v>77</v>
+      </c>
       <c r="B78" s="2"/>
-      <c r="D78" s="2"/>
-    </row>
-    <row r="79" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D78" s="3"/>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" s="7">
+        <v>78</v>
+      </c>
       <c r="B79" s="2"/>
-      <c r="D79" s="2"/>
-    </row>
-    <row r="80" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D79" s="3"/>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" s="7">
+        <v>79</v>
+      </c>
       <c r="B80" s="2"/>
-      <c r="D80" s="2"/>
-    </row>
-    <row r="81" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D80" s="3"/>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" s="7">
+        <v>80</v>
+      </c>
       <c r="B81" s="2"/>
-      <c r="D81" s="2"/>
-    </row>
-    <row r="82" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D81" s="3"/>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" s="7">
+        <v>81</v>
+      </c>
       <c r="B82" s="2"/>
-      <c r="D82" s="2"/>
-    </row>
-    <row r="83" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D82" s="3"/>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" s="7">
+        <v>82</v>
+      </c>
       <c r="B83" s="2"/>
-      <c r="D83" s="2"/>
-    </row>
-    <row r="84" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D83" s="3"/>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" s="7">
+        <v>83</v>
+      </c>
       <c r="B84" s="2"/>
-      <c r="D84" s="2"/>
-    </row>
-    <row r="85" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D84" s="3"/>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" s="7">
+        <v>84</v>
+      </c>
       <c r="B85" s="2"/>
-      <c r="D85" s="2"/>
-    </row>
-    <row r="86" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D85" s="3"/>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" s="7">
+        <v>85</v>
+      </c>
       <c r="B86" s="2"/>
-      <c r="D86" s="2"/>
-    </row>
-    <row r="87" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D86" s="3"/>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" s="7">
+        <v>86</v>
+      </c>
       <c r="B87" s="2"/>
-      <c r="D87" s="2"/>
-    </row>
-    <row r="88" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D87" s="3"/>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" s="7">
+        <v>87</v>
+      </c>
       <c r="B88" s="2"/>
-      <c r="D88" s="2"/>
-    </row>
-    <row r="89" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D88" s="3"/>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" s="7">
+        <v>88</v>
+      </c>
       <c r="B89" s="2"/>
-      <c r="D89" s="2"/>
-    </row>
-    <row r="90" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D89" s="3"/>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" s="7">
+        <v>89</v>
+      </c>
       <c r="B90" s="2"/>
-      <c r="D90" s="2"/>
-    </row>
-    <row r="91" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D90" s="3"/>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" s="7">
+        <v>90</v>
+      </c>
       <c r="B91" s="2"/>
-      <c r="D91" s="2"/>
-    </row>
-    <row r="92" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D91" s="3"/>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" s="7">
+        <v>91</v>
+      </c>
       <c r="B92" s="2"/>
-      <c r="D92" s="2"/>
-    </row>
-    <row r="93" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D92" s="3"/>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" s="7">
+        <v>92</v>
+      </c>
       <c r="B93" s="2"/>
-      <c r="D93" s="2"/>
-    </row>
-    <row r="94" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D93" s="3"/>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" s="7">
+        <v>93</v>
+      </c>
       <c r="B94" s="2"/>
-      <c r="D94" s="2"/>
-    </row>
-    <row r="95" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D94" s="3"/>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" s="7">
+        <v>94</v>
+      </c>
       <c r="B95" s="2"/>
-      <c r="D95" s="2"/>
-    </row>
-    <row r="96" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D95" s="3"/>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96" s="7">
+        <v>95</v>
+      </c>
       <c r="B96" s="2"/>
-      <c r="D96" s="2"/>
-    </row>
-    <row r="97" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D96" s="3"/>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97" s="7">
+        <v>96</v>
+      </c>
       <c r="B97" s="2"/>
-      <c r="D97" s="2"/>
-    </row>
-    <row r="98" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D97" s="3"/>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98" s="7">
+        <v>97</v>
+      </c>
       <c r="B98" s="2"/>
-      <c r="D98" s="2"/>
-    </row>
-    <row r="99" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D98" s="3"/>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99" s="7">
+        <v>98</v>
+      </c>
       <c r="B99" s="2"/>
-      <c r="D99" s="2"/>
-    </row>
-    <row r="100" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D99" s="3"/>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100" s="7">
+        <v>99</v>
+      </c>
       <c r="B100" s="2"/>
-      <c r="D100" s="2"/>
-    </row>
-    <row r="101" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D100" s="3"/>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101" s="7">
+        <v>100</v>
+      </c>
       <c r="B101" s="2"/>
-      <c r="D101" s="2"/>
-    </row>
-    <row r="102" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D101" s="3"/>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102" s="7">
+        <v>101</v>
+      </c>
       <c r="B102" s="2"/>
-      <c r="D102" s="2"/>
-    </row>
-    <row r="103" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D102" s="3"/>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103" s="7">
+        <v>102</v>
+      </c>
       <c r="B103" s="2"/>
-      <c r="D103" s="2"/>
-    </row>
-    <row r="104" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D103" s="3"/>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104" s="7">
+        <v>103</v>
+      </c>
       <c r="B104" s="2"/>
-      <c r="D104" s="2"/>
-    </row>
-    <row r="105" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D104" s="3"/>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105" s="7">
+        <v>104</v>
+      </c>
       <c r="B105" s="2"/>
-      <c r="D105" s="2"/>
-    </row>
-    <row r="106" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D105" s="3"/>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A106" s="7">
+        <v>105</v>
+      </c>
       <c r="B106" s="2"/>
-      <c r="D106" s="2"/>
-    </row>
-    <row r="107" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D106" s="3"/>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A107" s="7">
+        <v>106</v>
+      </c>
       <c r="B107" s="2"/>
-      <c r="D107" s="2"/>
-    </row>
-    <row r="108" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D107" s="3"/>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A108" s="7">
+        <v>107</v>
+      </c>
       <c r="B108" s="2"/>
-      <c r="D108" s="2"/>
-    </row>
-    <row r="109" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D108" s="3"/>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A109" s="7">
+        <v>108</v>
+      </c>
       <c r="B109" s="2"/>
-      <c r="D109" s="2"/>
-    </row>
-    <row r="110" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D109" s="3"/>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A110" s="7">
+        <v>109</v>
+      </c>
       <c r="B110" s="2"/>
-      <c r="D110" s="2"/>
-    </row>
-    <row r="111" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D110" s="3"/>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A111" s="7">
+        <v>110</v>
+      </c>
       <c r="B111" s="2"/>
-      <c r="D111" s="2"/>
-    </row>
-    <row r="112" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D111" s="3"/>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A112" s="7">
+        <v>111</v>
+      </c>
       <c r="B112" s="2"/>
-      <c r="D112" s="2"/>
-    </row>
-    <row r="113" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D112" s="3"/>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A113" s="7">
+        <v>112</v>
+      </c>
       <c r="B113" s="2"/>
-      <c r="D113" s="2"/>
-    </row>
-    <row r="114" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D113" s="3"/>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A114" s="7">
+        <v>113</v>
+      </c>
       <c r="B114" s="2"/>
-      <c r="D114" s="2"/>
-    </row>
-    <row r="115" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D114" s="3"/>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A115" s="7">
+        <v>114</v>
+      </c>
       <c r="B115" s="2"/>
-      <c r="D115" s="2"/>
-    </row>
-    <row r="116" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D115" s="3"/>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A116" s="7">
+        <v>115</v>
+      </c>
       <c r="B116" s="2"/>
-      <c r="D116" s="2"/>
-    </row>
-    <row r="117" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D116" s="3"/>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A117" s="7">
+        <v>116</v>
+      </c>
       <c r="B117" s="2"/>
-      <c r="D117" s="2"/>
-    </row>
-    <row r="118" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D117" s="3"/>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A118" s="7">
+        <v>117</v>
+      </c>
       <c r="B118" s="2"/>
-      <c r="D118" s="2"/>
-    </row>
-    <row r="119" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D118" s="3"/>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A119" s="7">
+        <v>118</v>
+      </c>
       <c r="B119" s="2"/>
-      <c r="D119" s="2"/>
-    </row>
-    <row r="120" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D119" s="3"/>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A120" s="7">
+        <v>119</v>
+      </c>
       <c r="B120" s="2"/>
-      <c r="D120" s="2"/>
-    </row>
-    <row r="121" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D120" s="3"/>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A121" s="7">
+        <v>120</v>
+      </c>
       <c r="B121" s="2"/>
-      <c r="D121" s="2"/>
-    </row>
-    <row r="122" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D121" s="3"/>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A122" s="7">
+        <v>121</v>
+      </c>
       <c r="B122" s="2"/>
-      <c r="D122" s="2"/>
-    </row>
-    <row r="123" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D122" s="3"/>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A123" s="7">
+        <v>122</v>
+      </c>
       <c r="B123" s="2"/>
-      <c r="D123" s="2"/>
-    </row>
-    <row r="124" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D123" s="3"/>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A124" s="7">
+        <v>123</v>
+      </c>
       <c r="B124" s="2"/>
-      <c r="D124" s="2"/>
-    </row>
-    <row r="125" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D124" s="3"/>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A125" s="7">
+        <v>124</v>
+      </c>
       <c r="B125" s="2"/>
-      <c r="D125" s="2"/>
-    </row>
-    <row r="126" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D125" s="3"/>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A126" s="7">
+        <v>125</v>
+      </c>
       <c r="B126" s="2"/>
-      <c r="D126" s="2"/>
-    </row>
-    <row r="127" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D126" s="3"/>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A127" s="7">
+        <v>126</v>
+      </c>
       <c r="B127" s="2"/>
-      <c r="D127" s="2"/>
-    </row>
-    <row r="128" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D127" s="3"/>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A128" s="7">
+        <v>127</v>
+      </c>
       <c r="B128" s="2"/>
-      <c r="D128" s="2"/>
-    </row>
-    <row r="129" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D128" s="3"/>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A129" s="7">
+        <v>128</v>
+      </c>
       <c r="B129" s="2"/>
-      <c r="D129" s="2"/>
-    </row>
-    <row r="130" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D129" s="3"/>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A130" s="7">
+        <v>129</v>
+      </c>
       <c r="B130" s="2"/>
-      <c r="D130" s="2"/>
-    </row>
-    <row r="131" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D130" s="3"/>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A131" s="7">
+        <v>130</v>
+      </c>
       <c r="B131" s="2"/>
-      <c r="D131" s="2"/>
-    </row>
-    <row r="132" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D131" s="3"/>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A132" s="7">
+        <v>131</v>
+      </c>
       <c r="B132" s="2"/>
-      <c r="D132" s="2"/>
-    </row>
-    <row r="133" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D132" s="3"/>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A133" s="7">
+        <v>132</v>
+      </c>
       <c r="B133" s="2"/>
-      <c r="D133" s="2"/>
-    </row>
-    <row r="134" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D133" s="3"/>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A134" s="7">
+        <v>133</v>
+      </c>
       <c r="B134" s="2"/>
-      <c r="D134" s="2"/>
-    </row>
-    <row r="135" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D134" s="3"/>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A135" s="7">
+        <v>134</v>
+      </c>
       <c r="B135" s="2"/>
-      <c r="D135" s="2"/>
-    </row>
-    <row r="136" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D135" s="3"/>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A136" s="7">
+        <v>135</v>
+      </c>
       <c r="B136" s="2"/>
-      <c r="D136" s="2"/>
-    </row>
-    <row r="137" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D136" s="3"/>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A137" s="7">
+        <v>136</v>
+      </c>
       <c r="B137" s="2"/>
-      <c r="D137" s="2"/>
-    </row>
-    <row r="138" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D137" s="3"/>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A138" s="7">
+        <v>137</v>
+      </c>
       <c r="B138" s="2"/>
-      <c r="D138" s="2"/>
-    </row>
-    <row r="139" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D138" s="3"/>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A139" s="7">
+        <v>138</v>
+      </c>
       <c r="B139" s="2"/>
-      <c r="D139" s="2"/>
-    </row>
-    <row r="140" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D139" s="3"/>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A140" s="7">
+        <v>139</v>
+      </c>
       <c r="B140" s="2"/>
-      <c r="D140" s="2"/>
-    </row>
-    <row r="141" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D140" s="3"/>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A141" s="7">
+        <v>140</v>
+      </c>
       <c r="B141" s="2"/>
-      <c r="D141" s="2"/>
-    </row>
-    <row r="142" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D141" s="3"/>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A142" s="7">
+        <v>141</v>
+      </c>
       <c r="B142" s="2"/>
-      <c r="D142" s="2"/>
-    </row>
-    <row r="143" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D142" s="3"/>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A143" s="7">
+        <v>142</v>
+      </c>
       <c r="B143" s="2"/>
-      <c r="D143" s="2"/>
-    </row>
-    <row r="144" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D143" s="3"/>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A144" s="7">
+        <v>143</v>
+      </c>
       <c r="B144" s="2"/>
-      <c r="D144" s="2"/>
-    </row>
-    <row r="145" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D144" s="3"/>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A145" s="7">
+        <v>144</v>
+      </c>
       <c r="B145" s="2"/>
-      <c r="D145" s="2"/>
-    </row>
-    <row r="146" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D145" s="3"/>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A146" s="7">
+        <v>145</v>
+      </c>
       <c r="B146" s="2"/>
-      <c r="D146" s="2"/>
-    </row>
-    <row r="147" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D146" s="3"/>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A147" s="7">
+        <v>146</v>
+      </c>
       <c r="B147" s="2"/>
-      <c r="D147" s="2"/>
-    </row>
-    <row r="148" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D147" s="3"/>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A148" s="7">
+        <v>147</v>
+      </c>
       <c r="B148" s="2"/>
-      <c r="D148" s="2"/>
-    </row>
-    <row r="149" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D148" s="3"/>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A149" s="7">
+        <v>148</v>
+      </c>
       <c r="B149" s="2"/>
-      <c r="D149" s="2"/>
-    </row>
-    <row r="150" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D149" s="3"/>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A150" s="7">
+        <v>149</v>
+      </c>
       <c r="B150" s="2"/>
-      <c r="D150" s="2"/>
-    </row>
-    <row r="151" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D150" s="3"/>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A151" s="7">
+        <v>150</v>
+      </c>
       <c r="B151" s="2"/>
-      <c r="D151" s="2"/>
-    </row>
-    <row r="152" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D151" s="3"/>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A152" s="7">
+        <v>151</v>
+      </c>
       <c r="B152" s="2"/>
-      <c r="D152" s="2"/>
-    </row>
-    <row r="153" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D152" s="3"/>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A153" s="7">
+        <v>152</v>
+      </c>
       <c r="B153" s="2"/>
-      <c r="D153" s="2"/>
-    </row>
-    <row r="154" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D153" s="3"/>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A154" s="7">
+        <v>153</v>
+      </c>
       <c r="B154" s="2"/>
-      <c r="D154" s="2"/>
-    </row>
-    <row r="155" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D154" s="3"/>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A155" s="7">
+        <v>154</v>
+      </c>
       <c r="B155" s="2"/>
-      <c r="D155" s="2"/>
-    </row>
-    <row r="156" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D155" s="3"/>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A156" s="7">
+        <v>155</v>
+      </c>
       <c r="B156" s="2"/>
-      <c r="D156" s="2"/>
-    </row>
-    <row r="157" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D156" s="3"/>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A157" s="7">
+        <v>156</v>
+      </c>
       <c r="B157" s="2"/>
-      <c r="D157" s="2"/>
-    </row>
-    <row r="158" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D157" s="3"/>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A158" s="7">
+        <v>157</v>
+      </c>
       <c r="B158" s="2"/>
-      <c r="D158" s="2"/>
-    </row>
-    <row r="159" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D158" s="3"/>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A159" s="7">
+        <v>158</v>
+      </c>
       <c r="B159" s="2"/>
-      <c r="D159" s="2"/>
-    </row>
-    <row r="160" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D159" s="3"/>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A160" s="7">
+        <v>159</v>
+      </c>
       <c r="B160" s="2"/>
-      <c r="D160" s="2"/>
-    </row>
-    <row r="161" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D160" s="3"/>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A161" s="7">
+        <v>160</v>
+      </c>
       <c r="B161" s="2"/>
-      <c r="D161" s="2"/>
-    </row>
-    <row r="162" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D161" s="3"/>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A162" s="7">
+        <v>161</v>
+      </c>
       <c r="B162" s="2"/>
-      <c r="D162" s="2"/>
-    </row>
-    <row r="163" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D162" s="3"/>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A163" s="7">
+        <v>162</v>
+      </c>
       <c r="B163" s="2"/>
-      <c r="D163" s="2"/>
-    </row>
-    <row r="164" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D163" s="3"/>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A164" s="7">
+        <v>163</v>
+      </c>
       <c r="B164" s="2"/>
-      <c r="D164" s="2"/>
-    </row>
-    <row r="165" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D164" s="3"/>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A165" s="7">
+        <v>164</v>
+      </c>
       <c r="B165" s="2"/>
-      <c r="D165" s="2"/>
-    </row>
-    <row r="166" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D165" s="3"/>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A166" s="7">
+        <v>165</v>
+      </c>
       <c r="B166" s="2"/>
-      <c r="D166" s="2"/>
-    </row>
-    <row r="167" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D166" s="3"/>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A167" s="7">
+        <v>166</v>
+      </c>
       <c r="B167" s="2"/>
-      <c r="D167" s="2"/>
-    </row>
-    <row r="168" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D167" s="3"/>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A168" s="7">
+        <v>167</v>
+      </c>
       <c r="B168" s="2"/>
-      <c r="D168" s="2"/>
-    </row>
-    <row r="169" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D168" s="3"/>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A169" s="7">
+        <v>168</v>
+      </c>
       <c r="B169" s="2"/>
-      <c r="D169" s="2"/>
-    </row>
-    <row r="170" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D169" s="3"/>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A170" s="7">
+        <v>169</v>
+      </c>
       <c r="B170" s="2"/>
-      <c r="D170" s="2"/>
-    </row>
-    <row r="171" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D170" s="3"/>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A171" s="7">
+        <v>170</v>
+      </c>
       <c r="B171" s="2"/>
-      <c r="D171" s="2"/>
-    </row>
-    <row r="172" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D171" s="3"/>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A172" s="7">
+        <v>171</v>
+      </c>
       <c r="B172" s="2"/>
-      <c r="D172" s="2"/>
-    </row>
-    <row r="173" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D172" s="3"/>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A173" s="7">
+        <v>172</v>
+      </c>
       <c r="B173" s="2"/>
-      <c r="D173" s="2"/>
-    </row>
-    <row r="174" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D173" s="3"/>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A174" s="7">
+        <v>173</v>
+      </c>
       <c r="B174" s="2"/>
-      <c r="D174" s="2"/>
-    </row>
-    <row r="175" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D174" s="3"/>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A175" s="7">
+        <v>174</v>
+      </c>
       <c r="B175" s="2"/>
-      <c r="D175" s="2"/>
-    </row>
-    <row r="176" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D175" s="3"/>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A176" s="7">
+        <v>175</v>
+      </c>
       <c r="B176" s="2"/>
-      <c r="D176" s="2"/>
-    </row>
-    <row r="177" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D176" s="3"/>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A177" s="7">
+        <v>176</v>
+      </c>
       <c r="B177" s="2"/>
-      <c r="D177" s="2"/>
-    </row>
-    <row r="178" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D177" s="3"/>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A178" s="7">
+        <v>177</v>
+      </c>
       <c r="B178" s="2"/>
-      <c r="D178" s="2"/>
-    </row>
-    <row r="179" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D178" s="3"/>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A179" s="7">
+        <v>178</v>
+      </c>
       <c r="B179" s="2"/>
-      <c r="D179" s="2"/>
-    </row>
-    <row r="180" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D179" s="3"/>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A180" s="7">
+        <v>179</v>
+      </c>
       <c r="B180" s="2"/>
-      <c r="D180" s="2"/>
-    </row>
-    <row r="181" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D180" s="3"/>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A181" s="7">
+        <v>180</v>
+      </c>
       <c r="B181" s="2"/>
-      <c r="D181" s="2"/>
-    </row>
-    <row r="182" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D181" s="3"/>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A182" s="7">
+        <v>181</v>
+      </c>
       <c r="B182" s="2"/>
-      <c r="D182" s="2"/>
-    </row>
-    <row r="183" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D182" s="3"/>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A183" s="7">
+        <v>182</v>
+      </c>
       <c r="B183" s="2"/>
-      <c r="D183" s="2"/>
-    </row>
-    <row r="184" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D183" s="3"/>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A184" s="7">
+        <v>183</v>
+      </c>
       <c r="B184" s="2"/>
-      <c r="D184" s="2"/>
-    </row>
-    <row r="185" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D184" s="3"/>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A185" s="7">
+        <v>184</v>
+      </c>
       <c r="B185" s="2"/>
-      <c r="D185" s="2"/>
-    </row>
-    <row r="186" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D185" s="3"/>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A186" s="7">
+        <v>185</v>
+      </c>
       <c r="B186" s="2"/>
-      <c r="D186" s="2"/>
-    </row>
-    <row r="187" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D186" s="3"/>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A187" s="7">
+        <v>186</v>
+      </c>
       <c r="B187" s="2"/>
-      <c r="D187" s="2"/>
-    </row>
-    <row r="188" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D187" s="3"/>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A188" s="7">
+        <v>187</v>
+      </c>
       <c r="B188" s="2"/>
-      <c r="D188" s="2"/>
-    </row>
-    <row r="189" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D188" s="3"/>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A189" s="7">
+        <v>188</v>
+      </c>
       <c r="B189" s="2"/>
-      <c r="D189" s="2"/>
-    </row>
-    <row r="190" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D189" s="3"/>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A190" s="7">
+        <v>189</v>
+      </c>
       <c r="B190" s="2"/>
-      <c r="D190" s="2"/>
-    </row>
-    <row r="191" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D190" s="3"/>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A191" s="7">
+        <v>190</v>
+      </c>
       <c r="B191" s="2"/>
-      <c r="D191" s="2"/>
-    </row>
-    <row r="192" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D191" s="3"/>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A192" s="7">
+        <v>191</v>
+      </c>
       <c r="B192" s="2"/>
-      <c r="D192" s="2"/>
-    </row>
-    <row r="193" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D192" s="3"/>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A193" s="7">
+        <v>192</v>
+      </c>
       <c r="B193" s="2"/>
-      <c r="D193" s="2"/>
-    </row>
-    <row r="194" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D193" s="3"/>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A194" s="7">
+        <v>193</v>
+      </c>
       <c r="B194" s="2"/>
-      <c r="D194" s="2"/>
-    </row>
-    <row r="195" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D194" s="3"/>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B195" s="2"/>
-      <c r="D195" s="2"/>
-    </row>
-    <row r="196" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D195" s="3"/>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B196" s="2"/>
-      <c r="D196" s="2"/>
-    </row>
-    <row r="197" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D196" s="3"/>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B197" s="2"/>
-      <c r="D197" s="2"/>
-    </row>
-    <row r="198" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D197" s="3"/>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B198" s="2"/>
-      <c r="D198" s="2"/>
-    </row>
-    <row r="199" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D198" s="3"/>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B199" s="2"/>
-      <c r="D199" s="2"/>
-    </row>
-    <row r="200" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D199" s="3"/>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B200" s="2"/>
-      <c r="D200" s="2"/>
-    </row>
-    <row r="201" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D200" s="3"/>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B201" s="2"/>
-      <c r="D201" s="2"/>
-    </row>
-    <row r="202" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D201" s="3"/>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B202" s="2"/>
-      <c r="D202" s="2"/>
-    </row>
-    <row r="203" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D202" s="3"/>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B203" s="2"/>
-      <c r="D203" s="2"/>
-    </row>
-    <row r="204" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D203" s="3"/>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B204" s="2"/>
-      <c r="D204" s="2"/>
-    </row>
-    <row r="205" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D204" s="3"/>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B205" s="2"/>
-      <c r="D205" s="2"/>
-    </row>
-    <row r="206" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D205" s="3"/>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B206" s="2"/>
-      <c r="D206" s="2"/>
-    </row>
-    <row r="207" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D206" s="3"/>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B207" s="2"/>
-      <c r="D207" s="2"/>
-    </row>
-    <row r="208" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D207" s="3"/>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B208" s="2"/>
-      <c r="D208" s="2"/>
+      <c r="D208" s="3"/>
     </row>
     <row r="209" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B209" s="2"/>
-      <c r="D209" s="2"/>
+      <c r="D209" s="3"/>
     </row>
     <row r="210" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B210" s="2"/>
-      <c r="D210" s="2"/>
+      <c r="D210" s="3"/>
     </row>
     <row r="211" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B211" s="2"/>
-      <c r="D211" s="2"/>
+      <c r="D211" s="3"/>
     </row>
     <row r="212" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B212" s="2"/>
-      <c r="D212" s="2"/>
+      <c r="D212" s="3"/>
     </row>
     <row r="213" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B213" s="2"/>
-      <c r="D213" s="2"/>
+      <c r="D213" s="3"/>
     </row>
     <row r="214" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B214" s="2"/>
-      <c r="D214" s="2"/>
+      <c r="D214" s="3"/>
     </row>
     <row r="215" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B215" s="2"/>
-      <c r="D215" s="2"/>
+      <c r="D215" s="3"/>
     </row>
     <row r="216" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B216" s="2"/>
-      <c r="D216" s="2"/>
+      <c r="D216" s="3"/>
     </row>
     <row r="217" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B217" s="2"/>
-      <c r="D217" s="2"/>
+      <c r="D217" s="3"/>
     </row>
     <row r="218" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B218" s="2"/>
-      <c r="D218" s="2"/>
+      <c r="D218" s="3"/>
     </row>
     <row r="219" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B219" s="2"/>
-      <c r="D219" s="2"/>
+      <c r="D219" s="3"/>
     </row>
     <row r="220" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B220" s="2"/>
-      <c r="D220" s="2"/>
+      <c r="D220" s="3"/>
     </row>
     <row r="221" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B221" s="2"/>
-      <c r="D221" s="2"/>
+      <c r="D221" s="3"/>
     </row>
     <row r="222" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B222" s="2"/>
-      <c r="D222" s="2"/>
+      <c r="D222" s="3"/>
     </row>
     <row r="223" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B223" s="2"/>
-      <c r="D223" s="2"/>
+      <c r="D223" s="3"/>
     </row>
     <row r="224" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B224" s="2"/>
-      <c r="D224" s="2"/>
+      <c r="D224" s="3"/>
     </row>
     <row r="225" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B225" s="2"/>
-      <c r="D225" s="2"/>
+      <c r="D225" s="3"/>
     </row>
     <row r="226" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B226" s="2"/>
-      <c r="D226" s="2"/>
+      <c r="D226" s="3"/>
     </row>
     <row r="227" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B227" s="2"/>
-      <c r="D227" s="2"/>
+      <c r="D227" s="3"/>
     </row>
     <row r="228" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B228" s="2"/>
-      <c r="D228" s="2"/>
+      <c r="D228" s="3"/>
     </row>
     <row r="229" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B229" s="2"/>
-      <c r="D229" s="2"/>
+      <c r="D229" s="3"/>
     </row>
     <row r="230" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B230" s="2"/>
-      <c r="D230" s="2"/>
+      <c r="D230" s="3"/>
     </row>
     <row r="231" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B231" s="2"/>
-      <c r="D231" s="2"/>
+      <c r="D231" s="3"/>
     </row>
     <row r="232" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B232" s="2"/>
-      <c r="D232" s="2"/>
+      <c r="D232" s="3"/>
     </row>
     <row r="233" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B233" s="2"/>
-      <c r="D233" s="2"/>
+      <c r="D233" s="3"/>
     </row>
     <row r="234" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B234" s="2"/>
-      <c r="D234" s="2"/>
+      <c r="D234" s="3"/>
     </row>
     <row r="235" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B235" s="2"/>
-      <c r="D235" s="2"/>
+      <c r="D235" s="3"/>
     </row>
     <row r="236" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B236" s="2"/>
-      <c r="D236" s="2"/>
+      <c r="D236" s="3"/>
     </row>
     <row r="237" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B237" s="2"/>
-      <c r="D237" s="2"/>
+      <c r="D237" s="3"/>
     </row>
     <row r="238" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B238" s="2"/>
-      <c r="D238" s="2"/>
+      <c r="D238" s="3"/>
     </row>
     <row r="239" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B239" s="2"/>
-      <c r="D239" s="2"/>
+      <c r="D239" s="3"/>
     </row>
     <row r="240" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B240" s="2"/>
-      <c r="D240" s="2"/>
+      <c r="D240" s="3"/>
     </row>
     <row r="241" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B241" s="2"/>
-      <c r="D241" s="2"/>
+      <c r="D241" s="3"/>
     </row>
     <row r="242" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B242" s="2"/>
-      <c r="D242" s="2"/>
+      <c r="D242" s="3"/>
     </row>
     <row r="243" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B243" s="2"/>
-      <c r="D243" s="2"/>
+      <c r="D243" s="3"/>
     </row>
     <row r="244" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B244" s="2"/>
-      <c r="D244" s="2"/>
+      <c r="D244" s="3"/>
     </row>
     <row r="245" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B245" s="2"/>
-      <c r="D245" s="2"/>
+      <c r="D245" s="3"/>
     </row>
     <row r="246" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B246" s="2"/>
-      <c r="D246" s="2"/>
+      <c r="D246" s="3"/>
     </row>
     <row r="247" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B247" s="2"/>
-      <c r="D247" s="2"/>
+      <c r="D247" s="3"/>
     </row>
     <row r="248" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B248" s="2"/>
-      <c r="D248" s="2"/>
+      <c r="D248" s="3"/>
     </row>
     <row r="249" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B249" s="2"/>
-      <c r="D249" s="2"/>
+      <c r="D249" s="3"/>
     </row>
     <row r="250" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B250" s="2"/>
-      <c r="D250" s="2"/>
+      <c r="D250" s="3"/>
     </row>
     <row r="251" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B251" s="2"/>
-      <c r="D251" s="2"/>
+      <c r="D251" s="3"/>
     </row>
     <row r="252" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B252" s="2"/>
-      <c r="D252" s="2"/>
+      <c r="D252" s="3"/>
     </row>
     <row r="253" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B253" s="2"/>
-      <c r="D253" s="2"/>
+      <c r="D253" s="3"/>
     </row>
     <row r="254" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B254" s="2"/>
-      <c r="D254" s="2"/>
+      <c r="D254" s="3"/>
     </row>
     <row r="255" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B255" s="2"/>
-      <c r="D255" s="2"/>
+      <c r="D255" s="3"/>
     </row>
     <row r="256" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B256" s="2"/>
-      <c r="D256" s="2"/>
+      <c r="D256" s="3"/>
     </row>
     <row r="257" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B257" s="2"/>
-      <c r="D257" s="2"/>
+      <c r="D257" s="3"/>
     </row>
     <row r="258" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B258" s="2"/>
-      <c r="D258" s="2"/>
+      <c r="D258" s="3"/>
     </row>
     <row r="259" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B259" s="2"/>
-      <c r="D259" s="2"/>
+      <c r="D259" s="3"/>
     </row>
     <row r="260" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B260" s="2"/>
-      <c r="D260" s="2"/>
+      <c r="D260" s="3"/>
     </row>
     <row r="261" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B261" s="2"/>
-      <c r="D261" s="2"/>
+      <c r="D261" s="3"/>
     </row>
     <row r="262" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B262" s="2"/>
-      <c r="D262" s="2"/>
+      <c r="D262" s="3"/>
     </row>
     <row r="263" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B263" s="2"/>
-      <c r="D263" s="2"/>
+      <c r="D263" s="3"/>
     </row>
     <row r="264" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B264" s="2"/>
-      <c r="D264" s="2"/>
+      <c r="D264" s="3"/>
     </row>
     <row r="265" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B265" s="2"/>
-      <c r="D265" s="2"/>
+      <c r="D265" s="3"/>
     </row>
     <row r="266" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B266" s="2"/>
-      <c r="D266" s="2"/>
+      <c r="D266" s="3"/>
     </row>
     <row r="267" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B267" s="2"/>
-      <c r="D267" s="2"/>
+      <c r="D267" s="3"/>
     </row>
     <row r="268" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B268" s="2"/>
-      <c r="D268" s="2"/>
+      <c r="D268" s="3"/>
     </row>
     <row r="269" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B269" s="2"/>
-      <c r="D269" s="2"/>
+      <c r="D269" s="3"/>
     </row>
     <row r="270" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B270" s="2"/>
-      <c r="D270" s="2"/>
+      <c r="D270" s="3"/>
     </row>
     <row r="271" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B271" s="2"/>
-      <c r="D271" s="2"/>
+      <c r="D271" s="3"/>
     </row>
     <row r="272" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B272" s="2"/>
-      <c r="D272" s="2"/>
+      <c r="D272" s="3"/>
     </row>
     <row r="273" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B273" s="2"/>
-      <c r="D273" s="2"/>
+      <c r="D273" s="3"/>
     </row>
     <row r="274" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B274" s="2"/>
-      <c r="D274" s="2"/>
+      <c r="D274" s="3"/>
     </row>
     <row r="275" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B275" s="2"/>
-      <c r="D275" s="2"/>
+      <c r="D275" s="3"/>
     </row>
     <row r="276" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B276" s="2"/>
-      <c r="D276" s="2"/>
+      <c r="D276" s="3"/>
     </row>
     <row r="277" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B277" s="2"/>
-      <c r="D277" s="2"/>
+      <c r="D277" s="3"/>
     </row>
     <row r="278" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B278" s="2"/>
-      <c r="D278" s="2"/>
+      <c r="D278" s="3"/>
     </row>
     <row r="279" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B279" s="2"/>
-      <c r="D279" s="2"/>
+      <c r="D279" s="3"/>
     </row>
     <row r="280" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B280" s="2"/>
-      <c r="D280" s="2"/>
+      <c r="D280" s="3"/>
     </row>
     <row r="281" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B281" s="2"/>
-      <c r="D281" s="2"/>
+      <c r="D281" s="3"/>
     </row>
     <row r="282" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B282" s="2"/>
-      <c r="D282" s="2"/>
+      <c r="D282" s="3"/>
     </row>
     <row r="283" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B283" s="2"/>
-      <c r="D283" s="2"/>
+      <c r="D283" s="3"/>
     </row>
     <row r="284" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B284" s="2"/>
-      <c r="D284" s="2"/>
+      <c r="D284" s="3"/>
     </row>
     <row r="285" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B285" s="2"/>
-      <c r="D285" s="2"/>
+      <c r="D285" s="3"/>
     </row>
     <row r="286" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B286" s="2"/>
-      <c r="D286" s="2"/>
+      <c r="D286" s="3"/>
     </row>
     <row r="287" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B287" s="2"/>
-      <c r="D287" s="2"/>
+      <c r="D287" s="3"/>
     </row>
     <row r="288" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B288" s="2"/>
-      <c r="D288" s="2"/>
+      <c r="D288" s="3"/>
     </row>
     <row r="289" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B289" s="2"/>
-      <c r="D289" s="2"/>
+      <c r="D289" s="3"/>
     </row>
     <row r="290" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B290" s="2"/>
-      <c r="D290" s="2"/>
+      <c r="D290" s="3"/>
     </row>
     <row r="291" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B291" s="2"/>
-      <c r="D291" s="2"/>
+      <c r="D291" s="3"/>
     </row>
     <row r="292" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B292" s="2"/>
-      <c r="D292" s="2"/>
+      <c r="D292" s="3"/>
     </row>
     <row r="293" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B293" s="2"/>
-      <c r="D293" s="2"/>
+      <c r="D293" s="3"/>
     </row>
     <row r="294" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B294" s="2"/>
-      <c r="D294" s="2"/>
+      <c r="D294" s="3"/>
     </row>
     <row r="295" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B295" s="2"/>
-      <c r="D295" s="2"/>
+      <c r="D295" s="3"/>
     </row>
     <row r="296" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B296" s="2"/>
-      <c r="D296" s="2"/>
+      <c r="D296" s="3"/>
     </row>
     <row r="297" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B297" s="2"/>
-      <c r="D297" s="2"/>
+      <c r="D297" s="3"/>
     </row>
     <row r="298" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B298" s="2"/>
-      <c r="D298" s="2"/>
+      <c r="D298" s="3"/>
     </row>
     <row r="299" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B299" s="2"/>
-      <c r="D299" s="2"/>
+      <c r="D299" s="3"/>
     </row>
     <row r="300" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B300" s="2"/>
-      <c r="D300" s="2"/>
+      <c r="D300" s="3"/>
     </row>
     <row r="301" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B301" s="2"/>
-      <c r="D301" s="2"/>
+      <c r="D301" s="3"/>
     </row>
     <row r="302" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B302" s="2"/>
-      <c r="D302" s="2"/>
+      <c r="D302" s="3"/>
     </row>
     <row r="303" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B303" s="2"/>
-      <c r="D303" s="2"/>
+      <c r="D303" s="3"/>
     </row>
     <row r="304" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B304" s="2"/>
-      <c r="D304" s="2"/>
+      <c r="D304" s="3"/>
     </row>
     <row r="305" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B305" s="2"/>
-      <c r="D305" s="2"/>
+      <c r="D305" s="3"/>
     </row>
     <row r="306" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B306" s="2"/>
-      <c r="D306" s="2"/>
+      <c r="D306" s="3"/>
     </row>
     <row r="307" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B307" s="2"/>
-      <c r="D307" s="2"/>
+      <c r="D307" s="3"/>
     </row>
     <row r="308" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B308" s="2"/>
-      <c r="D308" s="2"/>
+      <c r="D308" s="3"/>
     </row>
     <row r="309" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B309" s="2"/>
-      <c r="D309" s="2"/>
+      <c r="D309" s="3"/>
     </row>
     <row r="310" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B310" s="2"/>
-      <c r="D310" s="2"/>
+      <c r="D310" s="3"/>
     </row>
     <row r="311" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B311" s="2"/>
-      <c r="D311" s="2"/>
+      <c r="D311" s="3"/>
     </row>
     <row r="312" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B312" s="2"/>
-      <c r="D312" s="2"/>
+      <c r="D312" s="3"/>
     </row>
     <row r="313" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B313" s="2"/>
-      <c r="D313" s="2"/>
+      <c r="D313" s="3"/>
     </row>
     <row r="314" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B314" s="2"/>
-      <c r="D314" s="2"/>
+      <c r="D314" s="3"/>
     </row>
     <row r="315" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B315" s="2"/>
-      <c r="D315" s="2"/>
+      <c r="D315" s="3"/>
     </row>
     <row r="316" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B316" s="2"/>
-      <c r="D316" s="2"/>
+      <c r="D316" s="3"/>
     </row>
     <row r="317" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B317" s="2"/>
-      <c r="D317" s="2"/>
+      <c r="D317" s="3"/>
     </row>
     <row r="318" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B318" s="2"/>
-      <c r="D318" s="2"/>
+      <c r="D318" s="3"/>
     </row>
     <row r="319" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B319" s="2"/>
-      <c r="D319" s="2"/>
+      <c r="D319" s="3"/>
     </row>
     <row r="320" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B320" s="2"/>
-      <c r="D320" s="2"/>
+      <c r="D320" s="3"/>
     </row>
     <row r="321" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B321" s="2"/>
-      <c r="D321" s="2"/>
+      <c r="D321" s="3"/>
     </row>
     <row r="322" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B322" s="2"/>
-      <c r="D322" s="2"/>
+      <c r="D322" s="3"/>
     </row>
     <row r="323" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B323" s="2"/>
-      <c r="D323" s="2"/>
+      <c r="D323" s="3"/>
     </row>
     <row r="324" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B324" s="2"/>
-      <c r="D324" s="2"/>
+      <c r="D324" s="3"/>
     </row>
     <row r="325" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B325" s="2"/>
-      <c r="D325" s="2"/>
+      <c r="D325" s="3"/>
     </row>
     <row r="326" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B326" s="2"/>
-      <c r="D326" s="2"/>
+      <c r="D326" s="3"/>
     </row>
     <row r="327" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B327" s="2"/>
-      <c r="D327" s="2"/>
+      <c r="D327" s="3"/>
     </row>
     <row r="328" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B328" s="2"/>
-      <c r="D328" s="2"/>
+      <c r="D328" s="3"/>
     </row>
     <row r="329" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B329" s="2"/>
-      <c r="D329" s="2"/>
+      <c r="D329" s="3"/>
     </row>
     <row r="330" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B330" s="2"/>
-      <c r="D330" s="2"/>
+      <c r="D330" s="3"/>
     </row>
     <row r="331" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B331" s="2"/>
-      <c r="D331" s="2"/>
+      <c r="D331" s="3"/>
     </row>
     <row r="332" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B332" s="2"/>
-      <c r="D332" s="2"/>
+      <c r="D332" s="3"/>
     </row>
     <row r="333" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B333" s="2"/>
-      <c r="D333" s="2"/>
+      <c r="D333" s="3"/>
     </row>
     <row r="334" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B334" s="2"/>
-      <c r="D334" s="2"/>
+      <c r="D334" s="3"/>
     </row>
     <row r="335" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B335" s="2"/>
-      <c r="D335" s="2"/>
+      <c r="D335" s="3"/>
     </row>
     <row r="336" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B336" s="2"/>
-      <c r="D336" s="2"/>
+      <c r="D336" s="3"/>
     </row>
     <row r="337" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B337" s="2"/>
-      <c r="D337" s="2"/>
+      <c r="D337" s="3"/>
     </row>
     <row r="338" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B338" s="2"/>
-      <c r="D338" s="2"/>
+      <c r="D338" s="3"/>
     </row>
     <row r="339" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B339" s="2"/>
-      <c r="D339" s="2"/>
+      <c r="D339" s="3"/>
     </row>
     <row r="340" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B340" s="2"/>
-      <c r="D340" s="2"/>
+      <c r="D340" s="3"/>
     </row>
     <row r="341" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B341" s="2"/>
-      <c r="D341" s="2"/>
+      <c r="D341" s="3"/>
     </row>
     <row r="342" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B342" s="2"/>
-      <c r="D342" s="2"/>
+      <c r="D342" s="3"/>
     </row>
     <row r="343" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B343" s="2"/>
-      <c r="D343" s="2"/>
+      <c r="D343" s="3"/>
     </row>
     <row r="344" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B344" s="2"/>
-      <c r="D344" s="2"/>
+      <c r="D344" s="3"/>
     </row>
     <row r="345" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B345" s="2"/>
-      <c r="D345" s="2"/>
+      <c r="D345" s="3"/>
     </row>
     <row r="346" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B346" s="2"/>
-      <c r="D346" s="2"/>
+      <c r="D346" s="3"/>
     </row>
     <row r="347" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B347" s="2"/>
-      <c r="D347" s="2"/>
+      <c r="D347" s="3"/>
     </row>
     <row r="348" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B348" s="2"/>
-      <c r="D348" s="2"/>
+      <c r="D348" s="3"/>
     </row>
     <row r="349" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B349" s="2"/>
-      <c r="D349" s="2"/>
+      <c r="D349" s="3"/>
     </row>
     <row r="350" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B350" s="2"/>
-      <c r="D350" s="2"/>
+      <c r="D350" s="3"/>
     </row>
     <row r="351" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B351" s="2"/>
-      <c r="D351" s="2"/>
+      <c r="D351" s="3"/>
     </row>
     <row r="352" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B352" s="2"/>
-      <c r="D352" s="2"/>
+      <c r="D352" s="3"/>
     </row>
     <row r="353" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B353" s="2"/>
-      <c r="D353" s="2"/>
+      <c r="D353" s="3"/>
     </row>
     <row r="354" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B354" s="2"/>
-      <c r="D354" s="2"/>
+      <c r="D354" s="3"/>
     </row>
     <row r="355" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B355" s="2"/>
-      <c r="D355" s="2"/>
+      <c r="D355" s="3"/>
     </row>
     <row r="356" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B356" s="2"/>
-      <c r="D356" s="2"/>
+      <c r="D356" s="3"/>
     </row>
     <row r="357" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B357" s="2"/>
-      <c r="D357" s="2"/>
+      <c r="D357" s="3"/>
     </row>
     <row r="358" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B358" s="2"/>
-      <c r="D358" s="2"/>
+      <c r="D358" s="3"/>
     </row>
     <row r="359" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B359" s="2"/>
-      <c r="D359" s="2"/>
+      <c r="D359" s="3"/>
     </row>
     <row r="360" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B360" s="2"/>
-      <c r="D360" s="2"/>
+      <c r="D360" s="3"/>
     </row>
     <row r="361" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B361" s="2"/>
-      <c r="D361" s="2"/>
+      <c r="D361" s="3"/>
     </row>
     <row r="362" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B362" s="2"/>
-      <c r="D362" s="2"/>
+      <c r="D362" s="3"/>
     </row>
     <row r="363" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B363" s="2"/>
-      <c r="D363" s="2"/>
+      <c r="D363" s="3"/>
     </row>
     <row r="364" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B364" s="2"/>
-      <c r="D364" s="2"/>
+      <c r="D364" s="3"/>
     </row>
     <row r="365" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B365" s="2"/>
-      <c r="D365" s="2"/>
+      <c r="D365" s="3"/>
     </row>
     <row r="366" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B366" s="2"/>
-      <c r="D366" s="2"/>
+      <c r="D366" s="3"/>
     </row>
     <row r="367" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B367" s="2"/>
-      <c r="D367" s="2"/>
+      <c r="D367" s="3"/>
     </row>
     <row r="368" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B368" s="2"/>
-      <c r="D368" s="2"/>
+      <c r="D368" s="3"/>
     </row>
     <row r="369" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B369" s="2"/>
-      <c r="D369" s="2"/>
+      <c r="D369" s="3"/>
     </row>
     <row r="370" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B370" s="2"/>
-      <c r="D370" s="2"/>
+      <c r="D370" s="3"/>
     </row>
     <row r="371" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B371" s="2"/>
-      <c r="D371" s="2"/>
+      <c r="D371" s="3"/>
     </row>
     <row r="372" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B372" s="2"/>
-      <c r="D372" s="2"/>
+      <c r="D372" s="3"/>
     </row>
     <row r="373" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B373" s="2"/>
-      <c r="D373" s="2"/>
+      <c r="D373" s="3"/>
     </row>
     <row r="374" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B374" s="2"/>
-      <c r="D374" s="2"/>
+      <c r="D374" s="3"/>
     </row>
     <row r="375" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B375" s="2"/>
-      <c r="D375" s="2"/>
+      <c r="D375" s="3"/>
     </row>
     <row r="376" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B376" s="2"/>
-      <c r="D376" s="2"/>
+      <c r="D376" s="3"/>
     </row>
     <row r="377" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B377" s="2"/>
-      <c r="D377" s="2"/>
+      <c r="D377" s="3"/>
     </row>
     <row r="378" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B378" s="2"/>
-      <c r="D378" s="2"/>
+      <c r="D378" s="3"/>
     </row>
     <row r="379" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B379" s="2"/>
-      <c r="D379" s="2"/>
+      <c r="D379" s="3"/>
     </row>
     <row r="380" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B380" s="2"/>
-      <c r="D380" s="2"/>
+      <c r="D380" s="3"/>
     </row>
     <row r="381" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B381" s="2"/>
-      <c r="D381" s="2"/>
+      <c r="D381" s="3"/>
     </row>
     <row r="382" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B382" s="2"/>
-      <c r="D382" s="2"/>
+      <c r="D382" s="3"/>
     </row>
     <row r="383" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B383" s="2"/>
-      <c r="D383" s="2"/>
+      <c r="D383" s="3"/>
     </row>
     <row r="384" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B384" s="2"/>
-      <c r="D384" s="2"/>
+      <c r="D384" s="3"/>
     </row>
     <row r="385" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B385" s="2"/>
-      <c r="D385" s="2"/>
+      <c r="D385" s="3"/>
     </row>
     <row r="386" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B386" s="2"/>
-      <c r="D386" s="2"/>
+      <c r="D386" s="3"/>
     </row>
     <row r="387" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B387" s="2"/>
-      <c r="D387" s="2"/>
+      <c r="D387" s="3"/>
     </row>
     <row r="388" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B388" s="2"/>
-      <c r="D388" s="2"/>
+      <c r="D388" s="3"/>
     </row>
     <row r="389" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B389" s="2"/>
-      <c r="D389" s="2"/>
+      <c r="D389" s="3"/>
     </row>
     <row r="390" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B390" s="2"/>
-      <c r="D390" s="2"/>
+      <c r="D390" s="3"/>
     </row>
     <row r="391" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B391" s="2"/>
-      <c r="D391" s="2"/>
+      <c r="D391" s="3"/>
     </row>
     <row r="392" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B392" s="2"/>
-      <c r="D392" s="2"/>
+      <c r="D392" s="3"/>
     </row>
     <row r="393" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B393" s="2"/>
-      <c r="D393" s="2"/>
+      <c r="D393" s="3"/>
     </row>
     <row r="394" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B394" s="2"/>
-      <c r="D394" s="2"/>
+      <c r="D394" s="3"/>
     </row>
     <row r="395" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B395" s="2"/>
-      <c r="D395" s="2"/>
+      <c r="D395" s="3"/>
     </row>
     <row r="396" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B396" s="2"/>
-      <c r="D396" s="2"/>
+      <c r="D396" s="3"/>
     </row>
     <row r="397" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B397" s="2"/>
-      <c r="D397" s="2"/>
+      <c r="D397" s="3"/>
     </row>
     <row r="398" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B398" s="2"/>
-      <c r="D398" s="2"/>
+      <c r="D398" s="3"/>
     </row>
     <row r="399" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B399" s="2"/>
-      <c r="D399" s="2"/>
+      <c r="D399" s="3"/>
     </row>
     <row r="400" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B400" s="2"/>
-      <c r="D400" s="2"/>
+      <c r="D400" s="3"/>
     </row>
     <row r="401" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B401" s="2"/>
-      <c r="D401" s="2"/>
+      <c r="D401" s="3"/>
     </row>
     <row r="402" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B402" s="2"/>
-      <c r="D402" s="2"/>
+      <c r="D402" s="3"/>
     </row>
     <row r="403" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B403" s="2"/>
-      <c r="D403" s="2"/>
+      <c r="D403" s="3"/>
     </row>
     <row r="404" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B404" s="2"/>
-      <c r="D404" s="2"/>
+      <c r="D404" s="3"/>
     </row>
     <row r="405" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B405" s="2"/>
-      <c r="D405" s="2"/>
+      <c r="D405" s="3"/>
     </row>
     <row r="406" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B406" s="2"/>
-      <c r="D406" s="2"/>
+      <c r="D406" s="3"/>
     </row>
     <row r="407" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B407" s="2"/>
-      <c r="D407" s="2"/>
+      <c r="D407" s="3"/>
     </row>
     <row r="408" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B408" s="2"/>
-      <c r="D408" s="2"/>
+      <c r="D408" s="3"/>
     </row>
     <row r="409" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B409" s="2"/>
-      <c r="D409" s="2"/>
+      <c r="D409" s="3"/>
     </row>
     <row r="410" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B410" s="2"/>
-      <c r="D410" s="2"/>
+      <c r="D410" s="3"/>
     </row>
     <row r="411" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B411" s="2"/>
-      <c r="D411" s="2"/>
+      <c r="D411" s="3"/>
     </row>
     <row r="412" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B412" s="2"/>
-      <c r="D412" s="2"/>
+      <c r="D412" s="3"/>
     </row>
     <row r="413" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B413" s="2"/>
-      <c r="D413" s="2"/>
+      <c r="D413" s="3"/>
     </row>
     <row r="414" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B414" s="2"/>
-      <c r="D414" s="2"/>
+      <c r="D414" s="3"/>
     </row>
     <row r="415" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B415" s="2"/>
-      <c r="D415" s="2"/>
+      <c r="D415" s="3"/>
     </row>
     <row r="416" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B416" s="2"/>
-      <c r="D416" s="2"/>
+      <c r="D416" s="3"/>
     </row>
     <row r="417" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B417" s="2"/>
-      <c r="D417" s="2"/>
+      <c r="D417" s="3"/>
     </row>
     <row r="418" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B418" s="2"/>
-      <c r="D418" s="2"/>
+      <c r="D418" s="3"/>
     </row>
     <row r="419" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B419" s="2"/>
-      <c r="D419" s="2"/>
+      <c r="D419" s="3"/>
     </row>
     <row r="420" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B420" s="2"/>
-      <c r="D420" s="2"/>
+      <c r="D420" s="3"/>
     </row>
     <row r="421" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B421" s="2"/>
-      <c r="D421" s="2"/>
+      <c r="D421" s="3"/>
     </row>
     <row r="422" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B422" s="2"/>
-      <c r="D422" s="2"/>
+      <c r="D422" s="3"/>
     </row>
     <row r="423" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B423" s="2"/>
-      <c r="D423" s="2"/>
+      <c r="D423" s="3"/>
     </row>
     <row r="424" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B424" s="2"/>
-      <c r="D424" s="2"/>
+      <c r="D424" s="3"/>
     </row>
     <row r="425" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B425" s="2"/>
-      <c r="D425" s="2"/>
+      <c r="D425" s="3"/>
     </row>
     <row r="426" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B426" s="2"/>
-      <c r="D426" s="2"/>
+      <c r="D426" s="3"/>
     </row>
     <row r="427" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B427" s="2"/>
-      <c r="D427" s="2"/>
+      <c r="D427" s="3"/>
     </row>
     <row r="428" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B428" s="2"/>
-      <c r="D428" s="2"/>
+      <c r="D428" s="3"/>
     </row>
     <row r="429" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B429" s="2"/>
-      <c r="D429" s="2"/>
+      <c r="D429" s="3"/>
     </row>
     <row r="430" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B430" s="2"/>
-      <c r="D430" s="2"/>
+      <c r="D430" s="3"/>
     </row>
     <row r="431" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B431" s="2"/>
-      <c r="D431" s="2"/>
+      <c r="D431" s="3"/>
     </row>
     <row r="432" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B432" s="2"/>
-      <c r="D432" s="2"/>
+      <c r="D432" s="3"/>
     </row>
     <row r="433" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B433" s="2"/>
-      <c r="D433" s="2"/>
+      <c r="D433" s="3"/>
     </row>
     <row r="434" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B434" s="2"/>
-      <c r="D434" s="2"/>
+      <c r="D434" s="3"/>
     </row>
     <row r="435" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B435" s="2"/>
-      <c r="D435" s="2"/>
+      <c r="D435" s="3"/>
     </row>
     <row r="436" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B436" s="2"/>
-      <c r="D436" s="2"/>
+      <c r="D436" s="3"/>
     </row>
     <row r="437" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B437" s="2"/>
-      <c r="D437" s="2"/>
+      <c r="D437" s="3"/>
     </row>
     <row r="438" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B438" s="2"/>
-      <c r="D438" s="2"/>
+      <c r="D438" s="3"/>
     </row>
     <row r="439" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B439" s="2"/>
-      <c r="D439" s="2"/>
+      <c r="D439" s="3"/>
     </row>
     <row r="440" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B440" s="2"/>
-      <c r="D440" s="2"/>
+      <c r="D440" s="3"/>
     </row>
     <row r="441" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B441" s="2"/>
-      <c r="D441" s="2"/>
+      <c r="D441" s="3"/>
     </row>
     <row r="442" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B442" s="2"/>
-      <c r="D442" s="2"/>
+      <c r="D442" s="3"/>
     </row>
     <row r="443" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B443" s="2"/>
-      <c r="D443" s="2"/>
+      <c r="D443" s="3"/>
     </row>
     <row r="444" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B444" s="2"/>
-      <c r="D444" s="2"/>
+      <c r="D444" s="3"/>
     </row>
     <row r="445" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B445" s="2"/>
-      <c r="D445" s="2"/>
+      <c r="D445" s="3"/>
     </row>
     <row r="446" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B446" s="2"/>
-      <c r="D446" s="2"/>
+      <c r="D446" s="3"/>
     </row>
     <row r="447" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B447" s="2"/>
-      <c r="D447" s="2"/>
+      <c r="D447" s="3"/>
     </row>
     <row r="448" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B448" s="2"/>
-      <c r="D448" s="2"/>
+      <c r="D448" s="3"/>
     </row>
     <row r="449" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B449" s="2"/>
-      <c r="D449" s="2"/>
+      <c r="D449" s="3"/>
     </row>
     <row r="450" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B450" s="2"/>
-      <c r="D450" s="2"/>
+      <c r="D450" s="3"/>
     </row>
     <row r="451" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B451" s="2"/>
-      <c r="D451" s="2"/>
+      <c r="D451" s="3"/>
     </row>
     <row r="452" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B452" s="2"/>
-      <c r="D452" s="2"/>
+      <c r="D452" s="3"/>
     </row>
     <row r="453" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B453" s="2"/>
-      <c r="D453" s="2"/>
+      <c r="D453" s="3"/>
     </row>
     <row r="454" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B454" s="2"/>
-      <c r="D454" s="2"/>
+      <c r="D454" s="3"/>
     </row>
     <row r="455" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B455" s="2"/>
-      <c r="D455" s="2"/>
+      <c r="D455" s="3"/>
     </row>
     <row r="456" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B456" s="2"/>
-      <c r="D456" s="2"/>
+      <c r="D456" s="3"/>
     </row>
     <row r="457" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B457" s="2"/>
-      <c r="D457" s="2"/>
+      <c r="D457" s="3"/>
     </row>
     <row r="458" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B458" s="2"/>
-      <c r="D458" s="2"/>
+      <c r="D458" s="3"/>
     </row>
     <row r="459" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B459" s="2"/>
-      <c r="D459" s="2"/>
+      <c r="D459" s="3"/>
     </row>
     <row r="460" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B460" s="2"/>
-      <c r="D460" s="2"/>
+      <c r="D460" s="3"/>
     </row>
     <row r="461" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B461" s="2"/>
-      <c r="D461" s="2"/>
+      <c r="D461" s="3"/>
     </row>
     <row r="462" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B462" s="2"/>
-      <c r="D462" s="2"/>
+      <c r="D462" s="3"/>
     </row>
     <row r="463" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B463" s="2"/>
-      <c r="D463" s="2"/>
+      <c r="D463" s="3"/>
     </row>
     <row r="464" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B464" s="2"/>
-      <c r="D464" s="2"/>
+      <c r="D464" s="3"/>
     </row>
     <row r="465" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B465" s="2"/>
-      <c r="D465" s="2"/>
+      <c r="D465" s="3"/>
     </row>
     <row r="466" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B466" s="2"/>
-      <c r="D466" s="2"/>
+      <c r="D466" s="3"/>
     </row>
     <row r="467" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B467" s="2"/>
-      <c r="D467" s="2"/>
+      <c r="D467" s="3"/>
     </row>
     <row r="468" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B468" s="2"/>
-      <c r="D468" s="2"/>
+      <c r="D468" s="3"/>
     </row>
     <row r="469" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B469" s="2"/>
-      <c r="D469" s="2"/>
+      <c r="D469" s="3"/>
     </row>
     <row r="470" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B470" s="2"/>
-      <c r="D470" s="2"/>
+      <c r="D470" s="3"/>
     </row>
     <row r="471" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B471" s="2"/>
-      <c r="D471" s="2"/>
+      <c r="D471" s="3"/>
     </row>
     <row r="472" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B472" s="2"/>
-      <c r="D472" s="2"/>
+      <c r="D472" s="3"/>
     </row>
     <row r="473" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B473" s="2"/>
-      <c r="D473" s="2"/>
+      <c r="D473" s="3"/>
     </row>
     <row r="474" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B474" s="2"/>
-      <c r="D474" s="2"/>
+      <c r="D474" s="3"/>
     </row>
     <row r="475" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B475" s="2"/>
-      <c r="D475" s="2"/>
+      <c r="D475" s="3"/>
     </row>
     <row r="476" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B476" s="2"/>
-      <c r="D476" s="2"/>
+      <c r="D476" s="3"/>
     </row>
     <row r="477" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B477" s="2"/>
-      <c r="D477" s="2"/>
+      <c r="D477" s="3"/>
     </row>
     <row r="478" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B478" s="2"/>
-      <c r="D478" s="2"/>
+      <c r="D478" s="3"/>
     </row>
     <row r="479" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B479" s="2"/>
-      <c r="D479" s="2"/>
+      <c r="D479" s="3"/>
     </row>
     <row r="480" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B480" s="2"/>
-      <c r="D480" s="2"/>
+      <c r="D480" s="3"/>
     </row>
     <row r="481" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B481" s="2"/>
-      <c r="D481" s="2"/>
+      <c r="D481" s="3"/>
     </row>
     <row r="482" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B482" s="2"/>
-      <c r="D482" s="2"/>
+      <c r="D482" s="3"/>
     </row>
     <row r="483" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B483" s="2"/>
-      <c r="D483" s="2"/>
+      <c r="D483" s="3"/>
     </row>
     <row r="484" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B484" s="2"/>
-      <c r="D484" s="2"/>
+      <c r="D484" s="3"/>
     </row>
     <row r="485" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B485" s="2"/>
-      <c r="D485" s="2"/>
+      <c r="D485" s="3"/>
     </row>
     <row r="486" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B486" s="2"/>
-      <c r="D486" s="2"/>
+      <c r="D486" s="3"/>
     </row>
     <row r="487" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B487" s="2"/>
-      <c r="D487" s="2"/>
+      <c r="D487" s="3"/>
     </row>
     <row r="488" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B488" s="2"/>
-      <c r="D488" s="2"/>
+      <c r="D488" s="3"/>
     </row>
     <row r="489" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B489" s="2"/>
-      <c r="D489" s="2"/>
+      <c r="D489" s="3"/>
     </row>
     <row r="490" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B490" s="2"/>
-      <c r="D490" s="2"/>
+      <c r="D490" s="3"/>
     </row>
     <row r="491" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B491" s="2"/>
-      <c r="D491" s="2"/>
+      <c r="D491" s="3"/>
     </row>
     <row r="492" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B492" s="2"/>
-      <c r="D492" s="2"/>
+      <c r="D492" s="3"/>
     </row>
     <row r="493" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B493" s="2"/>
-      <c r="D493" s="2"/>
+      <c r="D493" s="3"/>
     </row>
     <row r="494" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B494" s="2"/>
-      <c r="D494" s="2"/>
+      <c r="D494" s="3"/>
     </row>
     <row r="495" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B495" s="2"/>
-      <c r="D495" s="2"/>
+      <c r="D495" s="3"/>
     </row>
     <row r="496" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B496" s="2"/>
-      <c r="D496" s="2"/>
+      <c r="D496" s="3"/>
     </row>
     <row r="497" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B497" s="2"/>
-      <c r="D497" s="2"/>
+      <c r="D497" s="3"/>
     </row>
     <row r="498" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B498" s="2"/>
-      <c r="D498" s="2"/>
+      <c r="D498" s="3"/>
     </row>
     <row r="499" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B499" s="2"/>
-      <c r="D499" s="2"/>
+      <c r="D499" s="3"/>
     </row>
     <row r="500" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B500" s="2"/>
-      <c r="D500" s="2"/>
+      <c r="D500" s="3"/>
     </row>
     <row r="501" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B501" s="2"/>
-      <c r="D501" s="2"/>
+      <c r="D501" s="3"/>
     </row>
     <row r="502" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B502" s="2"/>
-      <c r="D502" s="2"/>
+      <c r="D502" s="3"/>
     </row>
     <row r="503" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B503" s="2"/>
-      <c r="D503" s="2"/>
+      <c r="D503" s="3"/>
     </row>
     <row r="504" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B504" s="2"/>
-      <c r="D504" s="2"/>
+      <c r="D504" s="3"/>
     </row>
     <row r="505" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B505" s="2"/>
-      <c r="D505" s="2"/>
+      <c r="D505" s="3"/>
     </row>
     <row r="506" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B506" s="2"/>
-      <c r="D506" s="2"/>
+      <c r="D506" s="3"/>
     </row>
     <row r="507" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B507" s="2"/>
-      <c r="D507" s="2"/>
+      <c r="D507" s="3"/>
     </row>
     <row r="508" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B508" s="2"/>
-      <c r="D508" s="2"/>
+      <c r="D508" s="3"/>
     </row>
     <row r="509" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B509" s="2"/>
-      <c r="D509" s="2"/>
+      <c r="D509" s="3"/>
     </row>
     <row r="510" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B510" s="2"/>
-      <c r="D510" s="2"/>
+      <c r="D510" s="3"/>
     </row>
     <row r="511" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B511" s="2"/>
-      <c r="D511" s="2"/>
+      <c r="D511" s="3"/>
     </row>
     <row r="512" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B512" s="2"/>
-      <c r="D512" s="2"/>
+      <c r="D512" s="3"/>
     </row>
     <row r="513" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B513" s="2"/>
-      <c r="D513" s="2"/>
+      <c r="D513" s="3"/>
     </row>
     <row r="514" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B514" s="2"/>
-      <c r="D514" s="2"/>
+      <c r="D514" s="3"/>
     </row>
     <row r="515" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B515" s="2"/>
-      <c r="D515" s="2"/>
+      <c r="D515" s="3"/>
     </row>
     <row r="516" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B516" s="2"/>
-      <c r="D516" s="2"/>
+      <c r="D516" s="3"/>
     </row>
     <row r="517" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B517" s="2"/>
-      <c r="D517" s="2"/>
+      <c r="D517" s="3"/>
     </row>
     <row r="518" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B518" s="2"/>
-      <c r="D518" s="2"/>
+      <c r="D518" s="3"/>
     </row>
     <row r="519" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B519" s="2"/>
-      <c r="D519" s="2"/>
+      <c r="D519" s="3"/>
     </row>
     <row r="520" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B520" s="2"/>
-      <c r="D520" s="2"/>
+      <c r="D520" s="3"/>
     </row>
     <row r="521" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B521" s="2"/>
-      <c r="D521" s="2"/>
+      <c r="D521" s="3"/>
     </row>
     <row r="522" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B522" s="2"/>
-      <c r="D522" s="2"/>
+      <c r="D522" s="3"/>
     </row>
     <row r="523" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B523" s="2"/>
-      <c r="D523" s="2"/>
+      <c r="D523" s="3"/>
     </row>
     <row r="524" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B524" s="2"/>
-      <c r="D524" s="2"/>
+      <c r="D524" s="3"/>
     </row>
     <row r="525" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B525" s="2"/>
-      <c r="D525" s="2"/>
+      <c r="D525" s="3"/>
     </row>
     <row r="526" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B526" s="2"/>
-      <c r="D526" s="2"/>
+      <c r="D526" s="3"/>
     </row>
     <row r="527" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B527" s="2"/>
-      <c r="D527" s="2"/>
+      <c r="D527" s="3"/>
     </row>
     <row r="528" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B528" s="2"/>
-      <c r="D528" s="2"/>
+      <c r="D528" s="3"/>
     </row>
     <row r="529" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B529" s="2"/>
-      <c r="D529" s="2"/>
+      <c r="D529" s="3"/>
     </row>
     <row r="530" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B530" s="2"/>
-      <c r="D530" s="2"/>
+      <c r="D530" s="3"/>
     </row>
     <row r="531" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B531" s="2"/>
-      <c r="D531" s="2"/>
+      <c r="D531" s="3"/>
     </row>
     <row r="532" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B532" s="2"/>
-      <c r="D532" s="2"/>
+      <c r="D532" s="3"/>
     </row>
     <row r="533" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B533" s="2"/>
-      <c r="D533" s="2"/>
+      <c r="D533" s="3"/>
     </row>
     <row r="534" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B534" s="2"/>
-      <c r="D534" s="2"/>
+      <c r="D534" s="3"/>
     </row>
     <row r="535" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B535" s="2"/>
-      <c r="D535" s="2"/>
+      <c r="D535" s="3"/>
     </row>
     <row r="536" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B536" s="2"/>
-      <c r="D536" s="2"/>
+      <c r="D536" s="3"/>
     </row>
     <row r="537" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B537" s="2"/>
-      <c r="D537" s="2"/>
+      <c r="D537" s="3"/>
     </row>
     <row r="538" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B538" s="2"/>
-      <c r="D538" s="2"/>
+      <c r="D538" s="3"/>
     </row>
     <row r="539" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B539" s="2"/>
-      <c r="D539" s="2"/>
+      <c r="D539" s="3"/>
     </row>
     <row r="540" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B540" s="2"/>
-      <c r="D540" s="2"/>
+      <c r="D540" s="3"/>
     </row>
     <row r="541" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B541" s="2"/>
-      <c r="D541" s="2"/>
+      <c r="D541" s="3"/>
     </row>
     <row r="542" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B542" s="2"/>
-      <c r="D542" s="2"/>
+      <c r="D542" s="3"/>
     </row>
     <row r="543" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B543" s="2"/>
-      <c r="D543" s="2"/>
+      <c r="D543" s="3"/>
     </row>
     <row r="544" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B544" s="2"/>
-      <c r="D544" s="2"/>
+      <c r="D544" s="3"/>
     </row>
     <row r="545" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B545" s="2"/>
-      <c r="D545" s="2"/>
+      <c r="D545" s="3"/>
     </row>
     <row r="546" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B546" s="2"/>
-      <c r="D546" s="2"/>
+      <c r="D546" s="3"/>
     </row>
     <row r="547" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B547" s="2"/>
-      <c r="D547" s="2"/>
+      <c r="D547" s="3"/>
     </row>
     <row r="548" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B548" s="2"/>
-      <c r="D548" s="2"/>
+      <c r="D548" s="3"/>
     </row>
     <row r="549" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B549" s="2"/>
-      <c r="D549" s="2"/>
+      <c r="D549" s="3"/>
     </row>
     <row r="550" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B550" s="2"/>
-      <c r="D550" s="2"/>
+      <c r="D550" s="3"/>
     </row>
     <row r="551" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B551" s="2"/>
-      <c r="D551" s="2"/>
+      <c r="D551" s="3"/>
     </row>
     <row r="552" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B552" s="2"/>
-      <c r="D552" s="2"/>
+      <c r="D552" s="3"/>
     </row>
     <row r="553" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B553" s="2"/>
-      <c r="D553" s="2"/>
+      <c r="D553" s="3"/>
     </row>
     <row r="554" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B554" s="2"/>
-      <c r="D554" s="2"/>
+      <c r="D554" s="3"/>
     </row>
     <row r="555" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B555" s="2"/>
-      <c r="D555" s="2"/>
+      <c r="D555" s="3"/>
     </row>
     <row r="556" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B556" s="2"/>
-      <c r="D556" s="2"/>
+      <c r="D556" s="3"/>
     </row>
     <row r="557" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B557" s="2"/>
-      <c r="D557" s="2"/>
+      <c r="D557" s="3"/>
     </row>
     <row r="558" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B558" s="2"/>
-      <c r="D558" s="2"/>
+      <c r="D558" s="3"/>
     </row>
     <row r="559" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B559" s="2"/>
-      <c r="D559" s="2"/>
+      <c r="D559" s="3"/>
     </row>
     <row r="560" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B560" s="2"/>
-      <c r="D560" s="2"/>
+      <c r="D560" s="3"/>
     </row>
     <row r="561" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B561" s="2"/>
-      <c r="D561" s="2"/>
+      <c r="D561" s="3"/>
     </row>
     <row r="562" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B562" s="2"/>
-      <c r="D562" s="2"/>
+      <c r="D562" s="3"/>
     </row>
     <row r="563" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B563" s="2"/>
-      <c r="D563" s="2"/>
+      <c r="D563" s="3"/>
     </row>
     <row r="564" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B564" s="2"/>
-      <c r="D564" s="2"/>
+      <c r="D564" s="3"/>
     </row>
     <row r="565" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B565" s="2"/>
-      <c r="D565" s="2"/>
+      <c r="D565" s="3"/>
     </row>
     <row r="566" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B566" s="2"/>
-      <c r="D566" s="2"/>
+      <c r="D566" s="3"/>
     </row>
     <row r="567" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B567" s="2"/>
-      <c r="D567" s="2"/>
+      <c r="D567" s="3"/>
     </row>
     <row r="568" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B568" s="2"/>
-      <c r="D568" s="2"/>
+      <c r="D568" s="3"/>
     </row>
     <row r="569" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B569" s="2"/>
-      <c r="D569" s="2"/>
+      <c r="D569" s="3"/>
     </row>
     <row r="570" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B570" s="2"/>
-      <c r="D570" s="2"/>
+      <c r="D570" s="3"/>
     </row>
     <row r="571" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B571" s="2"/>
-      <c r="D571" s="2"/>
+      <c r="D571" s="3"/>
     </row>
     <row r="572" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B572" s="2"/>
-      <c r="D572" s="2"/>
+      <c r="D572" s="3"/>
     </row>
     <row r="573" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B573" s="2"/>
-      <c r="D573" s="2"/>
+      <c r="D573" s="3"/>
     </row>
     <row r="574" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B574" s="2"/>
-      <c r="D574" s="2"/>
+      <c r="D574" s="3"/>
     </row>
     <row r="575" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B575" s="2"/>
-      <c r="D575" s="2"/>
+      <c r="D575" s="3"/>
     </row>
     <row r="576" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B576" s="2"/>
-      <c r="D576" s="2"/>
+      <c r="D576" s="3"/>
     </row>
     <row r="577" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B577" s="2"/>
-      <c r="D577" s="2"/>
+      <c r="D577" s="3"/>
     </row>
     <row r="578" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B578" s="2"/>
-      <c r="D578" s="2"/>
+      <c r="D578" s="3"/>
     </row>
     <row r="579" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B579" s="2"/>
-      <c r="D579" s="2"/>
+      <c r="D579" s="3"/>
     </row>
     <row r="580" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B580" s="2"/>
-      <c r="D580" s="2"/>
+      <c r="D580" s="3"/>
     </row>
     <row r="581" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B581" s="2"/>
-      <c r="D581" s="2"/>
+      <c r="D581" s="3"/>
     </row>
     <row r="582" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B582" s="2"/>
-      <c r="D582" s="2"/>
+      <c r="D582" s="3"/>
     </row>
     <row r="583" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B583" s="2"/>
-      <c r="D583" s="2"/>
+      <c r="D583" s="3"/>
     </row>
     <row r="584" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B584" s="2"/>
-      <c r="D584" s="2"/>
+      <c r="D584" s="3"/>
     </row>
     <row r="585" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B585" s="2"/>
-      <c r="D585" s="2"/>
+      <c r="D585" s="3"/>
     </row>
     <row r="586" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B586" s="2"/>
-      <c r="D586" s="2"/>
+      <c r="D586" s="3"/>
     </row>
     <row r="587" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B587" s="2"/>
-      <c r="D587" s="2"/>
+      <c r="D587" s="3"/>
     </row>
     <row r="588" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B588" s="2"/>
-      <c r="D588" s="2"/>
+      <c r="D588" s="3"/>
     </row>
     <row r="589" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B589" s="2"/>
-      <c r="D589" s="2"/>
+      <c r="D589" s="3"/>
     </row>
     <row r="590" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B590" s="2"/>
-      <c r="D590" s="2"/>
+      <c r="D590" s="3"/>
     </row>
     <row r="591" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B591" s="2"/>
-      <c r="D591" s="2"/>
+      <c r="D591" s="3"/>
     </row>
     <row r="592" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B592" s="2"/>
-      <c r="D592" s="2"/>
+      <c r="D592" s="3"/>
     </row>
     <row r="593" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B593" s="2"/>
-      <c r="D593" s="2"/>
+      <c r="D593" s="3"/>
     </row>
     <row r="594" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B594" s="2"/>
-      <c r="D594" s="2"/>
+      <c r="D594" s="3"/>
     </row>
     <row r="595" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B595" s="2"/>
-      <c r="D595" s="2"/>
+      <c r="D595" s="3"/>
     </row>
     <row r="596" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B596" s="2"/>
-      <c r="D596" s="2"/>
+      <c r="D596" s="3"/>
     </row>
     <row r="597" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B597" s="2"/>
-      <c r="D597" s="2"/>
+      <c r="D597" s="3"/>
     </row>
     <row r="598" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B598" s="2"/>
-      <c r="D598" s="2"/>
+      <c r="D598" s="3"/>
     </row>
     <row r="599" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B599" s="2"/>
-      <c r="D599" s="2"/>
+      <c r="D599" s="3"/>
     </row>
     <row r="600" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B600" s="2"/>
-      <c r="D600" s="2"/>
+      <c r="D600" s="3"/>
     </row>
     <row r="601" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B601" s="2"/>
-      <c r="D601" s="2"/>
+      <c r="D601" s="3"/>
     </row>
     <row r="602" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B602" s="2"/>
-      <c r="D602" s="2"/>
+      <c r="D602" s="3"/>
     </row>
     <row r="603" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B603" s="2"/>
-      <c r="D603" s="2"/>
+      <c r="D603" s="3"/>
     </row>
     <row r="604" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B604" s="2"/>
-      <c r="D604" s="2"/>
+      <c r="D604" s="3"/>
     </row>
     <row r="605" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B605" s="2"/>
-      <c r="D605" s="2"/>
+      <c r="D605" s="3"/>
     </row>
     <row r="606" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B606" s="2"/>
-      <c r="D606" s="2"/>
+      <c r="D606" s="3"/>
     </row>
     <row r="607" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B607" s="2"/>
-      <c r="D607" s="2"/>
+      <c r="D607" s="3"/>
     </row>
     <row r="608" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B608" s="2"/>
-      <c r="D608" s="2"/>
+      <c r="D608" s="3"/>
     </row>
     <row r="609" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B609" s="2"/>
-      <c r="D609" s="2"/>
+      <c r="D609" s="3"/>
     </row>
     <row r="610" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B610" s="2"/>
-      <c r="D610" s="2"/>
+      <c r="D610" s="3"/>
     </row>
     <row r="611" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B611" s="2"/>
-      <c r="D611" s="2"/>
+      <c r="D611" s="3"/>
     </row>
     <row r="612" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B612" s="2"/>
-      <c r="D612" s="2"/>
+      <c r="D612" s="3"/>
     </row>
     <row r="613" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B613" s="2"/>
-      <c r="D613" s="2"/>
+      <c r="D613" s="3"/>
     </row>
     <row r="614" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B614" s="2"/>
-      <c r="D614" s="2"/>
+      <c r="D614" s="3"/>
     </row>
     <row r="615" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B615" s="2"/>
-      <c r="D615" s="2"/>
+      <c r="D615" s="3"/>
     </row>
     <row r="616" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B616" s="2"/>
-      <c r="D616" s="2"/>
+      <c r="D616" s="3"/>
     </row>
     <row r="617" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B617" s="2"/>
-      <c r="D617" s="2"/>
+      <c r="D617" s="3"/>
     </row>
     <row r="618" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B618" s="2"/>
-      <c r="D618" s="2"/>
+      <c r="D618" s="3"/>
     </row>
     <row r="619" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B619" s="2"/>
-      <c r="D619" s="2"/>
+      <c r="D619" s="3"/>
     </row>
     <row r="620" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B620" s="2"/>
-      <c r="D620" s="2"/>
+      <c r="D620" s="3"/>
     </row>
     <row r="621" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B621" s="2"/>
-      <c r="D621" s="2"/>
+      <c r="D621" s="3"/>
     </row>
     <row r="622" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B622" s="2"/>
-      <c r="D622" s="2"/>
+      <c r="D622" s="3"/>
     </row>
     <row r="623" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B623" s="2"/>
-      <c r="D623" s="2"/>
+      <c r="D623" s="3"/>
     </row>
     <row r="624" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B624" s="2"/>
-      <c r="D624" s="2"/>
+      <c r="D624" s="3"/>
     </row>
     <row r="625" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B625" s="2"/>
-      <c r="D625" s="2"/>
+      <c r="D625" s="3"/>
     </row>
     <row r="626" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B626" s="2"/>
-      <c r="D626" s="2"/>
+      <c r="D626" s="3"/>
     </row>
     <row r="627" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B627" s="2"/>
-      <c r="D627" s="2"/>
+      <c r="D627" s="3"/>
     </row>
     <row r="628" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B628" s="2"/>
-      <c r="D628" s="2"/>
+      <c r="D628" s="3"/>
     </row>
     <row r="629" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B629" s="2"/>
-      <c r="D629" s="2"/>
+      <c r="D629" s="3"/>
     </row>
     <row r="630" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B630" s="2"/>
-      <c r="D630" s="2"/>
+      <c r="D630" s="3"/>
     </row>
     <row r="631" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B631" s="2"/>
-      <c r="D631" s="2"/>
+      <c r="D631" s="3"/>
     </row>
     <row r="632" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B632" s="2"/>
-      <c r="D632" s="2"/>
+      <c r="D632" s="3"/>
     </row>
     <row r="633" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B633" s="2"/>
-      <c r="D633" s="2"/>
+      <c r="D633" s="3"/>
     </row>
     <row r="634" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B634" s="2"/>
-      <c r="D634" s="2"/>
+      <c r="D634" s="3"/>
     </row>
     <row r="635" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B635" s="2"/>
-      <c r="D635" s="2"/>
+      <c r="D635" s="3"/>
     </row>
     <row r="636" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B636" s="2"/>
-      <c r="D636" s="2"/>
+      <c r="D636" s="3"/>
     </row>
     <row r="637" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B637" s="2"/>
-      <c r="D637" s="2"/>
+      <c r="D637" s="3"/>
     </row>
     <row r="638" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B638" s="2"/>
-      <c r="D638" s="2"/>
+      <c r="D638" s="3"/>
     </row>
     <row r="639" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B639" s="2"/>
-      <c r="D639" s="2"/>
+      <c r="D639" s="3"/>
     </row>
     <row r="640" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B640" s="2"/>
-      <c r="D640" s="2"/>
+      <c r="D640" s="3"/>
     </row>
     <row r="641" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B641" s="2"/>
-      <c r="D641" s="2"/>
+      <c r="D641" s="3"/>
     </row>
     <row r="642" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B642" s="2"/>
-      <c r="D642" s="2"/>
+      <c r="D642" s="3"/>
     </row>
     <row r="643" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B643" s="2"/>
-      <c r="D643" s="2"/>
+      <c r="D643" s="3"/>
     </row>
     <row r="644" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B644" s="2"/>
-      <c r="D644" s="2"/>
+      <c r="D644" s="3"/>
     </row>
     <row r="645" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B645" s="2"/>
-      <c r="D645" s="2"/>
+      <c r="D645" s="3"/>
     </row>
     <row r="646" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B646" s="2"/>
-      <c r="D646" s="2"/>
+      <c r="D646" s="3"/>
     </row>
     <row r="647" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B647" s="2"/>
-      <c r="D647" s="2"/>
+      <c r="D647" s="3"/>
     </row>
     <row r="648" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B648" s="2"/>
-      <c r="D648" s="2"/>
+      <c r="D648" s="3"/>
     </row>
     <row r="649" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B649" s="2"/>
-      <c r="D649" s="2"/>
+      <c r="D649" s="3"/>
     </row>
     <row r="650" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B650" s="2"/>
-      <c r="D650" s="2"/>
+      <c r="D650" s="3"/>
     </row>
     <row r="651" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B651" s="2"/>
-      <c r="D651" s="2"/>
+      <c r="D651" s="3"/>
     </row>
     <row r="652" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B652" s="2"/>
-      <c r="D652" s="2"/>
+      <c r="D652" s="3"/>
     </row>
     <row r="653" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B653" s="2"/>
-      <c r="D653" s="2"/>
+      <c r="D653" s="3"/>
     </row>
     <row r="654" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B654" s="2"/>
-      <c r="D654" s="2"/>
+      <c r="D654" s="3"/>
     </row>
     <row r="655" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B655" s="2"/>
-      <c r="D655" s="2"/>
+      <c r="D655" s="3"/>
     </row>
     <row r="656" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B656" s="2"/>
-      <c r="D656" s="2"/>
+      <c r="D656" s="3"/>
     </row>
     <row r="657" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B657" s="2"/>
-      <c r="D657" s="2"/>
+      <c r="D657" s="3"/>
     </row>
     <row r="658" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B658" s="2"/>
-      <c r="D658" s="2"/>
+      <c r="D658" s="3"/>
     </row>
     <row r="659" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B659" s="2"/>
-      <c r="D659" s="2"/>
+      <c r="D659" s="3"/>
     </row>
     <row r="660" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B660" s="2"/>
-      <c r="D660" s="2"/>
+      <c r="D660" s="3"/>
     </row>
     <row r="661" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B661" s="2"/>
-      <c r="D661" s="2"/>
+      <c r="D661" s="3"/>
     </row>
     <row r="662" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B662" s="2"/>
-      <c r="D662" s="2"/>
+      <c r="D662" s="3"/>
     </row>
     <row r="663" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B663" s="2"/>
-      <c r="D663" s="2"/>
+      <c r="D663" s="3"/>
     </row>
     <row r="664" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B664" s="2"/>
-      <c r="D664" s="2"/>
+      <c r="D664" s="3"/>
     </row>
     <row r="665" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B665" s="2"/>
-      <c r="D665" s="2"/>
+      <c r="D665" s="3"/>
     </row>
     <row r="666" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B666" s="2"/>
-      <c r="D666" s="2"/>
+      <c r="D666" s="3"/>
     </row>
     <row r="667" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B667" s="2"/>
-      <c r="D667" s="2"/>
+      <c r="D667" s="3"/>
     </row>
     <row r="668" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B668" s="2"/>
-      <c r="D668" s="2"/>
+      <c r="D668" s="3"/>
     </row>
     <row r="669" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B669" s="2"/>
-      <c r="D669" s="2"/>
+      <c r="D669" s="3"/>
     </row>
     <row r="670" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B670" s="2"/>
-      <c r="D670" s="2"/>
+      <c r="D670" s="3"/>
     </row>
     <row r="671" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B671" s="2"/>
-      <c r="D671" s="2"/>
+      <c r="D671" s="3"/>
     </row>
     <row r="672" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B672" s="2"/>
-      <c r="D672" s="2"/>
+      <c r="D672" s="3"/>
     </row>
     <row r="673" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B673" s="2"/>
-      <c r="D673" s="2"/>
+      <c r="D673" s="3"/>
     </row>
     <row r="674" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B674" s="2"/>
-      <c r="D674" s="2"/>
+      <c r="D674" s="3"/>
     </row>
     <row r="675" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B675" s="2"/>
-      <c r="D675" s="2"/>
+      <c r="D675" s="3"/>
     </row>
     <row r="676" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B676" s="2"/>
-      <c r="D676" s="2"/>
+      <c r="D676" s="3"/>
     </row>
     <row r="677" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B677" s="2"/>
-      <c r="D677" s="2"/>
+      <c r="D677" s="3"/>
     </row>
     <row r="678" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B678" s="2"/>
-      <c r="D678" s="2"/>
+      <c r="D678" s="3"/>
     </row>
     <row r="679" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B679" s="2"/>
-      <c r="D679" s="2"/>
+      <c r="D679" s="3"/>
     </row>
     <row r="680" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B680" s="2"/>
-      <c r="D680" s="2"/>
+      <c r="D680" s="3"/>
     </row>
     <row r="681" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B681" s="2"/>
-      <c r="D681" s="2"/>
+      <c r="D681" s="3"/>
     </row>
     <row r="682" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B682" s="2"/>
-      <c r="D682" s="2"/>
+      <c r="D682" s="3"/>
     </row>
     <row r="683" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B683" s="2"/>
-      <c r="D683" s="2"/>
+      <c r="D683" s="3"/>
     </row>
     <row r="684" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B684" s="2"/>
-      <c r="D684" s="2"/>
+      <c r="D684" s="3"/>
     </row>
     <row r="685" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B685" s="2"/>
-      <c r="D685" s="2"/>
+      <c r="D685" s="3"/>
     </row>
     <row r="686" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B686" s="2"/>
-      <c r="D686" s="2"/>
+      <c r="D686" s="3"/>
     </row>
     <row r="687" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B687" s="2"/>
-      <c r="D687" s="2"/>
+      <c r="D687" s="3"/>
     </row>
     <row r="688" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B688" s="2"/>
-      <c r="D688" s="2"/>
+      <c r="D688" s="3"/>
     </row>
     <row r="689" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B689" s="2"/>
-      <c r="D689" s="2"/>
+      <c r="D689" s="3"/>
     </row>
     <row r="690" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B690" s="2"/>
-      <c r="D690" s="2"/>
+      <c r="D690" s="3"/>
     </row>
     <row r="691" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B691" s="2"/>
-      <c r="D691" s="2"/>
+      <c r="D691" s="3"/>
     </row>
     <row r="692" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B692" s="2"/>
-      <c r="D692" s="2"/>
+      <c r="D692" s="3"/>
     </row>
     <row r="693" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B693" s="2"/>
-      <c r="D693" s="2"/>
+      <c r="D693" s="3"/>
     </row>
     <row r="694" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B694" s="2"/>
-      <c r="D694" s="2"/>
+      <c r="D694" s="3"/>
     </row>
     <row r="695" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B695" s="2"/>
-      <c r="D695" s="2"/>
+      <c r="D695" s="3"/>
     </row>
     <row r="696" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B696" s="2"/>
-      <c r="D696" s="2"/>
+      <c r="D696" s="3"/>
     </row>
     <row r="697" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B697" s="2"/>
-      <c r="D697" s="2"/>
+      <c r="D697" s="3"/>
     </row>
     <row r="698" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B698" s="2"/>
-      <c r="D698" s="2"/>
+      <c r="D698" s="3"/>
     </row>
     <row r="699" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B699" s="2"/>
-      <c r="D699" s="2"/>
+      <c r="D699" s="3"/>
     </row>
     <row r="700" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B700" s="2"/>
-      <c r="D700" s="2"/>
+      <c r="D700" s="3"/>
     </row>
     <row r="701" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B701" s="2"/>
-      <c r="D701" s="2"/>
+      <c r="D701" s="3"/>
     </row>
     <row r="702" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B702" s="2"/>
-      <c r="D702" s="2"/>
+      <c r="D702" s="3"/>
     </row>
     <row r="703" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B703" s="2"/>
-      <c r="D703" s="2"/>
+      <c r="D703" s="3"/>
     </row>
     <row r="704" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B704" s="2"/>
-      <c r="D704" s="2"/>
+      <c r="D704" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/others/Доработки_исправления.xlsx
+++ b/others/Доработки_исправления.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\BAXI_JB\Projects\Разработка_ГПХ\ТЗ\ТЗ_10_Новый релиз модуля\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{638951B7-49C0-4061-A773-F5E70EB9BF9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B15A2C4B-310C-47A8-88B8-C9F2B4F57EB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{204294F0-2236-4BCB-9743-7425936B9BFF}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="30">
   <si>
     <t>Место</t>
   </si>
@@ -246,6 +246,177 @@
   </si>
   <si>
     <t>При добавлении новый вопрос, в поле вопрос курсор необходимо ставить слева, вбольшинстве случаев куами попадаю в право и нет возможность набрать номер ворот</t>
+  </si>
+  <si>
+    <t>Справочники -&gt; Транспортные компании</t>
+  </si>
+  <si>
+    <t>При добавлении новой ТК - ошибка</t>
+  </si>
+  <si>
+    <t>Подробная информация об использовании оперативной 
+(JIT) отладки вместо данного диалогового 
+окна содержится в конце этого сообщения.
+************** Текст исключения **************
+System.InvalidOperationException: Нулевой объект должен иметь значение.
+   в System.ThrowHelper.ThrowInvalidOperationException(ExceptionResource resource)
+   в System.Nullable`1.get_Value()
+   в Planning.TransportCompanyFormEdit.Populate()
+   в Planning.DictEditForm.DictEditForm_Load(Object sender, EventArgs e)
+   в System.Windows.Forms.Form.OnLoad(EventArgs e)
+   в System.Windows.Forms.Form.OnCreateControl()
+   в System.Windows.Forms.Control.CreateControl(Boolean fIgnoreVisible)
+   в System.Windows.Forms.Control.CreateControl()
+   в System.Windows.Forms.Control.WmShowWindow(Message&amp; m)
+   в System.Windows.Forms.Control.WndProc(Message&amp; m)
+   в System.Windows.Forms.ScrollableControl.WndProc(Message&amp; m)
+   в System.Windows.Forms.Form.WmShowWindow(Message&amp; m)
+   в System.Windows.Forms.Form.WndProc(Message&amp; m)
+   в System.Windows.Forms.Control.ControlNativeWindow.OnMessage(Message&amp; m)
+   в System.Windows.Forms.Control.ControlNativeWindow.WndProc(Message&amp; m)
+   в System.Windows.Forms.NativeWindow.Callback(IntPtr hWnd, Int32 msg, IntPtr wparam, IntPtr lparam)
+************** Загруженные сборки **************
+mscorlib
+    Версия сборки: 4.0.0.0
+    Версия Win32: 4.8.9310.0 built by: NET481REL1LAST_C
+    CodeBase: file:///C:/Windows/Microsoft.NET/Framework/v4.0.30319/mscorlib.dll
+----------------------------------------
+Planning
+    Версия сборки: 2.0.0.2
+    Версия Win32: 2.0.0.2
+    CodeBase: file:///C:/Planning_NRelease/Planning.exe
+----------------------------------------
+System.Windows.Forms
+    Версия сборки: 4.0.0.0
+    Версия Win32: 4.8.9251.0 built by: NET481REL1LAST_C
+    CodeBase: file:///C:/WINDOWS/Microsoft.Net/assembly/GAC_MSIL/System.Windows.Forms/v4.0_4.0.0.0__b77a5c561934e089/System.Windows.Forms.dll
+----------------------------------------
+System
+    Версия сборки: 4.0.0.0
+    Версия Win32: 4.8.9310.0 built by: NET481REL1LAST_C
+    CodeBase: file:///C:/WINDOWS/Microsoft.Net/assembly/GAC_MSIL/System/v4.0_4.0.0.0__b77a5c561934e089/System.dll
+----------------------------------------
+System.Drawing
+    Версия сборки: 4.0.0.0
+    Версия Win32: 4.8.9037.0 built by: NET481REL1
+    CodeBase: file:///C:/WINDOWS/Microsoft.Net/assembly/GAC_MSIL/System.Drawing/v4.0_4.0.0.0__b03f5f7f11d50a3a/System.Drawing.dll
+----------------------------------------
+ObjectListView
+    Версия сборки: 2.9.3.0
+    Версия Win32: 2.9.3
+    CodeBase: file:///C:/Planning_NRelease/ObjectListView.DLL
+----------------------------------------
+System.Configuration
+    Версия сборки: 4.0.0.0
+    Версия Win32: 4.8.9037.0 built by: NET481REL1
+    CodeBase: file:///C:/WINDOWS/Microsoft.Net/assembly/GAC_MSIL/System.Configuration/v4.0_4.0.0.0__b03f5f7f11d50a3a/System.Configuration.dll
+----------------------------------------
+System.Core
+    Версия сборки: 4.0.0.0
+    Версия Win32: 4.8.9297.0 built by: NET481REL1LAST_C
+    CodeBase: file:///C:/WINDOWS/Microsoft.Net/assembly/GAC_MSIL/System.Core/v4.0_4.0.0.0__b77a5c561934e089/System.Core.dll
+----------------------------------------
+System.Xml
+    Версия сборки: 4.0.0.0
+    Версия Win32: 4.8.9037.0 built by: NET481REL1
+    CodeBase: file:///C:/WINDOWS/Microsoft.Net/assembly/GAC_MSIL/System.Xml/v4.0_4.0.0.0__b77a5c561934e089/System.Xml.dll
+----------------------------------------
+System.Windows.Forms.resources
+    Версия сборки: 4.0.0.0
+    Версия Win32: 4.8.9037.0 built by: NET481REL1
+    CodeBase: file:///C:/WINDOWS/Microsoft.Net/assembly/GAC_MSIL/System.Windows.Forms.resources/v4.0_4.0.0.0_ru_b77a5c561934e089/System.Windows.Forms.resources.dll
+----------------------------------------
+Planning.Kernel
+    Версия сборки: 1.0.0.2
+    Версия Win32: 1.0.0.2
+    CodeBase: file:///C:/Planning_NRelease/Planning.Kernel.DLL
+----------------------------------------
+Planning.DataLayer
+    Версия сборки: 1.0.0.3
+    Версия Win32: 1.0.0.3
+    CodeBase: file:///C:/Planning_NRelease/Planning.DataLayer.DLL
+----------------------------------------
+System.Data
+    Версия сборки: 4.0.0.0
+    Версия Win32: 4.8.9214.0 built by: NET481REL1LAST_B
+    CodeBase: file:///C:/WINDOWS/Microsoft.Net/assembly/GAC_32/System.Data/v4.0_4.0.0.0__b77a5c561934e089/System.Data.dll
+----------------------------------------
+System.Data.resources
+    Версия сборки: 4.0.0.0
+    Версия Win32: 4.8.9037.0 built by: NET481REL1
+    CodeBase: file:///C:/WINDOWS/Microsoft.Net/assembly/GAC_MSIL/System.Data.resources/v4.0_4.0.0.0_ru_b77a5c561934e089/System.Data.resources.dll
+----------------------------------------
+Dapper
+    Версия сборки: 2.0.0.0
+    Версия Win32: 2.0.123.33578
+    CodeBase: file:///C:/Planning_NRelease/Dapper.DLL
+----------------------------------------
+System.Xml.Linq
+    Версия сборки: 4.0.0.0
+    Версия Win32: 4.8.9037.0 built by: NET481REL1
+    CodeBase: file:///C:/WINDOWS/Microsoft.Net/assembly/GAC_MSIL/System.Xml.Linq/v4.0_4.0.0.0__b77a5c561934e089/System.Xml.Linq.dll
+----------------------------------------
+System.Transactions
+    Версия сборки: 4.0.0.0
+    Версия Win32: 4.8.9037.0 built by: NET481REL1
+    CodeBase: file:///C:/WINDOWS/Microsoft.Net/assembly/GAC_32/System.Transactions/v4.0_4.0.0.0__b77a5c561934e089/System.Transactions.dll
+----------------------------------------
+System.EnterpriseServices
+    Версия сборки: 4.0.0.0
+    Версия Win32: 4.8.9037.0 built by: NET481REL1
+    CodeBase: file:///C:/WINDOWS/Microsoft.Net/assembly/GAC_32/System.EnterpriseServices/v4.0_4.0.0.0__b03f5f7f11d50a3a/System.EnterpriseServices.dll
+----------------------------------------
+System.Runtime.Caching
+    Версия сборки: 4.0.0.0
+    Версия Win32: 4.8.9277.0
+    CodeBase: file:///C:/WINDOWS/Microsoft.Net/assembly/GAC_MSIL/System.Runtime.Caching/v4.0_4.0.0.0__b03f5f7f11d50a3a/System.Runtime.Caching.dll
+----------------------------------------
+mscorlib.resources
+    Версия сборки: 4.0.0.0
+    Версия Win32: 4.8.9037.0 built by: NET481REL1
+    CodeBase: file:///C:/WINDOWS/Microsoft.Net/assembly/GAC_MSIL/mscorlib.resources/v4.0_4.0.0.0_ru_b77a5c561934e089/mscorlib.resources.dll
+----------------------------------------
+Accessibility
+    Версия сборки: 4.0.0.0
+    Версия Win32: 4.8.9037.0 built by: NET481REL1
+    CodeBase: file:///C:/WINDOWS/Microsoft.Net/assembly/GAC_MSIL/Accessibility/v4.0_4.0.0.0__b03f5f7f11d50a3a/Accessibility.dll
+----------------------------------------
+System.ComponentModel.DataAnnotations
+    Версия сборки: 4.0.0.0
+    Версия Win32: 4.8.9037.0
+    CodeBase: file:///C:/WINDOWS/Microsoft.Net/assembly/GAC_MSIL/System.ComponentModel.DataAnnotations/v4.0_4.0.0.0__31bf3856ad364e35/System.ComponentModel.DataAnnotations.dll
+----------------------------------------
+************** Оперативная отладка (JIT) **************
+Для подключения оперативной (JIT) отладки файл .config данного
+приложения или компьютера (machine.config) должен иметь
+значение jitDebugging, установленное в секции system.windows.forms.
+Приложение также должно быть скомпилировано с включенной
+отладкой.
+Например:
+&lt;configuration&gt;
+    &lt;system.windows.forms jitDebugging="true" /&gt;
+&lt;/configuration&gt;
+При включенной отладке JIT любое необрабатываемое исключение
+пересылается отладчику JIT, зарегистрированному на данном компьютере,
+вместо того чтобы обрабатываться данным диалоговым окном.</t>
+  </si>
+  <si>
+    <t>Справочники -&gt; Поставщики</t>
+  </si>
+  <si>
+    <t>Меню модификации справочника неактивно</t>
+  </si>
+  <si>
+    <t>Справочники -&gt; Виды транспорта</t>
+  </si>
+  <si>
+    <t>Справочник не открывается</t>
+  </si>
+  <si>
+    <t>Справочники -&gt; Склады</t>
+  </si>
+  <si>
+    <t>Справочники -&gt; Таможенные посты</t>
   </si>
 </sst>
 </file>
@@ -662,6 +833,50 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>3657143</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>1190476</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Рисунок 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC7FCA7F-4F1A-9B57-C4BE-E9FEA1ED90EA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6924675" y="14478000"/>
+          <a:ext cx="3657143" cy="1190476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1034,12 +1249,12 @@
   <dimension ref="A1:D704"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="32.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="45.140625" style="1" customWidth="1"/>
     <col min="3" max="3" width="62.5703125" style="2" customWidth="1"/>
     <col min="4" max="4" width="76.42578125" customWidth="1"/>
   </cols>
@@ -1180,44 +1395,66 @@
       </c>
       <c r="D11" s="8"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <v>11</v>
       </c>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="8"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B12" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <v>12</v>
       </c>
-      <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
+      <c r="B13" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>25</v>
+      </c>
       <c r="D13" s="8"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <v>13</v>
       </c>
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
+      <c r="B14" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>27</v>
+      </c>
       <c r="D14" s="8"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
         <v>14</v>
       </c>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
+      <c r="B15" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>25</v>
+      </c>
       <c r="D15" s="8"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
         <v>15</v>
       </c>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
+      <c r="B16" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>25</v>
+      </c>
       <c r="D16" s="8"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">

--- a/others/Доработки_исправления.xlsx
+++ b/others/Доработки_исправления.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\BAXI_JB\Projects\Разработка_ГПХ\ТЗ\ТЗ_10_Новый релиз модуля\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B15A2C4B-310C-47A8-88B8-C9F2B4F57EB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90526683-6BBE-4894-BE2D-7402503F0AE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{204294F0-2236-4BCB-9743-7425936B9BFF}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="33">
   <si>
     <t>Место</t>
   </si>
@@ -418,6 +418,157 @@
   <si>
     <t>Справочники -&gt; Таможенные посты</t>
   </si>
+  <si>
+    <t>После добавления нового поста, новая запись задублиовалась, удалил одну строку, при вопытке уделания второй, система вернула ошибку</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Подробная информация об использовании оперативной 
+(JIT) отладки вместо данного диалогового 
+окна содержится в конце этого сообщения.
+************** Текст исключения **************
+System.Exception: The DELETE statement conflicted with the REFERENCE constraint "FK_custom_post_fk". The conflict occurred in database "Planning_NRelease", table "dbo.delivery_period", column 'custom_post_id'.
+The statement has been terminated.
+   в Planning.Kernel.BaseRepository`2.Save(T Item) в C:\Users\d.zhuravlev\Planning\Planning_TestVer\Planning.Kernel\BaseObjects\BaseRepository.cs:строка 106
+   в Planning.DictFormEx`2.DelRow()
+   в Planning.DictFormEx`2.btnDelRow_Click(Object sender, EventArgs e)
+   в System.Windows.Forms.ToolStripItem.RaiseEvent(Object key, EventArgs e)
+   в System.Windows.Forms.ToolStripButton.OnClick(EventArgs e)
+   в System.Windows.Forms.ToolStripItem.HandleClick(EventArgs e)
+   в System.Windows.Forms.ToolStripItem.HandleMouseUp(MouseEventArgs e)
+   в System.Windows.Forms.ToolStripItem.FireEventInteractive(EventArgs e, ToolStripItemEventType met)
+   в System.Windows.Forms.ToolStripItem.FireEvent(EventArgs e, ToolStripItemEventType met)
+   в System.Windows.Forms.ToolStrip.OnMouseUp(MouseEventArgs mea)
+   в System.Windows.Forms.Control.WmMouseUp(Message&amp; m, MouseButtons button, Int32 clicks)
+   в System.Windows.Forms.Control.WndProc(Message&amp; m)
+   в System.Windows.Forms.ScrollableControl.WndProc(Message&amp; m)
+   в System.Windows.Forms.ToolStrip.WndProc(Message&amp; m)
+   в System.Windows.Forms.Control.ControlNativeWindow.OnMessage(Message&amp; m)
+   в System.Windows.Forms.Control.ControlNativeWindow.WndProc(Message&amp; m)
+   в System.Windows.Forms.NativeWindow.Callback(IntPtr hWnd, Int32 msg, IntPtr wparam, IntPtr lparam)
+************** Загруженные сборки **************
+mscorlib
+    Версия сборки: 4.0.0.0
+    Версия Win32: 4.8.9310.0 built by: NET481REL1LAST_C
+    CodeBase: file:///C:/Windows/Microsoft.NET/Framework/v4.0.30319/mscorlib.dll
+----------------------------------------
+Planning
+    Версия сборки: 2.0.0.2
+    Версия Win32: 2.0.0.2
+    CodeBase: file:///C:/Planning_NRelease/Planning.exe
+----------------------------------------
+System.Windows.Forms
+    Версия сборки: 4.0.0.0
+    Версия Win32: 4.8.9251.0 built by: NET481REL1LAST_C
+    CodeBase: file:///C:/WINDOWS/Microsoft.Net/assembly/GAC_MSIL/System.Windows.Forms/v4.0_4.0.0.0__b77a5c561934e089/System.Windows.Forms.dll
+----------------------------------------
+System
+    Версия сборки: 4.0.0.0
+    Версия Win32: 4.8.9310.0 built by: NET481REL1LAST_C
+    CodeBase: file:///C:/WINDOWS/Microsoft.Net/assembly/GAC_MSIL/System/v4.0_4.0.0.0__b77a5c561934e089/System.dll
+----------------------------------------
+System.Drawing
+    Версия сборки: 4.0.0.0
+    Версия Win32: 4.8.9037.0 built by: NET481REL1
+    CodeBase: file:///C:/WINDOWS/Microsoft.Net/assembly/GAC_MSIL/System.Drawing/v4.0_4.0.0.0__b03f5f7f11d50a3a/System.Drawing.dll
+----------------------------------------
+ObjectListView
+    Версия сборки: 2.9.3.0
+    Версия Win32: 2.9.3
+    CodeBase: file:///C:/Planning_NRelease/ObjectListView.DLL
+----------------------------------------
+System.Configuration
+    Версия сборки: 4.0.0.0
+    Версия Win32: 4.8.9037.0 built by: NET481REL1
+    CodeBase: file:///C:/WINDOWS/Microsoft.Net/assembly/GAC_MSIL/System.Configuration/v4.0_4.0.0.0__b03f5f7f11d50a3a/System.Configuration.dll
+----------------------------------------
+System.Core
+    Версия сборки: 4.0.0.0
+    Версия Win32: 4.8.9297.0 built by: NET481REL1LAST_C
+    CodeBase: file:///C:/WINDOWS/Microsoft.Net/assembly/GAC_MSIL/System.Core/v4.0_4.0.0.0__b77a5c561934e089/System.Core.dll
+----------------------------------------
+System.Xml
+    Версия сборки: 4.0.0.0
+    Версия Win32: 4.8.9037.0 built by: NET481REL1
+    CodeBase: file:///C:/WINDOWS/Microsoft.Net/assembly/GAC_MSIL/System.Xml/v4.0_4.0.0.0__b77a5c561934e089/System.Xml.dll
+----------------------------------------
+System.Windows.Forms.resources
+    Версия сборки: 4.0.0.0
+    Версия Win32: 4.8.9037.0 built by: NET481REL1
+    CodeBase: file:///C:/WINDOWS/Microsoft.Net/assembly/GAC_MSIL/System.Windows.Forms.resources/v4.0_4.0.0.0_ru_b77a5c561934e089/System.Windows.Forms.resources.dll
+----------------------------------------
+Planning.Kernel
+    Версия сборки: 1.0.0.2
+    Версия Win32: 1.0.0.2
+    CodeBase: file:///C:/Planning_NRelease/Planning.Kernel.DLL
+----------------------------------------
+Planning.DataLayer
+    Версия сборки: 1.0.0.3
+    Версия Win32: 1.0.0.3
+    CodeBase: file:///C:/Planning_NRelease/Planning.DataLayer.DLL
+----------------------------------------
+System.Data
+    Версия сборки: 4.0.0.0
+    Версия Win32: 4.8.9214.0 built by: NET481REL1LAST_B
+    CodeBase: file:///C:/WINDOWS/Microsoft.Net/assembly/GAC_32/System.Data/v4.0_4.0.0.0__b77a5c561934e089/System.Data.dll
+----------------------------------------
+System.Data.resources
+    Версия сборки: 4.0.0.0
+    Версия Win32: 4.8.9037.0 built by: NET481REL1
+    CodeBase: file:///C:/WINDOWS/Microsoft.Net/assembly/GAC_MSIL/System.Data.resources/v4.0_4.0.0.0_ru_b77a5c561934e089/System.Data.resources.dll
+----------------------------------------
+Dapper
+    Версия сборки: 2.0.0.0
+    Версия Win32: 2.0.123.33578
+    CodeBase: file:///C:/Planning_NRelease/Dapper.DLL
+----------------------------------------
+System.Xml.Linq
+    Версия сборки: 4.0.0.0
+    Версия Win32: 4.8.9037.0 built by: NET481REL1
+    CodeBase: file:///C:/WINDOWS/Microsoft.Net/assembly/GAC_MSIL/System.Xml.Linq/v4.0_4.0.0.0__b77a5c561934e089/System.Xml.Linq.dll
+----------------------------------------
+System.Transactions
+    Версия сборки: 4.0.0.0
+    Версия Win32: 4.8.9037.0 built by: NET481REL1
+    CodeBase: file:///C:/WINDOWS/Microsoft.Net/assembly/GAC_32/System.Transactions/v4.0_4.0.0.0__b77a5c561934e089/System.Transactions.dll
+----------------------------------------
+System.EnterpriseServices
+    Версия сборки: 4.0.0.0
+    Версия Win32: 4.8.9037.0 built by: NET481REL1
+    CodeBase: file:///C:/WINDOWS/Microsoft.Net/assembly/GAC_32/System.EnterpriseServices/v4.0_4.0.0.0__b03f5f7f11d50a3a/System.EnterpriseServices.dll
+----------------------------------------
+System.Runtime.Caching
+    Версия сборки: 4.0.0.0
+    Версия Win32: 4.8.9277.0
+    CodeBase: file:///C:/WINDOWS/Microsoft.Net/assembly/GAC_MSIL/System.Runtime.Caching/v4.0_4.0.0.0__b03f5f7f11d50a3a/System.Runtime.Caching.dll
+----------------------------------------
+mscorlib.resources
+    Версия сборки: 4.0.0.0
+    Версия Win32: 4.8.9037.0 built by: NET481REL1
+    CodeBase: file:///C:/WINDOWS/Microsoft.Net/assembly/GAC_MSIL/mscorlib.resources/v4.0_4.0.0.0_ru_b77a5c561934e089/mscorlib.resources.dll
+----------------------------------------
+Accessibility
+    Версия сборки: 4.0.0.0
+    Версия Win32: 4.8.9037.0 built by: NET481REL1
+    CodeBase: file:///C:/WINDOWS/Microsoft.Net/assembly/GAC_MSIL/Accessibility/v4.0_4.0.0.0__b03f5f7f11d50a3a/Accessibility.dll
+----------------------------------------
+************** Оперативная отладка (JIT) **************
+Для подключения оперативной (JIT) отладки файл .config данного
+приложения или компьютера (machine.config) должен иметь
+значение jitDebugging, установленное в секции system.windows.forms.
+Приложение также должно быть скомпилировано с включенной
+отладкой.
+Например:
+&lt;configuration&gt;
+    &lt;system.windows.forms jitDebugging="true" /&gt;
+&lt;/configuration&gt;
+При включенной отладке JIT любое необрабатываемое исключение
+пересылается отладчику JIT, зарегистрированному на данном компьютере,
+вместо того чтобы обрабатываться данным диалоговым окном.
+</t>
+  </si>
+  <si>
+    <t>Принажати ПКМ на строке не появляется контекстное меню "печать, детализация"</t>
+  </si>
 </sst>
 </file>
 
@@ -448,7 +599,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -458,6 +609,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -552,7 +709,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -592,6 +749,15 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1248,8 +1414,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E90604C0-4137-4005-8055-460C411A8BE2}">
   <dimension ref="A1:D704"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="C20" sqref="C19:C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1421,7 +1587,7 @@
       </c>
       <c r="D13" s="8"/>
     </row>
-    <row r="14" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <v>13</v>
       </c>
@@ -1437,195 +1603,224 @@
       <c r="A15" s="7">
         <v>14</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="C15" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="D15" s="8"/>
+      <c r="D15" s="16"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
         <v>15</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="9" t="s">
+      <c r="C16" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="D16" s="8"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D16" s="16"/>
+    </row>
+    <row r="17" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
         <v>16</v>
       </c>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="8"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B17" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="7">
         <v>17</v>
       </c>
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
+      <c r="B18" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>32</v>
+      </c>
       <c r="D18" s="8"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="7">
         <v>18</v>
       </c>
-      <c r="B19" s="2"/>
-      <c r="D19" s="3"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="8"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="7">
         <v>19</v>
       </c>
-      <c r="B20" s="2"/>
-      <c r="D20" s="3"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="8"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="7">
         <v>20</v>
       </c>
-      <c r="B21" s="2"/>
-      <c r="D21" s="3"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="8"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="7">
         <v>21</v>
       </c>
-      <c r="B22" s="2"/>
-      <c r="D22" s="3"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="8"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="7">
         <v>22</v>
       </c>
-      <c r="B23" s="2"/>
-      <c r="D23" s="3"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="8"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="7">
         <v>23</v>
       </c>
-      <c r="B24" s="2"/>
-      <c r="D24" s="3"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="8"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="7">
         <v>24</v>
       </c>
-      <c r="B25" s="2"/>
-      <c r="D25" s="3"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="8"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="7">
         <v>25</v>
       </c>
-      <c r="B26" s="2"/>
-      <c r="D26" s="3"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="8"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="7">
         <v>26</v>
       </c>
-      <c r="B27" s="2"/>
-      <c r="D27" s="3"/>
+      <c r="B27" s="9"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="8"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="7">
         <v>27</v>
       </c>
-      <c r="B28" s="2"/>
-      <c r="D28" s="3"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="8"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="7">
         <v>28</v>
       </c>
-      <c r="B29" s="2"/>
-      <c r="D29" s="3"/>
+      <c r="B29" s="9"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="8"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="7">
         <v>29</v>
       </c>
-      <c r="B30" s="2"/>
-      <c r="D30" s="3"/>
+      <c r="B30" s="9"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="8"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="7">
         <v>30</v>
       </c>
-      <c r="B31" s="2"/>
-      <c r="D31" s="3"/>
+      <c r="B31" s="9"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="8"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="7">
         <v>31</v>
       </c>
-      <c r="B32" s="2"/>
-      <c r="D32" s="3"/>
+      <c r="B32" s="9"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="8"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="7">
         <v>32</v>
       </c>
-      <c r="B33" s="2"/>
-      <c r="D33" s="3"/>
+      <c r="B33" s="9"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="8"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="7">
         <v>33</v>
       </c>
-      <c r="B34" s="2"/>
-      <c r="D34" s="3"/>
+      <c r="B34" s="9"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="8"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="7">
         <v>34</v>
       </c>
-      <c r="B35" s="2"/>
-      <c r="D35" s="3"/>
+      <c r="B35" s="9"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="8"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="7">
         <v>35</v>
       </c>
-      <c r="B36" s="2"/>
-      <c r="D36" s="3"/>
+      <c r="B36" s="9"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="8"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="7">
         <v>36</v>
       </c>
-      <c r="B37" s="2"/>
-      <c r="D37" s="3"/>
+      <c r="B37" s="9"/>
+      <c r="C37" s="9"/>
+      <c r="D37" s="8"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="7">
         <v>37</v>
       </c>
-      <c r="B38" s="2"/>
-      <c r="D38" s="3"/>
+      <c r="B38" s="9"/>
+      <c r="C38" s="9"/>
+      <c r="D38" s="8"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="7">
         <v>38</v>
       </c>
-      <c r="B39" s="2"/>
-      <c r="D39" s="3"/>
+      <c r="B39" s="9"/>
+      <c r="C39" s="9"/>
+      <c r="D39" s="8"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="7">
         <v>39</v>
       </c>
-      <c r="B40" s="2"/>
-      <c r="D40" s="3"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="7">

--- a/others/Доработки_исправления.xlsx
+++ b/others/Доработки_исправления.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\BAXI_JB\Projects\Разработка_ГПХ\ТЗ\ТЗ_10_Новый релиз модуля\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90526683-6BBE-4894-BE2D-7402503F0AE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD5F383F-E3BE-4B83-95A0-99B3486D279A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{204294F0-2236-4BCB-9743-7425936B9BFF}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{204294F0-2236-4BCB-9743-7425936B9BFF}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -599,18 +599,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.34998626667073579"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -709,7 +703,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -742,23 +736,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1414,8 +1402,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E90604C0-4137-4005-8055-460C411A8BE2}">
   <dimension ref="A1:D704"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="C20" sqref="C19:C20"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1429,7 +1417,7 @@
       <c r="A1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="12" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="5" t="s">
@@ -1488,25 +1476,25 @@
       <c r="D5" s="8"/>
     </row>
     <row r="6" spans="1:4" ht="99" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="12">
+      <c r="A6" s="15">
         <v>5</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="13" t="s">
         <v>9</v>
       </c>
       <c r="D6" s="8"/>
     </row>
     <row r="7" spans="1:4" ht="168" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="7">
+      <c r="A7" s="15">
         <v>6</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="13" t="s">
         <v>12</v>
       </c>
       <c r="D7" s="8"/>
@@ -1603,31 +1591,31 @@
       <c r="A15" s="7">
         <v>14</v>
       </c>
-      <c r="B15" s="15" t="s">
+      <c r="B15" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="15" t="s">
+      <c r="C15" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="D15" s="16"/>
+      <c r="D15" s="13"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
         <v>15</v>
       </c>
-      <c r="B16" s="15" t="s">
+      <c r="B16" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="15" t="s">
+      <c r="C16" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="D16" s="16"/>
+      <c r="D16" s="13"/>
     </row>
     <row r="17" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
         <v>16</v>
       </c>
-      <c r="B17" s="17" t="s">
+      <c r="B17" s="14" t="s">
         <v>29</v>
       </c>
       <c r="C17" s="9" t="s">

--- a/others/Доработки_исправления.xlsx
+++ b/others/Доработки_исправления.xlsx
@@ -1,22 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\BAXI_JB\Projects\Разработка_ГПХ\ТЗ\репа\TestProjects\others\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5DAE9BC-FA74-400E-B3DC-5F4F3BFC9449}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="0"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Лист2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="36">
   <si>
-    <t xml:space="preserve">№ ПП</t>
+    <t>№ ПП</t>
   </si>
   <si>
     <t>Место</t>
@@ -28,47 +35,47 @@
     <t>Пример</t>
   </si>
   <si>
-    <t xml:space="preserve">Главная форма</t>
+    <t>Главная форма</t>
   </si>
   <si>
-    <t xml:space="preserve">На основном экране, если развернуть форму, то она накрывает панель задач. Необходимо разворачивать до панели задачь</t>
+    <t>На основном экране, если развернуть форму, то она накрывает панель задач. Необходимо разворачивать до панели задачь</t>
   </si>
   <si>
-    <t xml:space="preserve">Донастроить чередование цветов в табличной части главной формы</t>
+    <t>Донастроить чередование цветов в табличной части главной формы</t>
   </si>
   <si>
     <t xml:space="preserve">"Выровнять" дизайн всех чекбоксов в один стиль </t>
   </si>
   <si>
-    <t xml:space="preserve">Убрать поля-артефакты</t>
+    <t>Убрать поля-артефакты</t>
   </si>
   <si>
-    <t xml:space="preserve">Справочники -&gt; Депозиторы</t>
+    <t>Справочники -&gt; Депозиторы</t>
   </si>
   <si>
-    <t xml:space="preserve">После изменения параметра "База данных" и повторном открытии модуля, данная настройка возвращается к исходному значению = "Lvision", при этом появляется пустая строка</t>
+    <t>После изменения параметра "База данных" и повторном открытии модуля, данная настройка возвращается к исходному значению = "Lvision", при этом появляется пустая строка</t>
   </si>
   <si>
-    <t xml:space="preserve">Форма создания отгрузки - таймслот</t>
+    <t>Форма создания отгрузки - таймслот</t>
   </si>
   <si>
-    <t xml:space="preserve">Указан путь до объекта, вместо списка таймслотов</t>
+    <t>Указан путь до объекта, вместо списка таймслотов</t>
   </si>
   <si>
     <t xml:space="preserve">Главная форма </t>
   </si>
   <si>
-    <t xml:space="preserve">После создания отгрузки остаются пустыми столбцы:
+    <t>После создания отгрузки остаются пустыми столбцы:
 код заказа, тип заказа, клиент, статус</t>
   </si>
   <si>
-    <t xml:space="preserve">Не работает поиск</t>
+    <t>Не работает поиск</t>
   </si>
   <si>
-    <t xml:space="preserve">Форма редактирования заказа</t>
+    <t>Форма редактирования заказа</t>
   </si>
   <si>
-    <t xml:space="preserve">Ошибка при добавлении доп расходной партии в отгрузку</t>
+    <t>Ошибка при добавлении доп расходной партии в отгрузку</t>
   </si>
   <si>
     <t xml:space="preserve">Подробная информация об использовании оперативной 
@@ -219,19 +226,19 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Спарвочники - Ворота</t>
+    <t>Спарвочники - Ворота</t>
   </si>
   <si>
-    <t xml:space="preserve">При добавлении новый вопрос, в поле вопрос курсор необходимо ставить слева, вбольшинстве случаев куами попадаю в право и нет возможность набрать номер ворот</t>
+    <t>При добавлении новый вопрос, в поле вопрос курсор необходимо ставить слева, вбольшинстве случаев куами попадаю в право и нет возможность набрать номер ворот</t>
   </si>
   <si>
-    <t xml:space="preserve">Справочники -&gt; Транспортные компании</t>
+    <t>Справочники -&gt; Транспортные компании</t>
   </si>
   <si>
-    <t xml:space="preserve">При добавлении новой ТК - ошибка</t>
+    <t>При добавлении новой ТК - ошибка</t>
   </si>
   <si>
-    <t xml:space="preserve">Подробная информация об использовании оперативной 
+    <t>Подробная информация об использовании оперативной 
 (JIT) отладки вместо данного диалогового 
 окна содержится в конце этого сообщения.
 ************** Текст исключения **************
@@ -378,25 +385,22 @@
 вместо того чтобы обрабатываться данным диалоговым окном.</t>
   </si>
   <si>
-    <t xml:space="preserve">Справочники -&gt; Поставщики</t>
+    <t>Справочники -&gt; Поставщики</t>
   </si>
   <si>
-    <t xml:space="preserve">Меню модификации справочника неактивно</t>
+    <t>Меню модификации справочника неактивно</t>
   </si>
   <si>
-    <t xml:space="preserve">Справочники -&gt; Виды транспорта</t>
+    <t>Справочники -&gt; Виды транспорта</t>
   </si>
   <si>
-    <t xml:space="preserve">Справочник не открывается</t>
+    <t>Справочник не открывается</t>
   </si>
   <si>
-    <t xml:space="preserve">Справочники -&gt; Склады</t>
+    <t>Справочники -&gt; Склады</t>
   </si>
   <si>
-    <t xml:space="preserve">Справочники -&gt; Таможенные посты</t>
-  </si>
-  <si>
-    <t xml:space="preserve">После добавления нового поста, новая запись задублиовалась, удалил одну строку, при вопытке уделания второй, система вернула ошибку</t>
+    <t>Справочники -&gt; Таможенные посты</t>
   </si>
   <si>
     <t xml:space="preserve">Подробная информация об использовании оперативной 
@@ -544,31 +548,43 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Принажати ПКМ на строке не появляется контекстное меню "печать, детализация"</t>
+    <t>Принажати ПКМ на строке не появляется контекстное меню "печать, детализация"</t>
+  </si>
+  <si>
+    <t>Главная форма, форма создания отгрузки</t>
+  </si>
+  <si>
+    <t>На форме создания отшрузки присутствуют заказы, для которых уже созданны отгрузки</t>
+  </si>
+  <si>
+    <t>При добавлении заказа через расходную партию не добавляется заказ</t>
+  </si>
+  <si>
+    <t>После добавления нового поста, новая запись задублиовалась, удалил одну строку, при вопытке удаления второй, система вернула ошибку</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Aptos Narrow"/>
-      <color theme="1"/>
-      <sz val="11.000000"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Aptos Narrow"/>
-      <b/>
-      <color theme="1"/>
-      <sz val="11.000000"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color indexed="63"/>
       <name val="Arial"/>
-      <color indexed="63"/>
-      <sz val="12.000000"/>
     </font>
   </fonts>
   <fills count="4">
@@ -679,51 +695,51 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="16">
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf fontId="1" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf fontId="1" fillId="0" borderId="2" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf fontId="1" fillId="0" borderId="3" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="1" fillId="0" borderId="4" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="5" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="5" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="5" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf fontId="2" fillId="0" borderId="5" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf fontId="0" fillId="2" borderId="5" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf fontId="0" fillId="3" borderId="5" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf fontId="0" fillId="3" borderId="5" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="6" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -736,12 +752,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
@@ -757,13 +776,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Рисунок 1"/>
+        <xdr:cNvPr id="2" name="Рисунок 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
@@ -793,13 +818,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Рисунок 2"/>
+        <xdr:cNvPr id="3" name="Рисунок 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
@@ -829,13 +860,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Рисунок 3"/>
+        <xdr:cNvPr id="4" name="Рисунок 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId3"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
@@ -865,13 +902,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Рисунок 4"/>
+        <xdr:cNvPr id="5" name="Рисунок 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId4"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
@@ -894,20 +937,26 @@
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>5153025</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>1049612</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Рисунок 5"/>
+        <xdr:cNvPr id="6" name="Рисунок 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId5"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
@@ -937,13 +986,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Рисунок 6"/>
+        <xdr:cNvPr id="7" name="Рисунок 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId6"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
@@ -958,11 +1013,55 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>361951</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>6043268</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>1447801</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Рисунок 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE4FCDBF-53B7-DB3B-3AC7-1A04E08F9BAA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7800975" y="17687926"/>
+          <a:ext cx="6033743" cy="1466850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -978,13 +1077,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Рисунок 1"/>
+        <xdr:cNvPr id="2" name="Рисунок 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
@@ -1002,291 +1107,8 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/theme/theme.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
-  <a:themeElements>
-    <a:clrScheme name="Office">
-      <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="1F497D"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="EEECE1"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="4F81BD"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="C0504D"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="9BBB59"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="8064A2"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="4BACC6"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="F79646"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0000FF"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="800080"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Cambria"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Angsana New"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ 明朝"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Cordia New"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="35000">
-              <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="80000">
-              <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="40000">
-              <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-</a:theme>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
     <a:clrScheme name="Стандартная">
       <a:dk1>
@@ -1509,24 +1331,26 @@
       </a:style>
     </a:lnDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D704"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="100" workbookViewId="0">
-      <selection activeCell="B13" activeCellId="0" sqref="B13"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" min="2" max="2" style="1" width="45.140625"/>
-    <col customWidth="1" min="3" max="3" style="2" width="62.5703125"/>
-    <col customWidth="1" min="4" max="4" width="76.42578125"/>
+    <col min="2" max="2" width="45.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="62.5703125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="93.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1540,7 +1364,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" ht="28.5">
+    <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
         <v>1</v>
       </c>
@@ -1552,7 +1376,7 @@
       </c>
       <c r="D2" s="9"/>
     </row>
-    <row r="3" ht="150.75" customHeight="1">
+    <row r="3" spans="1:4" ht="150.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>2</v>
       </c>
@@ -1564,7 +1388,7 @@
       </c>
       <c r="D3" s="9"/>
     </row>
-    <row r="4" ht="66" customHeight="1">
+    <row r="4" spans="1:4" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <v>3</v>
       </c>
@@ -1576,19 +1400,19 @@
       </c>
       <c r="D4" s="9"/>
     </row>
-    <row r="5">
-      <c r="A5" s="11">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="13">
         <v>4</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="13" t="s">
         <v>8</v>
       </c>
       <c r="D5" s="9"/>
     </row>
-    <row r="6" ht="99" customHeight="1">
+    <row r="6" spans="1:4" ht="99" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="12">
         <v>5</v>
       </c>
@@ -1600,7 +1424,7 @@
       </c>
       <c r="D6" s="9"/>
     </row>
-    <row r="7" ht="168" customHeight="1">
+    <row r="7" spans="1:4" ht="168" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="12">
         <v>6</v>
       </c>
@@ -1612,7 +1436,7 @@
       </c>
       <c r="D7" s="9"/>
     </row>
-    <row r="8" ht="90.75" customHeight="1">
+    <row r="8" spans="1:4" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="14">
         <v>7</v>
       </c>
@@ -1624,7 +1448,7 @@
       </c>
       <c r="D8" s="9"/>
     </row>
-    <row r="9">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>8</v>
       </c>
@@ -1636,21 +1460,21 @@
       </c>
       <c r="D9" s="9"/>
     </row>
-    <row r="10" ht="409.5">
-      <c r="A10" s="11">
+    <row r="10" spans="1:4" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="13">
         <v>9</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D10" s="13" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="11" ht="42.75">
+    <row r="11" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>10</v>
       </c>
@@ -1662,7 +1486,7 @@
       </c>
       <c r="D11" s="9"/>
     </row>
-    <row r="12" ht="36" customHeight="1">
+    <row r="12" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <v>11</v>
       </c>
@@ -1676,7 +1500,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" ht="94.5" customHeight="1">
+    <row r="13" spans="1:4" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <v>12</v>
       </c>
@@ -1688,7 +1512,7 @@
       </c>
       <c r="D13" s="9"/>
     </row>
-    <row r="14">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="11">
         <v>13</v>
       </c>
@@ -1700,7 +1524,7 @@
       </c>
       <c r="D14" s="9"/>
     </row>
-    <row r="15">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
         <v>14</v>
       </c>
@@ -1712,7 +1536,7 @@
       </c>
       <c r="D15" s="13"/>
     </row>
-    <row r="16">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
         <v>15</v>
       </c>
@@ -1724,7 +1548,7 @@
       </c>
       <c r="D16" s="13"/>
     </row>
-    <row r="17" ht="409.5">
+    <row r="17" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A17" s="11">
         <v>16</v>
       </c>
@@ -1732,13 +1556,13 @@
         <v>29</v>
       </c>
       <c r="C17" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D17" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="D17" s="8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="18" ht="28.5">
+    </row>
+    <row r="18" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="11">
         <v>17</v>
       </c>
@@ -1746,27 +1570,35 @@
         <v>4</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D18" s="9"/>
     </row>
-    <row r="19">
+    <row r="19" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="7">
         <v>18</v>
       </c>
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
+      <c r="B19" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>34</v>
+      </c>
       <c r="D19" s="9"/>
     </row>
-    <row r="20">
+    <row r="20" spans="1:4" ht="124.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="7">
         <v>19</v>
       </c>
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
+      <c r="B20" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>33</v>
+      </c>
       <c r="D20" s="9"/>
     </row>
-    <row r="21">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="7">
         <v>20</v>
       </c>
@@ -1774,7 +1606,7 @@
       <c r="C21" s="8"/>
       <c r="D21" s="9"/>
     </row>
-    <row r="22">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="7">
         <v>21</v>
       </c>
@@ -1782,7 +1614,7 @@
       <c r="C22" s="8"/>
       <c r="D22" s="9"/>
     </row>
-    <row r="23">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="7">
         <v>22</v>
       </c>
@@ -1790,7 +1622,7 @@
       <c r="C23" s="8"/>
       <c r="D23" s="9"/>
     </row>
-    <row r="24">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="7">
         <v>23</v>
       </c>
@@ -1798,7 +1630,7 @@
       <c r="C24" s="8"/>
       <c r="D24" s="9"/>
     </row>
-    <row r="25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="7">
         <v>24</v>
       </c>
@@ -1806,7 +1638,7 @@
       <c r="C25" s="8"/>
       <c r="D25" s="9"/>
     </row>
-    <row r="26">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="7">
         <v>25</v>
       </c>
@@ -1814,7 +1646,7 @@
       <c r="C26" s="8"/>
       <c r="D26" s="9"/>
     </row>
-    <row r="27">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="7">
         <v>26</v>
       </c>
@@ -1822,7 +1654,7 @@
       <c r="C27" s="8"/>
       <c r="D27" s="9"/>
     </row>
-    <row r="28">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="7">
         <v>27</v>
       </c>
@@ -1830,7 +1662,7 @@
       <c r="C28" s="8"/>
       <c r="D28" s="9"/>
     </row>
-    <row r="29">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="7">
         <v>28</v>
       </c>
@@ -1838,7 +1670,7 @@
       <c r="C29" s="8"/>
       <c r="D29" s="9"/>
     </row>
-    <row r="30">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="7">
         <v>29</v>
       </c>
@@ -1846,7 +1678,7 @@
       <c r="C30" s="8"/>
       <c r="D30" s="9"/>
     </row>
-    <row r="31">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="7">
         <v>30</v>
       </c>
@@ -1854,7 +1686,7 @@
       <c r="C31" s="8"/>
       <c r="D31" s="9"/>
     </row>
-    <row r="32">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="7">
         <v>31</v>
       </c>
@@ -1862,7 +1694,7 @@
       <c r="C32" s="8"/>
       <c r="D32" s="9"/>
     </row>
-    <row r="33">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="7">
         <v>32</v>
       </c>
@@ -1870,7 +1702,7 @@
       <c r="C33" s="8"/>
       <c r="D33" s="9"/>
     </row>
-    <row r="34">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="7">
         <v>33</v>
       </c>
@@ -1878,7 +1710,7 @@
       <c r="C34" s="8"/>
       <c r="D34" s="9"/>
     </row>
-    <row r="35">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="7">
         <v>34</v>
       </c>
@@ -1886,7 +1718,7 @@
       <c r="C35" s="8"/>
       <c r="D35" s="9"/>
     </row>
-    <row r="36">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="7">
         <v>35</v>
       </c>
@@ -1894,7 +1726,7 @@
       <c r="C36" s="8"/>
       <c r="D36" s="9"/>
     </row>
-    <row r="37">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="7">
         <v>36</v>
       </c>
@@ -1902,7 +1734,7 @@
       <c r="C37" s="8"/>
       <c r="D37" s="9"/>
     </row>
-    <row r="38">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="7">
         <v>37</v>
       </c>
@@ -1910,7 +1742,7 @@
       <c r="C38" s="8"/>
       <c r="D38" s="9"/>
     </row>
-    <row r="39">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="7">
         <v>38</v>
       </c>
@@ -1918,3151 +1750,3146 @@
       <c r="C39" s="8"/>
       <c r="D39" s="9"/>
     </row>
-    <row r="40">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="7">
         <v>39</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="7">
         <v>40</v>
       </c>
       <c r="B41" s="2"/>
       <c r="D41" s="15"/>
     </row>
-    <row r="42">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="7">
         <v>41</v>
       </c>
       <c r="B42" s="2"/>
       <c r="D42" s="15"/>
     </row>
-    <row r="43">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="7">
         <v>42</v>
       </c>
       <c r="B43" s="2"/>
       <c r="D43" s="15"/>
     </row>
-    <row r="44">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="7">
         <v>43</v>
       </c>
       <c r="B44" s="2"/>
       <c r="D44" s="15"/>
     </row>
-    <row r="45">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="7">
         <v>44</v>
       </c>
       <c r="B45" s="2"/>
       <c r="D45" s="15"/>
     </row>
-    <row r="46">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="7">
         <v>45</v>
       </c>
       <c r="B46" s="2"/>
       <c r="D46" s="15"/>
     </row>
-    <row r="47">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="7">
         <v>46</v>
       </c>
       <c r="B47" s="2"/>
       <c r="D47" s="15"/>
     </row>
-    <row r="48">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="7">
         <v>47</v>
       </c>
       <c r="B48" s="2"/>
       <c r="D48" s="15"/>
     </row>
-    <row r="49">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="7">
         <v>48</v>
       </c>
       <c r="B49" s="2"/>
       <c r="D49" s="15"/>
     </row>
-    <row r="50">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="7">
         <v>49</v>
       </c>
       <c r="B50" s="2"/>
       <c r="D50" s="15"/>
     </row>
-    <row r="51">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="7">
         <v>50</v>
       </c>
       <c r="B51" s="2"/>
       <c r="D51" s="15"/>
     </row>
-    <row r="52">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="7">
         <v>51</v>
       </c>
       <c r="B52" s="2"/>
       <c r="D52" s="15"/>
     </row>
-    <row r="53">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="7">
         <v>52</v>
       </c>
       <c r="B53" s="2"/>
       <c r="D53" s="15"/>
     </row>
-    <row r="54">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="7">
         <v>53</v>
       </c>
       <c r="B54" s="2"/>
       <c r="D54" s="15"/>
     </row>
-    <row r="55">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="7">
         <v>54</v>
       </c>
       <c r="B55" s="2"/>
       <c r="D55" s="15"/>
     </row>
-    <row r="56">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="7">
         <v>55</v>
       </c>
       <c r="B56" s="2"/>
       <c r="D56" s="15"/>
     </row>
-    <row r="57">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="7">
         <v>56</v>
       </c>
       <c r="B57" s="2"/>
       <c r="D57" s="15"/>
     </row>
-    <row r="58">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="7">
         <v>57</v>
       </c>
       <c r="B58" s="2"/>
       <c r="D58" s="15"/>
     </row>
-    <row r="59">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="7">
         <v>58</v>
       </c>
       <c r="B59" s="2"/>
       <c r="D59" s="15"/>
     </row>
-    <row r="60">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="7">
         <v>59</v>
       </c>
       <c r="B60" s="2"/>
       <c r="D60" s="15"/>
     </row>
-    <row r="61">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="7">
         <v>60</v>
       </c>
       <c r="B61" s="2"/>
       <c r="D61" s="15"/>
     </row>
-    <row r="62">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="7">
         <v>61</v>
       </c>
       <c r="B62" s="2"/>
       <c r="D62" s="15"/>
     </row>
-    <row r="63">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="7">
         <v>62</v>
       </c>
       <c r="B63" s="2"/>
       <c r="D63" s="15"/>
     </row>
-    <row r="64">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="7">
         <v>63</v>
       </c>
       <c r="B64" s="2"/>
       <c r="D64" s="15"/>
     </row>
-    <row r="65">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="7">
         <v>64</v>
       </c>
       <c r="B65" s="2"/>
       <c r="D65" s="15"/>
     </row>
-    <row r="66">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="7">
         <v>65</v>
       </c>
       <c r="B66" s="2"/>
       <c r="D66" s="15"/>
     </row>
-    <row r="67">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="7">
         <v>66</v>
       </c>
       <c r="B67" s="2"/>
       <c r="D67" s="15"/>
     </row>
-    <row r="68">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="7">
         <v>67</v>
       </c>
       <c r="B68" s="2"/>
       <c r="D68" s="15"/>
     </row>
-    <row r="69">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="7">
         <v>68</v>
       </c>
       <c r="B69" s="2"/>
       <c r="D69" s="15"/>
     </row>
-    <row r="70">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="7">
         <v>69</v>
       </c>
       <c r="B70" s="2"/>
       <c r="D70" s="15"/>
     </row>
-    <row r="71">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="7">
         <v>70</v>
       </c>
       <c r="B71" s="2"/>
       <c r="D71" s="15"/>
     </row>
-    <row r="72">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="7">
         <v>71</v>
       </c>
       <c r="B72" s="2"/>
       <c r="D72" s="15"/>
     </row>
-    <row r="73">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="7">
         <v>72</v>
       </c>
       <c r="B73" s="2"/>
       <c r="D73" s="15"/>
     </row>
-    <row r="74">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="7">
         <v>73</v>
       </c>
       <c r="B74" s="2"/>
       <c r="D74" s="15"/>
     </row>
-    <row r="75">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="7">
         <v>74</v>
       </c>
       <c r="B75" s="2"/>
       <c r="D75" s="15"/>
     </row>
-    <row r="76">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="7">
         <v>75</v>
       </c>
       <c r="B76" s="2"/>
       <c r="D76" s="15"/>
     </row>
-    <row r="77">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="7">
         <v>76</v>
       </c>
       <c r="B77" s="2"/>
       <c r="D77" s="15"/>
     </row>
-    <row r="78">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="7">
         <v>77</v>
       </c>
       <c r="B78" s="2"/>
       <c r="D78" s="15"/>
     </row>
-    <row r="79">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="7">
         <v>78</v>
       </c>
       <c r="B79" s="2"/>
       <c r="D79" s="15"/>
     </row>
-    <row r="80">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="7">
         <v>79</v>
       </c>
       <c r="B80" s="2"/>
       <c r="D80" s="15"/>
     </row>
-    <row r="81">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="7">
         <v>80</v>
       </c>
       <c r="B81" s="2"/>
       <c r="D81" s="15"/>
     </row>
-    <row r="82">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="7">
         <v>81</v>
       </c>
       <c r="B82" s="2"/>
       <c r="D82" s="15"/>
     </row>
-    <row r="83">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="7">
         <v>82</v>
       </c>
       <c r="B83" s="2"/>
       <c r="D83" s="15"/>
     </row>
-    <row r="84">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="7">
         <v>83</v>
       </c>
       <c r="B84" s="2"/>
       <c r="D84" s="15"/>
     </row>
-    <row r="85">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="7">
         <v>84</v>
       </c>
       <c r="B85" s="2"/>
       <c r="D85" s="15"/>
     </row>
-    <row r="86">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="7">
         <v>85</v>
       </c>
       <c r="B86" s="2"/>
       <c r="D86" s="15"/>
     </row>
-    <row r="87">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="7">
         <v>86</v>
       </c>
       <c r="B87" s="2"/>
       <c r="D87" s="15"/>
     </row>
-    <row r="88">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="7">
         <v>87</v>
       </c>
       <c r="B88" s="2"/>
       <c r="D88" s="15"/>
     </row>
-    <row r="89">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="7">
         <v>88</v>
       </c>
       <c r="B89" s="2"/>
       <c r="D89" s="15"/>
     </row>
-    <row r="90">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="7">
         <v>89</v>
       </c>
       <c r="B90" s="2"/>
       <c r="D90" s="15"/>
     </row>
-    <row r="91">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="7">
         <v>90</v>
       </c>
       <c r="B91" s="2"/>
       <c r="D91" s="15"/>
     </row>
-    <row r="92">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="7">
         <v>91</v>
       </c>
       <c r="B92" s="2"/>
       <c r="D92" s="15"/>
     </row>
-    <row r="93">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="7">
         <v>92</v>
       </c>
       <c r="B93" s="2"/>
       <c r="D93" s="15"/>
     </row>
-    <row r="94">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="7">
         <v>93</v>
       </c>
       <c r="B94" s="2"/>
       <c r="D94" s="15"/>
     </row>
-    <row r="95">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="7">
         <v>94</v>
       </c>
       <c r="B95" s="2"/>
       <c r="D95" s="15"/>
     </row>
-    <row r="96">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="7">
         <v>95</v>
       </c>
       <c r="B96" s="2"/>
       <c r="D96" s="15"/>
     </row>
-    <row r="97">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="7">
         <v>96</v>
       </c>
       <c r="B97" s="2"/>
       <c r="D97" s="15"/>
     </row>
-    <row r="98">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="7">
         <v>97</v>
       </c>
       <c r="B98" s="2"/>
       <c r="D98" s="15"/>
     </row>
-    <row r="99">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="7">
         <v>98</v>
       </c>
       <c r="B99" s="2"/>
       <c r="D99" s="15"/>
     </row>
-    <row r="100">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="7">
         <v>99</v>
       </c>
       <c r="B100" s="2"/>
       <c r="D100" s="15"/>
     </row>
-    <row r="101">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="7">
         <v>100</v>
       </c>
       <c r="B101" s="2"/>
       <c r="D101" s="15"/>
     </row>
-    <row r="102">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="7">
         <v>101</v>
       </c>
       <c r="B102" s="2"/>
       <c r="D102" s="15"/>
     </row>
-    <row r="103">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="7">
         <v>102</v>
       </c>
       <c r="B103" s="2"/>
       <c r="D103" s="15"/>
     </row>
-    <row r="104">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="7">
         <v>103</v>
       </c>
       <c r="B104" s="2"/>
       <c r="D104" s="15"/>
     </row>
-    <row r="105">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="7">
         <v>104</v>
       </c>
       <c r="B105" s="2"/>
       <c r="D105" s="15"/>
     </row>
-    <row r="106">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="7">
         <v>105</v>
       </c>
       <c r="B106" s="2"/>
       <c r="D106" s="15"/>
     </row>
-    <row r="107">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="7">
         <v>106</v>
       </c>
       <c r="B107" s="2"/>
       <c r="D107" s="15"/>
     </row>
-    <row r="108">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="7">
         <v>107</v>
       </c>
       <c r="B108" s="2"/>
       <c r="D108" s="15"/>
     </row>
-    <row r="109">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="7">
         <v>108</v>
       </c>
       <c r="B109" s="2"/>
       <c r="D109" s="15"/>
     </row>
-    <row r="110">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="7">
         <v>109</v>
       </c>
       <c r="B110" s="2"/>
       <c r="D110" s="15"/>
     </row>
-    <row r="111">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="7">
         <v>110</v>
       </c>
       <c r="B111" s="2"/>
       <c r="D111" s="15"/>
     </row>
-    <row r="112">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="7">
         <v>111</v>
       </c>
       <c r="B112" s="2"/>
       <c r="D112" s="15"/>
     </row>
-    <row r="113">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="7">
         <v>112</v>
       </c>
       <c r="B113" s="2"/>
       <c r="D113" s="15"/>
     </row>
-    <row r="114">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="7">
         <v>113</v>
       </c>
       <c r="B114" s="2"/>
       <c r="D114" s="15"/>
     </row>
-    <row r="115">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="7">
         <v>114</v>
       </c>
       <c r="B115" s="2"/>
       <c r="D115" s="15"/>
     </row>
-    <row r="116">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="7">
         <v>115</v>
       </c>
       <c r="B116" s="2"/>
       <c r="D116" s="15"/>
     </row>
-    <row r="117">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="7">
         <v>116</v>
       </c>
       <c r="B117" s="2"/>
       <c r="D117" s="15"/>
     </row>
-    <row r="118">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="7">
         <v>117</v>
       </c>
       <c r="B118" s="2"/>
       <c r="D118" s="15"/>
     </row>
-    <row r="119">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="7">
         <v>118</v>
       </c>
       <c r="B119" s="2"/>
       <c r="D119" s="15"/>
     </row>
-    <row r="120">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="7">
         <v>119</v>
       </c>
       <c r="B120" s="2"/>
       <c r="D120" s="15"/>
     </row>
-    <row r="121">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="7">
         <v>120</v>
       </c>
       <c r="B121" s="2"/>
       <c r="D121" s="15"/>
     </row>
-    <row r="122">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="7">
         <v>121</v>
       </c>
       <c r="B122" s="2"/>
       <c r="D122" s="15"/>
     </row>
-    <row r="123">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="7">
         <v>122</v>
       </c>
       <c r="B123" s="2"/>
       <c r="D123" s="15"/>
     </row>
-    <row r="124">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="7">
         <v>123</v>
       </c>
       <c r="B124" s="2"/>
       <c r="D124" s="15"/>
     </row>
-    <row r="125">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="7">
         <v>124</v>
       </c>
       <c r="B125" s="2"/>
       <c r="D125" s="15"/>
     </row>
-    <row r="126">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="7">
         <v>125</v>
       </c>
       <c r="B126" s="2"/>
       <c r="D126" s="15"/>
     </row>
-    <row r="127">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" s="7">
         <v>126</v>
       </c>
       <c r="B127" s="2"/>
       <c r="D127" s="15"/>
     </row>
-    <row r="128">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" s="7">
         <v>127</v>
       </c>
       <c r="B128" s="2"/>
       <c r="D128" s="15"/>
     </row>
-    <row r="129">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" s="7">
         <v>128</v>
       </c>
       <c r="B129" s="2"/>
       <c r="D129" s="15"/>
     </row>
-    <row r="130">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" s="7">
         <v>129</v>
       </c>
       <c r="B130" s="2"/>
       <c r="D130" s="15"/>
     </row>
-    <row r="131">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" s="7">
         <v>130</v>
       </c>
       <c r="B131" s="2"/>
       <c r="D131" s="15"/>
     </row>
-    <row r="132">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" s="7">
         <v>131</v>
       </c>
       <c r="B132" s="2"/>
       <c r="D132" s="15"/>
     </row>
-    <row r="133">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" s="7">
         <v>132</v>
       </c>
       <c r="B133" s="2"/>
       <c r="D133" s="15"/>
     </row>
-    <row r="134">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" s="7">
         <v>133</v>
       </c>
       <c r="B134" s="2"/>
       <c r="D134" s="15"/>
     </row>
-    <row r="135">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" s="7">
         <v>134</v>
       </c>
       <c r="B135" s="2"/>
       <c r="D135" s="15"/>
     </row>
-    <row r="136">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" s="7">
         <v>135</v>
       </c>
       <c r="B136" s="2"/>
       <c r="D136" s="15"/>
     </row>
-    <row r="137">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" s="7">
         <v>136</v>
       </c>
       <c r="B137" s="2"/>
       <c r="D137" s="15"/>
     </row>
-    <row r="138">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" s="7">
         <v>137</v>
       </c>
       <c r="B138" s="2"/>
       <c r="D138" s="15"/>
     </row>
-    <row r="139">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" s="7">
         <v>138</v>
       </c>
       <c r="B139" s="2"/>
       <c r="D139" s="15"/>
     </row>
-    <row r="140">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" s="7">
         <v>139</v>
       </c>
       <c r="B140" s="2"/>
       <c r="D140" s="15"/>
     </row>
-    <row r="141">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" s="7">
         <v>140</v>
       </c>
       <c r="B141" s="2"/>
       <c r="D141" s="15"/>
     </row>
-    <row r="142">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" s="7">
         <v>141</v>
       </c>
       <c r="B142" s="2"/>
       <c r="D142" s="15"/>
     </row>
-    <row r="143">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" s="7">
         <v>142</v>
       </c>
       <c r="B143" s="2"/>
       <c r="D143" s="15"/>
     </row>
-    <row r="144">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" s="7">
         <v>143</v>
       </c>
       <c r="B144" s="2"/>
       <c r="D144" s="15"/>
     </row>
-    <row r="145">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" s="7">
         <v>144</v>
       </c>
       <c r="B145" s="2"/>
       <c r="D145" s="15"/>
     </row>
-    <row r="146">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" s="7">
         <v>145</v>
       </c>
       <c r="B146" s="2"/>
       <c r="D146" s="15"/>
     </row>
-    <row r="147">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" s="7">
         <v>146</v>
       </c>
       <c r="B147" s="2"/>
       <c r="D147" s="15"/>
     </row>
-    <row r="148">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" s="7">
         <v>147</v>
       </c>
       <c r="B148" s="2"/>
       <c r="D148" s="15"/>
     </row>
-    <row r="149">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" s="7">
         <v>148</v>
       </c>
       <c r="B149" s="2"/>
       <c r="D149" s="15"/>
     </row>
-    <row r="150">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" s="7">
         <v>149</v>
       </c>
       <c r="B150" s="2"/>
       <c r="D150" s="15"/>
     </row>
-    <row r="151">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" s="7">
         <v>150</v>
       </c>
       <c r="B151" s="2"/>
       <c r="D151" s="15"/>
     </row>
-    <row r="152">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" s="7">
         <v>151</v>
       </c>
       <c r="B152" s="2"/>
       <c r="D152" s="15"/>
     </row>
-    <row r="153">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" s="7">
         <v>152</v>
       </c>
       <c r="B153" s="2"/>
       <c r="D153" s="15"/>
     </row>
-    <row r="154">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" s="7">
         <v>153</v>
       </c>
       <c r="B154" s="2"/>
       <c r="D154" s="15"/>
     </row>
-    <row r="155">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" s="7">
         <v>154</v>
       </c>
       <c r="B155" s="2"/>
       <c r="D155" s="15"/>
     </row>
-    <row r="156">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" s="7">
         <v>155</v>
       </c>
       <c r="B156" s="2"/>
       <c r="D156" s="15"/>
     </row>
-    <row r="157">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" s="7">
         <v>156</v>
       </c>
       <c r="B157" s="2"/>
       <c r="D157" s="15"/>
     </row>
-    <row r="158">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" s="7">
         <v>157</v>
       </c>
       <c r="B158" s="2"/>
       <c r="D158" s="15"/>
     </row>
-    <row r="159">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" s="7">
         <v>158</v>
       </c>
       <c r="B159" s="2"/>
       <c r="D159" s="15"/>
     </row>
-    <row r="160">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" s="7">
         <v>159</v>
       </c>
       <c r="B160" s="2"/>
       <c r="D160" s="15"/>
     </row>
-    <row r="161">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" s="7">
         <v>160</v>
       </c>
       <c r="B161" s="2"/>
       <c r="D161" s="15"/>
     </row>
-    <row r="162">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" s="7">
         <v>161</v>
       </c>
       <c r="B162" s="2"/>
       <c r="D162" s="15"/>
     </row>
-    <row r="163">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" s="7">
         <v>162</v>
       </c>
       <c r="B163" s="2"/>
       <c r="D163" s="15"/>
     </row>
-    <row r="164">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" s="7">
         <v>163</v>
       </c>
       <c r="B164" s="2"/>
       <c r="D164" s="15"/>
     </row>
-    <row r="165">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" s="7">
         <v>164</v>
       </c>
       <c r="B165" s="2"/>
       <c r="D165" s="15"/>
     </row>
-    <row r="166">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" s="7">
         <v>165</v>
       </c>
       <c r="B166" s="2"/>
       <c r="D166" s="15"/>
     </row>
-    <row r="167">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" s="7">
         <v>166</v>
       </c>
       <c r="B167" s="2"/>
       <c r="D167" s="15"/>
     </row>
-    <row r="168">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" s="7">
         <v>167</v>
       </c>
       <c r="B168" s="2"/>
       <c r="D168" s="15"/>
     </row>
-    <row r="169">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" s="7">
         <v>168</v>
       </c>
       <c r="B169" s="2"/>
       <c r="D169" s="15"/>
     </row>
-    <row r="170">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" s="7">
         <v>169</v>
       </c>
       <c r="B170" s="2"/>
       <c r="D170" s="15"/>
     </row>
-    <row r="171">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" s="7">
         <v>170</v>
       </c>
       <c r="B171" s="2"/>
       <c r="D171" s="15"/>
     </row>
-    <row r="172">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" s="7">
         <v>171</v>
       </c>
       <c r="B172" s="2"/>
       <c r="D172" s="15"/>
     </row>
-    <row r="173">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" s="7">
         <v>172</v>
       </c>
       <c r="B173" s="2"/>
       <c r="D173" s="15"/>
     </row>
-    <row r="174">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" s="7">
         <v>173</v>
       </c>
       <c r="B174" s="2"/>
       <c r="D174" s="15"/>
     </row>
-    <row r="175">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" s="7">
         <v>174</v>
       </c>
       <c r="B175" s="2"/>
       <c r="D175" s="15"/>
     </row>
-    <row r="176">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" s="7">
         <v>175</v>
       </c>
       <c r="B176" s="2"/>
       <c r="D176" s="15"/>
     </row>
-    <row r="177">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" s="7">
         <v>176</v>
       </c>
       <c r="B177" s="2"/>
       <c r="D177" s="15"/>
     </row>
-    <row r="178">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" s="7">
         <v>177</v>
       </c>
       <c r="B178" s="2"/>
       <c r="D178" s="15"/>
     </row>
-    <row r="179">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" s="7">
         <v>178</v>
       </c>
       <c r="B179" s="2"/>
       <c r="D179" s="15"/>
     </row>
-    <row r="180">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" s="7">
         <v>179</v>
       </c>
       <c r="B180" s="2"/>
       <c r="D180" s="15"/>
     </row>
-    <row r="181">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" s="7">
         <v>180</v>
       </c>
       <c r="B181" s="2"/>
       <c r="D181" s="15"/>
     </row>
-    <row r="182">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" s="7">
         <v>181</v>
       </c>
       <c r="B182" s="2"/>
       <c r="D182" s="15"/>
     </row>
-    <row r="183">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" s="7">
         <v>182</v>
       </c>
       <c r="B183" s="2"/>
       <c r="D183" s="15"/>
     </row>
-    <row r="184">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" s="7">
         <v>183</v>
       </c>
       <c r="B184" s="2"/>
       <c r="D184" s="15"/>
     </row>
-    <row r="185">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" s="7">
         <v>184</v>
       </c>
       <c r="B185" s="2"/>
       <c r="D185" s="15"/>
     </row>
-    <row r="186">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" s="7">
         <v>185</v>
       </c>
       <c r="B186" s="2"/>
       <c r="D186" s="15"/>
     </row>
-    <row r="187">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" s="7">
         <v>186</v>
       </c>
       <c r="B187" s="2"/>
       <c r="D187" s="15"/>
     </row>
-    <row r="188">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" s="7">
         <v>187</v>
       </c>
       <c r="B188" s="2"/>
       <c r="D188" s="15"/>
     </row>
-    <row r="189">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" s="7">
         <v>188</v>
       </c>
       <c r="B189" s="2"/>
       <c r="D189" s="15"/>
     </row>
-    <row r="190">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" s="7">
         <v>189</v>
       </c>
       <c r="B190" s="2"/>
       <c r="D190" s="15"/>
     </row>
-    <row r="191">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" s="7">
         <v>190</v>
       </c>
       <c r="B191" s="2"/>
       <c r="D191" s="15"/>
     </row>
-    <row r="192">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" s="7">
         <v>191</v>
       </c>
       <c r="B192" s="2"/>
       <c r="D192" s="15"/>
     </row>
-    <row r="193">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" s="7">
         <v>192</v>
       </c>
       <c r="B193" s="2"/>
       <c r="D193" s="15"/>
     </row>
-    <row r="194">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" s="7">
         <v>193</v>
       </c>
       <c r="B194" s="2"/>
       <c r="D194" s="15"/>
     </row>
-    <row r="195">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B195" s="2"/>
       <c r="D195" s="15"/>
     </row>
-    <row r="196">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B196" s="2"/>
       <c r="D196" s="15"/>
     </row>
-    <row r="197">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B197" s="2"/>
       <c r="D197" s="15"/>
     </row>
-    <row r="198">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B198" s="2"/>
       <c r="D198" s="15"/>
     </row>
-    <row r="199">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B199" s="2"/>
       <c r="D199" s="15"/>
     </row>
-    <row r="200">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B200" s="2"/>
       <c r="D200" s="15"/>
     </row>
-    <row r="201">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B201" s="2"/>
       <c r="D201" s="15"/>
     </row>
-    <row r="202">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B202" s="2"/>
       <c r="D202" s="15"/>
     </row>
-    <row r="203">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B203" s="2"/>
       <c r="D203" s="15"/>
     </row>
-    <row r="204">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B204" s="2"/>
       <c r="D204" s="15"/>
     </row>
-    <row r="205">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B205" s="2"/>
       <c r="D205" s="15"/>
     </row>
-    <row r="206">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B206" s="2"/>
       <c r="D206" s="15"/>
     </row>
-    <row r="207">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B207" s="2"/>
       <c r="D207" s="15"/>
     </row>
-    <row r="208">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B208" s="2"/>
       <c r="D208" s="15"/>
     </row>
-    <row r="209">
+    <row r="209" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B209" s="2"/>
       <c r="D209" s="15"/>
     </row>
-    <row r="210">
+    <row r="210" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B210" s="2"/>
       <c r="D210" s="15"/>
     </row>
-    <row r="211">
+    <row r="211" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B211" s="2"/>
       <c r="D211" s="15"/>
     </row>
-    <row r="212">
+    <row r="212" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B212" s="2"/>
       <c r="D212" s="15"/>
     </row>
-    <row r="213">
+    <row r="213" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B213" s="2"/>
       <c r="D213" s="15"/>
     </row>
-    <row r="214">
+    <row r="214" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B214" s="2"/>
       <c r="D214" s="15"/>
     </row>
-    <row r="215">
+    <row r="215" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B215" s="2"/>
       <c r="D215" s="15"/>
     </row>
-    <row r="216">
+    <row r="216" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B216" s="2"/>
       <c r="D216" s="15"/>
     </row>
-    <row r="217">
+    <row r="217" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B217" s="2"/>
       <c r="D217" s="15"/>
     </row>
-    <row r="218">
+    <row r="218" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B218" s="2"/>
       <c r="D218" s="15"/>
     </row>
-    <row r="219">
+    <row r="219" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B219" s="2"/>
       <c r="D219" s="15"/>
     </row>
-    <row r="220">
+    <row r="220" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B220" s="2"/>
       <c r="D220" s="15"/>
     </row>
-    <row r="221">
+    <row r="221" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B221" s="2"/>
       <c r="D221" s="15"/>
     </row>
-    <row r="222">
+    <row r="222" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B222" s="2"/>
       <c r="D222" s="15"/>
     </row>
-    <row r="223">
+    <row r="223" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B223" s="2"/>
       <c r="D223" s="15"/>
     </row>
-    <row r="224">
+    <row r="224" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B224" s="2"/>
       <c r="D224" s="15"/>
     </row>
-    <row r="225">
+    <row r="225" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B225" s="2"/>
       <c r="D225" s="15"/>
     </row>
-    <row r="226">
+    <row r="226" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B226" s="2"/>
       <c r="D226" s="15"/>
     </row>
-    <row r="227">
+    <row r="227" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B227" s="2"/>
       <c r="D227" s="15"/>
     </row>
-    <row r="228">
+    <row r="228" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B228" s="2"/>
       <c r="D228" s="15"/>
     </row>
-    <row r="229">
+    <row r="229" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B229" s="2"/>
       <c r="D229" s="15"/>
     </row>
-    <row r="230">
+    <row r="230" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B230" s="2"/>
       <c r="D230" s="15"/>
     </row>
-    <row r="231">
+    <row r="231" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B231" s="2"/>
       <c r="D231" s="15"/>
     </row>
-    <row r="232">
+    <row r="232" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B232" s="2"/>
       <c r="D232" s="15"/>
     </row>
-    <row r="233">
+    <row r="233" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B233" s="2"/>
       <c r="D233" s="15"/>
     </row>
-    <row r="234">
+    <row r="234" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B234" s="2"/>
       <c r="D234" s="15"/>
     </row>
-    <row r="235">
+    <row r="235" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B235" s="2"/>
       <c r="D235" s="15"/>
     </row>
-    <row r="236">
+    <row r="236" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B236" s="2"/>
       <c r="D236" s="15"/>
     </row>
-    <row r="237">
+    <row r="237" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B237" s="2"/>
       <c r="D237" s="15"/>
     </row>
-    <row r="238">
+    <row r="238" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B238" s="2"/>
       <c r="D238" s="15"/>
     </row>
-    <row r="239">
+    <row r="239" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B239" s="2"/>
       <c r="D239" s="15"/>
     </row>
-    <row r="240">
+    <row r="240" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B240" s="2"/>
       <c r="D240" s="15"/>
     </row>
-    <row r="241">
+    <row r="241" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B241" s="2"/>
       <c r="D241" s="15"/>
     </row>
-    <row r="242">
+    <row r="242" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B242" s="2"/>
       <c r="D242" s="15"/>
     </row>
-    <row r="243">
+    <row r="243" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B243" s="2"/>
       <c r="D243" s="15"/>
     </row>
-    <row r="244">
+    <row r="244" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B244" s="2"/>
       <c r="D244" s="15"/>
     </row>
-    <row r="245">
+    <row r="245" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B245" s="2"/>
       <c r="D245" s="15"/>
     </row>
-    <row r="246">
+    <row r="246" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B246" s="2"/>
       <c r="D246" s="15"/>
     </row>
-    <row r="247">
+    <row r="247" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B247" s="2"/>
       <c r="D247" s="15"/>
     </row>
-    <row r="248">
+    <row r="248" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B248" s="2"/>
       <c r="D248" s="15"/>
     </row>
-    <row r="249">
+    <row r="249" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B249" s="2"/>
       <c r="D249" s="15"/>
     </row>
-    <row r="250">
+    <row r="250" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B250" s="2"/>
       <c r="D250" s="15"/>
     </row>
-    <row r="251">
+    <row r="251" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B251" s="2"/>
       <c r="D251" s="15"/>
     </row>
-    <row r="252">
+    <row r="252" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B252" s="2"/>
       <c r="D252" s="15"/>
     </row>
-    <row r="253">
+    <row r="253" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B253" s="2"/>
       <c r="D253" s="15"/>
     </row>
-    <row r="254">
+    <row r="254" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B254" s="2"/>
       <c r="D254" s="15"/>
     </row>
-    <row r="255">
+    <row r="255" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B255" s="2"/>
       <c r="D255" s="15"/>
     </row>
-    <row r="256">
+    <row r="256" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B256" s="2"/>
       <c r="D256" s="15"/>
     </row>
-    <row r="257">
+    <row r="257" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B257" s="2"/>
       <c r="D257" s="15"/>
     </row>
-    <row r="258">
+    <row r="258" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B258" s="2"/>
       <c r="D258" s="15"/>
     </row>
-    <row r="259">
+    <row r="259" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B259" s="2"/>
       <c r="D259" s="15"/>
     </row>
-    <row r="260">
+    <row r="260" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B260" s="2"/>
       <c r="D260" s="15"/>
     </row>
-    <row r="261">
+    <row r="261" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B261" s="2"/>
       <c r="D261" s="15"/>
     </row>
-    <row r="262">
+    <row r="262" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B262" s="2"/>
       <c r="D262" s="15"/>
     </row>
-    <row r="263">
+    <row r="263" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B263" s="2"/>
       <c r="D263" s="15"/>
     </row>
-    <row r="264">
+    <row r="264" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B264" s="2"/>
       <c r="D264" s="15"/>
     </row>
-    <row r="265">
+    <row r="265" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B265" s="2"/>
       <c r="D265" s="15"/>
     </row>
-    <row r="266">
+    <row r="266" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B266" s="2"/>
       <c r="D266" s="15"/>
     </row>
-    <row r="267">
+    <row r="267" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B267" s="2"/>
       <c r="D267" s="15"/>
     </row>
-    <row r="268">
+    <row r="268" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B268" s="2"/>
       <c r="D268" s="15"/>
     </row>
-    <row r="269">
+    <row r="269" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B269" s="2"/>
       <c r="D269" s="15"/>
     </row>
-    <row r="270">
+    <row r="270" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B270" s="2"/>
       <c r="D270" s="15"/>
     </row>
-    <row r="271">
+    <row r="271" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B271" s="2"/>
       <c r="D271" s="15"/>
     </row>
-    <row r="272">
+    <row r="272" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B272" s="2"/>
       <c r="D272" s="15"/>
     </row>
-    <row r="273">
+    <row r="273" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B273" s="2"/>
       <c r="D273" s="15"/>
     </row>
-    <row r="274">
+    <row r="274" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B274" s="2"/>
       <c r="D274" s="15"/>
     </row>
-    <row r="275">
+    <row r="275" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B275" s="2"/>
       <c r="D275" s="15"/>
     </row>
-    <row r="276">
+    <row r="276" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B276" s="2"/>
       <c r="D276" s="15"/>
     </row>
-    <row r="277">
+    <row r="277" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B277" s="2"/>
       <c r="D277" s="15"/>
     </row>
-    <row r="278">
+    <row r="278" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B278" s="2"/>
       <c r="D278" s="15"/>
     </row>
-    <row r="279">
+    <row r="279" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B279" s="2"/>
       <c r="D279" s="15"/>
     </row>
-    <row r="280">
+    <row r="280" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B280" s="2"/>
       <c r="D280" s="15"/>
     </row>
-    <row r="281">
+    <row r="281" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B281" s="2"/>
       <c r="D281" s="15"/>
     </row>
-    <row r="282">
+    <row r="282" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B282" s="2"/>
       <c r="D282" s="15"/>
     </row>
-    <row r="283">
+    <row r="283" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B283" s="2"/>
       <c r="D283" s="15"/>
     </row>
-    <row r="284">
+    <row r="284" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B284" s="2"/>
       <c r="D284" s="15"/>
     </row>
-    <row r="285">
+    <row r="285" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B285" s="2"/>
       <c r="D285" s="15"/>
     </row>
-    <row r="286">
+    <row r="286" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B286" s="2"/>
       <c r="D286" s="15"/>
     </row>
-    <row r="287">
+    <row r="287" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B287" s="2"/>
       <c r="D287" s="15"/>
     </row>
-    <row r="288">
+    <row r="288" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B288" s="2"/>
       <c r="D288" s="15"/>
     </row>
-    <row r="289">
+    <row r="289" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B289" s="2"/>
       <c r="D289" s="15"/>
     </row>
-    <row r="290">
+    <row r="290" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B290" s="2"/>
       <c r="D290" s="15"/>
     </row>
-    <row r="291">
+    <row r="291" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B291" s="2"/>
       <c r="D291" s="15"/>
     </row>
-    <row r="292">
+    <row r="292" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B292" s="2"/>
       <c r="D292" s="15"/>
     </row>
-    <row r="293">
+    <row r="293" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B293" s="2"/>
       <c r="D293" s="15"/>
     </row>
-    <row r="294">
+    <row r="294" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B294" s="2"/>
       <c r="D294" s="15"/>
     </row>
-    <row r="295">
+    <row r="295" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B295" s="2"/>
       <c r="D295" s="15"/>
     </row>
-    <row r="296">
+    <row r="296" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B296" s="2"/>
       <c r="D296" s="15"/>
     </row>
-    <row r="297">
+    <row r="297" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B297" s="2"/>
       <c r="D297" s="15"/>
     </row>
-    <row r="298">
+    <row r="298" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B298" s="2"/>
       <c r="D298" s="15"/>
     </row>
-    <row r="299">
+    <row r="299" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B299" s="2"/>
       <c r="D299" s="15"/>
     </row>
-    <row r="300">
+    <row r="300" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B300" s="2"/>
       <c r="D300" s="15"/>
     </row>
-    <row r="301">
+    <row r="301" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B301" s="2"/>
       <c r="D301" s="15"/>
     </row>
-    <row r="302">
+    <row r="302" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B302" s="2"/>
       <c r="D302" s="15"/>
     </row>
-    <row r="303">
+    <row r="303" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B303" s="2"/>
       <c r="D303" s="15"/>
     </row>
-    <row r="304">
+    <row r="304" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B304" s="2"/>
       <c r="D304" s="15"/>
     </row>
-    <row r="305">
+    <row r="305" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B305" s="2"/>
       <c r="D305" s="15"/>
     </row>
-    <row r="306">
+    <row r="306" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B306" s="2"/>
       <c r="D306" s="15"/>
     </row>
-    <row r="307">
+    <row r="307" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B307" s="2"/>
       <c r="D307" s="15"/>
     </row>
-    <row r="308">
+    <row r="308" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B308" s="2"/>
       <c r="D308" s="15"/>
     </row>
-    <row r="309">
+    <row r="309" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B309" s="2"/>
       <c r="D309" s="15"/>
     </row>
-    <row r="310">
+    <row r="310" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B310" s="2"/>
       <c r="D310" s="15"/>
     </row>
-    <row r="311">
+    <row r="311" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B311" s="2"/>
       <c r="D311" s="15"/>
     </row>
-    <row r="312">
+    <row r="312" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B312" s="2"/>
       <c r="D312" s="15"/>
     </row>
-    <row r="313">
+    <row r="313" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B313" s="2"/>
       <c r="D313" s="15"/>
     </row>
-    <row r="314">
+    <row r="314" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B314" s="2"/>
       <c r="D314" s="15"/>
     </row>
-    <row r="315">
+    <row r="315" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B315" s="2"/>
       <c r="D315" s="15"/>
     </row>
-    <row r="316">
+    <row r="316" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B316" s="2"/>
       <c r="D316" s="15"/>
     </row>
-    <row r="317">
+    <row r="317" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B317" s="2"/>
       <c r="D317" s="15"/>
     </row>
-    <row r="318">
+    <row r="318" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B318" s="2"/>
       <c r="D318" s="15"/>
     </row>
-    <row r="319">
+    <row r="319" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B319" s="2"/>
       <c r="D319" s="15"/>
     </row>
-    <row r="320">
+    <row r="320" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B320" s="2"/>
       <c r="D320" s="15"/>
     </row>
-    <row r="321">
+    <row r="321" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B321" s="2"/>
       <c r="D321" s="15"/>
     </row>
-    <row r="322">
+    <row r="322" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B322" s="2"/>
       <c r="D322" s="15"/>
     </row>
-    <row r="323">
+    <row r="323" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B323" s="2"/>
       <c r="D323" s="15"/>
     </row>
-    <row r="324">
+    <row r="324" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B324" s="2"/>
       <c r="D324" s="15"/>
     </row>
-    <row r="325">
+    <row r="325" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B325" s="2"/>
       <c r="D325" s="15"/>
     </row>
-    <row r="326">
+    <row r="326" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B326" s="2"/>
       <c r="D326" s="15"/>
     </row>
-    <row r="327">
+    <row r="327" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B327" s="2"/>
       <c r="D327" s="15"/>
     </row>
-    <row r="328">
+    <row r="328" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B328" s="2"/>
       <c r="D328" s="15"/>
     </row>
-    <row r="329">
+    <row r="329" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B329" s="2"/>
       <c r="D329" s="15"/>
     </row>
-    <row r="330">
+    <row r="330" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B330" s="2"/>
       <c r="D330" s="15"/>
     </row>
-    <row r="331">
+    <row r="331" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B331" s="2"/>
       <c r="D331" s="15"/>
     </row>
-    <row r="332">
+    <row r="332" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B332" s="2"/>
       <c r="D332" s="15"/>
     </row>
-    <row r="333">
+    <row r="333" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B333" s="2"/>
       <c r="D333" s="15"/>
     </row>
-    <row r="334">
+    <row r="334" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B334" s="2"/>
       <c r="D334" s="15"/>
     </row>
-    <row r="335">
+    <row r="335" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B335" s="2"/>
       <c r="D335" s="15"/>
     </row>
-    <row r="336">
+    <row r="336" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B336" s="2"/>
       <c r="D336" s="15"/>
     </row>
-    <row r="337">
+    <row r="337" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B337" s="2"/>
       <c r="D337" s="15"/>
     </row>
-    <row r="338">
+    <row r="338" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B338" s="2"/>
       <c r="D338" s="15"/>
     </row>
-    <row r="339">
+    <row r="339" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B339" s="2"/>
       <c r="D339" s="15"/>
     </row>
-    <row r="340">
+    <row r="340" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B340" s="2"/>
       <c r="D340" s="15"/>
     </row>
-    <row r="341">
+    <row r="341" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B341" s="2"/>
       <c r="D341" s="15"/>
     </row>
-    <row r="342">
+    <row r="342" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B342" s="2"/>
       <c r="D342" s="15"/>
     </row>
-    <row r="343">
+    <row r="343" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B343" s="2"/>
       <c r="D343" s="15"/>
     </row>
-    <row r="344">
+    <row r="344" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B344" s="2"/>
       <c r="D344" s="15"/>
     </row>
-    <row r="345">
+    <row r="345" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B345" s="2"/>
       <c r="D345" s="15"/>
     </row>
-    <row r="346">
+    <row r="346" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B346" s="2"/>
       <c r="D346" s="15"/>
     </row>
-    <row r="347">
+    <row r="347" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B347" s="2"/>
       <c r="D347" s="15"/>
     </row>
-    <row r="348">
+    <row r="348" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B348" s="2"/>
       <c r="D348" s="15"/>
     </row>
-    <row r="349">
+    <row r="349" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B349" s="2"/>
       <c r="D349" s="15"/>
     </row>
-    <row r="350">
+    <row r="350" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B350" s="2"/>
       <c r="D350" s="15"/>
     </row>
-    <row r="351">
+    <row r="351" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B351" s="2"/>
       <c r="D351" s="15"/>
     </row>
-    <row r="352">
+    <row r="352" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B352" s="2"/>
       <c r="D352" s="15"/>
     </row>
-    <row r="353">
+    <row r="353" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B353" s="2"/>
       <c r="D353" s="15"/>
     </row>
-    <row r="354">
+    <row r="354" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B354" s="2"/>
       <c r="D354" s="15"/>
     </row>
-    <row r="355">
+    <row r="355" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B355" s="2"/>
       <c r="D355" s="15"/>
     </row>
-    <row r="356">
+    <row r="356" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B356" s="2"/>
       <c r="D356" s="15"/>
     </row>
-    <row r="357">
+    <row r="357" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B357" s="2"/>
       <c r="D357" s="15"/>
     </row>
-    <row r="358">
+    <row r="358" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B358" s="2"/>
       <c r="D358" s="15"/>
     </row>
-    <row r="359">
+    <row r="359" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B359" s="2"/>
       <c r="D359" s="15"/>
     </row>
-    <row r="360">
+    <row r="360" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B360" s="2"/>
       <c r="D360" s="15"/>
     </row>
-    <row r="361">
+    <row r="361" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B361" s="2"/>
       <c r="D361" s="15"/>
     </row>
-    <row r="362">
+    <row r="362" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B362" s="2"/>
       <c r="D362" s="15"/>
     </row>
-    <row r="363">
+    <row r="363" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B363" s="2"/>
       <c r="D363" s="15"/>
     </row>
-    <row r="364">
+    <row r="364" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B364" s="2"/>
       <c r="D364" s="15"/>
     </row>
-    <row r="365">
+    <row r="365" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B365" s="2"/>
       <c r="D365" s="15"/>
     </row>
-    <row r="366">
+    <row r="366" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B366" s="2"/>
       <c r="D366" s="15"/>
     </row>
-    <row r="367">
+    <row r="367" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B367" s="2"/>
       <c r="D367" s="15"/>
     </row>
-    <row r="368">
+    <row r="368" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B368" s="2"/>
       <c r="D368" s="15"/>
     </row>
-    <row r="369">
+    <row r="369" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B369" s="2"/>
       <c r="D369" s="15"/>
     </row>
-    <row r="370">
+    <row r="370" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B370" s="2"/>
       <c r="D370" s="15"/>
     </row>
-    <row r="371">
+    <row r="371" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B371" s="2"/>
       <c r="D371" s="15"/>
     </row>
-    <row r="372">
+    <row r="372" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B372" s="2"/>
       <c r="D372" s="15"/>
     </row>
-    <row r="373">
+    <row r="373" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B373" s="2"/>
       <c r="D373" s="15"/>
     </row>
-    <row r="374">
+    <row r="374" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B374" s="2"/>
       <c r="D374" s="15"/>
     </row>
-    <row r="375">
+    <row r="375" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B375" s="2"/>
       <c r="D375" s="15"/>
     </row>
-    <row r="376">
+    <row r="376" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B376" s="2"/>
       <c r="D376" s="15"/>
     </row>
-    <row r="377">
+    <row r="377" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B377" s="2"/>
       <c r="D377" s="15"/>
     </row>
-    <row r="378">
+    <row r="378" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B378" s="2"/>
       <c r="D378" s="15"/>
     </row>
-    <row r="379">
+    <row r="379" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B379" s="2"/>
       <c r="D379" s="15"/>
     </row>
-    <row r="380">
+    <row r="380" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B380" s="2"/>
       <c r="D380" s="15"/>
     </row>
-    <row r="381">
+    <row r="381" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B381" s="2"/>
       <c r="D381" s="15"/>
     </row>
-    <row r="382">
+    <row r="382" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B382" s="2"/>
       <c r="D382" s="15"/>
     </row>
-    <row r="383">
+    <row r="383" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B383" s="2"/>
       <c r="D383" s="15"/>
     </row>
-    <row r="384">
+    <row r="384" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B384" s="2"/>
       <c r="D384" s="15"/>
     </row>
-    <row r="385">
+    <row r="385" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B385" s="2"/>
       <c r="D385" s="15"/>
     </row>
-    <row r="386">
+    <row r="386" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B386" s="2"/>
       <c r="D386" s="15"/>
     </row>
-    <row r="387">
+    <row r="387" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B387" s="2"/>
       <c r="D387" s="15"/>
     </row>
-    <row r="388">
+    <row r="388" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B388" s="2"/>
       <c r="D388" s="15"/>
     </row>
-    <row r="389">
+    <row r="389" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B389" s="2"/>
       <c r="D389" s="15"/>
     </row>
-    <row r="390">
+    <row r="390" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B390" s="2"/>
       <c r="D390" s="15"/>
     </row>
-    <row r="391">
+    <row r="391" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B391" s="2"/>
       <c r="D391" s="15"/>
     </row>
-    <row r="392">
+    <row r="392" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B392" s="2"/>
       <c r="D392" s="15"/>
     </row>
-    <row r="393">
+    <row r="393" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B393" s="2"/>
       <c r="D393" s="15"/>
     </row>
-    <row r="394">
+    <row r="394" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B394" s="2"/>
       <c r="D394" s="15"/>
     </row>
-    <row r="395">
+    <row r="395" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B395" s="2"/>
       <c r="D395" s="15"/>
     </row>
-    <row r="396">
+    <row r="396" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B396" s="2"/>
       <c r="D396" s="15"/>
     </row>
-    <row r="397">
+    <row r="397" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B397" s="2"/>
       <c r="D397" s="15"/>
     </row>
-    <row r="398">
+    <row r="398" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B398" s="2"/>
       <c r="D398" s="15"/>
     </row>
-    <row r="399">
+    <row r="399" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B399" s="2"/>
       <c r="D399" s="15"/>
     </row>
-    <row r="400">
+    <row r="400" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B400" s="2"/>
       <c r="D400" s="15"/>
     </row>
-    <row r="401">
+    <row r="401" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B401" s="2"/>
       <c r="D401" s="15"/>
     </row>
-    <row r="402">
+    <row r="402" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B402" s="2"/>
       <c r="D402" s="15"/>
     </row>
-    <row r="403">
+    <row r="403" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B403" s="2"/>
       <c r="D403" s="15"/>
     </row>
-    <row r="404">
+    <row r="404" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B404" s="2"/>
       <c r="D404" s="15"/>
     </row>
-    <row r="405">
+    <row r="405" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B405" s="2"/>
       <c r="D405" s="15"/>
     </row>
-    <row r="406">
+    <row r="406" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B406" s="2"/>
       <c r="D406" s="15"/>
     </row>
-    <row r="407">
+    <row r="407" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B407" s="2"/>
       <c r="D407" s="15"/>
     </row>
-    <row r="408">
+    <row r="408" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B408" s="2"/>
       <c r="D408" s="15"/>
     </row>
-    <row r="409">
+    <row r="409" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B409" s="2"/>
       <c r="D409" s="15"/>
     </row>
-    <row r="410">
+    <row r="410" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B410" s="2"/>
       <c r="D410" s="15"/>
     </row>
-    <row r="411">
+    <row r="411" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B411" s="2"/>
       <c r="D411" s="15"/>
     </row>
-    <row r="412">
+    <row r="412" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B412" s="2"/>
       <c r="D412" s="15"/>
     </row>
-    <row r="413">
+    <row r="413" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B413" s="2"/>
       <c r="D413" s="15"/>
     </row>
-    <row r="414">
+    <row r="414" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B414" s="2"/>
       <c r="D414" s="15"/>
     </row>
-    <row r="415">
+    <row r="415" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B415" s="2"/>
       <c r="D415" s="15"/>
     </row>
-    <row r="416">
+    <row r="416" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B416" s="2"/>
       <c r="D416" s="15"/>
     </row>
-    <row r="417">
+    <row r="417" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B417" s="2"/>
       <c r="D417" s="15"/>
     </row>
-    <row r="418">
+    <row r="418" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B418" s="2"/>
       <c r="D418" s="15"/>
     </row>
-    <row r="419">
+    <row r="419" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B419" s="2"/>
       <c r="D419" s="15"/>
     </row>
-    <row r="420">
+    <row r="420" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B420" s="2"/>
       <c r="D420" s="15"/>
     </row>
-    <row r="421">
+    <row r="421" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B421" s="2"/>
       <c r="D421" s="15"/>
     </row>
-    <row r="422">
+    <row r="422" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B422" s="2"/>
       <c r="D422" s="15"/>
     </row>
-    <row r="423">
+    <row r="423" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B423" s="2"/>
       <c r="D423" s="15"/>
     </row>
-    <row r="424">
+    <row r="424" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B424" s="2"/>
       <c r="D424" s="15"/>
     </row>
-    <row r="425">
+    <row r="425" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B425" s="2"/>
       <c r="D425" s="15"/>
     </row>
-    <row r="426">
+    <row r="426" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B426" s="2"/>
       <c r="D426" s="15"/>
     </row>
-    <row r="427">
+    <row r="427" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B427" s="2"/>
       <c r="D427" s="15"/>
     </row>
-    <row r="428">
+    <row r="428" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B428" s="2"/>
       <c r="D428" s="15"/>
     </row>
-    <row r="429">
+    <row r="429" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B429" s="2"/>
       <c r="D429" s="15"/>
     </row>
-    <row r="430">
+    <row r="430" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B430" s="2"/>
       <c r="D430" s="15"/>
     </row>
-    <row r="431">
+    <row r="431" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B431" s="2"/>
       <c r="D431" s="15"/>
     </row>
-    <row r="432">
+    <row r="432" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B432" s="2"/>
       <c r="D432" s="15"/>
     </row>
-    <row r="433">
+    <row r="433" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B433" s="2"/>
       <c r="D433" s="15"/>
     </row>
-    <row r="434">
+    <row r="434" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B434" s="2"/>
       <c r="D434" s="15"/>
     </row>
-    <row r="435">
+    <row r="435" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B435" s="2"/>
       <c r="D435" s="15"/>
     </row>
-    <row r="436">
+    <row r="436" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B436" s="2"/>
       <c r="D436" s="15"/>
     </row>
-    <row r="437">
+    <row r="437" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B437" s="2"/>
       <c r="D437" s="15"/>
     </row>
-    <row r="438">
+    <row r="438" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B438" s="2"/>
       <c r="D438" s="15"/>
     </row>
-    <row r="439">
+    <row r="439" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B439" s="2"/>
       <c r="D439" s="15"/>
     </row>
-    <row r="440">
+    <row r="440" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B440" s="2"/>
       <c r="D440" s="15"/>
     </row>
-    <row r="441">
+    <row r="441" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B441" s="2"/>
       <c r="D441" s="15"/>
     </row>
-    <row r="442">
+    <row r="442" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B442" s="2"/>
       <c r="D442" s="15"/>
     </row>
-    <row r="443">
+    <row r="443" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B443" s="2"/>
       <c r="D443" s="15"/>
     </row>
-    <row r="444">
+    <row r="444" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B444" s="2"/>
       <c r="D444" s="15"/>
     </row>
-    <row r="445">
+    <row r="445" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B445" s="2"/>
       <c r="D445" s="15"/>
     </row>
-    <row r="446">
+    <row r="446" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B446" s="2"/>
       <c r="D446" s="15"/>
     </row>
-    <row r="447">
+    <row r="447" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B447" s="2"/>
       <c r="D447" s="15"/>
     </row>
-    <row r="448">
+    <row r="448" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B448" s="2"/>
       <c r="D448" s="15"/>
     </row>
-    <row r="449">
+    <row r="449" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B449" s="2"/>
       <c r="D449" s="15"/>
     </row>
-    <row r="450">
+    <row r="450" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B450" s="2"/>
       <c r="D450" s="15"/>
     </row>
-    <row r="451">
+    <row r="451" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B451" s="2"/>
       <c r="D451" s="15"/>
     </row>
-    <row r="452">
+    <row r="452" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B452" s="2"/>
       <c r="D452" s="15"/>
     </row>
-    <row r="453">
+    <row r="453" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B453" s="2"/>
       <c r="D453" s="15"/>
     </row>
-    <row r="454">
+    <row r="454" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B454" s="2"/>
       <c r="D454" s="15"/>
     </row>
-    <row r="455">
+    <row r="455" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B455" s="2"/>
       <c r="D455" s="15"/>
     </row>
-    <row r="456">
+    <row r="456" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B456" s="2"/>
       <c r="D456" s="15"/>
     </row>
-    <row r="457">
+    <row r="457" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B457" s="2"/>
       <c r="D457" s="15"/>
     </row>
-    <row r="458">
+    <row r="458" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B458" s="2"/>
       <c r="D458" s="15"/>
     </row>
-    <row r="459">
+    <row r="459" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B459" s="2"/>
       <c r="D459" s="15"/>
     </row>
-    <row r="460">
+    <row r="460" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B460" s="2"/>
       <c r="D460" s="15"/>
     </row>
-    <row r="461">
+    <row r="461" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B461" s="2"/>
       <c r="D461" s="15"/>
     </row>
-    <row r="462">
+    <row r="462" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B462" s="2"/>
       <c r="D462" s="15"/>
     </row>
-    <row r="463">
+    <row r="463" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B463" s="2"/>
       <c r="D463" s="15"/>
     </row>
-    <row r="464">
+    <row r="464" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B464" s="2"/>
       <c r="D464" s="15"/>
     </row>
-    <row r="465">
+    <row r="465" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B465" s="2"/>
       <c r="D465" s="15"/>
     </row>
-    <row r="466">
+    <row r="466" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B466" s="2"/>
       <c r="D466" s="15"/>
     </row>
-    <row r="467">
+    <row r="467" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B467" s="2"/>
       <c r="D467" s="15"/>
     </row>
-    <row r="468">
+    <row r="468" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B468" s="2"/>
       <c r="D468" s="15"/>
     </row>
-    <row r="469">
+    <row r="469" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B469" s="2"/>
       <c r="D469" s="15"/>
     </row>
-    <row r="470">
+    <row r="470" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B470" s="2"/>
       <c r="D470" s="15"/>
     </row>
-    <row r="471">
+    <row r="471" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B471" s="2"/>
       <c r="D471" s="15"/>
     </row>
-    <row r="472">
+    <row r="472" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B472" s="2"/>
       <c r="D472" s="15"/>
     </row>
-    <row r="473">
+    <row r="473" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B473" s="2"/>
       <c r="D473" s="15"/>
     </row>
-    <row r="474">
+    <row r="474" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B474" s="2"/>
       <c r="D474" s="15"/>
     </row>
-    <row r="475">
+    <row r="475" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B475" s="2"/>
       <c r="D475" s="15"/>
     </row>
-    <row r="476">
+    <row r="476" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B476" s="2"/>
       <c r="D476" s="15"/>
     </row>
-    <row r="477">
+    <row r="477" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B477" s="2"/>
       <c r="D477" s="15"/>
     </row>
-    <row r="478">
+    <row r="478" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B478" s="2"/>
       <c r="D478" s="15"/>
     </row>
-    <row r="479">
+    <row r="479" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B479" s="2"/>
       <c r="D479" s="15"/>
     </row>
-    <row r="480">
+    <row r="480" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B480" s="2"/>
       <c r="D480" s="15"/>
     </row>
-    <row r="481">
+    <row r="481" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B481" s="2"/>
       <c r="D481" s="15"/>
     </row>
-    <row r="482">
+    <row r="482" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B482" s="2"/>
       <c r="D482" s="15"/>
     </row>
-    <row r="483">
+    <row r="483" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B483" s="2"/>
       <c r="D483" s="15"/>
     </row>
-    <row r="484">
+    <row r="484" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B484" s="2"/>
       <c r="D484" s="15"/>
     </row>
-    <row r="485">
+    <row r="485" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B485" s="2"/>
       <c r="D485" s="15"/>
     </row>
-    <row r="486">
+    <row r="486" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B486" s="2"/>
       <c r="D486" s="15"/>
     </row>
-    <row r="487">
+    <row r="487" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B487" s="2"/>
       <c r="D487" s="15"/>
     </row>
-    <row r="488">
+    <row r="488" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B488" s="2"/>
       <c r="D488" s="15"/>
     </row>
-    <row r="489">
+    <row r="489" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B489" s="2"/>
       <c r="D489" s="15"/>
     </row>
-    <row r="490">
+    <row r="490" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B490" s="2"/>
       <c r="D490" s="15"/>
     </row>
-    <row r="491">
+    <row r="491" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B491" s="2"/>
       <c r="D491" s="15"/>
     </row>
-    <row r="492">
+    <row r="492" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B492" s="2"/>
       <c r="D492" s="15"/>
     </row>
-    <row r="493">
+    <row r="493" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B493" s="2"/>
       <c r="D493" s="15"/>
     </row>
-    <row r="494">
+    <row r="494" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B494" s="2"/>
       <c r="D494" s="15"/>
     </row>
-    <row r="495">
+    <row r="495" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B495" s="2"/>
       <c r="D495" s="15"/>
     </row>
-    <row r="496">
+    <row r="496" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B496" s="2"/>
       <c r="D496" s="15"/>
     </row>
-    <row r="497">
+    <row r="497" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B497" s="2"/>
       <c r="D497" s="15"/>
     </row>
-    <row r="498">
+    <row r="498" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B498" s="2"/>
       <c r="D498" s="15"/>
     </row>
-    <row r="499">
+    <row r="499" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B499" s="2"/>
       <c r="D499" s="15"/>
     </row>
-    <row r="500">
+    <row r="500" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B500" s="2"/>
       <c r="D500" s="15"/>
     </row>
-    <row r="501">
+    <row r="501" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B501" s="2"/>
       <c r="D501" s="15"/>
     </row>
-    <row r="502">
+    <row r="502" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B502" s="2"/>
       <c r="D502" s="15"/>
     </row>
-    <row r="503">
+    <row r="503" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B503" s="2"/>
       <c r="D503" s="15"/>
     </row>
-    <row r="504">
+    <row r="504" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B504" s="2"/>
       <c r="D504" s="15"/>
     </row>
-    <row r="505">
+    <row r="505" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B505" s="2"/>
       <c r="D505" s="15"/>
     </row>
-    <row r="506">
+    <row r="506" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B506" s="2"/>
       <c r="D506" s="15"/>
     </row>
-    <row r="507">
+    <row r="507" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B507" s="2"/>
       <c r="D507" s="15"/>
     </row>
-    <row r="508">
+    <row r="508" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B508" s="2"/>
       <c r="D508" s="15"/>
     </row>
-    <row r="509">
+    <row r="509" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B509" s="2"/>
       <c r="D509" s="15"/>
     </row>
-    <row r="510">
+    <row r="510" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B510" s="2"/>
       <c r="D510" s="15"/>
     </row>
-    <row r="511">
+    <row r="511" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B511" s="2"/>
       <c r="D511" s="15"/>
     </row>
-    <row r="512">
+    <row r="512" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B512" s="2"/>
       <c r="D512" s="15"/>
     </row>
-    <row r="513">
+    <row r="513" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B513" s="2"/>
       <c r="D513" s="15"/>
     </row>
-    <row r="514">
+    <row r="514" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B514" s="2"/>
       <c r="D514" s="15"/>
     </row>
-    <row r="515">
+    <row r="515" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B515" s="2"/>
       <c r="D515" s="15"/>
     </row>
-    <row r="516">
+    <row r="516" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B516" s="2"/>
       <c r="D516" s="15"/>
     </row>
-    <row r="517">
+    <row r="517" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B517" s="2"/>
       <c r="D517" s="15"/>
     </row>
-    <row r="518">
+    <row r="518" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B518" s="2"/>
       <c r="D518" s="15"/>
     </row>
-    <row r="519">
+    <row r="519" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B519" s="2"/>
       <c r="D519" s="15"/>
     </row>
-    <row r="520">
+    <row r="520" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B520" s="2"/>
       <c r="D520" s="15"/>
     </row>
-    <row r="521">
+    <row r="521" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B521" s="2"/>
       <c r="D521" s="15"/>
     </row>
-    <row r="522">
+    <row r="522" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B522" s="2"/>
       <c r="D522" s="15"/>
     </row>
-    <row r="523">
+    <row r="523" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B523" s="2"/>
       <c r="D523" s="15"/>
     </row>
-    <row r="524">
+    <row r="524" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B524" s="2"/>
       <c r="D524" s="15"/>
     </row>
-    <row r="525">
+    <row r="525" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B525" s="2"/>
       <c r="D525" s="15"/>
     </row>
-    <row r="526">
+    <row r="526" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B526" s="2"/>
       <c r="D526" s="15"/>
     </row>
-    <row r="527">
+    <row r="527" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B527" s="2"/>
       <c r="D527" s="15"/>
     </row>
-    <row r="528">
+    <row r="528" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B528" s="2"/>
       <c r="D528" s="15"/>
     </row>
-    <row r="529">
+    <row r="529" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B529" s="2"/>
       <c r="D529" s="15"/>
     </row>
-    <row r="530">
+    <row r="530" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B530" s="2"/>
       <c r="D530" s="15"/>
     </row>
-    <row r="531">
+    <row r="531" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B531" s="2"/>
       <c r="D531" s="15"/>
     </row>
-    <row r="532">
+    <row r="532" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B532" s="2"/>
       <c r="D532" s="15"/>
     </row>
-    <row r="533">
+    <row r="533" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B533" s="2"/>
       <c r="D533" s="15"/>
     </row>
-    <row r="534">
+    <row r="534" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B534" s="2"/>
       <c r="D534" s="15"/>
     </row>
-    <row r="535">
+    <row r="535" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B535" s="2"/>
       <c r="D535" s="15"/>
     </row>
-    <row r="536">
+    <row r="536" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B536" s="2"/>
       <c r="D536" s="15"/>
     </row>
-    <row r="537">
+    <row r="537" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B537" s="2"/>
       <c r="D537" s="15"/>
     </row>
-    <row r="538">
+    <row r="538" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B538" s="2"/>
       <c r="D538" s="15"/>
     </row>
-    <row r="539">
+    <row r="539" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B539" s="2"/>
       <c r="D539" s="15"/>
     </row>
-    <row r="540">
+    <row r="540" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B540" s="2"/>
       <c r="D540" s="15"/>
     </row>
-    <row r="541">
+    <row r="541" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B541" s="2"/>
       <c r="D541" s="15"/>
     </row>
-    <row r="542">
+    <row r="542" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B542" s="2"/>
       <c r="D542" s="15"/>
     </row>
-    <row r="543">
+    <row r="543" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B543" s="2"/>
       <c r="D543" s="15"/>
     </row>
-    <row r="544">
+    <row r="544" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B544" s="2"/>
       <c r="D544" s="15"/>
     </row>
-    <row r="545">
+    <row r="545" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B545" s="2"/>
       <c r="D545" s="15"/>
     </row>
-    <row r="546">
+    <row r="546" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B546" s="2"/>
       <c r="D546" s="15"/>
     </row>
-    <row r="547">
+    <row r="547" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B547" s="2"/>
       <c r="D547" s="15"/>
     </row>
-    <row r="548">
+    <row r="548" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B548" s="2"/>
       <c r="D548" s="15"/>
     </row>
-    <row r="549">
+    <row r="549" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B549" s="2"/>
       <c r="D549" s="15"/>
     </row>
-    <row r="550">
+    <row r="550" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B550" s="2"/>
       <c r="D550" s="15"/>
     </row>
-    <row r="551">
+    <row r="551" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B551" s="2"/>
       <c r="D551" s="15"/>
     </row>
-    <row r="552">
+    <row r="552" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B552" s="2"/>
       <c r="D552" s="15"/>
     </row>
-    <row r="553">
+    <row r="553" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B553" s="2"/>
       <c r="D553" s="15"/>
     </row>
-    <row r="554">
+    <row r="554" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B554" s="2"/>
       <c r="D554" s="15"/>
     </row>
-    <row r="555">
+    <row r="555" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B555" s="2"/>
       <c r="D555" s="15"/>
     </row>
-    <row r="556">
+    <row r="556" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B556" s="2"/>
       <c r="D556" s="15"/>
     </row>
-    <row r="557">
+    <row r="557" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B557" s="2"/>
       <c r="D557" s="15"/>
     </row>
-    <row r="558">
+    <row r="558" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B558" s="2"/>
       <c r="D558" s="15"/>
     </row>
-    <row r="559">
+    <row r="559" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B559" s="2"/>
       <c r="D559" s="15"/>
     </row>
-    <row r="560">
+    <row r="560" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B560" s="2"/>
       <c r="D560" s="15"/>
     </row>
-    <row r="561">
+    <row r="561" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B561" s="2"/>
       <c r="D561" s="15"/>
     </row>
-    <row r="562">
+    <row r="562" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B562" s="2"/>
       <c r="D562" s="15"/>
     </row>
-    <row r="563">
+    <row r="563" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B563" s="2"/>
       <c r="D563" s="15"/>
     </row>
-    <row r="564">
+    <row r="564" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B564" s="2"/>
       <c r="D564" s="15"/>
     </row>
-    <row r="565">
+    <row r="565" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B565" s="2"/>
       <c r="D565" s="15"/>
     </row>
-    <row r="566">
+    <row r="566" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B566" s="2"/>
       <c r="D566" s="15"/>
     </row>
-    <row r="567">
+    <row r="567" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B567" s="2"/>
       <c r="D567" s="15"/>
     </row>
-    <row r="568">
+    <row r="568" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B568" s="2"/>
       <c r="D568" s="15"/>
     </row>
-    <row r="569">
+    <row r="569" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B569" s="2"/>
       <c r="D569" s="15"/>
     </row>
-    <row r="570">
+    <row r="570" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B570" s="2"/>
       <c r="D570" s="15"/>
     </row>
-    <row r="571">
+    <row r="571" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B571" s="2"/>
       <c r="D571" s="15"/>
     </row>
-    <row r="572">
+    <row r="572" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B572" s="2"/>
       <c r="D572" s="15"/>
     </row>
-    <row r="573">
+    <row r="573" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B573" s="2"/>
       <c r="D573" s="15"/>
     </row>
-    <row r="574">
+    <row r="574" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B574" s="2"/>
       <c r="D574" s="15"/>
     </row>
-    <row r="575">
+    <row r="575" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B575" s="2"/>
       <c r="D575" s="15"/>
     </row>
-    <row r="576">
+    <row r="576" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B576" s="2"/>
       <c r="D576" s="15"/>
     </row>
-    <row r="577">
+    <row r="577" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B577" s="2"/>
       <c r="D577" s="15"/>
     </row>
-    <row r="578">
+    <row r="578" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B578" s="2"/>
       <c r="D578" s="15"/>
     </row>
-    <row r="579">
+    <row r="579" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B579" s="2"/>
       <c r="D579" s="15"/>
     </row>
-    <row r="580">
+    <row r="580" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B580" s="2"/>
       <c r="D580" s="15"/>
     </row>
-    <row r="581">
+    <row r="581" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B581" s="2"/>
       <c r="D581" s="15"/>
     </row>
-    <row r="582">
+    <row r="582" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B582" s="2"/>
       <c r="D582" s="15"/>
     </row>
-    <row r="583">
+    <row r="583" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B583" s="2"/>
       <c r="D583" s="15"/>
     </row>
-    <row r="584">
+    <row r="584" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B584" s="2"/>
       <c r="D584" s="15"/>
     </row>
-    <row r="585">
+    <row r="585" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B585" s="2"/>
       <c r="D585" s="15"/>
     </row>
-    <row r="586">
+    <row r="586" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B586" s="2"/>
       <c r="D586" s="15"/>
     </row>
-    <row r="587">
+    <row r="587" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B587" s="2"/>
       <c r="D587" s="15"/>
     </row>
-    <row r="588">
+    <row r="588" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B588" s="2"/>
       <c r="D588" s="15"/>
     </row>
-    <row r="589">
+    <row r="589" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B589" s="2"/>
       <c r="D589" s="15"/>
     </row>
-    <row r="590">
+    <row r="590" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B590" s="2"/>
       <c r="D590" s="15"/>
     </row>
-    <row r="591">
+    <row r="591" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B591" s="2"/>
       <c r="D591" s="15"/>
     </row>
-    <row r="592">
+    <row r="592" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B592" s="2"/>
       <c r="D592" s="15"/>
     </row>
-    <row r="593">
+    <row r="593" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B593" s="2"/>
       <c r="D593" s="15"/>
     </row>
-    <row r="594">
+    <row r="594" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B594" s="2"/>
       <c r="D594" s="15"/>
     </row>
-    <row r="595">
+    <row r="595" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B595" s="2"/>
       <c r="D595" s="15"/>
     </row>
-    <row r="596">
+    <row r="596" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B596" s="2"/>
       <c r="D596" s="15"/>
     </row>
-    <row r="597">
+    <row r="597" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B597" s="2"/>
       <c r="D597" s="15"/>
     </row>
-    <row r="598">
+    <row r="598" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B598" s="2"/>
       <c r="D598" s="15"/>
     </row>
-    <row r="599">
+    <row r="599" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B599" s="2"/>
       <c r="D599" s="15"/>
     </row>
-    <row r="600">
+    <row r="600" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B600" s="2"/>
       <c r="D600" s="15"/>
     </row>
-    <row r="601">
+    <row r="601" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B601" s="2"/>
       <c r="D601" s="15"/>
     </row>
-    <row r="602">
+    <row r="602" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B602" s="2"/>
       <c r="D602" s="15"/>
     </row>
-    <row r="603">
+    <row r="603" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B603" s="2"/>
       <c r="D603" s="15"/>
     </row>
-    <row r="604">
+    <row r="604" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B604" s="2"/>
       <c r="D604" s="15"/>
     </row>
-    <row r="605">
+    <row r="605" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B605" s="2"/>
       <c r="D605" s="15"/>
     </row>
-    <row r="606">
+    <row r="606" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B606" s="2"/>
       <c r="D606" s="15"/>
     </row>
-    <row r="607">
+    <row r="607" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B607" s="2"/>
       <c r="D607" s="15"/>
     </row>
-    <row r="608">
+    <row r="608" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B608" s="2"/>
       <c r="D608" s="15"/>
     </row>
-    <row r="609">
+    <row r="609" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B609" s="2"/>
       <c r="D609" s="15"/>
     </row>
-    <row r="610">
+    <row r="610" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B610" s="2"/>
       <c r="D610" s="15"/>
     </row>
-    <row r="611">
+    <row r="611" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B611" s="2"/>
       <c r="D611" s="15"/>
     </row>
-    <row r="612">
+    <row r="612" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B612" s="2"/>
       <c r="D612" s="15"/>
     </row>
-    <row r="613">
+    <row r="613" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B613" s="2"/>
       <c r="D613" s="15"/>
     </row>
-    <row r="614">
+    <row r="614" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B614" s="2"/>
       <c r="D614" s="15"/>
     </row>
-    <row r="615">
+    <row r="615" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B615" s="2"/>
       <c r="D615" s="15"/>
     </row>
-    <row r="616">
+    <row r="616" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B616" s="2"/>
       <c r="D616" s="15"/>
     </row>
-    <row r="617">
+    <row r="617" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B617" s="2"/>
       <c r="D617" s="15"/>
     </row>
-    <row r="618">
+    <row r="618" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B618" s="2"/>
       <c r="D618" s="15"/>
     </row>
-    <row r="619">
+    <row r="619" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B619" s="2"/>
       <c r="D619" s="15"/>
     </row>
-    <row r="620">
+    <row r="620" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B620" s="2"/>
       <c r="D620" s="15"/>
     </row>
-    <row r="621">
+    <row r="621" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B621" s="2"/>
       <c r="D621" s="15"/>
     </row>
-    <row r="622">
+    <row r="622" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B622" s="2"/>
       <c r="D622" s="15"/>
     </row>
-    <row r="623">
+    <row r="623" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B623" s="2"/>
       <c r="D623" s="15"/>
     </row>
-    <row r="624">
+    <row r="624" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B624" s="2"/>
       <c r="D624" s="15"/>
     </row>
-    <row r="625">
+    <row r="625" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B625" s="2"/>
       <c r="D625" s="15"/>
     </row>
-    <row r="626">
+    <row r="626" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B626" s="2"/>
       <c r="D626" s="15"/>
     </row>
-    <row r="627">
+    <row r="627" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B627" s="2"/>
       <c r="D627" s="15"/>
     </row>
-    <row r="628">
+    <row r="628" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B628" s="2"/>
       <c r="D628" s="15"/>
     </row>
-    <row r="629">
+    <row r="629" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B629" s="2"/>
       <c r="D629" s="15"/>
     </row>
-    <row r="630">
+    <row r="630" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B630" s="2"/>
       <c r="D630" s="15"/>
     </row>
-    <row r="631">
+    <row r="631" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B631" s="2"/>
       <c r="D631" s="15"/>
     </row>
-    <row r="632">
+    <row r="632" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B632" s="2"/>
       <c r="D632" s="15"/>
     </row>
-    <row r="633">
+    <row r="633" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B633" s="2"/>
       <c r="D633" s="15"/>
     </row>
-    <row r="634">
+    <row r="634" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B634" s="2"/>
       <c r="D634" s="15"/>
     </row>
-    <row r="635">
+    <row r="635" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B635" s="2"/>
       <c r="D635" s="15"/>
     </row>
-    <row r="636">
+    <row r="636" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B636" s="2"/>
       <c r="D636" s="15"/>
     </row>
-    <row r="637">
+    <row r="637" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B637" s="2"/>
       <c r="D637" s="15"/>
     </row>
-    <row r="638">
+    <row r="638" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B638" s="2"/>
       <c r="D638" s="15"/>
     </row>
-    <row r="639">
+    <row r="639" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B639" s="2"/>
       <c r="D639" s="15"/>
     </row>
-    <row r="640">
+    <row r="640" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B640" s="2"/>
       <c r="D640" s="15"/>
     </row>
-    <row r="641">
+    <row r="641" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B641" s="2"/>
       <c r="D641" s="15"/>
     </row>
-    <row r="642">
+    <row r="642" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B642" s="2"/>
       <c r="D642" s="15"/>
     </row>
-    <row r="643">
+    <row r="643" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B643" s="2"/>
       <c r="D643" s="15"/>
     </row>
-    <row r="644">
+    <row r="644" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B644" s="2"/>
       <c r="D644" s="15"/>
     </row>
-    <row r="645">
+    <row r="645" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B645" s="2"/>
       <c r="D645" s="15"/>
     </row>
-    <row r="646">
+    <row r="646" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B646" s="2"/>
       <c r="D646" s="15"/>
     </row>
-    <row r="647">
+    <row r="647" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B647" s="2"/>
       <c r="D647" s="15"/>
     </row>
-    <row r="648">
+    <row r="648" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B648" s="2"/>
       <c r="D648" s="15"/>
     </row>
-    <row r="649">
+    <row r="649" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B649" s="2"/>
       <c r="D649" s="15"/>
     </row>
-    <row r="650">
+    <row r="650" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B650" s="2"/>
       <c r="D650" s="15"/>
     </row>
-    <row r="651">
+    <row r="651" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B651" s="2"/>
       <c r="D651" s="15"/>
     </row>
-    <row r="652">
+    <row r="652" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B652" s="2"/>
       <c r="D652" s="15"/>
     </row>
-    <row r="653">
+    <row r="653" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B653" s="2"/>
       <c r="D653" s="15"/>
     </row>
-    <row r="654">
+    <row r="654" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B654" s="2"/>
       <c r="D654" s="15"/>
     </row>
-    <row r="655">
+    <row r="655" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B655" s="2"/>
       <c r="D655" s="15"/>
     </row>
-    <row r="656">
+    <row r="656" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B656" s="2"/>
       <c r="D656" s="15"/>
     </row>
-    <row r="657">
+    <row r="657" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B657" s="2"/>
       <c r="D657" s="15"/>
     </row>
-    <row r="658">
+    <row r="658" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B658" s="2"/>
       <c r="D658" s="15"/>
     </row>
-    <row r="659">
+    <row r="659" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B659" s="2"/>
       <c r="D659" s="15"/>
     </row>
-    <row r="660">
+    <row r="660" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B660" s="2"/>
       <c r="D660" s="15"/>
     </row>
-    <row r="661">
+    <row r="661" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B661" s="2"/>
       <c r="D661" s="15"/>
     </row>
-    <row r="662">
+    <row r="662" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B662" s="2"/>
       <c r="D662" s="15"/>
     </row>
-    <row r="663">
+    <row r="663" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B663" s="2"/>
       <c r="D663" s="15"/>
     </row>
-    <row r="664">
+    <row r="664" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B664" s="2"/>
       <c r="D664" s="15"/>
     </row>
-    <row r="665">
+    <row r="665" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B665" s="2"/>
       <c r="D665" s="15"/>
     </row>
-    <row r="666">
+    <row r="666" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B666" s="2"/>
       <c r="D666" s="15"/>
     </row>
-    <row r="667">
+    <row r="667" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B667" s="2"/>
       <c r="D667" s="15"/>
     </row>
-    <row r="668">
+    <row r="668" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B668" s="2"/>
       <c r="D668" s="15"/>
     </row>
-    <row r="669">
+    <row r="669" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B669" s="2"/>
       <c r="D669" s="15"/>
     </row>
-    <row r="670">
+    <row r="670" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B670" s="2"/>
       <c r="D670" s="15"/>
     </row>
-    <row r="671">
+    <row r="671" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B671" s="2"/>
       <c r="D671" s="15"/>
     </row>
-    <row r="672">
+    <row r="672" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B672" s="2"/>
       <c r="D672" s="15"/>
     </row>
-    <row r="673">
+    <row r="673" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B673" s="2"/>
       <c r="D673" s="15"/>
     </row>
-    <row r="674">
+    <row r="674" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B674" s="2"/>
       <c r="D674" s="15"/>
     </row>
-    <row r="675">
+    <row r="675" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B675" s="2"/>
       <c r="D675" s="15"/>
     </row>
-    <row r="676">
+    <row r="676" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B676" s="2"/>
       <c r="D676" s="15"/>
     </row>
-    <row r="677">
+    <row r="677" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B677" s="2"/>
       <c r="D677" s="15"/>
     </row>
-    <row r="678">
+    <row r="678" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B678" s="2"/>
       <c r="D678" s="15"/>
     </row>
-    <row r="679">
+    <row r="679" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B679" s="2"/>
       <c r="D679" s="15"/>
     </row>
-    <row r="680">
+    <row r="680" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B680" s="2"/>
       <c r="D680" s="15"/>
     </row>
-    <row r="681">
+    <row r="681" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B681" s="2"/>
       <c r="D681" s="15"/>
     </row>
-    <row r="682">
+    <row r="682" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B682" s="2"/>
       <c r="D682" s="15"/>
     </row>
-    <row r="683">
+    <row r="683" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B683" s="2"/>
       <c r="D683" s="15"/>
     </row>
-    <row r="684">
+    <row r="684" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B684" s="2"/>
       <c r="D684" s="15"/>
     </row>
-    <row r="685">
+    <row r="685" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B685" s="2"/>
       <c r="D685" s="15"/>
     </row>
-    <row r="686">
+    <row r="686" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B686" s="2"/>
       <c r="D686" s="15"/>
     </row>
-    <row r="687">
+    <row r="687" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B687" s="2"/>
       <c r="D687" s="15"/>
     </row>
-    <row r="688">
+    <row r="688" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B688" s="2"/>
       <c r="D688" s="15"/>
     </row>
-    <row r="689">
+    <row r="689" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B689" s="2"/>
       <c r="D689" s="15"/>
     </row>
-    <row r="690">
+    <row r="690" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B690" s="2"/>
       <c r="D690" s="15"/>
     </row>
-    <row r="691">
+    <row r="691" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B691" s="2"/>
       <c r="D691" s="15"/>
     </row>
-    <row r="692">
+    <row r="692" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B692" s="2"/>
       <c r="D692" s="15"/>
     </row>
-    <row r="693">
+    <row r="693" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B693" s="2"/>
       <c r="D693" s="15"/>
     </row>
-    <row r="694">
+    <row r="694" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B694" s="2"/>
       <c r="D694" s="15"/>
     </row>
-    <row r="695">
+    <row r="695" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B695" s="2"/>
       <c r="D695" s="15"/>
     </row>
-    <row r="696">
+    <row r="696" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B696" s="2"/>
       <c r="D696" s="15"/>
     </row>
-    <row r="697">
+    <row r="697" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B697" s="2"/>
       <c r="D697" s="15"/>
     </row>
-    <row r="698">
+    <row r="698" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B698" s="2"/>
       <c r="D698" s="15"/>
     </row>
-    <row r="699">
+    <row r="699" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B699" s="2"/>
       <c r="D699" s="15"/>
     </row>
-    <row r="700">
+    <row r="700" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B700" s="2"/>
       <c r="D700" s="15"/>
     </row>
-    <row r="701">
+    <row r="701" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B701" s="2"/>
       <c r="D701" s="15"/>
     </row>
-    <row r="702">
+    <row r="702" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B702" s="2"/>
       <c r="D702" s="15"/>
     </row>
-    <row r="703">
+    <row r="703" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B703" s="2"/>
       <c r="D703" s="15"/>
     </row>
-    <row r="704">
+    <row r="704" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B704" s="2"/>
       <c r="D704" s="15"/>
     </row>
   </sheetData>
-  <printOptions headings="0" gridLines="0"/>
-  <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="4294967295" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
-  <headerFooter/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" firstPageNumber="4294967295" orientation="portrait"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScale="100" workbookViewId="0">
-      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
-  <printOptions headings="0" gridLines="0"/>
-  <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="4294967295" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
-  <headerFooter/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" firstPageNumber="4294967295" orientation="portrait"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/others/Доработки_исправления.xlsx
+++ b/others/Доработки_исправления.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\BAXI_JB\Projects\Разработка_ГПХ\ТЗ\репа\TestProjects\others\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5DAE9BC-FA74-400E-B3DC-5F4F3BFC9449}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D14A80CF-1026-4E35-998B-7C06FE1134A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="542" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -403,15 +403,31 @@
     <t>Справочники -&gt; Таможенные посты</t>
   </si>
   <si>
+    <t>Принажати ПКМ на строке не появляется контекстное меню "печать, детализация"</t>
+  </si>
+  <si>
+    <t>Главная форма, форма создания отгрузки</t>
+  </si>
+  <si>
+    <t>На форме создания отшрузки присутствуют заказы, для которых уже созданны отгрузки</t>
+  </si>
+  <si>
+    <t>При добавлении заказа через расходную партию не добавляется заказ</t>
+  </si>
+  <si>
+    <t>После добавления нового поста, новая запись задублиовалась, удалил одну строку, при вопытке удаления второй, система вернула ошибку 
+Добави еще один тестовый тамженный пост - дублиования нет. Система не дает удалять посты - возращает ошибку</t>
+  </si>
+  <si>
     <t xml:space="preserve">Подробная информация об использовании оперативной 
 (JIT) отладки вместо данного диалогового 
 окна содержится в конце этого сообщения.
 ************** Текст исключения **************
 System.Exception: The DELETE statement conflicted with the REFERENCE constraint "FK_custom_post_fk". The conflict occurred in database "Planning_NRelease", table "dbo.delivery_period", column 'custom_post_id'.
 The statement has been terminated.
-   в Planning.Kernel.BaseRepository`2.Save(T Item) в C:\Users\d.zhuravlev\Planning\Planning_TestVer\Planning.Kernel\BaseObjects\BaseRepository.cs:строка 106
-   в Planning.DictFormEx`2.DelRow()
-   в Planning.DictFormEx`2.btnDelRow_Click(Object sender, EventArgs e)
+   в Planning.Kernel.BaseRepository`2.Save(T Item) в C:\Users\d.zhuravlev\Planning\Planning_TestVer\Planning.Kernel\BaseObjects\BaseRepository.cs:строка 107
+   в Planning.DictFormEx`2.DelRow() в C:\Users\d.zhuravlev\Planning\Planning_TestVer\Planning\Dicts\DictFormEx.cs:строка 112
+   в Planning.DictFormEx`2.btnDelRow_Click(Object sender, EventArgs e) в C:\Users\d.zhuravlev\Planning\Planning_TestVer\Planning\Dicts\DictFormEx.cs:строка 172
    в System.Windows.Forms.ToolStripItem.RaiseEvent(Object key, EventArgs e)
    в System.Windows.Forms.ToolStripButton.OnClick(EventArgs e)
    в System.Windows.Forms.ToolStripItem.HandleClick(EventArgs e)
@@ -433,8 +449,8 @@
     CodeBase: file:///C:/Windows/Microsoft.NET/Framework/v4.0.30319/mscorlib.dll
 ----------------------------------------
 Planning
-    Версия сборки: 2.0.0.2
-    Версия Win32: 2.0.0.2
+    Версия сборки: 2.0.0.3
+    Версия Win32: 2.0.0.3
     CodeBase: file:///C:/Planning_NRelease/Planning.exe
 ----------------------------------------
 System.Windows.Forms
@@ -478,13 +494,13 @@
     CodeBase: file:///C:/WINDOWS/Microsoft.Net/assembly/GAC_MSIL/System.Windows.Forms.resources/v4.0_4.0.0.0_ru_b77a5c561934e089/System.Windows.Forms.resources.dll
 ----------------------------------------
 Planning.Kernel
-    Версия сборки: 1.0.0.2
-    Версия Win32: 1.0.0.2
-    CodeBase: file:///C:/Planning_NRelease/Planning.Kernel.DLL
-----------------------------------------
-Planning.DataLayer
     Версия сборки: 1.0.0.3
     Версия Win32: 1.0.0.3
+    CodeBase: file:///C:/Planning_NRelease/Planning.Kernel.DLL
+----------------------------------------
+Planning.DataLayer
+    Версия сборки: 1.0.0.4
+    Версия Win32: 1.0.0.4
     CodeBase: file:///C:/Planning_NRelease/Planning.DataLayer.DLL
 ----------------------------------------
 System.Data
@@ -526,6 +542,11 @@
     Версия сборки: 4.0.0.0
     Версия Win32: 4.8.9037.0 built by: NET481REL1
     CodeBase: file:///C:/WINDOWS/Microsoft.Net/assembly/GAC_MSIL/mscorlib.resources/v4.0_4.0.0.0_ru_b77a5c561934e089/mscorlib.resources.dll
+----------------------------------------
+System.ComponentModel.DataAnnotations
+    Версия сборки: 4.0.0.0
+    Версия Win32: 4.8.9037.0
+    CodeBase: file:///C:/WINDOWS/Microsoft.Net/assembly/GAC_MSIL/System.ComponentModel.DataAnnotations/v4.0_4.0.0.0__31bf3856ad364e35/System.ComponentModel.DataAnnotations.dll
 ----------------------------------------
 Accessibility
     Версия сборки: 4.0.0.0
@@ -546,21 +567,6 @@
 пересылается отладчику JIT, зарегистрированному на данном компьютере,
 вместо того чтобы обрабатываться данным диалоговым окном.
 </t>
-  </si>
-  <si>
-    <t>Принажати ПКМ на строке не появляется контекстное меню "печать, детализация"</t>
-  </si>
-  <si>
-    <t>Главная форма, форма создания отгрузки</t>
-  </si>
-  <si>
-    <t>На форме создания отшрузки присутствуют заказы, для которых уже созданны отгрузки</t>
-  </si>
-  <si>
-    <t>При добавлении заказа через расходную партию не добавляется заказ</t>
-  </si>
-  <si>
-    <t>После добавления нового поста, новая запись задублиовалась, удалил одну строку, при вопытке удаления второй, система вернула ошибку</t>
   </si>
 </sst>
 </file>
@@ -1057,6 +1063,50 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>1266825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>4142865</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>4895396</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Рисунок 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{11C40E21-3D65-5027-E452-C8EA2A9C97D6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3686175" y="13011150"/>
+          <a:ext cx="4076190" cy="3628571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1339,8 +1389,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D704"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D18" sqref="A18:D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1513,16 +1563,16 @@
       <c r="D13" s="9"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="11">
+      <c r="A14" s="13">
         <v>13</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="D14" s="9"/>
+      <c r="D14" s="13"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
@@ -1556,23 +1606,23 @@
         <v>29</v>
       </c>
       <c r="C17" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="D17" s="8" t="s">
+    </row>
+    <row r="18" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="13">
+        <v>17</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18" s="13" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="11">
-        <v>17</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="D18" s="9"/>
+      <c r="D18" s="13"/>
     </row>
     <row r="19" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="7">
@@ -1582,7 +1632,7 @@
         <v>16</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D19" s="9"/>
     </row>
@@ -1591,10 +1641,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C20" s="8" t="s">
         <v>32</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>33</v>
       </c>
       <c r="D20" s="9"/>
     </row>

--- a/others/Доработки_исправления.xlsx
+++ b/others/Доработки_исправления.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\BAXI_JB\Projects\Разработка_ГПХ\ТЗ\репа\TestProjects\others\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D14A80CF-1026-4E35-998B-7C06FE1134A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1808F00-4C2B-463C-AE0E-7005A9BCA440}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="542" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -593,7 +593,7 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -610,6 +610,12 @@
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor theme="0" tint="-0.249977111117893"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -703,7 +709,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -711,7 +717,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -746,6 +751,24 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -1390,3538 +1413,3539 @@
   <dimension ref="A1:D704"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D18" sqref="A18:D18"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="9.140625" style="17"/>
     <col min="2" max="2" width="45.140625" style="1" customWidth="1"/>
     <col min="3" max="3" width="62.5703125" style="2" customWidth="1"/>
     <col min="4" max="4" width="93.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="7">
+      <c r="A2" s="6">
         <v>1</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="9"/>
+      <c r="D2" s="8"/>
     </row>
     <row r="3" spans="1:4" ht="150.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7">
+      <c r="A3" s="6">
         <v>2</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="9"/>
+      <c r="D3" s="8"/>
     </row>
     <row r="4" spans="1:4" ht="66" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="7">
+      <c r="A4" s="6">
         <v>3</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="9"/>
+      <c r="D4" s="8"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="13">
+      <c r="A5" s="16">
         <v>4</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="9"/>
+      <c r="D5" s="8"/>
     </row>
     <row r="6" spans="1:4" ht="99" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="12">
+      <c r="A6" s="11">
         <v>5</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="9"/>
+      <c r="D6" s="8"/>
     </row>
     <row r="7" spans="1:4" ht="168" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="12">
+      <c r="A7" s="11">
         <v>6</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="9"/>
+      <c r="D7" s="8"/>
     </row>
     <row r="8" spans="1:4" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="14">
+      <c r="A8" s="13">
         <v>7</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="9"/>
+      <c r="D8" s="8"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="7">
+      <c r="A9" s="6">
         <v>8</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="9"/>
+      <c r="D9" s="8"/>
     </row>
     <row r="10" spans="1:4" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="13">
+      <c r="A10" s="16">
         <v>9</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="13" t="s">
+      <c r="D10" s="12" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A11" s="7">
+      <c r="A11" s="6">
         <v>10</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="9"/>
+      <c r="D11" s="8"/>
     </row>
     <row r="12" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="7">
+      <c r="A12" s="16">
         <v>11</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="D12" s="12" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="7">
+      <c r="A13" s="18">
         <v>12</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="9"/>
+      <c r="D13" s="20"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="13">
+      <c r="A14" s="16">
         <v>13</v>
       </c>
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="13" t="s">
+      <c r="C14" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="D14" s="13"/>
+      <c r="D14" s="12"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="7">
+      <c r="A15" s="6">
         <v>14</v>
       </c>
-      <c r="B15" s="13" t="s">
+      <c r="B15" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="13" t="s">
+      <c r="C15" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="D15" s="13"/>
+      <c r="D15" s="12"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="7">
+      <c r="A16" s="6">
         <v>15</v>
       </c>
-      <c r="B16" s="13" t="s">
+      <c r="B16" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="13" t="s">
+      <c r="C16" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="D16" s="13"/>
+      <c r="D16" s="12"/>
     </row>
     <row r="17" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="11">
+      <c r="A17" s="10">
         <v>16</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="C17" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D17" s="8" t="s">
+      <c r="D17" s="7" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="13">
+      <c r="A18" s="16">
         <v>17</v>
       </c>
-      <c r="B18" s="13" t="s">
+      <c r="B18" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C18" s="13" t="s">
+      <c r="C18" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="D18" s="13"/>
+      <c r="D18" s="12"/>
     </row>
     <row r="19" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="7">
+      <c r="A19" s="6">
         <v>18</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="8" t="s">
+      <c r="C19" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D19" s="9"/>
+      <c r="D19" s="8"/>
     </row>
     <row r="20" spans="1:4" ht="124.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="7">
+      <c r="A20" s="6">
         <v>19</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="B20" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C20" s="8" t="s">
+      <c r="C20" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D20" s="9"/>
+      <c r="D20" s="8"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="7">
+      <c r="A21" s="6">
         <v>20</v>
       </c>
-      <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="9"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="8"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="7">
+      <c r="A22" s="6">
         <v>21</v>
       </c>
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="9"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="8"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="7">
+      <c r="A23" s="6">
         <v>22</v>
       </c>
-      <c r="B23" s="8"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="9"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="8"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="7">
+      <c r="A24" s="6">
         <v>23</v>
       </c>
-      <c r="B24" s="8"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="9"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="8"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="7">
+      <c r="A25" s="6">
         <v>24</v>
       </c>
-      <c r="B25" s="8"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="9"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="8"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="7">
+      <c r="A26" s="6">
         <v>25</v>
       </c>
-      <c r="B26" s="8"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="9"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="8"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="7">
+      <c r="A27" s="6">
         <v>26</v>
       </c>
-      <c r="B27" s="8"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="9"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="8"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="7">
+      <c r="A28" s="6">
         <v>27</v>
       </c>
-      <c r="B28" s="8"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="9"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="8"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="7">
+      <c r="A29" s="6">
         <v>28</v>
       </c>
-      <c r="B29" s="8"/>
-      <c r="C29" s="8"/>
-      <c r="D29" s="9"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="8"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="7">
+      <c r="A30" s="6">
         <v>29</v>
       </c>
-      <c r="B30" s="8"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="9"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="8"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="7">
+      <c r="A31" s="6">
         <v>30</v>
       </c>
-      <c r="B31" s="8"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="9"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="8"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="7">
+      <c r="A32" s="6">
         <v>31</v>
       </c>
-      <c r="B32" s="8"/>
-      <c r="C32" s="8"/>
-      <c r="D32" s="9"/>
+      <c r="B32" s="7"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="8"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="7">
+      <c r="A33" s="6">
         <v>32</v>
       </c>
-      <c r="B33" s="8"/>
-      <c r="C33" s="8"/>
-      <c r="D33" s="9"/>
+      <c r="B33" s="7"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="8"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="7">
+      <c r="A34" s="6">
         <v>33</v>
       </c>
-      <c r="B34" s="8"/>
-      <c r="C34" s="8"/>
-      <c r="D34" s="9"/>
+      <c r="B34" s="7"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="8"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="7">
+      <c r="A35" s="6">
         <v>34</v>
       </c>
-      <c r="B35" s="8"/>
-      <c r="C35" s="8"/>
-      <c r="D35" s="9"/>
+      <c r="B35" s="7"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="8"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="7">
+      <c r="A36" s="6">
         <v>35</v>
       </c>
-      <c r="B36" s="8"/>
-      <c r="C36" s="8"/>
-      <c r="D36" s="9"/>
+      <c r="B36" s="7"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="8"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="7">
+      <c r="A37" s="6">
         <v>36</v>
       </c>
-      <c r="B37" s="8"/>
-      <c r="C37" s="8"/>
-      <c r="D37" s="9"/>
+      <c r="B37" s="7"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="8"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="7">
+      <c r="A38" s="6">
         <v>37</v>
       </c>
-      <c r="B38" s="8"/>
-      <c r="C38" s="8"/>
-      <c r="D38" s="9"/>
+      <c r="B38" s="7"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="8"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="7">
+      <c r="A39" s="6">
         <v>38</v>
       </c>
-      <c r="B39" s="8"/>
-      <c r="C39" s="8"/>
-      <c r="D39" s="9"/>
+      <c r="B39" s="7"/>
+      <c r="C39" s="7"/>
+      <c r="D39" s="8"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="7">
+      <c r="A40" s="6">
         <v>39</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="7">
+      <c r="A41" s="6">
         <v>40</v>
       </c>
       <c r="B41" s="2"/>
-      <c r="D41" s="15"/>
+      <c r="D41" s="14"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="7">
+      <c r="A42" s="6">
         <v>41</v>
       </c>
       <c r="B42" s="2"/>
-      <c r="D42" s="15"/>
+      <c r="D42" s="14"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="7">
+      <c r="A43" s="6">
         <v>42</v>
       </c>
       <c r="B43" s="2"/>
-      <c r="D43" s="15"/>
+      <c r="D43" s="14"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="7">
+      <c r="A44" s="6">
         <v>43</v>
       </c>
       <c r="B44" s="2"/>
-      <c r="D44" s="15"/>
+      <c r="D44" s="14"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="7">
+      <c r="A45" s="6">
         <v>44</v>
       </c>
       <c r="B45" s="2"/>
-      <c r="D45" s="15"/>
+      <c r="D45" s="14"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="7">
+      <c r="A46" s="6">
         <v>45</v>
       </c>
       <c r="B46" s="2"/>
-      <c r="D46" s="15"/>
+      <c r="D46" s="14"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="7">
+      <c r="A47" s="6">
         <v>46</v>
       </c>
       <c r="B47" s="2"/>
-      <c r="D47" s="15"/>
+      <c r="D47" s="14"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="7">
+      <c r="A48" s="6">
         <v>47</v>
       </c>
       <c r="B48" s="2"/>
-      <c r="D48" s="15"/>
+      <c r="D48" s="14"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="7">
+      <c r="A49" s="6">
         <v>48</v>
       </c>
       <c r="B49" s="2"/>
-      <c r="D49" s="15"/>
+      <c r="D49" s="14"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="7">
+      <c r="A50" s="6">
         <v>49</v>
       </c>
       <c r="B50" s="2"/>
-      <c r="D50" s="15"/>
+      <c r="D50" s="14"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="7">
+      <c r="A51" s="6">
         <v>50</v>
       </c>
       <c r="B51" s="2"/>
-      <c r="D51" s="15"/>
+      <c r="D51" s="14"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="7">
+      <c r="A52" s="6">
         <v>51</v>
       </c>
       <c r="B52" s="2"/>
-      <c r="D52" s="15"/>
+      <c r="D52" s="14"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="7">
+      <c r="A53" s="6">
         <v>52</v>
       </c>
       <c r="B53" s="2"/>
-      <c r="D53" s="15"/>
+      <c r="D53" s="14"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="7">
+      <c r="A54" s="6">
         <v>53</v>
       </c>
       <c r="B54" s="2"/>
-      <c r="D54" s="15"/>
+      <c r="D54" s="14"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="7">
+      <c r="A55" s="6">
         <v>54</v>
       </c>
       <c r="B55" s="2"/>
-      <c r="D55" s="15"/>
+      <c r="D55" s="14"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="7">
+      <c r="A56" s="6">
         <v>55</v>
       </c>
       <c r="B56" s="2"/>
-      <c r="D56" s="15"/>
+      <c r="D56" s="14"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="7">
+      <c r="A57" s="6">
         <v>56</v>
       </c>
       <c r="B57" s="2"/>
-      <c r="D57" s="15"/>
+      <c r="D57" s="14"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="7">
+      <c r="A58" s="6">
         <v>57</v>
       </c>
       <c r="B58" s="2"/>
-      <c r="D58" s="15"/>
+      <c r="D58" s="14"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="7">
+      <c r="A59" s="6">
         <v>58</v>
       </c>
       <c r="B59" s="2"/>
-      <c r="D59" s="15"/>
+      <c r="D59" s="14"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="7">
+      <c r="A60" s="6">
         <v>59</v>
       </c>
       <c r="B60" s="2"/>
-      <c r="D60" s="15"/>
+      <c r="D60" s="14"/>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="7">
+      <c r="A61" s="6">
         <v>60</v>
       </c>
       <c r="B61" s="2"/>
-      <c r="D61" s="15"/>
+      <c r="D61" s="14"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" s="7">
+      <c r="A62" s="6">
         <v>61</v>
       </c>
       <c r="B62" s="2"/>
-      <c r="D62" s="15"/>
+      <c r="D62" s="14"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" s="7">
+      <c r="A63" s="6">
         <v>62</v>
       </c>
       <c r="B63" s="2"/>
-      <c r="D63" s="15"/>
+      <c r="D63" s="14"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" s="7">
+      <c r="A64" s="6">
         <v>63</v>
       </c>
       <c r="B64" s="2"/>
-      <c r="D64" s="15"/>
+      <c r="D64" s="14"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" s="7">
+      <c r="A65" s="6">
         <v>64</v>
       </c>
       <c r="B65" s="2"/>
-      <c r="D65" s="15"/>
+      <c r="D65" s="14"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" s="7">
+      <c r="A66" s="6">
         <v>65</v>
       </c>
       <c r="B66" s="2"/>
-      <c r="D66" s="15"/>
+      <c r="D66" s="14"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" s="7">
+      <c r="A67" s="6">
         <v>66</v>
       </c>
       <c r="B67" s="2"/>
-      <c r="D67" s="15"/>
+      <c r="D67" s="14"/>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" s="7">
+      <c r="A68" s="6">
         <v>67</v>
       </c>
       <c r="B68" s="2"/>
-      <c r="D68" s="15"/>
+      <c r="D68" s="14"/>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" s="7">
+      <c r="A69" s="6">
         <v>68</v>
       </c>
       <c r="B69" s="2"/>
-      <c r="D69" s="15"/>
+      <c r="D69" s="14"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" s="7">
+      <c r="A70" s="6">
         <v>69</v>
       </c>
       <c r="B70" s="2"/>
-      <c r="D70" s="15"/>
+      <c r="D70" s="14"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" s="7">
+      <c r="A71" s="6">
         <v>70</v>
       </c>
       <c r="B71" s="2"/>
-      <c r="D71" s="15"/>
+      <c r="D71" s="14"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" s="7">
+      <c r="A72" s="6">
         <v>71</v>
       </c>
       <c r="B72" s="2"/>
-      <c r="D72" s="15"/>
+      <c r="D72" s="14"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" s="7">
+      <c r="A73" s="6">
         <v>72</v>
       </c>
       <c r="B73" s="2"/>
-      <c r="D73" s="15"/>
+      <c r="D73" s="14"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74" s="7">
+      <c r="A74" s="6">
         <v>73</v>
       </c>
       <c r="B74" s="2"/>
-      <c r="D74" s="15"/>
+      <c r="D74" s="14"/>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75" s="7">
+      <c r="A75" s="6">
         <v>74</v>
       </c>
       <c r="B75" s="2"/>
-      <c r="D75" s="15"/>
+      <c r="D75" s="14"/>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A76" s="7">
+      <c r="A76" s="6">
         <v>75</v>
       </c>
       <c r="B76" s="2"/>
-      <c r="D76" s="15"/>
+      <c r="D76" s="14"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77" s="7">
+      <c r="A77" s="6">
         <v>76</v>
       </c>
       <c r="B77" s="2"/>
-      <c r="D77" s="15"/>
+      <c r="D77" s="14"/>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A78" s="7">
+      <c r="A78" s="6">
         <v>77</v>
       </c>
       <c r="B78" s="2"/>
-      <c r="D78" s="15"/>
+      <c r="D78" s="14"/>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A79" s="7">
+      <c r="A79" s="6">
         <v>78</v>
       </c>
       <c r="B79" s="2"/>
-      <c r="D79" s="15"/>
+      <c r="D79" s="14"/>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A80" s="7">
+      <c r="A80" s="6">
         <v>79</v>
       </c>
       <c r="B80" s="2"/>
-      <c r="D80" s="15"/>
+      <c r="D80" s="14"/>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A81" s="7">
+      <c r="A81" s="6">
         <v>80</v>
       </c>
       <c r="B81" s="2"/>
-      <c r="D81" s="15"/>
+      <c r="D81" s="14"/>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A82" s="7">
+      <c r="A82" s="6">
         <v>81</v>
       </c>
       <c r="B82" s="2"/>
-      <c r="D82" s="15"/>
+      <c r="D82" s="14"/>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A83" s="7">
+      <c r="A83" s="6">
         <v>82</v>
       </c>
       <c r="B83" s="2"/>
-      <c r="D83" s="15"/>
+      <c r="D83" s="14"/>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A84" s="7">
+      <c r="A84" s="6">
         <v>83</v>
       </c>
       <c r="B84" s="2"/>
-      <c r="D84" s="15"/>
+      <c r="D84" s="14"/>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A85" s="7">
+      <c r="A85" s="6">
         <v>84</v>
       </c>
       <c r="B85" s="2"/>
-      <c r="D85" s="15"/>
+      <c r="D85" s="14"/>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A86" s="7">
+      <c r="A86" s="6">
         <v>85</v>
       </c>
       <c r="B86" s="2"/>
-      <c r="D86" s="15"/>
+      <c r="D86" s="14"/>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A87" s="7">
+      <c r="A87" s="6">
         <v>86</v>
       </c>
       <c r="B87" s="2"/>
-      <c r="D87" s="15"/>
+      <c r="D87" s="14"/>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A88" s="7">
+      <c r="A88" s="6">
         <v>87</v>
       </c>
       <c r="B88" s="2"/>
-      <c r="D88" s="15"/>
+      <c r="D88" s="14"/>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A89" s="7">
+      <c r="A89" s="6">
         <v>88</v>
       </c>
       <c r="B89" s="2"/>
-      <c r="D89" s="15"/>
+      <c r="D89" s="14"/>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A90" s="7">
+      <c r="A90" s="6">
         <v>89</v>
       </c>
       <c r="B90" s="2"/>
-      <c r="D90" s="15"/>
+      <c r="D90" s="14"/>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A91" s="7">
+      <c r="A91" s="6">
         <v>90</v>
       </c>
       <c r="B91" s="2"/>
-      <c r="D91" s="15"/>
+      <c r="D91" s="14"/>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A92" s="7">
+      <c r="A92" s="6">
         <v>91</v>
       </c>
       <c r="B92" s="2"/>
-      <c r="D92" s="15"/>
+      <c r="D92" s="14"/>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A93" s="7">
+      <c r="A93" s="6">
         <v>92</v>
       </c>
       <c r="B93" s="2"/>
-      <c r="D93" s="15"/>
+      <c r="D93" s="14"/>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A94" s="7">
+      <c r="A94" s="6">
         <v>93</v>
       </c>
       <c r="B94" s="2"/>
-      <c r="D94" s="15"/>
+      <c r="D94" s="14"/>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A95" s="7">
+      <c r="A95" s="6">
         <v>94</v>
       </c>
       <c r="B95" s="2"/>
-      <c r="D95" s="15"/>
+      <c r="D95" s="14"/>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A96" s="7">
+      <c r="A96" s="6">
         <v>95</v>
       </c>
       <c r="B96" s="2"/>
-      <c r="D96" s="15"/>
+      <c r="D96" s="14"/>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A97" s="7">
+      <c r="A97" s="6">
         <v>96</v>
       </c>
       <c r="B97" s="2"/>
-      <c r="D97" s="15"/>
+      <c r="D97" s="14"/>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A98" s="7">
+      <c r="A98" s="6">
         <v>97</v>
       </c>
       <c r="B98" s="2"/>
-      <c r="D98" s="15"/>
+      <c r="D98" s="14"/>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A99" s="7">
+      <c r="A99" s="6">
         <v>98</v>
       </c>
       <c r="B99" s="2"/>
-      <c r="D99" s="15"/>
+      <c r="D99" s="14"/>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A100" s="7">
+      <c r="A100" s="6">
         <v>99</v>
       </c>
       <c r="B100" s="2"/>
-      <c r="D100" s="15"/>
+      <c r="D100" s="14"/>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A101" s="7">
+      <c r="A101" s="6">
         <v>100</v>
       </c>
       <c r="B101" s="2"/>
-      <c r="D101" s="15"/>
+      <c r="D101" s="14"/>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A102" s="7">
+      <c r="A102" s="6">
         <v>101</v>
       </c>
       <c r="B102" s="2"/>
-      <c r="D102" s="15"/>
+      <c r="D102" s="14"/>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A103" s="7">
+      <c r="A103" s="6">
         <v>102</v>
       </c>
       <c r="B103" s="2"/>
-      <c r="D103" s="15"/>
+      <c r="D103" s="14"/>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A104" s="7">
+      <c r="A104" s="6">
         <v>103</v>
       </c>
       <c r="B104" s="2"/>
-      <c r="D104" s="15"/>
+      <c r="D104" s="14"/>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A105" s="7">
+      <c r="A105" s="6">
         <v>104</v>
       </c>
       <c r="B105" s="2"/>
-      <c r="D105" s="15"/>
+      <c r="D105" s="14"/>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A106" s="7">
+      <c r="A106" s="6">
         <v>105</v>
       </c>
       <c r="B106" s="2"/>
-      <c r="D106" s="15"/>
+      <c r="D106" s="14"/>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A107" s="7">
+      <c r="A107" s="6">
         <v>106</v>
       </c>
       <c r="B107" s="2"/>
-      <c r="D107" s="15"/>
+      <c r="D107" s="14"/>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A108" s="7">
+      <c r="A108" s="6">
         <v>107</v>
       </c>
       <c r="B108" s="2"/>
-      <c r="D108" s="15"/>
+      <c r="D108" s="14"/>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A109" s="7">
+      <c r="A109" s="6">
         <v>108</v>
       </c>
       <c r="B109" s="2"/>
-      <c r="D109" s="15"/>
+      <c r="D109" s="14"/>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A110" s="7">
+      <c r="A110" s="6">
         <v>109</v>
       </c>
       <c r="B110" s="2"/>
-      <c r="D110" s="15"/>
+      <c r="D110" s="14"/>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A111" s="7">
+      <c r="A111" s="6">
         <v>110</v>
       </c>
       <c r="B111" s="2"/>
-      <c r="D111" s="15"/>
+      <c r="D111" s="14"/>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A112" s="7">
+      <c r="A112" s="6">
         <v>111</v>
       </c>
       <c r="B112" s="2"/>
-      <c r="D112" s="15"/>
+      <c r="D112" s="14"/>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A113" s="7">
+      <c r="A113" s="6">
         <v>112</v>
       </c>
       <c r="B113" s="2"/>
-      <c r="D113" s="15"/>
+      <c r="D113" s="14"/>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A114" s="7">
+      <c r="A114" s="6">
         <v>113</v>
       </c>
       <c r="B114" s="2"/>
-      <c r="D114" s="15"/>
+      <c r="D114" s="14"/>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A115" s="7">
+      <c r="A115" s="6">
         <v>114</v>
       </c>
       <c r="B115" s="2"/>
-      <c r="D115" s="15"/>
+      <c r="D115" s="14"/>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A116" s="7">
+      <c r="A116" s="6">
         <v>115</v>
       </c>
       <c r="B116" s="2"/>
-      <c r="D116" s="15"/>
+      <c r="D116" s="14"/>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A117" s="7">
+      <c r="A117" s="6">
         <v>116</v>
       </c>
       <c r="B117" s="2"/>
-      <c r="D117" s="15"/>
+      <c r="D117" s="14"/>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A118" s="7">
+      <c r="A118" s="6">
         <v>117</v>
       </c>
       <c r="B118" s="2"/>
-      <c r="D118" s="15"/>
+      <c r="D118" s="14"/>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A119" s="7">
+      <c r="A119" s="6">
         <v>118</v>
       </c>
       <c r="B119" s="2"/>
-      <c r="D119" s="15"/>
+      <c r="D119" s="14"/>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A120" s="7">
+      <c r="A120" s="6">
         <v>119</v>
       </c>
       <c r="B120" s="2"/>
-      <c r="D120" s="15"/>
+      <c r="D120" s="14"/>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A121" s="7">
+      <c r="A121" s="6">
         <v>120</v>
       </c>
       <c r="B121" s="2"/>
-      <c r="D121" s="15"/>
+      <c r="D121" s="14"/>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A122" s="7">
+      <c r="A122" s="6">
         <v>121</v>
       </c>
       <c r="B122" s="2"/>
-      <c r="D122" s="15"/>
+      <c r="D122" s="14"/>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A123" s="7">
+      <c r="A123" s="6">
         <v>122</v>
       </c>
       <c r="B123" s="2"/>
-      <c r="D123" s="15"/>
+      <c r="D123" s="14"/>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A124" s="7">
+      <c r="A124" s="6">
         <v>123</v>
       </c>
       <c r="B124" s="2"/>
-      <c r="D124" s="15"/>
+      <c r="D124" s="14"/>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A125" s="7">
+      <c r="A125" s="6">
         <v>124</v>
       </c>
       <c r="B125" s="2"/>
-      <c r="D125" s="15"/>
+      <c r="D125" s="14"/>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A126" s="7">
+      <c r="A126" s="6">
         <v>125</v>
       </c>
       <c r="B126" s="2"/>
-      <c r="D126" s="15"/>
+      <c r="D126" s="14"/>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A127" s="7">
+      <c r="A127" s="6">
         <v>126</v>
       </c>
       <c r="B127" s="2"/>
-      <c r="D127" s="15"/>
+      <c r="D127" s="14"/>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A128" s="7">
+      <c r="A128" s="6">
         <v>127</v>
       </c>
       <c r="B128" s="2"/>
-      <c r="D128" s="15"/>
+      <c r="D128" s="14"/>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A129" s="7">
+      <c r="A129" s="6">
         <v>128</v>
       </c>
       <c r="B129" s="2"/>
-      <c r="D129" s="15"/>
+      <c r="D129" s="14"/>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A130" s="7">
+      <c r="A130" s="6">
         <v>129</v>
       </c>
       <c r="B130" s="2"/>
-      <c r="D130" s="15"/>
+      <c r="D130" s="14"/>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A131" s="7">
+      <c r="A131" s="6">
         <v>130</v>
       </c>
       <c r="B131" s="2"/>
-      <c r="D131" s="15"/>
+      <c r="D131" s="14"/>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A132" s="7">
+      <c r="A132" s="6">
         <v>131</v>
       </c>
       <c r="B132" s="2"/>
-      <c r="D132" s="15"/>
+      <c r="D132" s="14"/>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A133" s="7">
+      <c r="A133" s="6">
         <v>132</v>
       </c>
       <c r="B133" s="2"/>
-      <c r="D133" s="15"/>
+      <c r="D133" s="14"/>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A134" s="7">
+      <c r="A134" s="6">
         <v>133</v>
       </c>
       <c r="B134" s="2"/>
-      <c r="D134" s="15"/>
+      <c r="D134" s="14"/>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A135" s="7">
+      <c r="A135" s="6">
         <v>134</v>
       </c>
       <c r="B135" s="2"/>
-      <c r="D135" s="15"/>
+      <c r="D135" s="14"/>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A136" s="7">
+      <c r="A136" s="6">
         <v>135</v>
       </c>
       <c r="B136" s="2"/>
-      <c r="D136" s="15"/>
+      <c r="D136" s="14"/>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A137" s="7">
+      <c r="A137" s="6">
         <v>136</v>
       </c>
       <c r="B137" s="2"/>
-      <c r="D137" s="15"/>
+      <c r="D137" s="14"/>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A138" s="7">
+      <c r="A138" s="6">
         <v>137</v>
       </c>
       <c r="B138" s="2"/>
-      <c r="D138" s="15"/>
+      <c r="D138" s="14"/>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A139" s="7">
+      <c r="A139" s="6">
         <v>138</v>
       </c>
       <c r="B139" s="2"/>
-      <c r="D139" s="15"/>
+      <c r="D139" s="14"/>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A140" s="7">
+      <c r="A140" s="6">
         <v>139</v>
       </c>
       <c r="B140" s="2"/>
-      <c r="D140" s="15"/>
+      <c r="D140" s="14"/>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A141" s="7">
+      <c r="A141" s="6">
         <v>140</v>
       </c>
       <c r="B141" s="2"/>
-      <c r="D141" s="15"/>
+      <c r="D141" s="14"/>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A142" s="7">
+      <c r="A142" s="6">
         <v>141</v>
       </c>
       <c r="B142" s="2"/>
-      <c r="D142" s="15"/>
+      <c r="D142" s="14"/>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A143" s="7">
+      <c r="A143" s="6">
         <v>142</v>
       </c>
       <c r="B143" s="2"/>
-      <c r="D143" s="15"/>
+      <c r="D143" s="14"/>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A144" s="7">
+      <c r="A144" s="6">
         <v>143</v>
       </c>
       <c r="B144" s="2"/>
-      <c r="D144" s="15"/>
+      <c r="D144" s="14"/>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A145" s="7">
+      <c r="A145" s="6">
         <v>144</v>
       </c>
       <c r="B145" s="2"/>
-      <c r="D145" s="15"/>
+      <c r="D145" s="14"/>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A146" s="7">
+      <c r="A146" s="6">
         <v>145</v>
       </c>
       <c r="B146" s="2"/>
-      <c r="D146" s="15"/>
+      <c r="D146" s="14"/>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A147" s="7">
+      <c r="A147" s="6">
         <v>146</v>
       </c>
       <c r="B147" s="2"/>
-      <c r="D147" s="15"/>
+      <c r="D147" s="14"/>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A148" s="7">
+      <c r="A148" s="6">
         <v>147</v>
       </c>
       <c r="B148" s="2"/>
-      <c r="D148" s="15"/>
+      <c r="D148" s="14"/>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A149" s="7">
+      <c r="A149" s="6">
         <v>148</v>
       </c>
       <c r="B149" s="2"/>
-      <c r="D149" s="15"/>
+      <c r="D149" s="14"/>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A150" s="7">
+      <c r="A150" s="6">
         <v>149</v>
       </c>
       <c r="B150" s="2"/>
-      <c r="D150" s="15"/>
+      <c r="D150" s="14"/>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A151" s="7">
+      <c r="A151" s="6">
         <v>150</v>
       </c>
       <c r="B151" s="2"/>
-      <c r="D151" s="15"/>
+      <c r="D151" s="14"/>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A152" s="7">
+      <c r="A152" s="6">
         <v>151</v>
       </c>
       <c r="B152" s="2"/>
-      <c r="D152" s="15"/>
+      <c r="D152" s="14"/>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A153" s="7">
+      <c r="A153" s="6">
         <v>152</v>
       </c>
       <c r="B153" s="2"/>
-      <c r="D153" s="15"/>
+      <c r="D153" s="14"/>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A154" s="7">
+      <c r="A154" s="6">
         <v>153</v>
       </c>
       <c r="B154" s="2"/>
-      <c r="D154" s="15"/>
+      <c r="D154" s="14"/>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A155" s="7">
+      <c r="A155" s="6">
         <v>154</v>
       </c>
       <c r="B155" s="2"/>
-      <c r="D155" s="15"/>
+      <c r="D155" s="14"/>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A156" s="7">
+      <c r="A156" s="6">
         <v>155</v>
       </c>
       <c r="B156" s="2"/>
-      <c r="D156" s="15"/>
+      <c r="D156" s="14"/>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A157" s="7">
+      <c r="A157" s="6">
         <v>156</v>
       </c>
       <c r="B157" s="2"/>
-      <c r="D157" s="15"/>
+      <c r="D157" s="14"/>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A158" s="7">
+      <c r="A158" s="6">
         <v>157</v>
       </c>
       <c r="B158" s="2"/>
-      <c r="D158" s="15"/>
+      <c r="D158" s="14"/>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A159" s="7">
+      <c r="A159" s="6">
         <v>158</v>
       </c>
       <c r="B159" s="2"/>
-      <c r="D159" s="15"/>
+      <c r="D159" s="14"/>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A160" s="7">
+      <c r="A160" s="6">
         <v>159</v>
       </c>
       <c r="B160" s="2"/>
-      <c r="D160" s="15"/>
+      <c r="D160" s="14"/>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A161" s="7">
+      <c r="A161" s="6">
         <v>160</v>
       </c>
       <c r="B161" s="2"/>
-      <c r="D161" s="15"/>
+      <c r="D161" s="14"/>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A162" s="7">
+      <c r="A162" s="6">
         <v>161</v>
       </c>
       <c r="B162" s="2"/>
-      <c r="D162" s="15"/>
+      <c r="D162" s="14"/>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A163" s="7">
+      <c r="A163" s="6">
         <v>162</v>
       </c>
       <c r="B163" s="2"/>
-      <c r="D163" s="15"/>
+      <c r="D163" s="14"/>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A164" s="7">
+      <c r="A164" s="6">
         <v>163</v>
       </c>
       <c r="B164" s="2"/>
-      <c r="D164" s="15"/>
+      <c r="D164" s="14"/>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A165" s="7">
+      <c r="A165" s="6">
         <v>164</v>
       </c>
       <c r="B165" s="2"/>
-      <c r="D165" s="15"/>
+      <c r="D165" s="14"/>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A166" s="7">
+      <c r="A166" s="6">
         <v>165</v>
       </c>
       <c r="B166" s="2"/>
-      <c r="D166" s="15"/>
+      <c r="D166" s="14"/>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A167" s="7">
+      <c r="A167" s="6">
         <v>166</v>
       </c>
       <c r="B167" s="2"/>
-      <c r="D167" s="15"/>
+      <c r="D167" s="14"/>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A168" s="7">
+      <c r="A168" s="6">
         <v>167</v>
       </c>
       <c r="B168" s="2"/>
-      <c r="D168" s="15"/>
+      <c r="D168" s="14"/>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A169" s="7">
+      <c r="A169" s="6">
         <v>168</v>
       </c>
       <c r="B169" s="2"/>
-      <c r="D169" s="15"/>
+      <c r="D169" s="14"/>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A170" s="7">
+      <c r="A170" s="6">
         <v>169</v>
       </c>
       <c r="B170" s="2"/>
-      <c r="D170" s="15"/>
+      <c r="D170" s="14"/>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A171" s="7">
+      <c r="A171" s="6">
         <v>170</v>
       </c>
       <c r="B171" s="2"/>
-      <c r="D171" s="15"/>
+      <c r="D171" s="14"/>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A172" s="7">
+      <c r="A172" s="6">
         <v>171</v>
       </c>
       <c r="B172" s="2"/>
-      <c r="D172" s="15"/>
+      <c r="D172" s="14"/>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A173" s="7">
+      <c r="A173" s="6">
         <v>172</v>
       </c>
       <c r="B173" s="2"/>
-      <c r="D173" s="15"/>
+      <c r="D173" s="14"/>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A174" s="7">
+      <c r="A174" s="6">
         <v>173</v>
       </c>
       <c r="B174" s="2"/>
-      <c r="D174" s="15"/>
+      <c r="D174" s="14"/>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A175" s="7">
+      <c r="A175" s="6">
         <v>174</v>
       </c>
       <c r="B175" s="2"/>
-      <c r="D175" s="15"/>
+      <c r="D175" s="14"/>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A176" s="7">
+      <c r="A176" s="6">
         <v>175</v>
       </c>
       <c r="B176" s="2"/>
-      <c r="D176" s="15"/>
+      <c r="D176" s="14"/>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A177" s="7">
+      <c r="A177" s="6">
         <v>176</v>
       </c>
       <c r="B177" s="2"/>
-      <c r="D177" s="15"/>
+      <c r="D177" s="14"/>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A178" s="7">
+      <c r="A178" s="6">
         <v>177</v>
       </c>
       <c r="B178" s="2"/>
-      <c r="D178" s="15"/>
+      <c r="D178" s="14"/>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A179" s="7">
+      <c r="A179" s="6">
         <v>178</v>
       </c>
       <c r="B179" s="2"/>
-      <c r="D179" s="15"/>
+      <c r="D179" s="14"/>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A180" s="7">
+      <c r="A180" s="6">
         <v>179</v>
       </c>
       <c r="B180" s="2"/>
-      <c r="D180" s="15"/>
+      <c r="D180" s="14"/>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A181" s="7">
+      <c r="A181" s="6">
         <v>180</v>
       </c>
       <c r="B181" s="2"/>
-      <c r="D181" s="15"/>
+      <c r="D181" s="14"/>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A182" s="7">
+      <c r="A182" s="6">
         <v>181</v>
       </c>
       <c r="B182" s="2"/>
-      <c r="D182" s="15"/>
+      <c r="D182" s="14"/>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A183" s="7">
+      <c r="A183" s="6">
         <v>182</v>
       </c>
       <c r="B183" s="2"/>
-      <c r="D183" s="15"/>
+      <c r="D183" s="14"/>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A184" s="7">
+      <c r="A184" s="6">
         <v>183</v>
       </c>
       <c r="B184" s="2"/>
-      <c r="D184" s="15"/>
+      <c r="D184" s="14"/>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A185" s="7">
+      <c r="A185" s="6">
         <v>184</v>
       </c>
       <c r="B185" s="2"/>
-      <c r="D185" s="15"/>
+      <c r="D185" s="14"/>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A186" s="7">
+      <c r="A186" s="6">
         <v>185</v>
       </c>
       <c r="B186" s="2"/>
-      <c r="D186" s="15"/>
+      <c r="D186" s="14"/>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A187" s="7">
+      <c r="A187" s="6">
         <v>186</v>
       </c>
       <c r="B187" s="2"/>
-      <c r="D187" s="15"/>
+      <c r="D187" s="14"/>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A188" s="7">
+      <c r="A188" s="6">
         <v>187</v>
       </c>
       <c r="B188" s="2"/>
-      <c r="D188" s="15"/>
+      <c r="D188" s="14"/>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A189" s="7">
+      <c r="A189" s="6">
         <v>188</v>
       </c>
       <c r="B189" s="2"/>
-      <c r="D189" s="15"/>
+      <c r="D189" s="14"/>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A190" s="7">
+      <c r="A190" s="6">
         <v>189</v>
       </c>
       <c r="B190" s="2"/>
-      <c r="D190" s="15"/>
+      <c r="D190" s="14"/>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A191" s="7">
+      <c r="A191" s="6">
         <v>190</v>
       </c>
       <c r="B191" s="2"/>
-      <c r="D191" s="15"/>
+      <c r="D191" s="14"/>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A192" s="7">
+      <c r="A192" s="6">
         <v>191</v>
       </c>
       <c r="B192" s="2"/>
-      <c r="D192" s="15"/>
+      <c r="D192" s="14"/>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A193" s="7">
+      <c r="A193" s="6">
         <v>192</v>
       </c>
       <c r="B193" s="2"/>
-      <c r="D193" s="15"/>
+      <c r="D193" s="14"/>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A194" s="7">
+      <c r="A194" s="6">
         <v>193</v>
       </c>
       <c r="B194" s="2"/>
-      <c r="D194" s="15"/>
+      <c r="D194" s="14"/>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B195" s="2"/>
-      <c r="D195" s="15"/>
+      <c r="D195" s="14"/>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B196" s="2"/>
-      <c r="D196" s="15"/>
+      <c r="D196" s="14"/>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B197" s="2"/>
-      <c r="D197" s="15"/>
+      <c r="D197" s="14"/>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B198" s="2"/>
-      <c r="D198" s="15"/>
+      <c r="D198" s="14"/>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B199" s="2"/>
-      <c r="D199" s="15"/>
+      <c r="D199" s="14"/>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B200" s="2"/>
-      <c r="D200" s="15"/>
+      <c r="D200" s="14"/>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B201" s="2"/>
-      <c r="D201" s="15"/>
+      <c r="D201" s="14"/>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B202" s="2"/>
-      <c r="D202" s="15"/>
+      <c r="D202" s="14"/>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B203" s="2"/>
-      <c r="D203" s="15"/>
+      <c r="D203" s="14"/>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B204" s="2"/>
-      <c r="D204" s="15"/>
+      <c r="D204" s="14"/>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B205" s="2"/>
-      <c r="D205" s="15"/>
+      <c r="D205" s="14"/>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B206" s="2"/>
-      <c r="D206" s="15"/>
+      <c r="D206" s="14"/>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B207" s="2"/>
-      <c r="D207" s="15"/>
+      <c r="D207" s="14"/>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B208" s="2"/>
-      <c r="D208" s="15"/>
+      <c r="D208" s="14"/>
     </row>
     <row r="209" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B209" s="2"/>
-      <c r="D209" s="15"/>
+      <c r="D209" s="14"/>
     </row>
     <row r="210" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B210" s="2"/>
-      <c r="D210" s="15"/>
+      <c r="D210" s="14"/>
     </row>
     <row r="211" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B211" s="2"/>
-      <c r="D211" s="15"/>
+      <c r="D211" s="14"/>
     </row>
     <row r="212" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B212" s="2"/>
-      <c r="D212" s="15"/>
+      <c r="D212" s="14"/>
     </row>
     <row r="213" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B213" s="2"/>
-      <c r="D213" s="15"/>
+      <c r="D213" s="14"/>
     </row>
     <row r="214" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B214" s="2"/>
-      <c r="D214" s="15"/>
+      <c r="D214" s="14"/>
     </row>
     <row r="215" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B215" s="2"/>
-      <c r="D215" s="15"/>
+      <c r="D215" s="14"/>
     </row>
     <row r="216" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B216" s="2"/>
-      <c r="D216" s="15"/>
+      <c r="D216" s="14"/>
     </row>
     <row r="217" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B217" s="2"/>
-      <c r="D217" s="15"/>
+      <c r="D217" s="14"/>
     </row>
     <row r="218" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B218" s="2"/>
-      <c r="D218" s="15"/>
+      <c r="D218" s="14"/>
     </row>
     <row r="219" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B219" s="2"/>
-      <c r="D219" s="15"/>
+      <c r="D219" s="14"/>
     </row>
     <row r="220" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B220" s="2"/>
-      <c r="D220" s="15"/>
+      <c r="D220" s="14"/>
     </row>
     <row r="221" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B221" s="2"/>
-      <c r="D221" s="15"/>
+      <c r="D221" s="14"/>
     </row>
     <row r="222" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B222" s="2"/>
-      <c r="D222" s="15"/>
+      <c r="D222" s="14"/>
     </row>
     <row r="223" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B223" s="2"/>
-      <c r="D223" s="15"/>
+      <c r="D223" s="14"/>
     </row>
     <row r="224" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B224" s="2"/>
-      <c r="D224" s="15"/>
+      <c r="D224" s="14"/>
     </row>
     <row r="225" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B225" s="2"/>
-      <c r="D225" s="15"/>
+      <c r="D225" s="14"/>
     </row>
     <row r="226" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B226" s="2"/>
-      <c r="D226" s="15"/>
+      <c r="D226" s="14"/>
     </row>
     <row r="227" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B227" s="2"/>
-      <c r="D227" s="15"/>
+      <c r="D227" s="14"/>
     </row>
     <row r="228" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B228" s="2"/>
-      <c r="D228" s="15"/>
+      <c r="D228" s="14"/>
     </row>
     <row r="229" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B229" s="2"/>
-      <c r="D229" s="15"/>
+      <c r="D229" s="14"/>
     </row>
     <row r="230" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B230" s="2"/>
-      <c r="D230" s="15"/>
+      <c r="D230" s="14"/>
     </row>
     <row r="231" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B231" s="2"/>
-      <c r="D231" s="15"/>
+      <c r="D231" s="14"/>
     </row>
     <row r="232" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B232" s="2"/>
-      <c r="D232" s="15"/>
+      <c r="D232" s="14"/>
     </row>
     <row r="233" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B233" s="2"/>
-      <c r="D233" s="15"/>
+      <c r="D233" s="14"/>
     </row>
     <row r="234" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B234" s="2"/>
-      <c r="D234" s="15"/>
+      <c r="D234" s="14"/>
     </row>
     <row r="235" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B235" s="2"/>
-      <c r="D235" s="15"/>
+      <c r="D235" s="14"/>
     </row>
     <row r="236" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B236" s="2"/>
-      <c r="D236" s="15"/>
+      <c r="D236" s="14"/>
     </row>
     <row r="237" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B237" s="2"/>
-      <c r="D237" s="15"/>
+      <c r="D237" s="14"/>
     </row>
     <row r="238" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B238" s="2"/>
-      <c r="D238" s="15"/>
+      <c r="D238" s="14"/>
     </row>
     <row r="239" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B239" s="2"/>
-      <c r="D239" s="15"/>
+      <c r="D239" s="14"/>
     </row>
     <row r="240" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B240" s="2"/>
-      <c r="D240" s="15"/>
+      <c r="D240" s="14"/>
     </row>
     <row r="241" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B241" s="2"/>
-      <c r="D241" s="15"/>
+      <c r="D241" s="14"/>
     </row>
     <row r="242" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B242" s="2"/>
-      <c r="D242" s="15"/>
+      <c r="D242" s="14"/>
     </row>
     <row r="243" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B243" s="2"/>
-      <c r="D243" s="15"/>
+      <c r="D243" s="14"/>
     </row>
     <row r="244" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B244" s="2"/>
-      <c r="D244" s="15"/>
+      <c r="D244" s="14"/>
     </row>
     <row r="245" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B245" s="2"/>
-      <c r="D245" s="15"/>
+      <c r="D245" s="14"/>
     </row>
     <row r="246" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B246" s="2"/>
-      <c r="D246" s="15"/>
+      <c r="D246" s="14"/>
     </row>
     <row r="247" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B247" s="2"/>
-      <c r="D247" s="15"/>
+      <c r="D247" s="14"/>
     </row>
     <row r="248" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B248" s="2"/>
-      <c r="D248" s="15"/>
+      <c r="D248" s="14"/>
     </row>
     <row r="249" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B249" s="2"/>
-      <c r="D249" s="15"/>
+      <c r="D249" s="14"/>
     </row>
     <row r="250" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B250" s="2"/>
-      <c r="D250" s="15"/>
+      <c r="D250" s="14"/>
     </row>
     <row r="251" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B251" s="2"/>
-      <c r="D251" s="15"/>
+      <c r="D251" s="14"/>
     </row>
     <row r="252" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B252" s="2"/>
-      <c r="D252" s="15"/>
+      <c r="D252" s="14"/>
     </row>
     <row r="253" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B253" s="2"/>
-      <c r="D253" s="15"/>
+      <c r="D253" s="14"/>
     </row>
     <row r="254" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B254" s="2"/>
-      <c r="D254" s="15"/>
+      <c r="D254" s="14"/>
     </row>
     <row r="255" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B255" s="2"/>
-      <c r="D255" s="15"/>
+      <c r="D255" s="14"/>
     </row>
     <row r="256" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B256" s="2"/>
-      <c r="D256" s="15"/>
+      <c r="D256" s="14"/>
     </row>
     <row r="257" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B257" s="2"/>
-      <c r="D257" s="15"/>
+      <c r="D257" s="14"/>
     </row>
     <row r="258" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B258" s="2"/>
-      <c r="D258" s="15"/>
+      <c r="D258" s="14"/>
     </row>
     <row r="259" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B259" s="2"/>
-      <c r="D259" s="15"/>
+      <c r="D259" s="14"/>
     </row>
     <row r="260" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B260" s="2"/>
-      <c r="D260" s="15"/>
+      <c r="D260" s="14"/>
     </row>
     <row r="261" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B261" s="2"/>
-      <c r="D261" s="15"/>
+      <c r="D261" s="14"/>
     </row>
     <row r="262" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B262" s="2"/>
-      <c r="D262" s="15"/>
+      <c r="D262" s="14"/>
     </row>
     <row r="263" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B263" s="2"/>
-      <c r="D263" s="15"/>
+      <c r="D263" s="14"/>
     </row>
     <row r="264" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B264" s="2"/>
-      <c r="D264" s="15"/>
+      <c r="D264" s="14"/>
     </row>
     <row r="265" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B265" s="2"/>
-      <c r="D265" s="15"/>
+      <c r="D265" s="14"/>
     </row>
     <row r="266" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B266" s="2"/>
-      <c r="D266" s="15"/>
+      <c r="D266" s="14"/>
     </row>
     <row r="267" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B267" s="2"/>
-      <c r="D267" s="15"/>
+      <c r="D267" s="14"/>
     </row>
     <row r="268" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B268" s="2"/>
-      <c r="D268" s="15"/>
+      <c r="D268" s="14"/>
     </row>
     <row r="269" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B269" s="2"/>
-      <c r="D269" s="15"/>
+      <c r="D269" s="14"/>
     </row>
     <row r="270" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B270" s="2"/>
-      <c r="D270" s="15"/>
+      <c r="D270" s="14"/>
     </row>
     <row r="271" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B271" s="2"/>
-      <c r="D271" s="15"/>
+      <c r="D271" s="14"/>
     </row>
     <row r="272" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B272" s="2"/>
-      <c r="D272" s="15"/>
+      <c r="D272" s="14"/>
     </row>
     <row r="273" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B273" s="2"/>
-      <c r="D273" s="15"/>
+      <c r="D273" s="14"/>
     </row>
     <row r="274" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B274" s="2"/>
-      <c r="D274" s="15"/>
+      <c r="D274" s="14"/>
     </row>
     <row r="275" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B275" s="2"/>
-      <c r="D275" s="15"/>
+      <c r="D275" s="14"/>
     </row>
     <row r="276" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B276" s="2"/>
-      <c r="D276" s="15"/>
+      <c r="D276" s="14"/>
     </row>
     <row r="277" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B277" s="2"/>
-      <c r="D277" s="15"/>
+      <c r="D277" s="14"/>
     </row>
     <row r="278" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B278" s="2"/>
-      <c r="D278" s="15"/>
+      <c r="D278" s="14"/>
     </row>
     <row r="279" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B279" s="2"/>
-      <c r="D279" s="15"/>
+      <c r="D279" s="14"/>
     </row>
     <row r="280" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B280" s="2"/>
-      <c r="D280" s="15"/>
+      <c r="D280" s="14"/>
     </row>
     <row r="281" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B281" s="2"/>
-      <c r="D281" s="15"/>
+      <c r="D281" s="14"/>
     </row>
     <row r="282" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B282" s="2"/>
-      <c r="D282" s="15"/>
+      <c r="D282" s="14"/>
     </row>
     <row r="283" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B283" s="2"/>
-      <c r="D283" s="15"/>
+      <c r="D283" s="14"/>
     </row>
     <row r="284" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B284" s="2"/>
-      <c r="D284" s="15"/>
+      <c r="D284" s="14"/>
     </row>
     <row r="285" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B285" s="2"/>
-      <c r="D285" s="15"/>
+      <c r="D285" s="14"/>
     </row>
     <row r="286" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B286" s="2"/>
-      <c r="D286" s="15"/>
+      <c r="D286" s="14"/>
     </row>
     <row r="287" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B287" s="2"/>
-      <c r="D287" s="15"/>
+      <c r="D287" s="14"/>
     </row>
     <row r="288" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B288" s="2"/>
-      <c r="D288" s="15"/>
+      <c r="D288" s="14"/>
     </row>
     <row r="289" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B289" s="2"/>
-      <c r="D289" s="15"/>
+      <c r="D289" s="14"/>
     </row>
     <row r="290" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B290" s="2"/>
-      <c r="D290" s="15"/>
+      <c r="D290" s="14"/>
     </row>
     <row r="291" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B291" s="2"/>
-      <c r="D291" s="15"/>
+      <c r="D291" s="14"/>
     </row>
     <row r="292" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B292" s="2"/>
-      <c r="D292" s="15"/>
+      <c r="D292" s="14"/>
     </row>
     <row r="293" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B293" s="2"/>
-      <c r="D293" s="15"/>
+      <c r="D293" s="14"/>
     </row>
     <row r="294" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B294" s="2"/>
-      <c r="D294" s="15"/>
+      <c r="D294" s="14"/>
     </row>
     <row r="295" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B295" s="2"/>
-      <c r="D295" s="15"/>
+      <c r="D295" s="14"/>
     </row>
     <row r="296" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B296" s="2"/>
-      <c r="D296" s="15"/>
+      <c r="D296" s="14"/>
     </row>
     <row r="297" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B297" s="2"/>
-      <c r="D297" s="15"/>
+      <c r="D297" s="14"/>
     </row>
     <row r="298" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B298" s="2"/>
-      <c r="D298" s="15"/>
+      <c r="D298" s="14"/>
     </row>
     <row r="299" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B299" s="2"/>
-      <c r="D299" s="15"/>
+      <c r="D299" s="14"/>
     </row>
     <row r="300" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B300" s="2"/>
-      <c r="D300" s="15"/>
+      <c r="D300" s="14"/>
     </row>
     <row r="301" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B301" s="2"/>
-      <c r="D301" s="15"/>
+      <c r="D301" s="14"/>
     </row>
     <row r="302" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B302" s="2"/>
-      <c r="D302" s="15"/>
+      <c r="D302" s="14"/>
     </row>
     <row r="303" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B303" s="2"/>
-      <c r="D303" s="15"/>
+      <c r="D303" s="14"/>
     </row>
     <row r="304" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B304" s="2"/>
-      <c r="D304" s="15"/>
+      <c r="D304" s="14"/>
     </row>
     <row r="305" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B305" s="2"/>
-      <c r="D305" s="15"/>
+      <c r="D305" s="14"/>
     </row>
     <row r="306" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B306" s="2"/>
-      <c r="D306" s="15"/>
+      <c r="D306" s="14"/>
     </row>
     <row r="307" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B307" s="2"/>
-      <c r="D307" s="15"/>
+      <c r="D307" s="14"/>
     </row>
     <row r="308" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B308" s="2"/>
-      <c r="D308" s="15"/>
+      <c r="D308" s="14"/>
     </row>
     <row r="309" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B309" s="2"/>
-      <c r="D309" s="15"/>
+      <c r="D309" s="14"/>
     </row>
     <row r="310" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B310" s="2"/>
-      <c r="D310" s="15"/>
+      <c r="D310" s="14"/>
     </row>
     <row r="311" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B311" s="2"/>
-      <c r="D311" s="15"/>
+      <c r="D311" s="14"/>
     </row>
     <row r="312" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B312" s="2"/>
-      <c r="D312" s="15"/>
+      <c r="D312" s="14"/>
     </row>
     <row r="313" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B313" s="2"/>
-      <c r="D313" s="15"/>
+      <c r="D313" s="14"/>
     </row>
     <row r="314" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B314" s="2"/>
-      <c r="D314" s="15"/>
+      <c r="D314" s="14"/>
     </row>
     <row r="315" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B315" s="2"/>
-      <c r="D315" s="15"/>
+      <c r="D315" s="14"/>
     </row>
     <row r="316" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B316" s="2"/>
-      <c r="D316" s="15"/>
+      <c r="D316" s="14"/>
     </row>
     <row r="317" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B317" s="2"/>
-      <c r="D317" s="15"/>
+      <c r="D317" s="14"/>
     </row>
     <row r="318" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B318" s="2"/>
-      <c r="D318" s="15"/>
+      <c r="D318" s="14"/>
     </row>
     <row r="319" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B319" s="2"/>
-      <c r="D319" s="15"/>
+      <c r="D319" s="14"/>
     </row>
     <row r="320" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B320" s="2"/>
-      <c r="D320" s="15"/>
+      <c r="D320" s="14"/>
     </row>
     <row r="321" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B321" s="2"/>
-      <c r="D321" s="15"/>
+      <c r="D321" s="14"/>
     </row>
     <row r="322" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B322" s="2"/>
-      <c r="D322" s="15"/>
+      <c r="D322" s="14"/>
     </row>
     <row r="323" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B323" s="2"/>
-      <c r="D323" s="15"/>
+      <c r="D323" s="14"/>
     </row>
     <row r="324" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B324" s="2"/>
-      <c r="D324" s="15"/>
+      <c r="D324" s="14"/>
     </row>
     <row r="325" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B325" s="2"/>
-      <c r="D325" s="15"/>
+      <c r="D325" s="14"/>
     </row>
     <row r="326" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B326" s="2"/>
-      <c r="D326" s="15"/>
+      <c r="D326" s="14"/>
     </row>
     <row r="327" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B327" s="2"/>
-      <c r="D327" s="15"/>
+      <c r="D327" s="14"/>
     </row>
     <row r="328" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B328" s="2"/>
-      <c r="D328" s="15"/>
+      <c r="D328" s="14"/>
     </row>
     <row r="329" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B329" s="2"/>
-      <c r="D329" s="15"/>
+      <c r="D329" s="14"/>
     </row>
     <row r="330" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B330" s="2"/>
-      <c r="D330" s="15"/>
+      <c r="D330" s="14"/>
     </row>
     <row r="331" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B331" s="2"/>
-      <c r="D331" s="15"/>
+      <c r="D331" s="14"/>
     </row>
     <row r="332" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B332" s="2"/>
-      <c r="D332" s="15"/>
+      <c r="D332" s="14"/>
     </row>
     <row r="333" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B333" s="2"/>
-      <c r="D333" s="15"/>
+      <c r="D333" s="14"/>
     </row>
     <row r="334" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B334" s="2"/>
-      <c r="D334" s="15"/>
+      <c r="D334" s="14"/>
     </row>
     <row r="335" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B335" s="2"/>
-      <c r="D335" s="15"/>
+      <c r="D335" s="14"/>
     </row>
     <row r="336" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B336" s="2"/>
-      <c r="D336" s="15"/>
+      <c r="D336" s="14"/>
     </row>
     <row r="337" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B337" s="2"/>
-      <c r="D337" s="15"/>
+      <c r="D337" s="14"/>
     </row>
     <row r="338" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B338" s="2"/>
-      <c r="D338" s="15"/>
+      <c r="D338" s="14"/>
     </row>
     <row r="339" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B339" s="2"/>
-      <c r="D339" s="15"/>
+      <c r="D339" s="14"/>
     </row>
     <row r="340" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B340" s="2"/>
-      <c r="D340" s="15"/>
+      <c r="D340" s="14"/>
     </row>
     <row r="341" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B341" s="2"/>
-      <c r="D341" s="15"/>
+      <c r="D341" s="14"/>
     </row>
     <row r="342" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B342" s="2"/>
-      <c r="D342" s="15"/>
+      <c r="D342" s="14"/>
     </row>
     <row r="343" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B343" s="2"/>
-      <c r="D343" s="15"/>
+      <c r="D343" s="14"/>
     </row>
     <row r="344" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B344" s="2"/>
-      <c r="D344" s="15"/>
+      <c r="D344" s="14"/>
     </row>
     <row r="345" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B345" s="2"/>
-      <c r="D345" s="15"/>
+      <c r="D345" s="14"/>
     </row>
     <row r="346" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B346" s="2"/>
-      <c r="D346" s="15"/>
+      <c r="D346" s="14"/>
     </row>
     <row r="347" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B347" s="2"/>
-      <c r="D347" s="15"/>
+      <c r="D347" s="14"/>
     </row>
     <row r="348" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B348" s="2"/>
-      <c r="D348" s="15"/>
+      <c r="D348" s="14"/>
     </row>
     <row r="349" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B349" s="2"/>
-      <c r="D349" s="15"/>
+      <c r="D349" s="14"/>
     </row>
     <row r="350" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B350" s="2"/>
-      <c r="D350" s="15"/>
+      <c r="D350" s="14"/>
     </row>
     <row r="351" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B351" s="2"/>
-      <c r="D351" s="15"/>
+      <c r="D351" s="14"/>
     </row>
     <row r="352" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B352" s="2"/>
-      <c r="D352" s="15"/>
+      <c r="D352" s="14"/>
     </row>
     <row r="353" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B353" s="2"/>
-      <c r="D353" s="15"/>
+      <c r="D353" s="14"/>
     </row>
     <row r="354" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B354" s="2"/>
-      <c r="D354" s="15"/>
+      <c r="D354" s="14"/>
     </row>
     <row r="355" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B355" s="2"/>
-      <c r="D355" s="15"/>
+      <c r="D355" s="14"/>
     </row>
     <row r="356" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B356" s="2"/>
-      <c r="D356" s="15"/>
+      <c r="D356" s="14"/>
     </row>
     <row r="357" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B357" s="2"/>
-      <c r="D357" s="15"/>
+      <c r="D357" s="14"/>
     </row>
     <row r="358" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B358" s="2"/>
-      <c r="D358" s="15"/>
+      <c r="D358" s="14"/>
     </row>
     <row r="359" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B359" s="2"/>
-      <c r="D359" s="15"/>
+      <c r="D359" s="14"/>
     </row>
     <row r="360" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B360" s="2"/>
-      <c r="D360" s="15"/>
+      <c r="D360" s="14"/>
     </row>
     <row r="361" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B361" s="2"/>
-      <c r="D361" s="15"/>
+      <c r="D361" s="14"/>
     </row>
     <row r="362" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B362" s="2"/>
-      <c r="D362" s="15"/>
+      <c r="D362" s="14"/>
     </row>
     <row r="363" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B363" s="2"/>
-      <c r="D363" s="15"/>
+      <c r="D363" s="14"/>
     </row>
     <row r="364" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B364" s="2"/>
-      <c r="D364" s="15"/>
+      <c r="D364" s="14"/>
     </row>
     <row r="365" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B365" s="2"/>
-      <c r="D365" s="15"/>
+      <c r="D365" s="14"/>
     </row>
     <row r="366" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B366" s="2"/>
-      <c r="D366" s="15"/>
+      <c r="D366" s="14"/>
     </row>
     <row r="367" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B367" s="2"/>
-      <c r="D367" s="15"/>
+      <c r="D367" s="14"/>
     </row>
     <row r="368" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B368" s="2"/>
-      <c r="D368" s="15"/>
+      <c r="D368" s="14"/>
     </row>
     <row r="369" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B369" s="2"/>
-      <c r="D369" s="15"/>
+      <c r="D369" s="14"/>
     </row>
     <row r="370" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B370" s="2"/>
-      <c r="D370" s="15"/>
+      <c r="D370" s="14"/>
     </row>
     <row r="371" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B371" s="2"/>
-      <c r="D371" s="15"/>
+      <c r="D371" s="14"/>
     </row>
     <row r="372" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B372" s="2"/>
-      <c r="D372" s="15"/>
+      <c r="D372" s="14"/>
     </row>
     <row r="373" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B373" s="2"/>
-      <c r="D373" s="15"/>
+      <c r="D373" s="14"/>
     </row>
     <row r="374" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B374" s="2"/>
-      <c r="D374" s="15"/>
+      <c r="D374" s="14"/>
     </row>
     <row r="375" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B375" s="2"/>
-      <c r="D375" s="15"/>
+      <c r="D375" s="14"/>
     </row>
     <row r="376" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B376" s="2"/>
-      <c r="D376" s="15"/>
+      <c r="D376" s="14"/>
     </row>
     <row r="377" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B377" s="2"/>
-      <c r="D377" s="15"/>
+      <c r="D377" s="14"/>
     </row>
     <row r="378" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B378" s="2"/>
-      <c r="D378" s="15"/>
+      <c r="D378" s="14"/>
     </row>
     <row r="379" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B379" s="2"/>
-      <c r="D379" s="15"/>
+      <c r="D379" s="14"/>
     </row>
     <row r="380" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B380" s="2"/>
-      <c r="D380" s="15"/>
+      <c r="D380" s="14"/>
     </row>
     <row r="381" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B381" s="2"/>
-      <c r="D381" s="15"/>
+      <c r="D381" s="14"/>
     </row>
     <row r="382" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B382" s="2"/>
-      <c r="D382" s="15"/>
+      <c r="D382" s="14"/>
     </row>
     <row r="383" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B383" s="2"/>
-      <c r="D383" s="15"/>
+      <c r="D383" s="14"/>
     </row>
     <row r="384" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B384" s="2"/>
-      <c r="D384" s="15"/>
+      <c r="D384" s="14"/>
     </row>
     <row r="385" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B385" s="2"/>
-      <c r="D385" s="15"/>
+      <c r="D385" s="14"/>
     </row>
     <row r="386" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B386" s="2"/>
-      <c r="D386" s="15"/>
+      <c r="D386" s="14"/>
     </row>
     <row r="387" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B387" s="2"/>
-      <c r="D387" s="15"/>
+      <c r="D387" s="14"/>
     </row>
     <row r="388" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B388" s="2"/>
-      <c r="D388" s="15"/>
+      <c r="D388" s="14"/>
     </row>
     <row r="389" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B389" s="2"/>
-      <c r="D389" s="15"/>
+      <c r="D389" s="14"/>
     </row>
     <row r="390" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B390" s="2"/>
-      <c r="D390" s="15"/>
+      <c r="D390" s="14"/>
     </row>
     <row r="391" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B391" s="2"/>
-      <c r="D391" s="15"/>
+      <c r="D391" s="14"/>
     </row>
     <row r="392" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B392" s="2"/>
-      <c r="D392" s="15"/>
+      <c r="D392" s="14"/>
     </row>
     <row r="393" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B393" s="2"/>
-      <c r="D393" s="15"/>
+      <c r="D393" s="14"/>
     </row>
     <row r="394" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B394" s="2"/>
-      <c r="D394" s="15"/>
+      <c r="D394" s="14"/>
     </row>
     <row r="395" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B395" s="2"/>
-      <c r="D395" s="15"/>
+      <c r="D395" s="14"/>
     </row>
     <row r="396" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B396" s="2"/>
-      <c r="D396" s="15"/>
+      <c r="D396" s="14"/>
     </row>
     <row r="397" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B397" s="2"/>
-      <c r="D397" s="15"/>
+      <c r="D397" s="14"/>
     </row>
     <row r="398" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B398" s="2"/>
-      <c r="D398" s="15"/>
+      <c r="D398" s="14"/>
     </row>
     <row r="399" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B399" s="2"/>
-      <c r="D399" s="15"/>
+      <c r="D399" s="14"/>
     </row>
     <row r="400" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B400" s="2"/>
-      <c r="D400" s="15"/>
+      <c r="D400" s="14"/>
     </row>
     <row r="401" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B401" s="2"/>
-      <c r="D401" s="15"/>
+      <c r="D401" s="14"/>
     </row>
     <row r="402" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B402" s="2"/>
-      <c r="D402" s="15"/>
+      <c r="D402" s="14"/>
     </row>
     <row r="403" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B403" s="2"/>
-      <c r="D403" s="15"/>
+      <c r="D403" s="14"/>
     </row>
     <row r="404" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B404" s="2"/>
-      <c r="D404" s="15"/>
+      <c r="D404" s="14"/>
     </row>
     <row r="405" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B405" s="2"/>
-      <c r="D405" s="15"/>
+      <c r="D405" s="14"/>
     </row>
     <row r="406" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B406" s="2"/>
-      <c r="D406" s="15"/>
+      <c r="D406" s="14"/>
     </row>
     <row r="407" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B407" s="2"/>
-      <c r="D407" s="15"/>
+      <c r="D407" s="14"/>
     </row>
     <row r="408" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B408" s="2"/>
-      <c r="D408" s="15"/>
+      <c r="D408" s="14"/>
     </row>
     <row r="409" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B409" s="2"/>
-      <c r="D409" s="15"/>
+      <c r="D409" s="14"/>
     </row>
     <row r="410" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B410" s="2"/>
-      <c r="D410" s="15"/>
+      <c r="D410" s="14"/>
     </row>
     <row r="411" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B411" s="2"/>
-      <c r="D411" s="15"/>
+      <c r="D411" s="14"/>
     </row>
     <row r="412" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B412" s="2"/>
-      <c r="D412" s="15"/>
+      <c r="D412" s="14"/>
     </row>
     <row r="413" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B413" s="2"/>
-      <c r="D413" s="15"/>
+      <c r="D413" s="14"/>
     </row>
     <row r="414" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B414" s="2"/>
-      <c r="D414" s="15"/>
+      <c r="D414" s="14"/>
     </row>
     <row r="415" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B415" s="2"/>
-      <c r="D415" s="15"/>
+      <c r="D415" s="14"/>
     </row>
     <row r="416" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B416" s="2"/>
-      <c r="D416" s="15"/>
+      <c r="D416" s="14"/>
     </row>
     <row r="417" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B417" s="2"/>
-      <c r="D417" s="15"/>
+      <c r="D417" s="14"/>
     </row>
     <row r="418" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B418" s="2"/>
-      <c r="D418" s="15"/>
+      <c r="D418" s="14"/>
     </row>
     <row r="419" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B419" s="2"/>
-      <c r="D419" s="15"/>
+      <c r="D419" s="14"/>
     </row>
     <row r="420" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B420" s="2"/>
-      <c r="D420" s="15"/>
+      <c r="D420" s="14"/>
     </row>
     <row r="421" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B421" s="2"/>
-      <c r="D421" s="15"/>
+      <c r="D421" s="14"/>
     </row>
     <row r="422" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B422" s="2"/>
-      <c r="D422" s="15"/>
+      <c r="D422" s="14"/>
     </row>
     <row r="423" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B423" s="2"/>
-      <c r="D423" s="15"/>
+      <c r="D423" s="14"/>
     </row>
     <row r="424" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B424" s="2"/>
-      <c r="D424" s="15"/>
+      <c r="D424" s="14"/>
     </row>
     <row r="425" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B425" s="2"/>
-      <c r="D425" s="15"/>
+      <c r="D425" s="14"/>
     </row>
     <row r="426" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B426" s="2"/>
-      <c r="D426" s="15"/>
+      <c r="D426" s="14"/>
     </row>
     <row r="427" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B427" s="2"/>
-      <c r="D427" s="15"/>
+      <c r="D427" s="14"/>
     </row>
     <row r="428" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B428" s="2"/>
-      <c r="D428" s="15"/>
+      <c r="D428" s="14"/>
     </row>
     <row r="429" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B429" s="2"/>
-      <c r="D429" s="15"/>
+      <c r="D429" s="14"/>
     </row>
     <row r="430" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B430" s="2"/>
-      <c r="D430" s="15"/>
+      <c r="D430" s="14"/>
     </row>
     <row r="431" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B431" s="2"/>
-      <c r="D431" s="15"/>
+      <c r="D431" s="14"/>
     </row>
     <row r="432" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B432" s="2"/>
-      <c r="D432" s="15"/>
+      <c r="D432" s="14"/>
     </row>
     <row r="433" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B433" s="2"/>
-      <c r="D433" s="15"/>
+      <c r="D433" s="14"/>
     </row>
     <row r="434" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B434" s="2"/>
-      <c r="D434" s="15"/>
+      <c r="D434" s="14"/>
     </row>
     <row r="435" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B435" s="2"/>
-      <c r="D435" s="15"/>
+      <c r="D435" s="14"/>
     </row>
     <row r="436" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B436" s="2"/>
-      <c r="D436" s="15"/>
+      <c r="D436" s="14"/>
     </row>
     <row r="437" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B437" s="2"/>
-      <c r="D437" s="15"/>
+      <c r="D437" s="14"/>
     </row>
     <row r="438" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B438" s="2"/>
-      <c r="D438" s="15"/>
+      <c r="D438" s="14"/>
     </row>
     <row r="439" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B439" s="2"/>
-      <c r="D439" s="15"/>
+      <c r="D439" s="14"/>
     </row>
     <row r="440" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B440" s="2"/>
-      <c r="D440" s="15"/>
+      <c r="D440" s="14"/>
     </row>
     <row r="441" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B441" s="2"/>
-      <c r="D441" s="15"/>
+      <c r="D441" s="14"/>
     </row>
     <row r="442" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B442" s="2"/>
-      <c r="D442" s="15"/>
+      <c r="D442" s="14"/>
     </row>
     <row r="443" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B443" s="2"/>
-      <c r="D443" s="15"/>
+      <c r="D443" s="14"/>
     </row>
     <row r="444" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B444" s="2"/>
-      <c r="D444" s="15"/>
+      <c r="D444" s="14"/>
     </row>
     <row r="445" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B445" s="2"/>
-      <c r="D445" s="15"/>
+      <c r="D445" s="14"/>
     </row>
     <row r="446" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B446" s="2"/>
-      <c r="D446" s="15"/>
+      <c r="D446" s="14"/>
     </row>
     <row r="447" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B447" s="2"/>
-      <c r="D447" s="15"/>
+      <c r="D447" s="14"/>
     </row>
     <row r="448" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B448" s="2"/>
-      <c r="D448" s="15"/>
+      <c r="D448" s="14"/>
     </row>
     <row r="449" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B449" s="2"/>
-      <c r="D449" s="15"/>
+      <c r="D449" s="14"/>
     </row>
     <row r="450" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B450" s="2"/>
-      <c r="D450" s="15"/>
+      <c r="D450" s="14"/>
     </row>
     <row r="451" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B451" s="2"/>
-      <c r="D451" s="15"/>
+      <c r="D451" s="14"/>
     </row>
     <row r="452" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B452" s="2"/>
-      <c r="D452" s="15"/>
+      <c r="D452" s="14"/>
     </row>
     <row r="453" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B453" s="2"/>
-      <c r="D453" s="15"/>
+      <c r="D453" s="14"/>
     </row>
     <row r="454" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B454" s="2"/>
-      <c r="D454" s="15"/>
+      <c r="D454" s="14"/>
     </row>
     <row r="455" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B455" s="2"/>
-      <c r="D455" s="15"/>
+      <c r="D455" s="14"/>
     </row>
     <row r="456" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B456" s="2"/>
-      <c r="D456" s="15"/>
+      <c r="D456" s="14"/>
     </row>
     <row r="457" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B457" s="2"/>
-      <c r="D457" s="15"/>
+      <c r="D457" s="14"/>
     </row>
     <row r="458" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B458" s="2"/>
-      <c r="D458" s="15"/>
+      <c r="D458" s="14"/>
     </row>
     <row r="459" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B459" s="2"/>
-      <c r="D459" s="15"/>
+      <c r="D459" s="14"/>
     </row>
     <row r="460" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B460" s="2"/>
-      <c r="D460" s="15"/>
+      <c r="D460" s="14"/>
     </row>
     <row r="461" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B461" s="2"/>
-      <c r="D461" s="15"/>
+      <c r="D461" s="14"/>
     </row>
     <row r="462" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B462" s="2"/>
-      <c r="D462" s="15"/>
+      <c r="D462" s="14"/>
     </row>
     <row r="463" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B463" s="2"/>
-      <c r="D463" s="15"/>
+      <c r="D463" s="14"/>
     </row>
     <row r="464" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B464" s="2"/>
-      <c r="D464" s="15"/>
+      <c r="D464" s="14"/>
     </row>
     <row r="465" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B465" s="2"/>
-      <c r="D465" s="15"/>
+      <c r="D465" s="14"/>
     </row>
     <row r="466" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B466" s="2"/>
-      <c r="D466" s="15"/>
+      <c r="D466" s="14"/>
     </row>
     <row r="467" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B467" s="2"/>
-      <c r="D467" s="15"/>
+      <c r="D467" s="14"/>
     </row>
     <row r="468" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B468" s="2"/>
-      <c r="D468" s="15"/>
+      <c r="D468" s="14"/>
     </row>
     <row r="469" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B469" s="2"/>
-      <c r="D469" s="15"/>
+      <c r="D469" s="14"/>
     </row>
     <row r="470" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B470" s="2"/>
-      <c r="D470" s="15"/>
+      <c r="D470" s="14"/>
     </row>
     <row r="471" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B471" s="2"/>
-      <c r="D471" s="15"/>
+      <c r="D471" s="14"/>
     </row>
     <row r="472" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B472" s="2"/>
-      <c r="D472" s="15"/>
+      <c r="D472" s="14"/>
     </row>
     <row r="473" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B473" s="2"/>
-      <c r="D473" s="15"/>
+      <c r="D473" s="14"/>
     </row>
     <row r="474" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B474" s="2"/>
-      <c r="D474" s="15"/>
+      <c r="D474" s="14"/>
     </row>
     <row r="475" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B475" s="2"/>
-      <c r="D475" s="15"/>
+      <c r="D475" s="14"/>
     </row>
     <row r="476" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B476" s="2"/>
-      <c r="D476" s="15"/>
+      <c r="D476" s="14"/>
     </row>
     <row r="477" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B477" s="2"/>
-      <c r="D477" s="15"/>
+      <c r="D477" s="14"/>
     </row>
     <row r="478" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B478" s="2"/>
-      <c r="D478" s="15"/>
+      <c r="D478" s="14"/>
     </row>
     <row r="479" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B479" s="2"/>
-      <c r="D479" s="15"/>
+      <c r="D479" s="14"/>
     </row>
     <row r="480" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B480" s="2"/>
-      <c r="D480" s="15"/>
+      <c r="D480" s="14"/>
     </row>
     <row r="481" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B481" s="2"/>
-      <c r="D481" s="15"/>
+      <c r="D481" s="14"/>
     </row>
     <row r="482" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B482" s="2"/>
-      <c r="D482" s="15"/>
+      <c r="D482" s="14"/>
     </row>
     <row r="483" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B483" s="2"/>
-      <c r="D483" s="15"/>
+      <c r="D483" s="14"/>
     </row>
     <row r="484" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B484" s="2"/>
-      <c r="D484" s="15"/>
+      <c r="D484" s="14"/>
     </row>
     <row r="485" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B485" s="2"/>
-      <c r="D485" s="15"/>
+      <c r="D485" s="14"/>
     </row>
     <row r="486" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B486" s="2"/>
-      <c r="D486" s="15"/>
+      <c r="D486" s="14"/>
     </row>
     <row r="487" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B487" s="2"/>
-      <c r="D487" s="15"/>
+      <c r="D487" s="14"/>
     </row>
     <row r="488" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B488" s="2"/>
-      <c r="D488" s="15"/>
+      <c r="D488" s="14"/>
     </row>
     <row r="489" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B489" s="2"/>
-      <c r="D489" s="15"/>
+      <c r="D489" s="14"/>
     </row>
     <row r="490" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B490" s="2"/>
-      <c r="D490" s="15"/>
+      <c r="D490" s="14"/>
     </row>
     <row r="491" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B491" s="2"/>
-      <c r="D491" s="15"/>
+      <c r="D491" s="14"/>
     </row>
     <row r="492" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B492" s="2"/>
-      <c r="D492" s="15"/>
+      <c r="D492" s="14"/>
     </row>
     <row r="493" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B493" s="2"/>
-      <c r="D493" s="15"/>
+      <c r="D493" s="14"/>
     </row>
     <row r="494" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B494" s="2"/>
-      <c r="D494" s="15"/>
+      <c r="D494" s="14"/>
     </row>
     <row r="495" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B495" s="2"/>
-      <c r="D495" s="15"/>
+      <c r="D495" s="14"/>
     </row>
     <row r="496" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B496" s="2"/>
-      <c r="D496" s="15"/>
+      <c r="D496" s="14"/>
     </row>
     <row r="497" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B497" s="2"/>
-      <c r="D497" s="15"/>
+      <c r="D497" s="14"/>
     </row>
     <row r="498" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B498" s="2"/>
-      <c r="D498" s="15"/>
+      <c r="D498" s="14"/>
     </row>
     <row r="499" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B499" s="2"/>
-      <c r="D499" s="15"/>
+      <c r="D499" s="14"/>
     </row>
     <row r="500" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B500" s="2"/>
-      <c r="D500" s="15"/>
+      <c r="D500" s="14"/>
     </row>
     <row r="501" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B501" s="2"/>
-      <c r="D501" s="15"/>
+      <c r="D501" s="14"/>
     </row>
     <row r="502" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B502" s="2"/>
-      <c r="D502" s="15"/>
+      <c r="D502" s="14"/>
     </row>
     <row r="503" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B503" s="2"/>
-      <c r="D503" s="15"/>
+      <c r="D503" s="14"/>
     </row>
     <row r="504" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B504" s="2"/>
-      <c r="D504" s="15"/>
+      <c r="D504" s="14"/>
     </row>
     <row r="505" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B505" s="2"/>
-      <c r="D505" s="15"/>
+      <c r="D505" s="14"/>
     </row>
     <row r="506" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B506" s="2"/>
-      <c r="D506" s="15"/>
+      <c r="D506" s="14"/>
     </row>
     <row r="507" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B507" s="2"/>
-      <c r="D507" s="15"/>
+      <c r="D507" s="14"/>
     </row>
     <row r="508" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B508" s="2"/>
-      <c r="D508" s="15"/>
+      <c r="D508" s="14"/>
     </row>
     <row r="509" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B509" s="2"/>
-      <c r="D509" s="15"/>
+      <c r="D509" s="14"/>
     </row>
     <row r="510" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B510" s="2"/>
-      <c r="D510" s="15"/>
+      <c r="D510" s="14"/>
     </row>
     <row r="511" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B511" s="2"/>
-      <c r="D511" s="15"/>
+      <c r="D511" s="14"/>
     </row>
     <row r="512" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B512" s="2"/>
-      <c r="D512" s="15"/>
+      <c r="D512" s="14"/>
     </row>
     <row r="513" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B513" s="2"/>
-      <c r="D513" s="15"/>
+      <c r="D513" s="14"/>
     </row>
     <row r="514" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B514" s="2"/>
-      <c r="D514" s="15"/>
+      <c r="D514" s="14"/>
     </row>
     <row r="515" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B515" s="2"/>
-      <c r="D515" s="15"/>
+      <c r="D515" s="14"/>
     </row>
     <row r="516" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B516" s="2"/>
-      <c r="D516" s="15"/>
+      <c r="D516" s="14"/>
     </row>
     <row r="517" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B517" s="2"/>
-      <c r="D517" s="15"/>
+      <c r="D517" s="14"/>
     </row>
     <row r="518" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B518" s="2"/>
-      <c r="D518" s="15"/>
+      <c r="D518" s="14"/>
     </row>
     <row r="519" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B519" s="2"/>
-      <c r="D519" s="15"/>
+      <c r="D519" s="14"/>
     </row>
     <row r="520" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B520" s="2"/>
-      <c r="D520" s="15"/>
+      <c r="D520" s="14"/>
     </row>
     <row r="521" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B521" s="2"/>
-      <c r="D521" s="15"/>
+      <c r="D521" s="14"/>
     </row>
     <row r="522" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B522" s="2"/>
-      <c r="D522" s="15"/>
+      <c r="D522" s="14"/>
     </row>
     <row r="523" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B523" s="2"/>
-      <c r="D523" s="15"/>
+      <c r="D523" s="14"/>
     </row>
     <row r="524" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B524" s="2"/>
-      <c r="D524" s="15"/>
+      <c r="D524" s="14"/>
     </row>
     <row r="525" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B525" s="2"/>
-      <c r="D525" s="15"/>
+      <c r="D525" s="14"/>
     </row>
     <row r="526" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B526" s="2"/>
-      <c r="D526" s="15"/>
+      <c r="D526" s="14"/>
     </row>
     <row r="527" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B527" s="2"/>
-      <c r="D527" s="15"/>
+      <c r="D527" s="14"/>
     </row>
     <row r="528" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B528" s="2"/>
-      <c r="D528" s="15"/>
+      <c r="D528" s="14"/>
     </row>
     <row r="529" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B529" s="2"/>
-      <c r="D529" s="15"/>
+      <c r="D529" s="14"/>
     </row>
     <row r="530" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B530" s="2"/>
-      <c r="D530" s="15"/>
+      <c r="D530" s="14"/>
     </row>
     <row r="531" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B531" s="2"/>
-      <c r="D531" s="15"/>
+      <c r="D531" s="14"/>
     </row>
     <row r="532" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B532" s="2"/>
-      <c r="D532" s="15"/>
+      <c r="D532" s="14"/>
     </row>
     <row r="533" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B533" s="2"/>
-      <c r="D533" s="15"/>
+      <c r="D533" s="14"/>
     </row>
     <row r="534" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B534" s="2"/>
-      <c r="D534" s="15"/>
+      <c r="D534" s="14"/>
     </row>
     <row r="535" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B535" s="2"/>
-      <c r="D535" s="15"/>
+      <c r="D535" s="14"/>
     </row>
     <row r="536" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B536" s="2"/>
-      <c r="D536" s="15"/>
+      <c r="D536" s="14"/>
     </row>
     <row r="537" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B537" s="2"/>
-      <c r="D537" s="15"/>
+      <c r="D537" s="14"/>
     </row>
     <row r="538" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B538" s="2"/>
-      <c r="D538" s="15"/>
+      <c r="D538" s="14"/>
     </row>
     <row r="539" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B539" s="2"/>
-      <c r="D539" s="15"/>
+      <c r="D539" s="14"/>
     </row>
     <row r="540" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B540" s="2"/>
-      <c r="D540" s="15"/>
+      <c r="D540" s="14"/>
     </row>
     <row r="541" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B541" s="2"/>
-      <c r="D541" s="15"/>
+      <c r="D541" s="14"/>
     </row>
     <row r="542" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B542" s="2"/>
-      <c r="D542" s="15"/>
+      <c r="D542" s="14"/>
     </row>
     <row r="543" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B543" s="2"/>
-      <c r="D543" s="15"/>
+      <c r="D543" s="14"/>
     </row>
     <row r="544" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B544" s="2"/>
-      <c r="D544" s="15"/>
+      <c r="D544" s="14"/>
     </row>
     <row r="545" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B545" s="2"/>
-      <c r="D545" s="15"/>
+      <c r="D545" s="14"/>
     </row>
     <row r="546" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B546" s="2"/>
-      <c r="D546" s="15"/>
+      <c r="D546" s="14"/>
     </row>
     <row r="547" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B547" s="2"/>
-      <c r="D547" s="15"/>
+      <c r="D547" s="14"/>
     </row>
     <row r="548" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B548" s="2"/>
-      <c r="D548" s="15"/>
+      <c r="D548" s="14"/>
     </row>
     <row r="549" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B549" s="2"/>
-      <c r="D549" s="15"/>
+      <c r="D549" s="14"/>
     </row>
     <row r="550" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B550" s="2"/>
-      <c r="D550" s="15"/>
+      <c r="D550" s="14"/>
     </row>
     <row r="551" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B551" s="2"/>
-      <c r="D551" s="15"/>
+      <c r="D551" s="14"/>
     </row>
     <row r="552" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B552" s="2"/>
-      <c r="D552" s="15"/>
+      <c r="D552" s="14"/>
     </row>
     <row r="553" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B553" s="2"/>
-      <c r="D553" s="15"/>
+      <c r="D553" s="14"/>
     </row>
     <row r="554" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B554" s="2"/>
-      <c r="D554" s="15"/>
+      <c r="D554" s="14"/>
     </row>
     <row r="555" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B555" s="2"/>
-      <c r="D555" s="15"/>
+      <c r="D555" s="14"/>
     </row>
     <row r="556" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B556" s="2"/>
-      <c r="D556" s="15"/>
+      <c r="D556" s="14"/>
     </row>
     <row r="557" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B557" s="2"/>
-      <c r="D557" s="15"/>
+      <c r="D557" s="14"/>
     </row>
     <row r="558" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B558" s="2"/>
-      <c r="D558" s="15"/>
+      <c r="D558" s="14"/>
     </row>
     <row r="559" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B559" s="2"/>
-      <c r="D559" s="15"/>
+      <c r="D559" s="14"/>
     </row>
     <row r="560" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B560" s="2"/>
-      <c r="D560" s="15"/>
+      <c r="D560" s="14"/>
     </row>
     <row r="561" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B561" s="2"/>
-      <c r="D561" s="15"/>
+      <c r="D561" s="14"/>
     </row>
     <row r="562" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B562" s="2"/>
-      <c r="D562" s="15"/>
+      <c r="D562" s="14"/>
     </row>
     <row r="563" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B563" s="2"/>
-      <c r="D563" s="15"/>
+      <c r="D563" s="14"/>
     </row>
     <row r="564" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B564" s="2"/>
-      <c r="D564" s="15"/>
+      <c r="D564" s="14"/>
     </row>
     <row r="565" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B565" s="2"/>
-      <c r="D565" s="15"/>
+      <c r="D565" s="14"/>
     </row>
     <row r="566" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B566" s="2"/>
-      <c r="D566" s="15"/>
+      <c r="D566" s="14"/>
     </row>
     <row r="567" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B567" s="2"/>
-      <c r="D567" s="15"/>
+      <c r="D567" s="14"/>
     </row>
     <row r="568" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B568" s="2"/>
-      <c r="D568" s="15"/>
+      <c r="D568" s="14"/>
     </row>
     <row r="569" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B569" s="2"/>
-      <c r="D569" s="15"/>
+      <c r="D569" s="14"/>
     </row>
     <row r="570" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B570" s="2"/>
-      <c r="D570" s="15"/>
+      <c r="D570" s="14"/>
     </row>
     <row r="571" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B571" s="2"/>
-      <c r="D571" s="15"/>
+      <c r="D571" s="14"/>
     </row>
     <row r="572" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B572" s="2"/>
-      <c r="D572" s="15"/>
+      <c r="D572" s="14"/>
     </row>
     <row r="573" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B573" s="2"/>
-      <c r="D573" s="15"/>
+      <c r="D573" s="14"/>
     </row>
     <row r="574" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B574" s="2"/>
-      <c r="D574" s="15"/>
+      <c r="D574" s="14"/>
     </row>
     <row r="575" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B575" s="2"/>
-      <c r="D575" s="15"/>
+      <c r="D575" s="14"/>
     </row>
     <row r="576" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B576" s="2"/>
-      <c r="D576" s="15"/>
+      <c r="D576" s="14"/>
     </row>
     <row r="577" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B577" s="2"/>
-      <c r="D577" s="15"/>
+      <c r="D577" s="14"/>
     </row>
     <row r="578" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B578" s="2"/>
-      <c r="D578" s="15"/>
+      <c r="D578" s="14"/>
     </row>
     <row r="579" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B579" s="2"/>
-      <c r="D579" s="15"/>
+      <c r="D579" s="14"/>
     </row>
     <row r="580" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B580" s="2"/>
-      <c r="D580" s="15"/>
+      <c r="D580" s="14"/>
     </row>
     <row r="581" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B581" s="2"/>
-      <c r="D581" s="15"/>
+      <c r="D581" s="14"/>
     </row>
     <row r="582" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B582" s="2"/>
-      <c r="D582" s="15"/>
+      <c r="D582" s="14"/>
     </row>
     <row r="583" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B583" s="2"/>
-      <c r="D583" s="15"/>
+      <c r="D583" s="14"/>
     </row>
     <row r="584" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B584" s="2"/>
-      <c r="D584" s="15"/>
+      <c r="D584" s="14"/>
     </row>
     <row r="585" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B585" s="2"/>
-      <c r="D585" s="15"/>
+      <c r="D585" s="14"/>
     </row>
     <row r="586" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B586" s="2"/>
-      <c r="D586" s="15"/>
+      <c r="D586" s="14"/>
     </row>
     <row r="587" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B587" s="2"/>
-      <c r="D587" s="15"/>
+      <c r="D587" s="14"/>
     </row>
     <row r="588" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B588" s="2"/>
-      <c r="D588" s="15"/>
+      <c r="D588" s="14"/>
     </row>
     <row r="589" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B589" s="2"/>
-      <c r="D589" s="15"/>
+      <c r="D589" s="14"/>
     </row>
     <row r="590" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B590" s="2"/>
-      <c r="D590" s="15"/>
+      <c r="D590" s="14"/>
     </row>
     <row r="591" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B591" s="2"/>
-      <c r="D591" s="15"/>
+      <c r="D591" s="14"/>
     </row>
     <row r="592" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B592" s="2"/>
-      <c r="D592" s="15"/>
+      <c r="D592" s="14"/>
     </row>
     <row r="593" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B593" s="2"/>
-      <c r="D593" s="15"/>
+      <c r="D593" s="14"/>
     </row>
     <row r="594" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B594" s="2"/>
-      <c r="D594" s="15"/>
+      <c r="D594" s="14"/>
     </row>
     <row r="595" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B595" s="2"/>
-      <c r="D595" s="15"/>
+      <c r="D595" s="14"/>
     </row>
     <row r="596" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B596" s="2"/>
-      <c r="D596" s="15"/>
+      <c r="D596" s="14"/>
     </row>
     <row r="597" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B597" s="2"/>
-      <c r="D597" s="15"/>
+      <c r="D597" s="14"/>
     </row>
     <row r="598" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B598" s="2"/>
-      <c r="D598" s="15"/>
+      <c r="D598" s="14"/>
     </row>
     <row r="599" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B599" s="2"/>
-      <c r="D599" s="15"/>
+      <c r="D599" s="14"/>
     </row>
     <row r="600" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B600" s="2"/>
-      <c r="D600" s="15"/>
+      <c r="D600" s="14"/>
     </row>
     <row r="601" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B601" s="2"/>
-      <c r="D601" s="15"/>
+      <c r="D601" s="14"/>
     </row>
     <row r="602" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B602" s="2"/>
-      <c r="D602" s="15"/>
+      <c r="D602" s="14"/>
     </row>
     <row r="603" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B603" s="2"/>
-      <c r="D603" s="15"/>
+      <c r="D603" s="14"/>
     </row>
     <row r="604" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B604" s="2"/>
-      <c r="D604" s="15"/>
+      <c r="D604" s="14"/>
     </row>
     <row r="605" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B605" s="2"/>
-      <c r="D605" s="15"/>
+      <c r="D605" s="14"/>
     </row>
     <row r="606" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B606" s="2"/>
-      <c r="D606" s="15"/>
+      <c r="D606" s="14"/>
     </row>
     <row r="607" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B607" s="2"/>
-      <c r="D607" s="15"/>
+      <c r="D607" s="14"/>
     </row>
     <row r="608" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B608" s="2"/>
-      <c r="D608" s="15"/>
+      <c r="D608" s="14"/>
     </row>
     <row r="609" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B609" s="2"/>
-      <c r="D609" s="15"/>
+      <c r="D609" s="14"/>
     </row>
     <row r="610" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B610" s="2"/>
-      <c r="D610" s="15"/>
+      <c r="D610" s="14"/>
     </row>
     <row r="611" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B611" s="2"/>
-      <c r="D611" s="15"/>
+      <c r="D611" s="14"/>
     </row>
     <row r="612" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B612" s="2"/>
-      <c r="D612" s="15"/>
+      <c r="D612" s="14"/>
     </row>
     <row r="613" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B613" s="2"/>
-      <c r="D613" s="15"/>
+      <c r="D613" s="14"/>
     </row>
     <row r="614" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B614" s="2"/>
-      <c r="D614" s="15"/>
+      <c r="D614" s="14"/>
     </row>
     <row r="615" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B615" s="2"/>
-      <c r="D615" s="15"/>
+      <c r="D615" s="14"/>
     </row>
     <row r="616" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B616" s="2"/>
-      <c r="D616" s="15"/>
+      <c r="D616" s="14"/>
     </row>
     <row r="617" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B617" s="2"/>
-      <c r="D617" s="15"/>
+      <c r="D617" s="14"/>
     </row>
     <row r="618" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B618" s="2"/>
-      <c r="D618" s="15"/>
+      <c r="D618" s="14"/>
     </row>
     <row r="619" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B619" s="2"/>
-      <c r="D619" s="15"/>
+      <c r="D619" s="14"/>
     </row>
     <row r="620" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B620" s="2"/>
-      <c r="D620" s="15"/>
+      <c r="D620" s="14"/>
     </row>
     <row r="621" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B621" s="2"/>
-      <c r="D621" s="15"/>
+      <c r="D621" s="14"/>
     </row>
     <row r="622" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B622" s="2"/>
-      <c r="D622" s="15"/>
+      <c r="D622" s="14"/>
     </row>
     <row r="623" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B623" s="2"/>
-      <c r="D623" s="15"/>
+      <c r="D623" s="14"/>
     </row>
     <row r="624" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B624" s="2"/>
-      <c r="D624" s="15"/>
+      <c r="D624" s="14"/>
     </row>
     <row r="625" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B625" s="2"/>
-      <c r="D625" s="15"/>
+      <c r="D625" s="14"/>
     </row>
     <row r="626" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B626" s="2"/>
-      <c r="D626" s="15"/>
+      <c r="D626" s="14"/>
     </row>
     <row r="627" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B627" s="2"/>
-      <c r="D627" s="15"/>
+      <c r="D627" s="14"/>
     </row>
     <row r="628" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B628" s="2"/>
-      <c r="D628" s="15"/>
+      <c r="D628" s="14"/>
     </row>
     <row r="629" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B629" s="2"/>
-      <c r="D629" s="15"/>
+      <c r="D629" s="14"/>
     </row>
     <row r="630" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B630" s="2"/>
-      <c r="D630" s="15"/>
+      <c r="D630" s="14"/>
     </row>
     <row r="631" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B631" s="2"/>
-      <c r="D631" s="15"/>
+      <c r="D631" s="14"/>
     </row>
     <row r="632" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B632" s="2"/>
-      <c r="D632" s="15"/>
+      <c r="D632" s="14"/>
     </row>
     <row r="633" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B633" s="2"/>
-      <c r="D633" s="15"/>
+      <c r="D633" s="14"/>
     </row>
     <row r="634" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B634" s="2"/>
-      <c r="D634" s="15"/>
+      <c r="D634" s="14"/>
     </row>
     <row r="635" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B635" s="2"/>
-      <c r="D635" s="15"/>
+      <c r="D635" s="14"/>
     </row>
     <row r="636" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B636" s="2"/>
-      <c r="D636" s="15"/>
+      <c r="D636" s="14"/>
     </row>
     <row r="637" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B637" s="2"/>
-      <c r="D637" s="15"/>
+      <c r="D637" s="14"/>
     </row>
     <row r="638" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B638" s="2"/>
-      <c r="D638" s="15"/>
+      <c r="D638" s="14"/>
     </row>
     <row r="639" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B639" s="2"/>
-      <c r="D639" s="15"/>
+      <c r="D639" s="14"/>
     </row>
     <row r="640" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B640" s="2"/>
-      <c r="D640" s="15"/>
+      <c r="D640" s="14"/>
     </row>
     <row r="641" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B641" s="2"/>
-      <c r="D641" s="15"/>
+      <c r="D641" s="14"/>
     </row>
     <row r="642" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B642" s="2"/>
-      <c r="D642" s="15"/>
+      <c r="D642" s="14"/>
     </row>
     <row r="643" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B643" s="2"/>
-      <c r="D643" s="15"/>
+      <c r="D643" s="14"/>
     </row>
     <row r="644" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B644" s="2"/>
-      <c r="D644" s="15"/>
+      <c r="D644" s="14"/>
     </row>
     <row r="645" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B645" s="2"/>
-      <c r="D645" s="15"/>
+      <c r="D645" s="14"/>
     </row>
     <row r="646" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B646" s="2"/>
-      <c r="D646" s="15"/>
+      <c r="D646" s="14"/>
     </row>
     <row r="647" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B647" s="2"/>
-      <c r="D647" s="15"/>
+      <c r="D647" s="14"/>
     </row>
     <row r="648" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B648" s="2"/>
-      <c r="D648" s="15"/>
+      <c r="D648" s="14"/>
     </row>
     <row r="649" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B649" s="2"/>
-      <c r="D649" s="15"/>
+      <c r="D649" s="14"/>
     </row>
     <row r="650" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B650" s="2"/>
-      <c r="D650" s="15"/>
+      <c r="D650" s="14"/>
     </row>
     <row r="651" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B651" s="2"/>
-      <c r="D651" s="15"/>
+      <c r="D651" s="14"/>
     </row>
     <row r="652" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B652" s="2"/>
-      <c r="D652" s="15"/>
+      <c r="D652" s="14"/>
     </row>
     <row r="653" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B653" s="2"/>
-      <c r="D653" s="15"/>
+      <c r="D653" s="14"/>
     </row>
     <row r="654" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B654" s="2"/>
-      <c r="D654" s="15"/>
+      <c r="D654" s="14"/>
     </row>
     <row r="655" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B655" s="2"/>
-      <c r="D655" s="15"/>
+      <c r="D655" s="14"/>
     </row>
     <row r="656" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B656" s="2"/>
-      <c r="D656" s="15"/>
+      <c r="D656" s="14"/>
     </row>
     <row r="657" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B657" s="2"/>
-      <c r="D657" s="15"/>
+      <c r="D657" s="14"/>
     </row>
     <row r="658" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B658" s="2"/>
-      <c r="D658" s="15"/>
+      <c r="D658" s="14"/>
     </row>
     <row r="659" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B659" s="2"/>
-      <c r="D659" s="15"/>
+      <c r="D659" s="14"/>
     </row>
     <row r="660" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B660" s="2"/>
-      <c r="D660" s="15"/>
+      <c r="D660" s="14"/>
     </row>
     <row r="661" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B661" s="2"/>
-      <c r="D661" s="15"/>
+      <c r="D661" s="14"/>
     </row>
     <row r="662" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B662" s="2"/>
-      <c r="D662" s="15"/>
+      <c r="D662" s="14"/>
     </row>
     <row r="663" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B663" s="2"/>
-      <c r="D663" s="15"/>
+      <c r="D663" s="14"/>
     </row>
     <row r="664" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B664" s="2"/>
-      <c r="D664" s="15"/>
+      <c r="D664" s="14"/>
     </row>
     <row r="665" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B665" s="2"/>
-      <c r="D665" s="15"/>
+      <c r="D665" s="14"/>
     </row>
     <row r="666" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B666" s="2"/>
-      <c r="D666" s="15"/>
+      <c r="D666" s="14"/>
     </row>
     <row r="667" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B667" s="2"/>
-      <c r="D667" s="15"/>
+      <c r="D667" s="14"/>
     </row>
     <row r="668" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B668" s="2"/>
-      <c r="D668" s="15"/>
+      <c r="D668" s="14"/>
     </row>
     <row r="669" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B669" s="2"/>
-      <c r="D669" s="15"/>
+      <c r="D669" s="14"/>
     </row>
     <row r="670" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B670" s="2"/>
-      <c r="D670" s="15"/>
+      <c r="D670" s="14"/>
     </row>
     <row r="671" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B671" s="2"/>
-      <c r="D671" s="15"/>
+      <c r="D671" s="14"/>
     </row>
     <row r="672" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B672" s="2"/>
-      <c r="D672" s="15"/>
+      <c r="D672" s="14"/>
     </row>
     <row r="673" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B673" s="2"/>
-      <c r="D673" s="15"/>
+      <c r="D673" s="14"/>
     </row>
     <row r="674" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B674" s="2"/>
-      <c r="D674" s="15"/>
+      <c r="D674" s="14"/>
     </row>
     <row r="675" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B675" s="2"/>
-      <c r="D675" s="15"/>
+      <c r="D675" s="14"/>
     </row>
     <row r="676" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B676" s="2"/>
-      <c r="D676" s="15"/>
+      <c r="D676" s="14"/>
     </row>
     <row r="677" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B677" s="2"/>
-      <c r="D677" s="15"/>
+      <c r="D677" s="14"/>
     </row>
     <row r="678" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B678" s="2"/>
-      <c r="D678" s="15"/>
+      <c r="D678" s="14"/>
     </row>
     <row r="679" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B679" s="2"/>
-      <c r="D679" s="15"/>
+      <c r="D679" s="14"/>
     </row>
     <row r="680" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B680" s="2"/>
-      <c r="D680" s="15"/>
+      <c r="D680" s="14"/>
     </row>
     <row r="681" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B681" s="2"/>
-      <c r="D681" s="15"/>
+      <c r="D681" s="14"/>
     </row>
     <row r="682" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B682" s="2"/>
-      <c r="D682" s="15"/>
+      <c r="D682" s="14"/>
     </row>
     <row r="683" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B683" s="2"/>
-      <c r="D683" s="15"/>
+      <c r="D683" s="14"/>
     </row>
     <row r="684" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B684" s="2"/>
-      <c r="D684" s="15"/>
+      <c r="D684" s="14"/>
     </row>
     <row r="685" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B685" s="2"/>
-      <c r="D685" s="15"/>
+      <c r="D685" s="14"/>
     </row>
     <row r="686" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B686" s="2"/>
-      <c r="D686" s="15"/>
+      <c r="D686" s="14"/>
     </row>
     <row r="687" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B687" s="2"/>
-      <c r="D687" s="15"/>
+      <c r="D687" s="14"/>
     </row>
     <row r="688" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B688" s="2"/>
-      <c r="D688" s="15"/>
+      <c r="D688" s="14"/>
     </row>
     <row r="689" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B689" s="2"/>
-      <c r="D689" s="15"/>
+      <c r="D689" s="14"/>
     </row>
     <row r="690" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B690" s="2"/>
-      <c r="D690" s="15"/>
+      <c r="D690" s="14"/>
     </row>
     <row r="691" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B691" s="2"/>
-      <c r="D691" s="15"/>
+      <c r="D691" s="14"/>
     </row>
     <row r="692" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B692" s="2"/>
-      <c r="D692" s="15"/>
+      <c r="D692" s="14"/>
     </row>
     <row r="693" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B693" s="2"/>
-      <c r="D693" s="15"/>
+      <c r="D693" s="14"/>
     </row>
     <row r="694" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B694" s="2"/>
-      <c r="D694" s="15"/>
+      <c r="D694" s="14"/>
     </row>
     <row r="695" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B695" s="2"/>
-      <c r="D695" s="15"/>
+      <c r="D695" s="14"/>
     </row>
     <row r="696" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B696" s="2"/>
-      <c r="D696" s="15"/>
+      <c r="D696" s="14"/>
     </row>
     <row r="697" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B697" s="2"/>
-      <c r="D697" s="15"/>
+      <c r="D697" s="14"/>
     </row>
     <row r="698" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B698" s="2"/>
-      <c r="D698" s="15"/>
+      <c r="D698" s="14"/>
     </row>
     <row r="699" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B699" s="2"/>
-      <c r="D699" s="15"/>
+      <c r="D699" s="14"/>
     </row>
     <row r="700" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B700" s="2"/>
-      <c r="D700" s="15"/>
+      <c r="D700" s="14"/>
     </row>
     <row r="701" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B701" s="2"/>
-      <c r="D701" s="15"/>
+      <c r="D701" s="14"/>
     </row>
     <row r="702" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B702" s="2"/>
-      <c r="D702" s="15"/>
+      <c r="D702" s="14"/>
     </row>
     <row r="703" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B703" s="2"/>
-      <c r="D703" s="15"/>
+      <c r="D703" s="14"/>
     </row>
     <row r="704" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B704" s="2"/>
-      <c r="D704" s="15"/>
+      <c r="D704" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/others/Доработки_исправления.xlsx
+++ b/others/Доработки_исправления.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\BAXI_JB\Projects\Разработка_ГПХ\ТЗ\репа\TestProjects\others\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1808F00-4C2B-463C-AE0E-7005A9BCA440}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D92AF005-C917-49E0-9E5B-28CB14CD1E50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="542" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -602,12 +602,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="5"/>
-        <bgColor indexed="5"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor theme="0" tint="-0.249977111117893"/>
       </patternFill>
@@ -616,6 +610,12 @@
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="5"/>
       </patternFill>
     </fill>
   </fills>
@@ -741,10 +741,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
@@ -756,20 +753,23 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1412,20 +1412,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D704"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="17"/>
+    <col min="1" max="1" width="9.140625" style="16"/>
     <col min="2" max="2" width="45.140625" style="1" customWidth="1"/>
     <col min="3" max="3" width="62.5703125" style="2" customWidth="1"/>
     <col min="4" max="4" width="93.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
@@ -1475,43 +1475,43 @@
       <c r="D4" s="8"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="16">
+      <c r="A5" s="15">
         <v>4</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="11" t="s">
         <v>8</v>
       </c>
       <c r="D5" s="8"/>
     </row>
     <row r="6" spans="1:4" ht="99" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="11">
+      <c r="A6" s="10">
         <v>5</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="11" t="s">
         <v>10</v>
       </c>
       <c r="D6" s="8"/>
     </row>
     <row r="7" spans="1:4" ht="168" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="11">
+      <c r="A7" s="10">
         <v>6</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="11" t="s">
         <v>12</v>
       </c>
       <c r="D7" s="8"/>
     </row>
     <row r="8" spans="1:4" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="13">
+      <c r="A8" s="12">
         <v>7</v>
       </c>
       <c r="B8" s="7" t="s">
@@ -1535,16 +1535,16 @@
       <c r="D9" s="8"/>
     </row>
     <row r="10" spans="1:4" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="16">
+      <c r="A10" s="15">
         <v>9</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="12" t="s">
+      <c r="D10" s="11" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1561,92 +1561,92 @@
       <c r="D11" s="8"/>
     </row>
     <row r="12" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="16">
+      <c r="A12" s="15">
         <v>11</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="12" t="s">
+      <c r="C12" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="12" t="s">
+      <c r="D12" s="11" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="18">
+      <c r="A13" s="17">
         <v>12</v>
       </c>
-      <c r="B13" s="19" t="s">
+      <c r="B13" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="19" t="s">
+      <c r="C13" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="20"/>
+      <c r="D13" s="19"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="16">
+      <c r="A14" s="15">
         <v>13</v>
       </c>
-      <c r="B14" s="12" t="s">
+      <c r="B14" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="12" t="s">
+      <c r="C14" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="D14" s="12"/>
+      <c r="D14" s="11"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
         <v>14</v>
       </c>
-      <c r="B15" s="12" t="s">
+      <c r="B15" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="12" t="s">
+      <c r="C15" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="D15" s="12"/>
+      <c r="D15" s="11"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <v>15</v>
       </c>
-      <c r="B16" s="12" t="s">
+      <c r="B16" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="12" t="s">
+      <c r="C16" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="D16" s="12"/>
+      <c r="D16" s="11"/>
     </row>
     <row r="17" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="10">
+      <c r="A17" s="20">
         <v>16</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="D17" s="18" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="16">
+      <c r="A18" s="15">
         <v>17</v>
       </c>
-      <c r="B18" s="12" t="s">
+      <c r="B18" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C18" s="12" t="s">
+      <c r="C18" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D18" s="12"/>
+      <c r="D18" s="11"/>
     </row>
     <row r="19" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
@@ -1834,3118 +1834,3118 @@
         <v>40</v>
       </c>
       <c r="B41" s="2"/>
-      <c r="D41" s="14"/>
+      <c r="D41" s="13"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="6">
         <v>41</v>
       </c>
       <c r="B42" s="2"/>
-      <c r="D42" s="14"/>
+      <c r="D42" s="13"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="6">
         <v>42</v>
       </c>
       <c r="B43" s="2"/>
-      <c r="D43" s="14"/>
+      <c r="D43" s="13"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="6">
         <v>43</v>
       </c>
       <c r="B44" s="2"/>
-      <c r="D44" s="14"/>
+      <c r="D44" s="13"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="6">
         <v>44</v>
       </c>
       <c r="B45" s="2"/>
-      <c r="D45" s="14"/>
+      <c r="D45" s="13"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="6">
         <v>45</v>
       </c>
       <c r="B46" s="2"/>
-      <c r="D46" s="14"/>
+      <c r="D46" s="13"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="6">
         <v>46</v>
       </c>
       <c r="B47" s="2"/>
-      <c r="D47" s="14"/>
+      <c r="D47" s="13"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="6">
         <v>47</v>
       </c>
       <c r="B48" s="2"/>
-      <c r="D48" s="14"/>
+      <c r="D48" s="13"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="6">
         <v>48</v>
       </c>
       <c r="B49" s="2"/>
-      <c r="D49" s="14"/>
+      <c r="D49" s="13"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="6">
         <v>49</v>
       </c>
       <c r="B50" s="2"/>
-      <c r="D50" s="14"/>
+      <c r="D50" s="13"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="6">
         <v>50</v>
       </c>
       <c r="B51" s="2"/>
-      <c r="D51" s="14"/>
+      <c r="D51" s="13"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="6">
         <v>51</v>
       </c>
       <c r="B52" s="2"/>
-      <c r="D52" s="14"/>
+      <c r="D52" s="13"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="6">
         <v>52</v>
       </c>
       <c r="B53" s="2"/>
-      <c r="D53" s="14"/>
+      <c r="D53" s="13"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="6">
         <v>53</v>
       </c>
       <c r="B54" s="2"/>
-      <c r="D54" s="14"/>
+      <c r="D54" s="13"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="6">
         <v>54</v>
       </c>
       <c r="B55" s="2"/>
-      <c r="D55" s="14"/>
+      <c r="D55" s="13"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="6">
         <v>55</v>
       </c>
       <c r="B56" s="2"/>
-      <c r="D56" s="14"/>
+      <c r="D56" s="13"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="6">
         <v>56</v>
       </c>
       <c r="B57" s="2"/>
-      <c r="D57" s="14"/>
+      <c r="D57" s="13"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="6">
         <v>57</v>
       </c>
       <c r="B58" s="2"/>
-      <c r="D58" s="14"/>
+      <c r="D58" s="13"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="6">
         <v>58</v>
       </c>
       <c r="B59" s="2"/>
-      <c r="D59" s="14"/>
+      <c r="D59" s="13"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="6">
         <v>59</v>
       </c>
       <c r="B60" s="2"/>
-      <c r="D60" s="14"/>
+      <c r="D60" s="13"/>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="6">
         <v>60</v>
       </c>
       <c r="B61" s="2"/>
-      <c r="D61" s="14"/>
+      <c r="D61" s="13"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="6">
         <v>61</v>
       </c>
       <c r="B62" s="2"/>
-      <c r="D62" s="14"/>
+      <c r="D62" s="13"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="6">
         <v>62</v>
       </c>
       <c r="B63" s="2"/>
-      <c r="D63" s="14"/>
+      <c r="D63" s="13"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="6">
         <v>63</v>
       </c>
       <c r="B64" s="2"/>
-      <c r="D64" s="14"/>
+      <c r="D64" s="13"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="6">
         <v>64</v>
       </c>
       <c r="B65" s="2"/>
-      <c r="D65" s="14"/>
+      <c r="D65" s="13"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="6">
         <v>65</v>
       </c>
       <c r="B66" s="2"/>
-      <c r="D66" s="14"/>
+      <c r="D66" s="13"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="6">
         <v>66</v>
       </c>
       <c r="B67" s="2"/>
-      <c r="D67" s="14"/>
+      <c r="D67" s="13"/>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="6">
         <v>67</v>
       </c>
       <c r="B68" s="2"/>
-      <c r="D68" s="14"/>
+      <c r="D68" s="13"/>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="6">
         <v>68</v>
       </c>
       <c r="B69" s="2"/>
-      <c r="D69" s="14"/>
+      <c r="D69" s="13"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="6">
         <v>69</v>
       </c>
       <c r="B70" s="2"/>
-      <c r="D70" s="14"/>
+      <c r="D70" s="13"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="6">
         <v>70</v>
       </c>
       <c r="B71" s="2"/>
-      <c r="D71" s="14"/>
+      <c r="D71" s="13"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="6">
         <v>71</v>
       </c>
       <c r="B72" s="2"/>
-      <c r="D72" s="14"/>
+      <c r="D72" s="13"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="6">
         <v>72</v>
       </c>
       <c r="B73" s="2"/>
-      <c r="D73" s="14"/>
+      <c r="D73" s="13"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="6">
         <v>73</v>
       </c>
       <c r="B74" s="2"/>
-      <c r="D74" s="14"/>
+      <c r="D74" s="13"/>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="6">
         <v>74</v>
       </c>
       <c r="B75" s="2"/>
-      <c r="D75" s="14"/>
+      <c r="D75" s="13"/>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="6">
         <v>75</v>
       </c>
       <c r="B76" s="2"/>
-      <c r="D76" s="14"/>
+      <c r="D76" s="13"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="6">
         <v>76</v>
       </c>
       <c r="B77" s="2"/>
-      <c r="D77" s="14"/>
+      <c r="D77" s="13"/>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="6">
         <v>77</v>
       </c>
       <c r="B78" s="2"/>
-      <c r="D78" s="14"/>
+      <c r="D78" s="13"/>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="6">
         <v>78</v>
       </c>
       <c r="B79" s="2"/>
-      <c r="D79" s="14"/>
+      <c r="D79" s="13"/>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="6">
         <v>79</v>
       </c>
       <c r="B80" s="2"/>
-      <c r="D80" s="14"/>
+      <c r="D80" s="13"/>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="6">
         <v>80</v>
       </c>
       <c r="B81" s="2"/>
-      <c r="D81" s="14"/>
+      <c r="D81" s="13"/>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="6">
         <v>81</v>
       </c>
       <c r="B82" s="2"/>
-      <c r="D82" s="14"/>
+      <c r="D82" s="13"/>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="6">
         <v>82</v>
       </c>
       <c r="B83" s="2"/>
-      <c r="D83" s="14"/>
+      <c r="D83" s="13"/>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="6">
         <v>83</v>
       </c>
       <c r="B84" s="2"/>
-      <c r="D84" s="14"/>
+      <c r="D84" s="13"/>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="6">
         <v>84</v>
       </c>
       <c r="B85" s="2"/>
-      <c r="D85" s="14"/>
+      <c r="D85" s="13"/>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="6">
         <v>85</v>
       </c>
       <c r="B86" s="2"/>
-      <c r="D86" s="14"/>
+      <c r="D86" s="13"/>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="6">
         <v>86</v>
       </c>
       <c r="B87" s="2"/>
-      <c r="D87" s="14"/>
+      <c r="D87" s="13"/>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="6">
         <v>87</v>
       </c>
       <c r="B88" s="2"/>
-      <c r="D88" s="14"/>
+      <c r="D88" s="13"/>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="6">
         <v>88</v>
       </c>
       <c r="B89" s="2"/>
-      <c r="D89" s="14"/>
+      <c r="D89" s="13"/>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="6">
         <v>89</v>
       </c>
       <c r="B90" s="2"/>
-      <c r="D90" s="14"/>
+      <c r="D90" s="13"/>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="6">
         <v>90</v>
       </c>
       <c r="B91" s="2"/>
-      <c r="D91" s="14"/>
+      <c r="D91" s="13"/>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="6">
         <v>91</v>
       </c>
       <c r="B92" s="2"/>
-      <c r="D92" s="14"/>
+      <c r="D92" s="13"/>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="6">
         <v>92</v>
       </c>
       <c r="B93" s="2"/>
-      <c r="D93" s="14"/>
+      <c r="D93" s="13"/>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="6">
         <v>93</v>
       </c>
       <c r="B94" s="2"/>
-      <c r="D94" s="14"/>
+      <c r="D94" s="13"/>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="6">
         <v>94</v>
       </c>
       <c r="B95" s="2"/>
-      <c r="D95" s="14"/>
+      <c r="D95" s="13"/>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="6">
         <v>95</v>
       </c>
       <c r="B96" s="2"/>
-      <c r="D96" s="14"/>
+      <c r="D96" s="13"/>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="6">
         <v>96</v>
       </c>
       <c r="B97" s="2"/>
-      <c r="D97" s="14"/>
+      <c r="D97" s="13"/>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="6">
         <v>97</v>
       </c>
       <c r="B98" s="2"/>
-      <c r="D98" s="14"/>
+      <c r="D98" s="13"/>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="6">
         <v>98</v>
       </c>
       <c r="B99" s="2"/>
-      <c r="D99" s="14"/>
+      <c r="D99" s="13"/>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="6">
         <v>99</v>
       </c>
       <c r="B100" s="2"/>
-      <c r="D100" s="14"/>
+      <c r="D100" s="13"/>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="6">
         <v>100</v>
       </c>
       <c r="B101" s="2"/>
-      <c r="D101" s="14"/>
+      <c r="D101" s="13"/>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="6">
         <v>101</v>
       </c>
       <c r="B102" s="2"/>
-      <c r="D102" s="14"/>
+      <c r="D102" s="13"/>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="6">
         <v>102</v>
       </c>
       <c r="B103" s="2"/>
-      <c r="D103" s="14"/>
+      <c r="D103" s="13"/>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="6">
         <v>103</v>
       </c>
       <c r="B104" s="2"/>
-      <c r="D104" s="14"/>
+      <c r="D104" s="13"/>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="6">
         <v>104</v>
       </c>
       <c r="B105" s="2"/>
-      <c r="D105" s="14"/>
+      <c r="D105" s="13"/>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="6">
         <v>105</v>
       </c>
       <c r="B106" s="2"/>
-      <c r="D106" s="14"/>
+      <c r="D106" s="13"/>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="6">
         <v>106</v>
       </c>
       <c r="B107" s="2"/>
-      <c r="D107" s="14"/>
+      <c r="D107" s="13"/>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="6">
         <v>107</v>
       </c>
       <c r="B108" s="2"/>
-      <c r="D108" s="14"/>
+      <c r="D108" s="13"/>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="6">
         <v>108</v>
       </c>
       <c r="B109" s="2"/>
-      <c r="D109" s="14"/>
+      <c r="D109" s="13"/>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="6">
         <v>109</v>
       </c>
       <c r="B110" s="2"/>
-      <c r="D110" s="14"/>
+      <c r="D110" s="13"/>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="6">
         <v>110</v>
       </c>
       <c r="B111" s="2"/>
-      <c r="D111" s="14"/>
+      <c r="D111" s="13"/>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="6">
         <v>111</v>
       </c>
       <c r="B112" s="2"/>
-      <c r="D112" s="14"/>
+      <c r="D112" s="13"/>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="6">
         <v>112</v>
       </c>
       <c r="B113" s="2"/>
-      <c r="D113" s="14"/>
+      <c r="D113" s="13"/>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="6">
         <v>113</v>
       </c>
       <c r="B114" s="2"/>
-      <c r="D114" s="14"/>
+      <c r="D114" s="13"/>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="6">
         <v>114</v>
       </c>
       <c r="B115" s="2"/>
-      <c r="D115" s="14"/>
+      <c r="D115" s="13"/>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="6">
         <v>115</v>
       </c>
       <c r="B116" s="2"/>
-      <c r="D116" s="14"/>
+      <c r="D116" s="13"/>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="6">
         <v>116</v>
       </c>
       <c r="B117" s="2"/>
-      <c r="D117" s="14"/>
+      <c r="D117" s="13"/>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="6">
         <v>117</v>
       </c>
       <c r="B118" s="2"/>
-      <c r="D118" s="14"/>
+      <c r="D118" s="13"/>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="6">
         <v>118</v>
       </c>
       <c r="B119" s="2"/>
-      <c r="D119" s="14"/>
+      <c r="D119" s="13"/>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="6">
         <v>119</v>
       </c>
       <c r="B120" s="2"/>
-      <c r="D120" s="14"/>
+      <c r="D120" s="13"/>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="6">
         <v>120</v>
       </c>
       <c r="B121" s="2"/>
-      <c r="D121" s="14"/>
+      <c r="D121" s="13"/>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="6">
         <v>121</v>
       </c>
       <c r="B122" s="2"/>
-      <c r="D122" s="14"/>
+      <c r="D122" s="13"/>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="6">
         <v>122</v>
       </c>
       <c r="B123" s="2"/>
-      <c r="D123" s="14"/>
+      <c r="D123" s="13"/>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="6">
         <v>123</v>
       </c>
       <c r="B124" s="2"/>
-      <c r="D124" s="14"/>
+      <c r="D124" s="13"/>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="6">
         <v>124</v>
       </c>
       <c r="B125" s="2"/>
-      <c r="D125" s="14"/>
+      <c r="D125" s="13"/>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="6">
         <v>125</v>
       </c>
       <c r="B126" s="2"/>
-      <c r="D126" s="14"/>
+      <c r="D126" s="13"/>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" s="6">
         <v>126</v>
       </c>
       <c r="B127" s="2"/>
-      <c r="D127" s="14"/>
+      <c r="D127" s="13"/>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" s="6">
         <v>127</v>
       </c>
       <c r="B128" s="2"/>
-      <c r="D128" s="14"/>
+      <c r="D128" s="13"/>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" s="6">
         <v>128</v>
       </c>
       <c r="B129" s="2"/>
-      <c r="D129" s="14"/>
+      <c r="D129" s="13"/>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" s="6">
         <v>129</v>
       </c>
       <c r="B130" s="2"/>
-      <c r="D130" s="14"/>
+      <c r="D130" s="13"/>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" s="6">
         <v>130</v>
       </c>
       <c r="B131" s="2"/>
-      <c r="D131" s="14"/>
+      <c r="D131" s="13"/>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" s="6">
         <v>131</v>
       </c>
       <c r="B132" s="2"/>
-      <c r="D132" s="14"/>
+      <c r="D132" s="13"/>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" s="6">
         <v>132</v>
       </c>
       <c r="B133" s="2"/>
-      <c r="D133" s="14"/>
+      <c r="D133" s="13"/>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" s="6">
         <v>133</v>
       </c>
       <c r="B134" s="2"/>
-      <c r="D134" s="14"/>
+      <c r="D134" s="13"/>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" s="6">
         <v>134</v>
       </c>
       <c r="B135" s="2"/>
-      <c r="D135" s="14"/>
+      <c r="D135" s="13"/>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" s="6">
         <v>135</v>
       </c>
       <c r="B136" s="2"/>
-      <c r="D136" s="14"/>
+      <c r="D136" s="13"/>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" s="6">
         <v>136</v>
       </c>
       <c r="B137" s="2"/>
-      <c r="D137" s="14"/>
+      <c r="D137" s="13"/>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" s="6">
         <v>137</v>
       </c>
       <c r="B138" s="2"/>
-      <c r="D138" s="14"/>
+      <c r="D138" s="13"/>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" s="6">
         <v>138</v>
       </c>
       <c r="B139" s="2"/>
-      <c r="D139" s="14"/>
+      <c r="D139" s="13"/>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" s="6">
         <v>139</v>
       </c>
       <c r="B140" s="2"/>
-      <c r="D140" s="14"/>
+      <c r="D140" s="13"/>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" s="6">
         <v>140</v>
       </c>
       <c r="B141" s="2"/>
-      <c r="D141" s="14"/>
+      <c r="D141" s="13"/>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" s="6">
         <v>141</v>
       </c>
       <c r="B142" s="2"/>
-      <c r="D142" s="14"/>
+      <c r="D142" s="13"/>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" s="6">
         <v>142</v>
       </c>
       <c r="B143" s="2"/>
-      <c r="D143" s="14"/>
+      <c r="D143" s="13"/>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" s="6">
         <v>143</v>
       </c>
       <c r="B144" s="2"/>
-      <c r="D144" s="14"/>
+      <c r="D144" s="13"/>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" s="6">
         <v>144</v>
       </c>
       <c r="B145" s="2"/>
-      <c r="D145" s="14"/>
+      <c r="D145" s="13"/>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" s="6">
         <v>145</v>
       </c>
       <c r="B146" s="2"/>
-      <c r="D146" s="14"/>
+      <c r="D146" s="13"/>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" s="6">
         <v>146</v>
       </c>
       <c r="B147" s="2"/>
-      <c r="D147" s="14"/>
+      <c r="D147" s="13"/>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" s="6">
         <v>147</v>
       </c>
       <c r="B148" s="2"/>
-      <c r="D148" s="14"/>
+      <c r="D148" s="13"/>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" s="6">
         <v>148</v>
       </c>
       <c r="B149" s="2"/>
-      <c r="D149" s="14"/>
+      <c r="D149" s="13"/>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" s="6">
         <v>149</v>
       </c>
       <c r="B150" s="2"/>
-      <c r="D150" s="14"/>
+      <c r="D150" s="13"/>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" s="6">
         <v>150</v>
       </c>
       <c r="B151" s="2"/>
-      <c r="D151" s="14"/>
+      <c r="D151" s="13"/>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" s="6">
         <v>151</v>
       </c>
       <c r="B152" s="2"/>
-      <c r="D152" s="14"/>
+      <c r="D152" s="13"/>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" s="6">
         <v>152</v>
       </c>
       <c r="B153" s="2"/>
-      <c r="D153" s="14"/>
+      <c r="D153" s="13"/>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" s="6">
         <v>153</v>
       </c>
       <c r="B154" s="2"/>
-      <c r="D154" s="14"/>
+      <c r="D154" s="13"/>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" s="6">
         <v>154</v>
       </c>
       <c r="B155" s="2"/>
-      <c r="D155" s="14"/>
+      <c r="D155" s="13"/>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" s="6">
         <v>155</v>
       </c>
       <c r="B156" s="2"/>
-      <c r="D156" s="14"/>
+      <c r="D156" s="13"/>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" s="6">
         <v>156</v>
       </c>
       <c r="B157" s="2"/>
-      <c r="D157" s="14"/>
+      <c r="D157" s="13"/>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" s="6">
         <v>157</v>
       </c>
       <c r="B158" s="2"/>
-      <c r="D158" s="14"/>
+      <c r="D158" s="13"/>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" s="6">
         <v>158</v>
       </c>
       <c r="B159" s="2"/>
-      <c r="D159" s="14"/>
+      <c r="D159" s="13"/>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" s="6">
         <v>159</v>
       </c>
       <c r="B160" s="2"/>
-      <c r="D160" s="14"/>
+      <c r="D160" s="13"/>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" s="6">
         <v>160</v>
       </c>
       <c r="B161" s="2"/>
-      <c r="D161" s="14"/>
+      <c r="D161" s="13"/>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" s="6">
         <v>161</v>
       </c>
       <c r="B162" s="2"/>
-      <c r="D162" s="14"/>
+      <c r="D162" s="13"/>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" s="6">
         <v>162</v>
       </c>
       <c r="B163" s="2"/>
-      <c r="D163" s="14"/>
+      <c r="D163" s="13"/>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" s="6">
         <v>163</v>
       </c>
       <c r="B164" s="2"/>
-      <c r="D164" s="14"/>
+      <c r="D164" s="13"/>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" s="6">
         <v>164</v>
       </c>
       <c r="B165" s="2"/>
-      <c r="D165" s="14"/>
+      <c r="D165" s="13"/>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" s="6">
         <v>165</v>
       </c>
       <c r="B166" s="2"/>
-      <c r="D166" s="14"/>
+      <c r="D166" s="13"/>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" s="6">
         <v>166</v>
       </c>
       <c r="B167" s="2"/>
-      <c r="D167" s="14"/>
+      <c r="D167" s="13"/>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" s="6">
         <v>167</v>
       </c>
       <c r="B168" s="2"/>
-      <c r="D168" s="14"/>
+      <c r="D168" s="13"/>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" s="6">
         <v>168</v>
       </c>
       <c r="B169" s="2"/>
-      <c r="D169" s="14"/>
+      <c r="D169" s="13"/>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" s="6">
         <v>169</v>
       </c>
       <c r="B170" s="2"/>
-      <c r="D170" s="14"/>
+      <c r="D170" s="13"/>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" s="6">
         <v>170</v>
       </c>
       <c r="B171" s="2"/>
-      <c r="D171" s="14"/>
+      <c r="D171" s="13"/>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" s="6">
         <v>171</v>
       </c>
       <c r="B172" s="2"/>
-      <c r="D172" s="14"/>
+      <c r="D172" s="13"/>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" s="6">
         <v>172</v>
       </c>
       <c r="B173" s="2"/>
-      <c r="D173" s="14"/>
+      <c r="D173" s="13"/>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" s="6">
         <v>173</v>
       </c>
       <c r="B174" s="2"/>
-      <c r="D174" s="14"/>
+      <c r="D174" s="13"/>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" s="6">
         <v>174</v>
       </c>
       <c r="B175" s="2"/>
-      <c r="D175" s="14"/>
+      <c r="D175" s="13"/>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" s="6">
         <v>175</v>
       </c>
       <c r="B176" s="2"/>
-      <c r="D176" s="14"/>
+      <c r="D176" s="13"/>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" s="6">
         <v>176</v>
       </c>
       <c r="B177" s="2"/>
-      <c r="D177" s="14"/>
+      <c r="D177" s="13"/>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" s="6">
         <v>177</v>
       </c>
       <c r="B178" s="2"/>
-      <c r="D178" s="14"/>
+      <c r="D178" s="13"/>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" s="6">
         <v>178</v>
       </c>
       <c r="B179" s="2"/>
-      <c r="D179" s="14"/>
+      <c r="D179" s="13"/>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" s="6">
         <v>179</v>
       </c>
       <c r="B180" s="2"/>
-      <c r="D180" s="14"/>
+      <c r="D180" s="13"/>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" s="6">
         <v>180</v>
       </c>
       <c r="B181" s="2"/>
-      <c r="D181" s="14"/>
+      <c r="D181" s="13"/>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" s="6">
         <v>181</v>
       </c>
       <c r="B182" s="2"/>
-      <c r="D182" s="14"/>
+      <c r="D182" s="13"/>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" s="6">
         <v>182</v>
       </c>
       <c r="B183" s="2"/>
-      <c r="D183" s="14"/>
+      <c r="D183" s="13"/>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" s="6">
         <v>183</v>
       </c>
       <c r="B184" s="2"/>
-      <c r="D184" s="14"/>
+      <c r="D184" s="13"/>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" s="6">
         <v>184</v>
       </c>
       <c r="B185" s="2"/>
-      <c r="D185" s="14"/>
+      <c r="D185" s="13"/>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" s="6">
         <v>185</v>
       </c>
       <c r="B186" s="2"/>
-      <c r="D186" s="14"/>
+      <c r="D186" s="13"/>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" s="6">
         <v>186</v>
       </c>
       <c r="B187" s="2"/>
-      <c r="D187" s="14"/>
+      <c r="D187" s="13"/>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" s="6">
         <v>187</v>
       </c>
       <c r="B188" s="2"/>
-      <c r="D188" s="14"/>
+      <c r="D188" s="13"/>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" s="6">
         <v>188</v>
       </c>
       <c r="B189" s="2"/>
-      <c r="D189" s="14"/>
+      <c r="D189" s="13"/>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" s="6">
         <v>189</v>
       </c>
       <c r="B190" s="2"/>
-      <c r="D190" s="14"/>
+      <c r="D190" s="13"/>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" s="6">
         <v>190</v>
       </c>
       <c r="B191" s="2"/>
-      <c r="D191" s="14"/>
+      <c r="D191" s="13"/>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" s="6">
         <v>191</v>
       </c>
       <c r="B192" s="2"/>
-      <c r="D192" s="14"/>
+      <c r="D192" s="13"/>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" s="6">
         <v>192</v>
       </c>
       <c r="B193" s="2"/>
-      <c r="D193" s="14"/>
+      <c r="D193" s="13"/>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" s="6">
         <v>193</v>
       </c>
       <c r="B194" s="2"/>
-      <c r="D194" s="14"/>
+      <c r="D194" s="13"/>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B195" s="2"/>
-      <c r="D195" s="14"/>
+      <c r="D195" s="13"/>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B196" s="2"/>
-      <c r="D196" s="14"/>
+      <c r="D196" s="13"/>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B197" s="2"/>
-      <c r="D197" s="14"/>
+      <c r="D197" s="13"/>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B198" s="2"/>
-      <c r="D198" s="14"/>
+      <c r="D198" s="13"/>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B199" s="2"/>
-      <c r="D199" s="14"/>
+      <c r="D199" s="13"/>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B200" s="2"/>
-      <c r="D200" s="14"/>
+      <c r="D200" s="13"/>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B201" s="2"/>
-      <c r="D201" s="14"/>
+      <c r="D201" s="13"/>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B202" s="2"/>
-      <c r="D202" s="14"/>
+      <c r="D202" s="13"/>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B203" s="2"/>
-      <c r="D203" s="14"/>
+      <c r="D203" s="13"/>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B204" s="2"/>
-      <c r="D204" s="14"/>
+      <c r="D204" s="13"/>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B205" s="2"/>
-      <c r="D205" s="14"/>
+      <c r="D205" s="13"/>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B206" s="2"/>
-      <c r="D206" s="14"/>
+      <c r="D206" s="13"/>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B207" s="2"/>
-      <c r="D207" s="14"/>
+      <c r="D207" s="13"/>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B208" s="2"/>
-      <c r="D208" s="14"/>
+      <c r="D208" s="13"/>
     </row>
     <row r="209" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B209" s="2"/>
-      <c r="D209" s="14"/>
+      <c r="D209" s="13"/>
     </row>
     <row r="210" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B210" s="2"/>
-      <c r="D210" s="14"/>
+      <c r="D210" s="13"/>
     </row>
     <row r="211" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B211" s="2"/>
-      <c r="D211" s="14"/>
+      <c r="D211" s="13"/>
     </row>
     <row r="212" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B212" s="2"/>
-      <c r="D212" s="14"/>
+      <c r="D212" s="13"/>
     </row>
     <row r="213" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B213" s="2"/>
-      <c r="D213" s="14"/>
+      <c r="D213" s="13"/>
     </row>
     <row r="214" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B214" s="2"/>
-      <c r="D214" s="14"/>
+      <c r="D214" s="13"/>
     </row>
     <row r="215" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B215" s="2"/>
-      <c r="D215" s="14"/>
+      <c r="D215" s="13"/>
     </row>
     <row r="216" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B216" s="2"/>
-      <c r="D216" s="14"/>
+      <c r="D216" s="13"/>
     </row>
     <row r="217" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B217" s="2"/>
-      <c r="D217" s="14"/>
+      <c r="D217" s="13"/>
     </row>
     <row r="218" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B218" s="2"/>
-      <c r="D218" s="14"/>
+      <c r="D218" s="13"/>
     </row>
     <row r="219" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B219" s="2"/>
-      <c r="D219" s="14"/>
+      <c r="D219" s="13"/>
     </row>
     <row r="220" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B220" s="2"/>
-      <c r="D220" s="14"/>
+      <c r="D220" s="13"/>
     </row>
     <row r="221" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B221" s="2"/>
-      <c r="D221" s="14"/>
+      <c r="D221" s="13"/>
     </row>
     <row r="222" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B222" s="2"/>
-      <c r="D222" s="14"/>
+      <c r="D222" s="13"/>
     </row>
     <row r="223" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B223" s="2"/>
-      <c r="D223" s="14"/>
+      <c r="D223" s="13"/>
     </row>
     <row r="224" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B224" s="2"/>
-      <c r="D224" s="14"/>
+      <c r="D224" s="13"/>
     </row>
     <row r="225" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B225" s="2"/>
-      <c r="D225" s="14"/>
+      <c r="D225" s="13"/>
     </row>
     <row r="226" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B226" s="2"/>
-      <c r="D226" s="14"/>
+      <c r="D226" s="13"/>
     </row>
     <row r="227" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B227" s="2"/>
-      <c r="D227" s="14"/>
+      <c r="D227" s="13"/>
     </row>
     <row r="228" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B228" s="2"/>
-      <c r="D228" s="14"/>
+      <c r="D228" s="13"/>
     </row>
     <row r="229" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B229" s="2"/>
-      <c r="D229" s="14"/>
+      <c r="D229" s="13"/>
     </row>
     <row r="230" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B230" s="2"/>
-      <c r="D230" s="14"/>
+      <c r="D230" s="13"/>
     </row>
     <row r="231" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B231" s="2"/>
-      <c r="D231" s="14"/>
+      <c r="D231" s="13"/>
     </row>
     <row r="232" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B232" s="2"/>
-      <c r="D232" s="14"/>
+      <c r="D232" s="13"/>
     </row>
     <row r="233" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B233" s="2"/>
-      <c r="D233" s="14"/>
+      <c r="D233" s="13"/>
     </row>
     <row r="234" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B234" s="2"/>
-      <c r="D234" s="14"/>
+      <c r="D234" s="13"/>
     </row>
     <row r="235" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B235" s="2"/>
-      <c r="D235" s="14"/>
+      <c r="D235" s="13"/>
     </row>
     <row r="236" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B236" s="2"/>
-      <c r="D236" s="14"/>
+      <c r="D236" s="13"/>
     </row>
     <row r="237" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B237" s="2"/>
-      <c r="D237" s="14"/>
+      <c r="D237" s="13"/>
     </row>
     <row r="238" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B238" s="2"/>
-      <c r="D238" s="14"/>
+      <c r="D238" s="13"/>
     </row>
     <row r="239" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B239" s="2"/>
-      <c r="D239" s="14"/>
+      <c r="D239" s="13"/>
     </row>
     <row r="240" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B240" s="2"/>
-      <c r="D240" s="14"/>
+      <c r="D240" s="13"/>
     </row>
     <row r="241" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B241" s="2"/>
-      <c r="D241" s="14"/>
+      <c r="D241" s="13"/>
     </row>
     <row r="242" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B242" s="2"/>
-      <c r="D242" s="14"/>
+      <c r="D242" s="13"/>
     </row>
     <row r="243" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B243" s="2"/>
-      <c r="D243" s="14"/>
+      <c r="D243" s="13"/>
     </row>
     <row r="244" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B244" s="2"/>
-      <c r="D244" s="14"/>
+      <c r="D244" s="13"/>
     </row>
     <row r="245" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B245" s="2"/>
-      <c r="D245" s="14"/>
+      <c r="D245" s="13"/>
     </row>
     <row r="246" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B246" s="2"/>
-      <c r="D246" s="14"/>
+      <c r="D246" s="13"/>
     </row>
     <row r="247" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B247" s="2"/>
-      <c r="D247" s="14"/>
+      <c r="D247" s="13"/>
     </row>
     <row r="248" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B248" s="2"/>
-      <c r="D248" s="14"/>
+      <c r="D248" s="13"/>
     </row>
     <row r="249" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B249" s="2"/>
-      <c r="D249" s="14"/>
+      <c r="D249" s="13"/>
     </row>
     <row r="250" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B250" s="2"/>
-      <c r="D250" s="14"/>
+      <c r="D250" s="13"/>
     </row>
     <row r="251" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B251" s="2"/>
-      <c r="D251" s="14"/>
+      <c r="D251" s="13"/>
     </row>
     <row r="252" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B252" s="2"/>
-      <c r="D252" s="14"/>
+      <c r="D252" s="13"/>
     </row>
     <row r="253" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B253" s="2"/>
-      <c r="D253" s="14"/>
+      <c r="D253" s="13"/>
     </row>
     <row r="254" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B254" s="2"/>
-      <c r="D254" s="14"/>
+      <c r="D254" s="13"/>
     </row>
     <row r="255" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B255" s="2"/>
-      <c r="D255" s="14"/>
+      <c r="D255" s="13"/>
     </row>
     <row r="256" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B256" s="2"/>
-      <c r="D256" s="14"/>
+      <c r="D256" s="13"/>
     </row>
     <row r="257" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B257" s="2"/>
-      <c r="D257" s="14"/>
+      <c r="D257" s="13"/>
     </row>
     <row r="258" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B258" s="2"/>
-      <c r="D258" s="14"/>
+      <c r="D258" s="13"/>
     </row>
     <row r="259" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B259" s="2"/>
-      <c r="D259" s="14"/>
+      <c r="D259" s="13"/>
     </row>
     <row r="260" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B260" s="2"/>
-      <c r="D260" s="14"/>
+      <c r="D260" s="13"/>
     </row>
     <row r="261" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B261" s="2"/>
-      <c r="D261" s="14"/>
+      <c r="D261" s="13"/>
     </row>
     <row r="262" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B262" s="2"/>
-      <c r="D262" s="14"/>
+      <c r="D262" s="13"/>
     </row>
     <row r="263" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B263" s="2"/>
-      <c r="D263" s="14"/>
+      <c r="D263" s="13"/>
     </row>
     <row r="264" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B264" s="2"/>
-      <c r="D264" s="14"/>
+      <c r="D264" s="13"/>
     </row>
     <row r="265" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B265" s="2"/>
-      <c r="D265" s="14"/>
+      <c r="D265" s="13"/>
     </row>
     <row r="266" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B266" s="2"/>
-      <c r="D266" s="14"/>
+      <c r="D266" s="13"/>
     </row>
     <row r="267" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B267" s="2"/>
-      <c r="D267" s="14"/>
+      <c r="D267" s="13"/>
     </row>
     <row r="268" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B268" s="2"/>
-      <c r="D268" s="14"/>
+      <c r="D268" s="13"/>
     </row>
     <row r="269" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B269" s="2"/>
-      <c r="D269" s="14"/>
+      <c r="D269" s="13"/>
     </row>
     <row r="270" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B270" s="2"/>
-      <c r="D270" s="14"/>
+      <c r="D270" s="13"/>
     </row>
     <row r="271" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B271" s="2"/>
-      <c r="D271" s="14"/>
+      <c r="D271" s="13"/>
     </row>
     <row r="272" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B272" s="2"/>
-      <c r="D272" s="14"/>
+      <c r="D272" s="13"/>
     </row>
     <row r="273" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B273" s="2"/>
-      <c r="D273" s="14"/>
+      <c r="D273" s="13"/>
     </row>
     <row r="274" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B274" s="2"/>
-      <c r="D274" s="14"/>
+      <c r="D274" s="13"/>
     </row>
     <row r="275" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B275" s="2"/>
-      <c r="D275" s="14"/>
+      <c r="D275" s="13"/>
     </row>
     <row r="276" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B276" s="2"/>
-      <c r="D276" s="14"/>
+      <c r="D276" s="13"/>
     </row>
     <row r="277" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B277" s="2"/>
-      <c r="D277" s="14"/>
+      <c r="D277" s="13"/>
     </row>
     <row r="278" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B278" s="2"/>
-      <c r="D278" s="14"/>
+      <c r="D278" s="13"/>
     </row>
     <row r="279" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B279" s="2"/>
-      <c r="D279" s="14"/>
+      <c r="D279" s="13"/>
     </row>
     <row r="280" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B280" s="2"/>
-      <c r="D280" s="14"/>
+      <c r="D280" s="13"/>
     </row>
     <row r="281" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B281" s="2"/>
-      <c r="D281" s="14"/>
+      <c r="D281" s="13"/>
     </row>
     <row r="282" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B282" s="2"/>
-      <c r="D282" s="14"/>
+      <c r="D282" s="13"/>
     </row>
     <row r="283" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B283" s="2"/>
-      <c r="D283" s="14"/>
+      <c r="D283" s="13"/>
     </row>
     <row r="284" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B284" s="2"/>
-      <c r="D284" s="14"/>
+      <c r="D284" s="13"/>
     </row>
     <row r="285" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B285" s="2"/>
-      <c r="D285" s="14"/>
+      <c r="D285" s="13"/>
     </row>
     <row r="286" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B286" s="2"/>
-      <c r="D286" s="14"/>
+      <c r="D286" s="13"/>
     </row>
     <row r="287" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B287" s="2"/>
-      <c r="D287" s="14"/>
+      <c r="D287" s="13"/>
     </row>
     <row r="288" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B288" s="2"/>
-      <c r="D288" s="14"/>
+      <c r="D288" s="13"/>
     </row>
     <row r="289" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B289" s="2"/>
-      <c r="D289" s="14"/>
+      <c r="D289" s="13"/>
     </row>
     <row r="290" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B290" s="2"/>
-      <c r="D290" s="14"/>
+      <c r="D290" s="13"/>
     </row>
     <row r="291" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B291" s="2"/>
-      <c r="D291" s="14"/>
+      <c r="D291" s="13"/>
     </row>
     <row r="292" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B292" s="2"/>
-      <c r="D292" s="14"/>
+      <c r="D292" s="13"/>
     </row>
     <row r="293" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B293" s="2"/>
-      <c r="D293" s="14"/>
+      <c r="D293" s="13"/>
     </row>
     <row r="294" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B294" s="2"/>
-      <c r="D294" s="14"/>
+      <c r="D294" s="13"/>
     </row>
     <row r="295" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B295" s="2"/>
-      <c r="D295" s="14"/>
+      <c r="D295" s="13"/>
     </row>
     <row r="296" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B296" s="2"/>
-      <c r="D296" s="14"/>
+      <c r="D296" s="13"/>
     </row>
     <row r="297" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B297" s="2"/>
-      <c r="D297" s="14"/>
+      <c r="D297" s="13"/>
     </row>
     <row r="298" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B298" s="2"/>
-      <c r="D298" s="14"/>
+      <c r="D298" s="13"/>
     </row>
     <row r="299" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B299" s="2"/>
-      <c r="D299" s="14"/>
+      <c r="D299" s="13"/>
     </row>
     <row r="300" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B300" s="2"/>
-      <c r="D300" s="14"/>
+      <c r="D300" s="13"/>
     </row>
     <row r="301" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B301" s="2"/>
-      <c r="D301" s="14"/>
+      <c r="D301" s="13"/>
     </row>
     <row r="302" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B302" s="2"/>
-      <c r="D302" s="14"/>
+      <c r="D302" s="13"/>
     </row>
     <row r="303" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B303" s="2"/>
-      <c r="D303" s="14"/>
+      <c r="D303" s="13"/>
     </row>
     <row r="304" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B304" s="2"/>
-      <c r="D304" s="14"/>
+      <c r="D304" s="13"/>
     </row>
     <row r="305" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B305" s="2"/>
-      <c r="D305" s="14"/>
+      <c r="D305" s="13"/>
     </row>
     <row r="306" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B306" s="2"/>
-      <c r="D306" s="14"/>
+      <c r="D306" s="13"/>
     </row>
     <row r="307" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B307" s="2"/>
-      <c r="D307" s="14"/>
+      <c r="D307" s="13"/>
     </row>
     <row r="308" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B308" s="2"/>
-      <c r="D308" s="14"/>
+      <c r="D308" s="13"/>
     </row>
     <row r="309" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B309" s="2"/>
-      <c r="D309" s="14"/>
+      <c r="D309" s="13"/>
     </row>
     <row r="310" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B310" s="2"/>
-      <c r="D310" s="14"/>
+      <c r="D310" s="13"/>
     </row>
     <row r="311" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B311" s="2"/>
-      <c r="D311" s="14"/>
+      <c r="D311" s="13"/>
     </row>
     <row r="312" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B312" s="2"/>
-      <c r="D312" s="14"/>
+      <c r="D312" s="13"/>
     </row>
     <row r="313" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B313" s="2"/>
-      <c r="D313" s="14"/>
+      <c r="D313" s="13"/>
     </row>
     <row r="314" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B314" s="2"/>
-      <c r="D314" s="14"/>
+      <c r="D314" s="13"/>
     </row>
     <row r="315" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B315" s="2"/>
-      <c r="D315" s="14"/>
+      <c r="D315" s="13"/>
     </row>
     <row r="316" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B316" s="2"/>
-      <c r="D316" s="14"/>
+      <c r="D316" s="13"/>
     </row>
     <row r="317" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B317" s="2"/>
-      <c r="D317" s="14"/>
+      <c r="D317" s="13"/>
     </row>
     <row r="318" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B318" s="2"/>
-      <c r="D318" s="14"/>
+      <c r="D318" s="13"/>
     </row>
     <row r="319" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B319" s="2"/>
-      <c r="D319" s="14"/>
+      <c r="D319" s="13"/>
     </row>
     <row r="320" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B320" s="2"/>
-      <c r="D320" s="14"/>
+      <c r="D320" s="13"/>
     </row>
     <row r="321" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B321" s="2"/>
-      <c r="D321" s="14"/>
+      <c r="D321" s="13"/>
     </row>
     <row r="322" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B322" s="2"/>
-      <c r="D322" s="14"/>
+      <c r="D322" s="13"/>
     </row>
     <row r="323" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B323" s="2"/>
-      <c r="D323" s="14"/>
+      <c r="D323" s="13"/>
     </row>
     <row r="324" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B324" s="2"/>
-      <c r="D324" s="14"/>
+      <c r="D324" s="13"/>
     </row>
     <row r="325" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B325" s="2"/>
-      <c r="D325" s="14"/>
+      <c r="D325" s="13"/>
     </row>
     <row r="326" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B326" s="2"/>
-      <c r="D326" s="14"/>
+      <c r="D326" s="13"/>
     </row>
     <row r="327" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B327" s="2"/>
-      <c r="D327" s="14"/>
+      <c r="D327" s="13"/>
     </row>
     <row r="328" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B328" s="2"/>
-      <c r="D328" s="14"/>
+      <c r="D328" s="13"/>
     </row>
     <row r="329" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B329" s="2"/>
-      <c r="D329" s="14"/>
+      <c r="D329" s="13"/>
     </row>
     <row r="330" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B330" s="2"/>
-      <c r="D330" s="14"/>
+      <c r="D330" s="13"/>
     </row>
     <row r="331" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B331" s="2"/>
-      <c r="D331" s="14"/>
+      <c r="D331" s="13"/>
     </row>
     <row r="332" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B332" s="2"/>
-      <c r="D332" s="14"/>
+      <c r="D332" s="13"/>
     </row>
     <row r="333" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B333" s="2"/>
-      <c r="D333" s="14"/>
+      <c r="D333" s="13"/>
     </row>
     <row r="334" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B334" s="2"/>
-      <c r="D334" s="14"/>
+      <c r="D334" s="13"/>
     </row>
     <row r="335" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B335" s="2"/>
-      <c r="D335" s="14"/>
+      <c r="D335" s="13"/>
     </row>
     <row r="336" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B336" s="2"/>
-      <c r="D336" s="14"/>
+      <c r="D336" s="13"/>
     </row>
     <row r="337" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B337" s="2"/>
-      <c r="D337" s="14"/>
+      <c r="D337" s="13"/>
     </row>
     <row r="338" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B338" s="2"/>
-      <c r="D338" s="14"/>
+      <c r="D338" s="13"/>
     </row>
     <row r="339" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B339" s="2"/>
-      <c r="D339" s="14"/>
+      <c r="D339" s="13"/>
     </row>
     <row r="340" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B340" s="2"/>
-      <c r="D340" s="14"/>
+      <c r="D340" s="13"/>
     </row>
     <row r="341" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B341" s="2"/>
-      <c r="D341" s="14"/>
+      <c r="D341" s="13"/>
     </row>
     <row r="342" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B342" s="2"/>
-      <c r="D342" s="14"/>
+      <c r="D342" s="13"/>
     </row>
     <row r="343" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B343" s="2"/>
-      <c r="D343" s="14"/>
+      <c r="D343" s="13"/>
     </row>
     <row r="344" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B344" s="2"/>
-      <c r="D344" s="14"/>
+      <c r="D344" s="13"/>
     </row>
     <row r="345" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B345" s="2"/>
-      <c r="D345" s="14"/>
+      <c r="D345" s="13"/>
     </row>
     <row r="346" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B346" s="2"/>
-      <c r="D346" s="14"/>
+      <c r="D346" s="13"/>
     </row>
     <row r="347" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B347" s="2"/>
-      <c r="D347" s="14"/>
+      <c r="D347" s="13"/>
     </row>
     <row r="348" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B348" s="2"/>
-      <c r="D348" s="14"/>
+      <c r="D348" s="13"/>
     </row>
     <row r="349" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B349" s="2"/>
-      <c r="D349" s="14"/>
+      <c r="D349" s="13"/>
     </row>
     <row r="350" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B350" s="2"/>
-      <c r="D350" s="14"/>
+      <c r="D350" s="13"/>
     </row>
     <row r="351" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B351" s="2"/>
-      <c r="D351" s="14"/>
+      <c r="D351" s="13"/>
     </row>
     <row r="352" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B352" s="2"/>
-      <c r="D352" s="14"/>
+      <c r="D352" s="13"/>
     </row>
     <row r="353" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B353" s="2"/>
-      <c r="D353" s="14"/>
+      <c r="D353" s="13"/>
     </row>
     <row r="354" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B354" s="2"/>
-      <c r="D354" s="14"/>
+      <c r="D354" s="13"/>
     </row>
     <row r="355" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B355" s="2"/>
-      <c r="D355" s="14"/>
+      <c r="D355" s="13"/>
     </row>
     <row r="356" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B356" s="2"/>
-      <c r="D356" s="14"/>
+      <c r="D356" s="13"/>
     </row>
     <row r="357" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B357" s="2"/>
-      <c r="D357" s="14"/>
+      <c r="D357" s="13"/>
     </row>
     <row r="358" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B358" s="2"/>
-      <c r="D358" s="14"/>
+      <c r="D358" s="13"/>
     </row>
     <row r="359" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B359" s="2"/>
-      <c r="D359" s="14"/>
+      <c r="D359" s="13"/>
     </row>
     <row r="360" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B360" s="2"/>
-      <c r="D360" s="14"/>
+      <c r="D360" s="13"/>
     </row>
     <row r="361" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B361" s="2"/>
-      <c r="D361" s="14"/>
+      <c r="D361" s="13"/>
     </row>
     <row r="362" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B362" s="2"/>
-      <c r="D362" s="14"/>
+      <c r="D362" s="13"/>
     </row>
     <row r="363" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B363" s="2"/>
-      <c r="D363" s="14"/>
+      <c r="D363" s="13"/>
     </row>
     <row r="364" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B364" s="2"/>
-      <c r="D364" s="14"/>
+      <c r="D364" s="13"/>
     </row>
     <row r="365" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B365" s="2"/>
-      <c r="D365" s="14"/>
+      <c r="D365" s="13"/>
     </row>
     <row r="366" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B366" s="2"/>
-      <c r="D366" s="14"/>
+      <c r="D366" s="13"/>
     </row>
     <row r="367" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B367" s="2"/>
-      <c r="D367" s="14"/>
+      <c r="D367" s="13"/>
     </row>
     <row r="368" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B368" s="2"/>
-      <c r="D368" s="14"/>
+      <c r="D368" s="13"/>
     </row>
     <row r="369" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B369" s="2"/>
-      <c r="D369" s="14"/>
+      <c r="D369" s="13"/>
     </row>
     <row r="370" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B370" s="2"/>
-      <c r="D370" s="14"/>
+      <c r="D370" s="13"/>
     </row>
     <row r="371" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B371" s="2"/>
-      <c r="D371" s="14"/>
+      <c r="D371" s="13"/>
     </row>
     <row r="372" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B372" s="2"/>
-      <c r="D372" s="14"/>
+      <c r="D372" s="13"/>
     </row>
     <row r="373" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B373" s="2"/>
-      <c r="D373" s="14"/>
+      <c r="D373" s="13"/>
     </row>
     <row r="374" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B374" s="2"/>
-      <c r="D374" s="14"/>
+      <c r="D374" s="13"/>
     </row>
     <row r="375" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B375" s="2"/>
-      <c r="D375" s="14"/>
+      <c r="D375" s="13"/>
     </row>
     <row r="376" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B376" s="2"/>
-      <c r="D376" s="14"/>
+      <c r="D376" s="13"/>
     </row>
     <row r="377" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B377" s="2"/>
-      <c r="D377" s="14"/>
+      <c r="D377" s="13"/>
     </row>
     <row r="378" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B378" s="2"/>
-      <c r="D378" s="14"/>
+      <c r="D378" s="13"/>
     </row>
     <row r="379" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B379" s="2"/>
-      <c r="D379" s="14"/>
+      <c r="D379" s="13"/>
     </row>
     <row r="380" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B380" s="2"/>
-      <c r="D380" s="14"/>
+      <c r="D380" s="13"/>
     </row>
     <row r="381" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B381" s="2"/>
-      <c r="D381" s="14"/>
+      <c r="D381" s="13"/>
     </row>
     <row r="382" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B382" s="2"/>
-      <c r="D382" s="14"/>
+      <c r="D382" s="13"/>
     </row>
     <row r="383" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B383" s="2"/>
-      <c r="D383" s="14"/>
+      <c r="D383" s="13"/>
     </row>
     <row r="384" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B384" s="2"/>
-      <c r="D384" s="14"/>
+      <c r="D384" s="13"/>
     </row>
     <row r="385" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B385" s="2"/>
-      <c r="D385" s="14"/>
+      <c r="D385" s="13"/>
     </row>
     <row r="386" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B386" s="2"/>
-      <c r="D386" s="14"/>
+      <c r="D386" s="13"/>
     </row>
     <row r="387" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B387" s="2"/>
-      <c r="D387" s="14"/>
+      <c r="D387" s="13"/>
     </row>
     <row r="388" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B388" s="2"/>
-      <c r="D388" s="14"/>
+      <c r="D388" s="13"/>
     </row>
     <row r="389" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B389" s="2"/>
-      <c r="D389" s="14"/>
+      <c r="D389" s="13"/>
     </row>
     <row r="390" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B390" s="2"/>
-      <c r="D390" s="14"/>
+      <c r="D390" s="13"/>
     </row>
     <row r="391" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B391" s="2"/>
-      <c r="D391" s="14"/>
+      <c r="D391" s="13"/>
     </row>
     <row r="392" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B392" s="2"/>
-      <c r="D392" s="14"/>
+      <c r="D392" s="13"/>
     </row>
     <row r="393" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B393" s="2"/>
-      <c r="D393" s="14"/>
+      <c r="D393" s="13"/>
     </row>
     <row r="394" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B394" s="2"/>
-      <c r="D394" s="14"/>
+      <c r="D394" s="13"/>
     </row>
     <row r="395" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B395" s="2"/>
-      <c r="D395" s="14"/>
+      <c r="D395" s="13"/>
     </row>
     <row r="396" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B396" s="2"/>
-      <c r="D396" s="14"/>
+      <c r="D396" s="13"/>
     </row>
     <row r="397" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B397" s="2"/>
-      <c r="D397" s="14"/>
+      <c r="D397" s="13"/>
     </row>
     <row r="398" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B398" s="2"/>
-      <c r="D398" s="14"/>
+      <c r="D398" s="13"/>
     </row>
     <row r="399" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B399" s="2"/>
-      <c r="D399" s="14"/>
+      <c r="D399" s="13"/>
     </row>
     <row r="400" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B400" s="2"/>
-      <c r="D400" s="14"/>
+      <c r="D400" s="13"/>
     </row>
     <row r="401" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B401" s="2"/>
-      <c r="D401" s="14"/>
+      <c r="D401" s="13"/>
     </row>
     <row r="402" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B402" s="2"/>
-      <c r="D402" s="14"/>
+      <c r="D402" s="13"/>
     </row>
     <row r="403" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B403" s="2"/>
-      <c r="D403" s="14"/>
+      <c r="D403" s="13"/>
     </row>
     <row r="404" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B404" s="2"/>
-      <c r="D404" s="14"/>
+      <c r="D404" s="13"/>
     </row>
     <row r="405" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B405" s="2"/>
-      <c r="D405" s="14"/>
+      <c r="D405" s="13"/>
     </row>
     <row r="406" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B406" s="2"/>
-      <c r="D406" s="14"/>
+      <c r="D406" s="13"/>
     </row>
     <row r="407" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B407" s="2"/>
-      <c r="D407" s="14"/>
+      <c r="D407" s="13"/>
     </row>
     <row r="408" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B408" s="2"/>
-      <c r="D408" s="14"/>
+      <c r="D408" s="13"/>
     </row>
     <row r="409" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B409" s="2"/>
-      <c r="D409" s="14"/>
+      <c r="D409" s="13"/>
     </row>
     <row r="410" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B410" s="2"/>
-      <c r="D410" s="14"/>
+      <c r="D410" s="13"/>
     </row>
     <row r="411" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B411" s="2"/>
-      <c r="D411" s="14"/>
+      <c r="D411" s="13"/>
     </row>
     <row r="412" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B412" s="2"/>
-      <c r="D412" s="14"/>
+      <c r="D412" s="13"/>
     </row>
     <row r="413" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B413" s="2"/>
-      <c r="D413" s="14"/>
+      <c r="D413" s="13"/>
     </row>
     <row r="414" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B414" s="2"/>
-      <c r="D414" s="14"/>
+      <c r="D414" s="13"/>
     </row>
     <row r="415" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B415" s="2"/>
-      <c r="D415" s="14"/>
+      <c r="D415" s="13"/>
     </row>
     <row r="416" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B416" s="2"/>
-      <c r="D416" s="14"/>
+      <c r="D416" s="13"/>
     </row>
     <row r="417" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B417" s="2"/>
-      <c r="D417" s="14"/>
+      <c r="D417" s="13"/>
     </row>
     <row r="418" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B418" s="2"/>
-      <c r="D418" s="14"/>
+      <c r="D418" s="13"/>
     </row>
     <row r="419" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B419" s="2"/>
-      <c r="D419" s="14"/>
+      <c r="D419" s="13"/>
     </row>
     <row r="420" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B420" s="2"/>
-      <c r="D420" s="14"/>
+      <c r="D420" s="13"/>
     </row>
     <row r="421" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B421" s="2"/>
-      <c r="D421" s="14"/>
+      <c r="D421" s="13"/>
     </row>
     <row r="422" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B422" s="2"/>
-      <c r="D422" s="14"/>
+      <c r="D422" s="13"/>
     </row>
     <row r="423" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B423" s="2"/>
-      <c r="D423" s="14"/>
+      <c r="D423" s="13"/>
     </row>
     <row r="424" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B424" s="2"/>
-      <c r="D424" s="14"/>
+      <c r="D424" s="13"/>
     </row>
     <row r="425" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B425" s="2"/>
-      <c r="D425" s="14"/>
+      <c r="D425" s="13"/>
     </row>
     <row r="426" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B426" s="2"/>
-      <c r="D426" s="14"/>
+      <c r="D426" s="13"/>
     </row>
     <row r="427" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B427" s="2"/>
-      <c r="D427" s="14"/>
+      <c r="D427" s="13"/>
     </row>
     <row r="428" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B428" s="2"/>
-      <c r="D428" s="14"/>
+      <c r="D428" s="13"/>
     </row>
     <row r="429" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B429" s="2"/>
-      <c r="D429" s="14"/>
+      <c r="D429" s="13"/>
     </row>
     <row r="430" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B430" s="2"/>
-      <c r="D430" s="14"/>
+      <c r="D430" s="13"/>
     </row>
     <row r="431" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B431" s="2"/>
-      <c r="D431" s="14"/>
+      <c r="D431" s="13"/>
     </row>
     <row r="432" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B432" s="2"/>
-      <c r="D432" s="14"/>
+      <c r="D432" s="13"/>
     </row>
     <row r="433" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B433" s="2"/>
-      <c r="D433" s="14"/>
+      <c r="D433" s="13"/>
     </row>
     <row r="434" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B434" s="2"/>
-      <c r="D434" s="14"/>
+      <c r="D434" s="13"/>
     </row>
     <row r="435" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B435" s="2"/>
-      <c r="D435" s="14"/>
+      <c r="D435" s="13"/>
     </row>
     <row r="436" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B436" s="2"/>
-      <c r="D436" s="14"/>
+      <c r="D436" s="13"/>
     </row>
     <row r="437" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B437" s="2"/>
-      <c r="D437" s="14"/>
+      <c r="D437" s="13"/>
     </row>
     <row r="438" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B438" s="2"/>
-      <c r="D438" s="14"/>
+      <c r="D438" s="13"/>
     </row>
     <row r="439" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B439" s="2"/>
-      <c r="D439" s="14"/>
+      <c r="D439" s="13"/>
     </row>
     <row r="440" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B440" s="2"/>
-      <c r="D440" s="14"/>
+      <c r="D440" s="13"/>
     </row>
     <row r="441" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B441" s="2"/>
-      <c r="D441" s="14"/>
+      <c r="D441" s="13"/>
     </row>
     <row r="442" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B442" s="2"/>
-      <c r="D442" s="14"/>
+      <c r="D442" s="13"/>
     </row>
     <row r="443" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B443" s="2"/>
-      <c r="D443" s="14"/>
+      <c r="D443" s="13"/>
     </row>
     <row r="444" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B444" s="2"/>
-      <c r="D444" s="14"/>
+      <c r="D444" s="13"/>
     </row>
     <row r="445" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B445" s="2"/>
-      <c r="D445" s="14"/>
+      <c r="D445" s="13"/>
     </row>
     <row r="446" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B446" s="2"/>
-      <c r="D446" s="14"/>
+      <c r="D446" s="13"/>
     </row>
     <row r="447" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B447" s="2"/>
-      <c r="D447" s="14"/>
+      <c r="D447" s="13"/>
     </row>
     <row r="448" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B448" s="2"/>
-      <c r="D448" s="14"/>
+      <c r="D448" s="13"/>
     </row>
     <row r="449" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B449" s="2"/>
-      <c r="D449" s="14"/>
+      <c r="D449" s="13"/>
     </row>
     <row r="450" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B450" s="2"/>
-      <c r="D450" s="14"/>
+      <c r="D450" s="13"/>
     </row>
     <row r="451" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B451" s="2"/>
-      <c r="D451" s="14"/>
+      <c r="D451" s="13"/>
     </row>
     <row r="452" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B452" s="2"/>
-      <c r="D452" s="14"/>
+      <c r="D452" s="13"/>
     </row>
     <row r="453" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B453" s="2"/>
-      <c r="D453" s="14"/>
+      <c r="D453" s="13"/>
     </row>
     <row r="454" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B454" s="2"/>
-      <c r="D454" s="14"/>
+      <c r="D454" s="13"/>
     </row>
     <row r="455" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B455" s="2"/>
-      <c r="D455" s="14"/>
+      <c r="D455" s="13"/>
     </row>
     <row r="456" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B456" s="2"/>
-      <c r="D456" s="14"/>
+      <c r="D456" s="13"/>
     </row>
     <row r="457" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B457" s="2"/>
-      <c r="D457" s="14"/>
+      <c r="D457" s="13"/>
     </row>
     <row r="458" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B458" s="2"/>
-      <c r="D458" s="14"/>
+      <c r="D458" s="13"/>
     </row>
     <row r="459" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B459" s="2"/>
-      <c r="D459" s="14"/>
+      <c r="D459" s="13"/>
     </row>
     <row r="460" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B460" s="2"/>
-      <c r="D460" s="14"/>
+      <c r="D460" s="13"/>
     </row>
     <row r="461" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B461" s="2"/>
-      <c r="D461" s="14"/>
+      <c r="D461" s="13"/>
     </row>
     <row r="462" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B462" s="2"/>
-      <c r="D462" s="14"/>
+      <c r="D462" s="13"/>
     </row>
     <row r="463" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B463" s="2"/>
-      <c r="D463" s="14"/>
+      <c r="D463" s="13"/>
     </row>
     <row r="464" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B464" s="2"/>
-      <c r="D464" s="14"/>
+      <c r="D464" s="13"/>
     </row>
     <row r="465" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B465" s="2"/>
-      <c r="D465" s="14"/>
+      <c r="D465" s="13"/>
     </row>
     <row r="466" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B466" s="2"/>
-      <c r="D466" s="14"/>
+      <c r="D466" s="13"/>
     </row>
     <row r="467" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B467" s="2"/>
-      <c r="D467" s="14"/>
+      <c r="D467" s="13"/>
     </row>
     <row r="468" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B468" s="2"/>
-      <c r="D468" s="14"/>
+      <c r="D468" s="13"/>
     </row>
     <row r="469" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B469" s="2"/>
-      <c r="D469" s="14"/>
+      <c r="D469" s="13"/>
     </row>
     <row r="470" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B470" s="2"/>
-      <c r="D470" s="14"/>
+      <c r="D470" s="13"/>
     </row>
     <row r="471" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B471" s="2"/>
-      <c r="D471" s="14"/>
+      <c r="D471" s="13"/>
     </row>
     <row r="472" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B472" s="2"/>
-      <c r="D472" s="14"/>
+      <c r="D472" s="13"/>
     </row>
     <row r="473" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B473" s="2"/>
-      <c r="D473" s="14"/>
+      <c r="D473" s="13"/>
     </row>
     <row r="474" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B474" s="2"/>
-      <c r="D474" s="14"/>
+      <c r="D474" s="13"/>
     </row>
     <row r="475" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B475" s="2"/>
-      <c r="D475" s="14"/>
+      <c r="D475" s="13"/>
     </row>
     <row r="476" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B476" s="2"/>
-      <c r="D476" s="14"/>
+      <c r="D476" s="13"/>
     </row>
     <row r="477" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B477" s="2"/>
-      <c r="D477" s="14"/>
+      <c r="D477" s="13"/>
     </row>
     <row r="478" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B478" s="2"/>
-      <c r="D478" s="14"/>
+      <c r="D478" s="13"/>
     </row>
     <row r="479" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B479" s="2"/>
-      <c r="D479" s="14"/>
+      <c r="D479" s="13"/>
     </row>
     <row r="480" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B480" s="2"/>
-      <c r="D480" s="14"/>
+      <c r="D480" s="13"/>
     </row>
     <row r="481" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B481" s="2"/>
-      <c r="D481" s="14"/>
+      <c r="D481" s="13"/>
     </row>
     <row r="482" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B482" s="2"/>
-      <c r="D482" s="14"/>
+      <c r="D482" s="13"/>
     </row>
     <row r="483" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B483" s="2"/>
-      <c r="D483" s="14"/>
+      <c r="D483" s="13"/>
     </row>
     <row r="484" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B484" s="2"/>
-      <c r="D484" s="14"/>
+      <c r="D484" s="13"/>
     </row>
     <row r="485" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B485" s="2"/>
-      <c r="D485" s="14"/>
+      <c r="D485" s="13"/>
     </row>
     <row r="486" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B486" s="2"/>
-      <c r="D486" s="14"/>
+      <c r="D486" s="13"/>
     </row>
     <row r="487" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B487" s="2"/>
-      <c r="D487" s="14"/>
+      <c r="D487" s="13"/>
     </row>
     <row r="488" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B488" s="2"/>
-      <c r="D488" s="14"/>
+      <c r="D488" s="13"/>
     </row>
     <row r="489" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B489" s="2"/>
-      <c r="D489" s="14"/>
+      <c r="D489" s="13"/>
     </row>
     <row r="490" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B490" s="2"/>
-      <c r="D490" s="14"/>
+      <c r="D490" s="13"/>
     </row>
     <row r="491" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B491" s="2"/>
-      <c r="D491" s="14"/>
+      <c r="D491" s="13"/>
     </row>
     <row r="492" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B492" s="2"/>
-      <c r="D492" s="14"/>
+      <c r="D492" s="13"/>
     </row>
     <row r="493" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B493" s="2"/>
-      <c r="D493" s="14"/>
+      <c r="D493" s="13"/>
     </row>
     <row r="494" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B494" s="2"/>
-      <c r="D494" s="14"/>
+      <c r="D494" s="13"/>
     </row>
     <row r="495" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B495" s="2"/>
-      <c r="D495" s="14"/>
+      <c r="D495" s="13"/>
     </row>
     <row r="496" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B496" s="2"/>
-      <c r="D496" s="14"/>
+      <c r="D496" s="13"/>
     </row>
     <row r="497" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B497" s="2"/>
-      <c r="D497" s="14"/>
+      <c r="D497" s="13"/>
     </row>
     <row r="498" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B498" s="2"/>
-      <c r="D498" s="14"/>
+      <c r="D498" s="13"/>
     </row>
     <row r="499" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B499" s="2"/>
-      <c r="D499" s="14"/>
+      <c r="D499" s="13"/>
     </row>
     <row r="500" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B500" s="2"/>
-      <c r="D500" s="14"/>
+      <c r="D500" s="13"/>
     </row>
     <row r="501" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B501" s="2"/>
-      <c r="D501" s="14"/>
+      <c r="D501" s="13"/>
     </row>
     <row r="502" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B502" s="2"/>
-      <c r="D502" s="14"/>
+      <c r="D502" s="13"/>
     </row>
     <row r="503" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B503" s="2"/>
-      <c r="D503" s="14"/>
+      <c r="D503" s="13"/>
     </row>
     <row r="504" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B504" s="2"/>
-      <c r="D504" s="14"/>
+      <c r="D504" s="13"/>
     </row>
     <row r="505" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B505" s="2"/>
-      <c r="D505" s="14"/>
+      <c r="D505" s="13"/>
     </row>
     <row r="506" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B506" s="2"/>
-      <c r="D506" s="14"/>
+      <c r="D506" s="13"/>
     </row>
     <row r="507" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B507" s="2"/>
-      <c r="D507" s="14"/>
+      <c r="D507" s="13"/>
     </row>
     <row r="508" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B508" s="2"/>
-      <c r="D508" s="14"/>
+      <c r="D508" s="13"/>
     </row>
     <row r="509" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B509" s="2"/>
-      <c r="D509" s="14"/>
+      <c r="D509" s="13"/>
     </row>
     <row r="510" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B510" s="2"/>
-      <c r="D510" s="14"/>
+      <c r="D510" s="13"/>
     </row>
     <row r="511" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B511" s="2"/>
-      <c r="D511" s="14"/>
+      <c r="D511" s="13"/>
     </row>
     <row r="512" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B512" s="2"/>
-      <c r="D512" s="14"/>
+      <c r="D512" s="13"/>
     </row>
     <row r="513" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B513" s="2"/>
-      <c r="D513" s="14"/>
+      <c r="D513" s="13"/>
     </row>
     <row r="514" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B514" s="2"/>
-      <c r="D514" s="14"/>
+      <c r="D514" s="13"/>
     </row>
     <row r="515" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B515" s="2"/>
-      <c r="D515" s="14"/>
+      <c r="D515" s="13"/>
     </row>
     <row r="516" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B516" s="2"/>
-      <c r="D516" s="14"/>
+      <c r="D516" s="13"/>
     </row>
     <row r="517" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B517" s="2"/>
-      <c r="D517" s="14"/>
+      <c r="D517" s="13"/>
     </row>
     <row r="518" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B518" s="2"/>
-      <c r="D518" s="14"/>
+      <c r="D518" s="13"/>
     </row>
     <row r="519" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B519" s="2"/>
-      <c r="D519" s="14"/>
+      <c r="D519" s="13"/>
     </row>
     <row r="520" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B520" s="2"/>
-      <c r="D520" s="14"/>
+      <c r="D520" s="13"/>
     </row>
     <row r="521" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B521" s="2"/>
-      <c r="D521" s="14"/>
+      <c r="D521" s="13"/>
     </row>
     <row r="522" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B522" s="2"/>
-      <c r="D522" s="14"/>
+      <c r="D522" s="13"/>
     </row>
     <row r="523" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B523" s="2"/>
-      <c r="D523" s="14"/>
+      <c r="D523" s="13"/>
     </row>
     <row r="524" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B524" s="2"/>
-      <c r="D524" s="14"/>
+      <c r="D524" s="13"/>
     </row>
     <row r="525" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B525" s="2"/>
-      <c r="D525" s="14"/>
+      <c r="D525" s="13"/>
     </row>
     <row r="526" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B526" s="2"/>
-      <c r="D526" s="14"/>
+      <c r="D526" s="13"/>
     </row>
     <row r="527" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B527" s="2"/>
-      <c r="D527" s="14"/>
+      <c r="D527" s="13"/>
     </row>
     <row r="528" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B528" s="2"/>
-      <c r="D528" s="14"/>
+      <c r="D528" s="13"/>
     </row>
     <row r="529" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B529" s="2"/>
-      <c r="D529" s="14"/>
+      <c r="D529" s="13"/>
     </row>
     <row r="530" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B530" s="2"/>
-      <c r="D530" s="14"/>
+      <c r="D530" s="13"/>
     </row>
     <row r="531" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B531" s="2"/>
-      <c r="D531" s="14"/>
+      <c r="D531" s="13"/>
     </row>
     <row r="532" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B532" s="2"/>
-      <c r="D532" s="14"/>
+      <c r="D532" s="13"/>
     </row>
     <row r="533" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B533" s="2"/>
-      <c r="D533" s="14"/>
+      <c r="D533" s="13"/>
     </row>
     <row r="534" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B534" s="2"/>
-      <c r="D534" s="14"/>
+      <c r="D534" s="13"/>
     </row>
     <row r="535" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B535" s="2"/>
-      <c r="D535" s="14"/>
+      <c r="D535" s="13"/>
     </row>
     <row r="536" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B536" s="2"/>
-      <c r="D536" s="14"/>
+      <c r="D536" s="13"/>
     </row>
     <row r="537" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B537" s="2"/>
-      <c r="D537" s="14"/>
+      <c r="D537" s="13"/>
     </row>
     <row r="538" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B538" s="2"/>
-      <c r="D538" s="14"/>
+      <c r="D538" s="13"/>
     </row>
     <row r="539" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B539" s="2"/>
-      <c r="D539" s="14"/>
+      <c r="D539" s="13"/>
     </row>
     <row r="540" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B540" s="2"/>
-      <c r="D540" s="14"/>
+      <c r="D540" s="13"/>
     </row>
     <row r="541" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B541" s="2"/>
-      <c r="D541" s="14"/>
+      <c r="D541" s="13"/>
     </row>
     <row r="542" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B542" s="2"/>
-      <c r="D542" s="14"/>
+      <c r="D542" s="13"/>
     </row>
     <row r="543" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B543" s="2"/>
-      <c r="D543" s="14"/>
+      <c r="D543" s="13"/>
     </row>
     <row r="544" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B544" s="2"/>
-      <c r="D544" s="14"/>
+      <c r="D544" s="13"/>
     </row>
     <row r="545" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B545" s="2"/>
-      <c r="D545" s="14"/>
+      <c r="D545" s="13"/>
     </row>
     <row r="546" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B546" s="2"/>
-      <c r="D546" s="14"/>
+      <c r="D546" s="13"/>
     </row>
     <row r="547" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B547" s="2"/>
-      <c r="D547" s="14"/>
+      <c r="D547" s="13"/>
     </row>
     <row r="548" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B548" s="2"/>
-      <c r="D548" s="14"/>
+      <c r="D548" s="13"/>
     </row>
     <row r="549" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B549" s="2"/>
-      <c r="D549" s="14"/>
+      <c r="D549" s="13"/>
     </row>
     <row r="550" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B550" s="2"/>
-      <c r="D550" s="14"/>
+      <c r="D550" s="13"/>
     </row>
     <row r="551" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B551" s="2"/>
-      <c r="D551" s="14"/>
+      <c r="D551" s="13"/>
     </row>
     <row r="552" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B552" s="2"/>
-      <c r="D552" s="14"/>
+      <c r="D552" s="13"/>
     </row>
     <row r="553" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B553" s="2"/>
-      <c r="D553" s="14"/>
+      <c r="D553" s="13"/>
     </row>
     <row r="554" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B554" s="2"/>
-      <c r="D554" s="14"/>
+      <c r="D554" s="13"/>
     </row>
     <row r="555" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B555" s="2"/>
-      <c r="D555" s="14"/>
+      <c r="D555" s="13"/>
     </row>
     <row r="556" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B556" s="2"/>
-      <c r="D556" s="14"/>
+      <c r="D556" s="13"/>
     </row>
     <row r="557" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B557" s="2"/>
-      <c r="D557" s="14"/>
+      <c r="D557" s="13"/>
     </row>
     <row r="558" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B558" s="2"/>
-      <c r="D558" s="14"/>
+      <c r="D558" s="13"/>
     </row>
     <row r="559" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B559" s="2"/>
-      <c r="D559" s="14"/>
+      <c r="D559" s="13"/>
     </row>
     <row r="560" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B560" s="2"/>
-      <c r="D560" s="14"/>
+      <c r="D560" s="13"/>
     </row>
     <row r="561" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B561" s="2"/>
-      <c r="D561" s="14"/>
+      <c r="D561" s="13"/>
     </row>
     <row r="562" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B562" s="2"/>
-      <c r="D562" s="14"/>
+      <c r="D562" s="13"/>
     </row>
     <row r="563" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B563" s="2"/>
-      <c r="D563" s="14"/>
+      <c r="D563" s="13"/>
     </row>
     <row r="564" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B564" s="2"/>
-      <c r="D564" s="14"/>
+      <c r="D564" s="13"/>
     </row>
     <row r="565" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B565" s="2"/>
-      <c r="D565" s="14"/>
+      <c r="D565" s="13"/>
     </row>
     <row r="566" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B566" s="2"/>
-      <c r="D566" s="14"/>
+      <c r="D566" s="13"/>
     </row>
     <row r="567" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B567" s="2"/>
-      <c r="D567" s="14"/>
+      <c r="D567" s="13"/>
     </row>
     <row r="568" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B568" s="2"/>
-      <c r="D568" s="14"/>
+      <c r="D568" s="13"/>
     </row>
     <row r="569" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B569" s="2"/>
-      <c r="D569" s="14"/>
+      <c r="D569" s="13"/>
     </row>
     <row r="570" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B570" s="2"/>
-      <c r="D570" s="14"/>
+      <c r="D570" s="13"/>
     </row>
     <row r="571" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B571" s="2"/>
-      <c r="D571" s="14"/>
+      <c r="D571" s="13"/>
     </row>
     <row r="572" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B572" s="2"/>
-      <c r="D572" s="14"/>
+      <c r="D572" s="13"/>
     </row>
     <row r="573" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B573" s="2"/>
-      <c r="D573" s="14"/>
+      <c r="D573" s="13"/>
     </row>
     <row r="574" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B574" s="2"/>
-      <c r="D574" s="14"/>
+      <c r="D574" s="13"/>
     </row>
     <row r="575" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B575" s="2"/>
-      <c r="D575" s="14"/>
+      <c r="D575" s="13"/>
     </row>
     <row r="576" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B576" s="2"/>
-      <c r="D576" s="14"/>
+      <c r="D576" s="13"/>
     </row>
     <row r="577" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B577" s="2"/>
-      <c r="D577" s="14"/>
+      <c r="D577" s="13"/>
     </row>
     <row r="578" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B578" s="2"/>
-      <c r="D578" s="14"/>
+      <c r="D578" s="13"/>
     </row>
     <row r="579" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B579" s="2"/>
-      <c r="D579" s="14"/>
+      <c r="D579" s="13"/>
     </row>
     <row r="580" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B580" s="2"/>
-      <c r="D580" s="14"/>
+      <c r="D580" s="13"/>
     </row>
     <row r="581" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B581" s="2"/>
-      <c r="D581" s="14"/>
+      <c r="D581" s="13"/>
     </row>
     <row r="582" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B582" s="2"/>
-      <c r="D582" s="14"/>
+      <c r="D582" s="13"/>
     </row>
     <row r="583" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B583" s="2"/>
-      <c r="D583" s="14"/>
+      <c r="D583" s="13"/>
     </row>
     <row r="584" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B584" s="2"/>
-      <c r="D584" s="14"/>
+      <c r="D584" s="13"/>
     </row>
     <row r="585" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B585" s="2"/>
-      <c r="D585" s="14"/>
+      <c r="D585" s="13"/>
     </row>
     <row r="586" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B586" s="2"/>
-      <c r="D586" s="14"/>
+      <c r="D586" s="13"/>
     </row>
     <row r="587" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B587" s="2"/>
-      <c r="D587" s="14"/>
+      <c r="D587" s="13"/>
     </row>
     <row r="588" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B588" s="2"/>
-      <c r="D588" s="14"/>
+      <c r="D588" s="13"/>
     </row>
     <row r="589" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B589" s="2"/>
-      <c r="D589" s="14"/>
+      <c r="D589" s="13"/>
     </row>
     <row r="590" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B590" s="2"/>
-      <c r="D590" s="14"/>
+      <c r="D590" s="13"/>
     </row>
     <row r="591" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B591" s="2"/>
-      <c r="D591" s="14"/>
+      <c r="D591" s="13"/>
     </row>
     <row r="592" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B592" s="2"/>
-      <c r="D592" s="14"/>
+      <c r="D592" s="13"/>
     </row>
     <row r="593" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B593" s="2"/>
-      <c r="D593" s="14"/>
+      <c r="D593" s="13"/>
     </row>
     <row r="594" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B594" s="2"/>
-      <c r="D594" s="14"/>
+      <c r="D594" s="13"/>
     </row>
     <row r="595" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B595" s="2"/>
-      <c r="D595" s="14"/>
+      <c r="D595" s="13"/>
     </row>
     <row r="596" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B596" s="2"/>
-      <c r="D596" s="14"/>
+      <c r="D596" s="13"/>
     </row>
     <row r="597" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B597" s="2"/>
-      <c r="D597" s="14"/>
+      <c r="D597" s="13"/>
     </row>
     <row r="598" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B598" s="2"/>
-      <c r="D598" s="14"/>
+      <c r="D598" s="13"/>
     </row>
     <row r="599" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B599" s="2"/>
-      <c r="D599" s="14"/>
+      <c r="D599" s="13"/>
     </row>
     <row r="600" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B600" s="2"/>
-      <c r="D600" s="14"/>
+      <c r="D600" s="13"/>
     </row>
     <row r="601" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B601" s="2"/>
-      <c r="D601" s="14"/>
+      <c r="D601" s="13"/>
     </row>
     <row r="602" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B602" s="2"/>
-      <c r="D602" s="14"/>
+      <c r="D602" s="13"/>
     </row>
     <row r="603" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B603" s="2"/>
-      <c r="D603" s="14"/>
+      <c r="D603" s="13"/>
     </row>
     <row r="604" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B604" s="2"/>
-      <c r="D604" s="14"/>
+      <c r="D604" s="13"/>
     </row>
     <row r="605" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B605" s="2"/>
-      <c r="D605" s="14"/>
+      <c r="D605" s="13"/>
     </row>
     <row r="606" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B606" s="2"/>
-      <c r="D606" s="14"/>
+      <c r="D606" s="13"/>
     </row>
     <row r="607" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B607" s="2"/>
-      <c r="D607" s="14"/>
+      <c r="D607" s="13"/>
     </row>
     <row r="608" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B608" s="2"/>
-      <c r="D608" s="14"/>
+      <c r="D608" s="13"/>
     </row>
     <row r="609" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B609" s="2"/>
-      <c r="D609" s="14"/>
+      <c r="D609" s="13"/>
     </row>
     <row r="610" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B610" s="2"/>
-      <c r="D610" s="14"/>
+      <c r="D610" s="13"/>
     </row>
     <row r="611" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B611" s="2"/>
-      <c r="D611" s="14"/>
+      <c r="D611" s="13"/>
     </row>
     <row r="612" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B612" s="2"/>
-      <c r="D612" s="14"/>
+      <c r="D612" s="13"/>
     </row>
     <row r="613" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B613" s="2"/>
-      <c r="D613" s="14"/>
+      <c r="D613" s="13"/>
     </row>
     <row r="614" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B614" s="2"/>
-      <c r="D614" s="14"/>
+      <c r="D614" s="13"/>
     </row>
     <row r="615" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B615" s="2"/>
-      <c r="D615" s="14"/>
+      <c r="D615" s="13"/>
     </row>
     <row r="616" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B616" s="2"/>
-      <c r="D616" s="14"/>
+      <c r="D616" s="13"/>
     </row>
     <row r="617" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B617" s="2"/>
-      <c r="D617" s="14"/>
+      <c r="D617" s="13"/>
     </row>
     <row r="618" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B618" s="2"/>
-      <c r="D618" s="14"/>
+      <c r="D618" s="13"/>
     </row>
     <row r="619" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B619" s="2"/>
-      <c r="D619" s="14"/>
+      <c r="D619" s="13"/>
     </row>
     <row r="620" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B620" s="2"/>
-      <c r="D620" s="14"/>
+      <c r="D620" s="13"/>
     </row>
     <row r="621" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B621" s="2"/>
-      <c r="D621" s="14"/>
+      <c r="D621" s="13"/>
     </row>
     <row r="622" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B622" s="2"/>
-      <c r="D622" s="14"/>
+      <c r="D622" s="13"/>
     </row>
     <row r="623" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B623" s="2"/>
-      <c r="D623" s="14"/>
+      <c r="D623" s="13"/>
     </row>
     <row r="624" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B624" s="2"/>
-      <c r="D624" s="14"/>
+      <c r="D624" s="13"/>
     </row>
     <row r="625" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B625" s="2"/>
-      <c r="D625" s="14"/>
+      <c r="D625" s="13"/>
     </row>
     <row r="626" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B626" s="2"/>
-      <c r="D626" s="14"/>
+      <c r="D626" s="13"/>
     </row>
     <row r="627" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B627" s="2"/>
-      <c r="D627" s="14"/>
+      <c r="D627" s="13"/>
     </row>
     <row r="628" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B628" s="2"/>
-      <c r="D628" s="14"/>
+      <c r="D628" s="13"/>
     </row>
     <row r="629" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B629" s="2"/>
-      <c r="D629" s="14"/>
+      <c r="D629" s="13"/>
     </row>
     <row r="630" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B630" s="2"/>
-      <c r="D630" s="14"/>
+      <c r="D630" s="13"/>
     </row>
     <row r="631" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B631" s="2"/>
-      <c r="D631" s="14"/>
+      <c r="D631" s="13"/>
     </row>
     <row r="632" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B632" s="2"/>
-      <c r="D632" s="14"/>
+      <c r="D632" s="13"/>
     </row>
     <row r="633" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B633" s="2"/>
-      <c r="D633" s="14"/>
+      <c r="D633" s="13"/>
     </row>
     <row r="634" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B634" s="2"/>
-      <c r="D634" s="14"/>
+      <c r="D634" s="13"/>
     </row>
     <row r="635" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B635" s="2"/>
-      <c r="D635" s="14"/>
+      <c r="D635" s="13"/>
     </row>
     <row r="636" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B636" s="2"/>
-      <c r="D636" s="14"/>
+      <c r="D636" s="13"/>
     </row>
     <row r="637" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B637" s="2"/>
-      <c r="D637" s="14"/>
+      <c r="D637" s="13"/>
     </row>
     <row r="638" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B638" s="2"/>
-      <c r="D638" s="14"/>
+      <c r="D638" s="13"/>
     </row>
     <row r="639" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B639" s="2"/>
-      <c r="D639" s="14"/>
+      <c r="D639" s="13"/>
     </row>
     <row r="640" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B640" s="2"/>
-      <c r="D640" s="14"/>
+      <c r="D640" s="13"/>
     </row>
     <row r="641" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B641" s="2"/>
-      <c r="D641" s="14"/>
+      <c r="D641" s="13"/>
     </row>
     <row r="642" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B642" s="2"/>
-      <c r="D642" s="14"/>
+      <c r="D642" s="13"/>
     </row>
     <row r="643" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B643" s="2"/>
-      <c r="D643" s="14"/>
+      <c r="D643" s="13"/>
     </row>
     <row r="644" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B644" s="2"/>
-      <c r="D644" s="14"/>
+      <c r="D644" s="13"/>
     </row>
     <row r="645" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B645" s="2"/>
-      <c r="D645" s="14"/>
+      <c r="D645" s="13"/>
     </row>
     <row r="646" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B646" s="2"/>
-      <c r="D646" s="14"/>
+      <c r="D646" s="13"/>
     </row>
     <row r="647" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B647" s="2"/>
-      <c r="D647" s="14"/>
+      <c r="D647" s="13"/>
     </row>
     <row r="648" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B648" s="2"/>
-      <c r="D648" s="14"/>
+      <c r="D648" s="13"/>
     </row>
     <row r="649" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B649" s="2"/>
-      <c r="D649" s="14"/>
+      <c r="D649" s="13"/>
     </row>
     <row r="650" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B650" s="2"/>
-      <c r="D650" s="14"/>
+      <c r="D650" s="13"/>
     </row>
     <row r="651" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B651" s="2"/>
-      <c r="D651" s="14"/>
+      <c r="D651" s="13"/>
     </row>
     <row r="652" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B652" s="2"/>
-      <c r="D652" s="14"/>
+      <c r="D652" s="13"/>
     </row>
     <row r="653" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B653" s="2"/>
-      <c r="D653" s="14"/>
+      <c r="D653" s="13"/>
     </row>
     <row r="654" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B654" s="2"/>
-      <c r="D654" s="14"/>
+      <c r="D654" s="13"/>
     </row>
     <row r="655" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B655" s="2"/>
-      <c r="D655" s="14"/>
+      <c r="D655" s="13"/>
     </row>
     <row r="656" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B656" s="2"/>
-      <c r="D656" s="14"/>
+      <c r="D656" s="13"/>
     </row>
     <row r="657" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B657" s="2"/>
-      <c r="D657" s="14"/>
+      <c r="D657" s="13"/>
     </row>
     <row r="658" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B658" s="2"/>
-      <c r="D658" s="14"/>
+      <c r="D658" s="13"/>
     </row>
     <row r="659" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B659" s="2"/>
-      <c r="D659" s="14"/>
+      <c r="D659" s="13"/>
     </row>
     <row r="660" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B660" s="2"/>
-      <c r="D660" s="14"/>
+      <c r="D660" s="13"/>
     </row>
     <row r="661" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B661" s="2"/>
-      <c r="D661" s="14"/>
+      <c r="D661" s="13"/>
     </row>
     <row r="662" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B662" s="2"/>
-      <c r="D662" s="14"/>
+      <c r="D662" s="13"/>
     </row>
     <row r="663" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B663" s="2"/>
-      <c r="D663" s="14"/>
+      <c r="D663" s="13"/>
     </row>
     <row r="664" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B664" s="2"/>
-      <c r="D664" s="14"/>
+      <c r="D664" s="13"/>
     </row>
     <row r="665" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B665" s="2"/>
-      <c r="D665" s="14"/>
+      <c r="D665" s="13"/>
     </row>
     <row r="666" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B666" s="2"/>
-      <c r="D666" s="14"/>
+      <c r="D666" s="13"/>
     </row>
     <row r="667" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B667" s="2"/>
-      <c r="D667" s="14"/>
+      <c r="D667" s="13"/>
     </row>
     <row r="668" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B668" s="2"/>
-      <c r="D668" s="14"/>
+      <c r="D668" s="13"/>
     </row>
     <row r="669" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B669" s="2"/>
-      <c r="D669" s="14"/>
+      <c r="D669" s="13"/>
     </row>
     <row r="670" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B670" s="2"/>
-      <c r="D670" s="14"/>
+      <c r="D670" s="13"/>
     </row>
     <row r="671" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B671" s="2"/>
-      <c r="D671" s="14"/>
+      <c r="D671" s="13"/>
     </row>
     <row r="672" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B672" s="2"/>
-      <c r="D672" s="14"/>
+      <c r="D672" s="13"/>
     </row>
     <row r="673" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B673" s="2"/>
-      <c r="D673" s="14"/>
+      <c r="D673" s="13"/>
     </row>
     <row r="674" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B674" s="2"/>
-      <c r="D674" s="14"/>
+      <c r="D674" s="13"/>
     </row>
     <row r="675" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B675" s="2"/>
-      <c r="D675" s="14"/>
+      <c r="D675" s="13"/>
     </row>
     <row r="676" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B676" s="2"/>
-      <c r="D676" s="14"/>
+      <c r="D676" s="13"/>
     </row>
     <row r="677" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B677" s="2"/>
-      <c r="D677" s="14"/>
+      <c r="D677" s="13"/>
     </row>
     <row r="678" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B678" s="2"/>
-      <c r="D678" s="14"/>
+      <c r="D678" s="13"/>
     </row>
     <row r="679" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B679" s="2"/>
-      <c r="D679" s="14"/>
+      <c r="D679" s="13"/>
     </row>
     <row r="680" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B680" s="2"/>
-      <c r="D680" s="14"/>
+      <c r="D680" s="13"/>
     </row>
     <row r="681" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B681" s="2"/>
-      <c r="D681" s="14"/>
+      <c r="D681" s="13"/>
     </row>
     <row r="682" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B682" s="2"/>
-      <c r="D682" s="14"/>
+      <c r="D682" s="13"/>
     </row>
     <row r="683" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B683" s="2"/>
-      <c r="D683" s="14"/>
+      <c r="D683" s="13"/>
     </row>
     <row r="684" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B684" s="2"/>
-      <c r="D684" s="14"/>
+      <c r="D684" s="13"/>
     </row>
     <row r="685" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B685" s="2"/>
-      <c r="D685" s="14"/>
+      <c r="D685" s="13"/>
     </row>
     <row r="686" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B686" s="2"/>
-      <c r="D686" s="14"/>
+      <c r="D686" s="13"/>
     </row>
     <row r="687" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B687" s="2"/>
-      <c r="D687" s="14"/>
+      <c r="D687" s="13"/>
     </row>
     <row r="688" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B688" s="2"/>
-      <c r="D688" s="14"/>
+      <c r="D688" s="13"/>
     </row>
     <row r="689" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B689" s="2"/>
-      <c r="D689" s="14"/>
+      <c r="D689" s="13"/>
     </row>
     <row r="690" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B690" s="2"/>
-      <c r="D690" s="14"/>
+      <c r="D690" s="13"/>
     </row>
     <row r="691" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B691" s="2"/>
-      <c r="D691" s="14"/>
+      <c r="D691" s="13"/>
     </row>
     <row r="692" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B692" s="2"/>
-      <c r="D692" s="14"/>
+      <c r="D692" s="13"/>
     </row>
     <row r="693" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B693" s="2"/>
-      <c r="D693" s="14"/>
+      <c r="D693" s="13"/>
     </row>
     <row r="694" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B694" s="2"/>
-      <c r="D694" s="14"/>
+      <c r="D694" s="13"/>
     </row>
     <row r="695" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B695" s="2"/>
-      <c r="D695" s="14"/>
+      <c r="D695" s="13"/>
     </row>
     <row r="696" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B696" s="2"/>
-      <c r="D696" s="14"/>
+      <c r="D696" s="13"/>
     </row>
     <row r="697" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B697" s="2"/>
-      <c r="D697" s="14"/>
+      <c r="D697" s="13"/>
     </row>
     <row r="698" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B698" s="2"/>
-      <c r="D698" s="14"/>
+      <c r="D698" s="13"/>
     </row>
     <row r="699" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B699" s="2"/>
-      <c r="D699" s="14"/>
+      <c r="D699" s="13"/>
     </row>
     <row r="700" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B700" s="2"/>
-      <c r="D700" s="14"/>
+      <c r="D700" s="13"/>
     </row>
     <row r="701" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B701" s="2"/>
-      <c r="D701" s="14"/>
+      <c r="D701" s="13"/>
     </row>
     <row r="702" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B702" s="2"/>
-      <c r="D702" s="14"/>
+      <c r="D702" s="13"/>
     </row>
     <row r="703" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B703" s="2"/>
-      <c r="D703" s="14"/>
+      <c r="D703" s="13"/>
     </row>
     <row r="704" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B704" s="2"/>
-      <c r="D704" s="14"/>
+      <c r="D704" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
